--- a/conver2woff/子集拆分范围.xlsx
+++ b/conver2woff/子集拆分范围.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Documents/GitHub/openfonts/conver2woff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CED84F-8BF5-4A46-8415-45A1F0A740D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCB9A57-43B6-2A46-943B-7106E017032A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14480" activeTab="4" xr2:uid="{20B84CF7-0800-ED44-83F1-35851521E027}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="1067">
   <si>
     <t>子集名</t>
   </si>
@@ -2098,193 +2098,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>subset_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subset_02</t>
-  </si>
-  <si>
-    <t>subset_03</t>
-  </si>
-  <si>
-    <t>subset_04</t>
-  </si>
-  <si>
-    <t>subset_05</t>
-  </si>
-  <si>
-    <t>subset_06</t>
-  </si>
-  <si>
-    <t>subset_07</t>
-  </si>
-  <si>
-    <t>subset_08</t>
-  </si>
-  <si>
-    <t>subset_09</t>
-  </si>
-  <si>
-    <t>subset_10</t>
-  </si>
-  <si>
-    <t>subset_11</t>
-  </si>
-  <si>
-    <t>subset_12</t>
-  </si>
-  <si>
-    <t>subset_13</t>
-  </si>
-  <si>
-    <t>subset_14</t>
-  </si>
-  <si>
-    <t>subset_15</t>
-  </si>
-  <si>
-    <t>subset_16</t>
-  </si>
-  <si>
-    <t>subset_17</t>
-  </si>
-  <si>
-    <t>subset_18</t>
-  </si>
-  <si>
-    <t>subset_19</t>
-  </si>
-  <si>
-    <t>subset_20</t>
-  </si>
-  <si>
-    <t>subset_21</t>
-  </si>
-  <si>
-    <t>subset_22</t>
-  </si>
-  <si>
-    <t>subset_23</t>
-  </si>
-  <si>
-    <t>subset_24</t>
-  </si>
-  <si>
-    <t>subset_25</t>
-  </si>
-  <si>
-    <t>subset_26</t>
-  </si>
-  <si>
-    <t>subset_27</t>
-  </si>
-  <si>
-    <t>subset_28</t>
-  </si>
-  <si>
-    <t>subset_29</t>
-  </si>
-  <si>
-    <t>subset_30</t>
-  </si>
-  <si>
-    <t>subset_31</t>
-  </si>
-  <si>
-    <t>subset_32</t>
-  </si>
-  <si>
-    <t>subset_33</t>
-  </si>
-  <si>
-    <t>subset_34</t>
-  </si>
-  <si>
-    <t>subset_35</t>
-  </si>
-  <si>
-    <t>subset_36</t>
-  </si>
-  <si>
-    <t>subset_37</t>
-  </si>
-  <si>
-    <t>subset_38</t>
-  </si>
-  <si>
-    <t>subset_39</t>
-  </si>
-  <si>
-    <t>subset_40</t>
-  </si>
-  <si>
-    <t>subset_41</t>
-  </si>
-  <si>
-    <t>subset_42</t>
-  </si>
-  <si>
-    <t>subset_43</t>
-  </si>
-  <si>
-    <t>subset_44</t>
-  </si>
-  <si>
-    <t>subset_45</t>
-  </si>
-  <si>
-    <t>subset_46</t>
-  </si>
-  <si>
-    <t>subset_47</t>
-  </si>
-  <si>
-    <t>subset_48</t>
-  </si>
-  <si>
-    <t>subset_49</t>
-  </si>
-  <si>
-    <t>subset_50</t>
-  </si>
-  <si>
-    <t>subset_51</t>
-  </si>
-  <si>
-    <t>subset_52</t>
-  </si>
-  <si>
-    <t>subset_53</t>
-  </si>
-  <si>
-    <t>subset_54</t>
-  </si>
-  <si>
-    <t>subset_55</t>
-  </si>
-  <si>
-    <t>subset_56</t>
-  </si>
-  <si>
-    <t>subset_57</t>
-  </si>
-  <si>
-    <t>subset_58</t>
-  </si>
-  <si>
-    <t>subset_59</t>
-  </si>
-  <si>
-    <t>subset_60</t>
-  </si>
-  <si>
-    <t>subset_61</t>
-  </si>
-  <si>
-    <t>subset_62</t>
-  </si>
-  <si>
     <t>subset_63</t>
   </si>
   <si>
@@ -2400,144 +2213,6 @@
   </si>
   <si>
     <t>subset_101</t>
-  </si>
-  <si>
-    <t>U+8cbd,U+8cbf-8cc4,U+8cc7-8cc8,U+8cca,U+8ccd,U+8cd1,U+8cd3,U+8cdb-8cdc,U+8cde,U+8ce0,U+8ce2-8ce4,U+8ce6-8ce8,U+8cea,U+8ced,U+8cf4,U+8cf8,U+8cfa,U+8cfc-8cfd,U+8d04-8d05,U+8d07-8d08,U+8d0a,U+8d0d,U+8d0f,U+8d13-8d14,U+8d16,U+8d1b,U+8d20,U+8d30,U+8d32-8d33,U+8d36,U+8d3b,U+8d3d,U+8d40,U+8d42-8d43,U+8d45-8d46,U+8d48-8d4a,U+8d4d,U+8d51,U+8d53,U+8d55,U+8d59,U+8d5c-8d5d,U+8d5f,U+8d61,U+8d66-8d67,U+8d6a,U+8d6d,U+8d71,U+8d73,U+8d84,U+8d90-8d91,U+8d94-8d95,U+8d99,U+8da8,U+8daf,U+8db1,U+8db5,U+8db8,U+8dba,U+8dbc,U+8dbf,U+8dc2,U+8dc4,U+8dc6,U+8dcb,U+8dce-8dcf,U+8dd6-8dd7,U+8dda-8ddb,U+8dde,U+8de1,U+8de3-8de4,U+8de9,U+8deb-8dec,U+8df0-8df1,U+8df6-8dfd,U+8e05,U+8e07,U+8e09-8e0a,U+8e0c,U+8e0e,U+8e10,U+8e14,U+8e1d-8e1f,U+8e23,U+8e26,U+8e2b-8e31,U+8e34-8e35,U+8e39-8e3a,U+8e3d,U+8e40</t>
-  </si>
-  <si>
-    <t>U+8b80,U+8b83,U+8b8a,U+8b8c,U+8b90,U+8b93,U+8b99-8b9a,U+8ba0,U+8ba3,U+8ba5-8ba7,U+8baa-8bac,U+8bb4-8bb5,U+8bb7,U+8bb9,U+8bc2-8bc3,U+8bc5,U+8bcb-8bcc,U+8bce-8bd0,U+8bd2-8bd4,U+8bd6,U+8bd8-8bd9,U+8bdc,U+8bdf,U+8be3-8be4,U+8be7-8be9,U+8beb-8bec,U+8bee,U+8bf0,U+8bf2-8bf3,U+8bf6,U+8bf9,U+8bfc-8bfd,U+8bff-8c00,U+8c02,U+8c04,U+8c06-8c07,U+8c0c,U+8c0f,U+8c11-8c12,U+8c14-8c1b,U+8c1d-8c21,U+8c24-8c25,U+8c27,U+8c2a-8c2c,U+8c2e-8c30,U+8c32-8c36,U+8c3f,U+8c47-8c4c,U+8c4e-8c50,U+8c54-8c56,U+8c62,U+8c68,U+8c6c,U+8c73,U+8c78,U+8c7a,U+8c82,U+8c85,U+8c89-8c8a,U+8c8d-8c8e,U+8c90,U+8c93-8c94,U+8c98,U+8c9d-8c9e,U+8ca0-8ca2,U+8ca7-8cac,U+8caf-8cb0,U+8cb3-8cb4,U+8cb6-8cb9,U+8cbb-8cbc</t>
-  </si>
-  <si>
-    <t>U+8a15-8a18,U+8a1a-8a1b,U+8a1d,U+8a1f,U+8a22-8a23,U+8a25,U+8a2b,U+8a2d,U+8a31,U+8a33-8a34,U+8a36-8a38,U+8a3a,U+8a3c,U+8a3e,U+8a40-8a41,U+8a46,U+8a48,U+8a50,U+8a52,U+8a54-8a55,U+8a58,U+8a5b,U+8a5d-8a63,U+8a66,U+8a69-8a6b,U+8a6d-8a6e,U+8a70,U+8a72-8a73,U+8a7a,U+8a85,U+8a87,U+8a8a,U+8a8c-8a8d,U+8a90-8a92,U+8a95,U+8a98,U+8aa0-8aa1,U+8aa3-8aa6,U+8aa8-8aa9,U+8aac-8aae,U+8ab0,U+8ab2,U+8ab8-8ab9,U+8abc,U+8abe-8abf,U+8ac7,U+8acf,U+8ad2,U+8ad6-8ad7,U+8adb-8adc,U+8adf,U+8ae1,U+8ae6-8ae8,U+8aeb,U+8aed-8aee,U+8af1,U+8af3-8af4,U+8af7-8af8,U+8afa,U+8afe,U+8b00-8b02,U+8b07,U+8b0a,U+8b0c,U+8b0e,U+8b10,U+8b17,U+8b19,U+8b1b,U+8b1d,U+8b20-8b21,U+8b26,U+8b28,U+8b2c,U+8b33,U+8b39,U+8b3e-8b3f,U+8b41,U+8b45,U+8b49,U+8b4c,U+8b4f,U+8b57-8b58,U+8b5a,U+8b5c,U+8b5e,U+8b60,U+8b6c,U+8b6f-8b70,U+8b72,U+8b74,U+8b77,U+8b7d</t>
-  </si>
-  <si>
-    <t>U+8882,U+8884-8886,U+8888,U+888f,U+8892-8893,U+889b,U+88a2,U+88a4,U+88a6,U+88a8,U+88aa,U+88ae,U+88b1,U+88b4,U+88b7,U+88bc,U+88c0,U+88c6-88c9,U+88ce-88cf,U+88d1-88d3,U+88d8,U+88db-88dd,U+88df,U+88e1-88e3,U+88e5,U+88e8,U+88ec,U+88f0-88f1,U+88f3-88f4,U+88fc-88fe,U+8900,U+8902,U+8906-8907,U+8909-890c,U+8912-8915,U+8918-891b,U+8921,U+8925,U+892b,U+8930,U+8932,U+8934,U+8936,U+893b,U+893d,U+8941,U+894c,U+8955-8956,U+8959,U+895c,U+895e-8960,U+8966,U+896a,U+896c,U+896f-8970,U+8972,U+897b,U+897e,U+8980,U+8983,U+8985,U+8987-8988,U+898c,U+898f,U+8993,U+8997,U+899a,U+89a1,U+89a7,U+89a9-89aa,U+89b2-89b3,U+89b7,U+89c0,U+89c7,U+89ca-89cc,U+89ce-89d1,U+89d6,U+89da,U+89dc,U+89de,U+89e5,U+89e7,U+89eb,U+89ef,U+89f1,U+89f3-89f4,U+89f8,U+89ff,U+8a01-8a03,U+8a07-8a0a,U+8a0e-8a0f,U+8a13</t>
-  </si>
-  <si>
-    <t>U+86f4,U+86f8-86f9,U+86fb,U+86fe,U+8703,U+8706-870a,U+870d,U+8711-8713,U+871a,U+871e,U+8722-8723,U+8725,U+8729,U+872e,U+8731,U+8734,U+8737,U+873a-873b,U+873e-8740,U+8742,U+8747-8748,U+8753,U+8755,U+8757-8758,U+875d,U+875f,U+8762-8766,U+8768,U+876e,U+8770,U+8772,U+8775,U+8778,U+877b-877e,U+8782,U+8785,U+8788,U+878b,U+8793,U+8797,U+879a,U+879e-87a0,U+87a2-87a3,U+87a8,U+87ab-87ad,U+87af,U+87b3,U+87b5,U+87bd,U+87c0,U+87c4,U+87c6,U+87ca-87cb,U+87d1-87d2,U+87db-87dc,U+87de,U+87e0,U+87e5,U+87ea,U+87ec,U+87ee,U+87f2-87f3,U+87fb,U+87fd-87fe,U+8802-8803,U+8805,U+880a-880b,U+880d,U+8813-8816,U+8819,U+881b,U+881f,U+8821,U+8823,U+8831-8832,U+8835-8836,U+8839,U+883b-883c,U+8844,U+8846,U+884a,U+884e,U+8852-8853,U+8855,U+8859,U+885b,U+885d-885e,U+8862,U+8864,U+8869-886a,U+886e-886f,U+8872,U+8879,U+887d-887f</t>
-  </si>
-  <si>
-    <t>U+8548,U+854e,U+8553,U+8556-8557,U+8559,U+855e,U+8561,U+8564-8565,U+8568-856a,U+856d,U+856f-8570,U+8572,U+8576,U+8579-857b,U+8580,U+8585-8586,U+8588,U+858a,U+858f,U+8591,U+8594,U+8599,U+859c,U+85a2,U+85a4,U+85a6,U+85a8-85a9,U+85ab-85ac,U+85ae,U+85b7-85b9,U+85be,U+85c1,U+85c7,U+85cd,U+85d0,U+85d3,U+85d5,U+85dc-85dd,U+85df-85e0,U+85e5-85e6,U+85e8-85ea,U+85f4,U+85f9,U+85fe-85ff,U+8602,U+8605-8607,U+860a-860b,U+8616,U+8618,U+861a,U+8627,U+8629,U+862d,U+8638,U+863c,U+863f,U+864d,U+864f,U+8652-8655,U+865b-865c,U+865f,U+8662,U+8667,U+866c,U+866e,U+8671,U+8675,U+867a-867c,U+867f,U+868b,U+868d,U+8693,U+869c-869d,U+86a1,U+86a3-86a4,U+86a7-86a9,U+86ac,U+86af-86b1,U+86b4-86b6,U+86ba,U+86c0,U+86c4,U+86c6,U+86c9-86ca,U+86cd-86d1,U+86d4,U+86d8,U+86de-86df,U+86e4,U+86e6,U+86e9,U+86ed,U+86ef-86f3</t>
-  </si>
-  <si>
-    <t>U+83c5,U+83c8-83c9,U+83cb,U+83d1,U+83d3-83d6,U+83d8,U+83db,U+83dd,U+83df,U+83e1,U+83e5,U+83ea-83eb,U+83f0,U+83f4,U+83f8-83f9,U+83fb,U+83fd,U+83ff,U+8401,U+8406,U+840a-840b,U+840f,U+8411,U+8418,U+841c,U+8420,U+8422-8424,U+8426,U+8429,U+842c,U+8438-8439,U+843b-843c,U+843f,U+8446-8447,U+8449,U+844e,U+8451-8452,U+8456,U+8459-845a,U+845c,U+8462,U+8466,U+846d,U+846f-8470,U+8473,U+8476-8478,U+847a,U+847d,U+8484-8485,U+8487,U+8489,U+848c,U+848e,U+8490,U+8493-8494,U+8497,U+849b,U+849e-849f,U+84a1,U+84a5,U+84a8,U+84af,U+84b4,U+84b9-84bf,U+84c1-84c2,U+84c5-84c7,U+84ca-84cb,U+84cd,U+84d0-84d1,U+84d3,U+84d6,U+84df-84e0,U+84e2-84e3,U+84e5-84e7,U+84ee,U+84f3,U+84f6,U+84fa,U+84fc,U+84ff-8500,U+850c,U+8511,U+8514-8515,U+8517-8518,U+851f,U+8523,U+8525-8526,U+8529,U+852b,U+852d,U+8532,U+8534-8535,U+8538-853a,U+853c,U+8543,U+8545</t>
-  </si>
-  <si>
-    <t>U+82bc,U+82be,U+82c0-82c2,U+82c4-82c8,U+82ca-82cc,U+82ce,U+82d0,U+82d2-82d3,U+82d5-82d6,U+82d8-82d9,U+82dc-82de,U+82e0-82e4,U+82e7,U+82e9-82eb,U+82ed-82ee,U+82f3-82f4,U+82f7-82f8,U+82fa-8301,U+8306-8308,U+830c-830d,U+830f,U+8311,U+8313-8315,U+8318,U+831a-831b,U+831d,U+8324,U+8327,U+832a,U+832c-832d,U+832f,U+8331-8334,U+833a-833c,U+8340,U+8343-8345,U+8347-8348,U+834a,U+834c,U+834f,U+8351,U+8356,U+8358-835c,U+835e,U+8360,U+8364-8366,U+8368-836a,U+836c-836e,U+8373,U+8378,U+837b-837d,U+837f-8380,U+8382,U+8388,U+838a-838b,U+8392,U+8394,U+8396,U+8398-8399,U+839b-839c,U+83a0,U+83a2-83a3,U+83a8-83aa,U+83ae-83b0,U+83b3-83b4,U+83b6,U+83b8,U+83ba,U+83bc-83bd,U+83bf-83c0,U+83c2</t>
-  </si>
-  <si>
-    <t>U+8166-8169,U+816b,U+816d,U+8171,U+8173-8174,U+8178,U+817c-817d,U+8182,U+8188,U+8191,U+8198-819b,U+81a0,U+81a3,U+81a5-81a6,U+81a9,U+81b6,U+81ba-81bb,U+81bd,U+81bf,U+81c1,U+81c3,U+81c6,U+81c9-81ca,U+81cc-81cd,U+81d1,U+81d3-81d4,U+81d8,U+81db-81dc,U+81de-81df,U+81e5,U+81e7-81e9,U+81eb-81ec,U+81ee-81ef,U+81f5,U+81f8,U+81fa,U+81fc,U+81fe,U+8200-8202,U+8204,U+8208-820a,U+820e-8210,U+8216-8218,U+821b-821c,U+8221-8224,U+8226-8228,U+822b,U+822d,U+822f,U+8232-8234,U+8237-8238,U+823a-823b,U+823e,U+8244,U+8249,U+824b,U+824f,U+8259-825a,U+825f,U+8266,U+8268,U+826e,U+8271,U+8276-8279,U+827d,U+827f,U+8283-8284,U+8288-828a,U+828d-8291,U+8293-8294,U+8296-8298,U+829f-82a1,U+82a3-82a4,U+82a7-82ab,U+82ae,U+82b0,U+82b2,U+82b4-82b6</t>
-  </si>
-  <si>
-    <t>U+8016,U+8018-8019,U+801c,U+801e,U+8026-802a,U+8031,U+8034-8035,U+8037,U+8043,U+804b,U+804d,U+8052,U+8056,U+8059,U+805e,U+8061,U+8068-8069,U+806e-8074,U+8076-8078,U+807c-8080,U+8082,U+8084-8085,U+8088,U+808f,U+8093,U+809c,U+809f,U+80ab,U+80ad-80ae,U+80b1,U+80b6-80b8,U+80bc-80bd,U+80c2,U+80c4,U+80ca,U+80cd,U+80d1,U+80d4,U+80d7,U+80d9-80db,U+80dd,U+80e0,U+80e4-80e5,U+80e7-80ed,U+80ef-80f1,U+80f3-80f4,U+80fc,U+8101,U+8104-8105,U+8107-8108,U+810c-810e,U+8112-8115,U+8117-8119,U+811b-811f,U+8121-8130,U+8132-8134,U+8137,U+8139,U+813f-8140,U+8142,U+8146,U+8148,U+814d-814e,U+8151,U+8153,U+8158-815a,U+815e,U+8160</t>
-  </si>
-  <si>
-    <t>U+7ef0-7ef2,U+7ef6,U+7efa-7efb,U+7efe,U+7f01-7f04,U+7f08,U+7f0a-7f12,U+7f17,U+7f19,U+7f1b-7f1c,U+7f1f,U+7f21-7f23,U+7f25-7f28,U+7f2a-7f33,U+7f35-7f37,U+7f3d,U+7f42,U+7f44-7f45,U+7f4c-7f4d,U+7f52,U+7f54,U+7f58-7f59,U+7f5d,U+7f5f-7f61,U+7f63,U+7f65,U+7f68,U+7f70-7f71,U+7f73-7f75,U+7f77,U+7f79,U+7f7d-7f7e,U+7f85-7f86,U+7f88-7f89,U+7f8b-7f8c,U+7f90-7f91,U+7f94-7f96,U+7f98-7f9b,U+7f9d,U+7f9f,U+7fa3,U+7fa7-7fa9,U+7fac-7fb2,U+7fb4,U+7fb6,U+7fb8,U+7fbc,U+7fbf-7fc0,U+7fc3,U+7fca,U+7fcc,U+7fce,U+7fd2,U+7fd5,U+7fd9-7fdb,U+7fdf,U+7fe3,U+7fe5-7fe7,U+7fe9,U+7feb-7fec,U+7fee-7fef,U+7ff1,U+7ff3-7ff4,U+7ff9-7ffa,U+7ffe,U+8004,U+8006,U+800b,U+800e,U+8011-8012,U+8014</t>
-  </si>
-  <si>
-    <t>U+7dd2,U+7dd4,U+7dd6-7dd8,U+7dda-7de0,U+7de2-7de6,U+7de8-7ded,U+7def,U+7df1-7df5,U+7df7,U+7df9,U+7dfb-7dfc,U+7dfe-7e02,U+7e04,U+7e08-7e0b,U+7e12,U+7e1b,U+7e1e,U+7e20,U+7e22-7e23,U+7e26,U+7e29,U+7e2b,U+7e2e-7e2f,U+7e31,U+7e37,U+7e39-7e3e,U+7e40,U+7e43-7e44,U+7e46-7e47,U+7e4a-7e4b,U+7e4d-7e4e,U+7e51,U+7e54-7e56,U+7e58-7e5b,U+7e5d-7e5e,U+7e61,U+7e66-7e67,U+7e69-7e6b,U+7e6d,U+7e70,U+7e73,U+7e77,U+7e79,U+7e7b-7e7d,U+7e81-7e82,U+7e8c-7e8d,U+7e8f,U+7e92-7e94,U+7e96,U+7e98,U+7e9a-7e9c,U+7e9e-7e9f,U+7ea1,U+7ea3,U+7ea5,U+7ea8-7ea9,U+7eab,U+7ead-7eae,U+7eb0,U+7ebb,U+7ebe,U+7ec0-7ec2,U+7ec9,U+7ecb-7ecc,U+7ed0,U+7ed4,U+7ed7,U+7edb,U+7ee0-7ee2,U+7ee5-7ee6,U+7ee8,U+7eeb</t>
-  </si>
-  <si>
-    <t>U+7ce8,U+7cec,U+7cf0,U+7cf5-7cf9,U+7cfc,U+7cfe,U+7d00,U+7d04-7d0b,U+7d0d,U+7d10-7d14,U+7d17-7d19,U+7d1b-7d1f,U+7d21,U+7d24-7d26,U+7d28-7d2a,U+7d2c-7d2e,U+7d30-7d31,U+7d33,U+7d35-7d36,U+7d38-7d3a,U+7d40,U+7d42-7d44,U+7d46,U+7d4b-7d4c,U+7d4f,U+7d51,U+7d54-7d56,U+7d58,U+7d5b-7d5c,U+7d5e,U+7d61-7d63,U+7d66,U+7d68,U+7d6a-7d6c,U+7d6f,U+7d71-7d73,U+7d75-7d77,U+7d79-7d7a,U+7d7e,U+7d81,U+7d84-7d8b,U+7d8d,U+7d8f,U+7d91,U+7d94,U+7d96,U+7d98-7d9a,U+7d9c-7da0,U+7da2,U+7da6,U+7daa-7db1,U+7db4-7db8,U+7dba-7dbf,U+7dc1,U+7dc4,U+7dc7-7dc8,U+7dca-7dcd,U+7dcf,U+7dd1</t>
-  </si>
-  <si>
-    <t>U+7bd3-7bd4,U+7bd9-7bda,U+7bdd,U+7be0-7be1,U+7be4-7be6,U+7be9-7bea,U+7bef,U+7bf4,U+7bf6,U+7bfc,U+7bfe,U+7c01,U+7c03,U+7c07-7c08,U+7c0a-7c0d,U+7c0f,U+7c11,U+7c15-7c16,U+7c19,U+7c1e-7c21,U+7c23-7c24,U+7c26,U+7c28-7c33,U+7c35,U+7c37-7c3b,U+7c3d-7c3e,U+7c40-7c41,U+7c43,U+7c47-7c48,U+7c4c,U+7c50,U+7c53-7c54,U+7c59,U+7c5f-7c60,U+7c63-7c65,U+7c6c,U+7c6e,U+7c72,U+7c74,U+7c79-7c7a,U+7c7c,U+7c81-7c82,U+7c84-7c85,U+7c88,U+7c8a-7c91,U+7c93-7c96,U+7c99,U+7c9b-7c9e,U+7ca0-7ca2,U+7ca6-7ca9,U+7cac,U+7caf-7cb3,U+7cb5-7cb7,U+7cba-7cbd,U+7cbf-7cc2,U+7cc5,U+7cc7-7cc9,U+7ccc-7ccd,U+7cd7,U+7cdc,U+7cde,U+7ce0,U+7ce4-7ce5,U+7ce7</t>
-  </si>
-  <si>
-    <t>U+7ae6,U+7af4-7af7,U+7afa-7afb,U+7afd-7b0a,U+7b0c,U+7b0e-7b0f,U+7b13,U+7b15-7b16,U+7b18-7b19,U+7b1e-7b20,U+7b22-7b25,U+7b29-7b2b,U+7b2d-7b2e,U+7b30-7b3b,U+7b3e-7b3f,U+7b41-7b42,U+7b44-7b47,U+7b4a,U+7b4c-7b50,U+7b58,U+7b5a,U+7b5c,U+7b60,U+7b66-7b67,U+7b69,U+7b6c-7b6f,U+7b72-7b76,U+7b7b-7b7d,U+7b7f,U+7b82,U+7b85,U+7b87,U+7b8b-7b96,U+7b98-7b99,U+7b9b-7b9f,U+7ba2-7ba4,U+7ba6-7bac,U+7bae-7bb0,U+7bb4,U+7bb7-7bb9,U+7bbb,U+7bc0-7bc1,U+7bc3-7bc4,U+7bc6,U+7bc8-7bcc,U+7bd1</t>
-  </si>
-  <si>
-    <t>U+798b-798e,U+7992,U+7994-7995,U+7997-7998,U+799a-799c,U+799f,U+79a3-79a6,U+79a8-79ac,U+79ae-79b1,U+79b3-79b5,U+79b8,U+79ba,U+79bf,U+79c2,U+79c6,U+79c8,U+79cf,U+79d5-79d6,U+79dd-79de,U+79e3,U+79e7-79e8,U+79eb,U+79ed,U+79f4,U+79f7-79f8,U+79fa,U+79fe,U+7a02-7a03,U+7a05,U+7a0a,U+7a14,U+7a17,U+7a19,U+7a1c,U+7a1e-7a1f,U+7a23,U+7a25-7a26,U+7a2c,U+7a2e,U+7a30-7a32,U+7a36-7a37,U+7a39,U+7a3c,U+7a40,U+7a42,U+7a47,U+7a49,U+7a4c-7a4f,U+7a51,U+7a55,U+7a5b,U+7a5d-7a5e,U+7a62-7a63,U+7a66,U+7a68-7a69,U+7a6b,U+7a70,U+7a78,U+7a80,U+7a85-7a88,U+7a8a,U+7a90,U+7a93-7a96,U+7a98,U+7a9b-7a9c,U+7a9e,U+7aa0-7aa1,U+7aa3,U+7aa8-7aaa,U+7aac-7ab0,U+7ab3,U+7ab8,U+7aba,U+7abd-7abf,U+7ac4-7ac5,U+7ac7-7ac8,U+7aca,U+7ad1-7ad2,U+7ada-7add,U+7ae1,U+7ae4</t>
-  </si>
-  <si>
-    <t>U+784c,U+784e-7854,U+7856-7857,U+7859-785a,U+7865,U+7869-786a,U+786d,U+786f,U+7876-7877,U+787c,U+787e-787f,U+7881,U+7887-7889,U+7893-7894,U+7898-789e,U+78a1,U+78a3,U+78a5,U+78a9,U+78ad,U+78b2,U+78b4,U+78b6,U+78b9-78ba,U+78bc,U+78bf,U+78c3,U+78c9,U+78cb,U+78d0-78d2,U+78d4,U+78d9-78da,U+78dc,U+78de,U+78e1,U+78e5-78e6,U+78ea,U+78ec,U+78ef,U+78f1-78f2,U+78f4,U+78fa-78fb,U+78fe,U+7901-7902,U+7905,U+7907,U+7909,U+790b-790c,U+790e,U+7910,U+7913,U+7919-791b,U+791e-791f,U+7921,U+7924,U+7926,U+792a-792b,U+7934,U+7936,U+7939,U+793b,U+793d,U+7940,U+7942-7943,U+7945-7947,U+7949-794a,U+794c,U+794e-7951,U+7953-7955,U+7957-795a,U+795c,U+795f-7960,U+7962,U+7964,U+7966-7967,U+7969,U+796b,U+796f,U+7972,U+7974,U+7979,U+797b-797c,U+797e-7980,U+7982,U+7986-7987,U+7989-798a</t>
-  </si>
-  <si>
-    <t>U+7722,U+7726,U+7728,U+772b-7730,U+7732-7736,U+7739-773a,U+773d-773f,U+7743,U+7746-7747,U+774c-774f,U+7751-7752,U+7758-775a,U+775c-775e,U+7762,U+7765-7766,U+7768-776a,U+776c-776d,U+7771-7772,U+777a,U+777c-777e,U+7780,U+7785,U+7787,U+778b-778d,U+778f-7791,U+7793,U+779e-77a0,U+77a2,U+77a5,U+77ad,U+77af,U+77b4-77b7,U+77bd-77c0,U+77c2,U+77c5,U+77c7,U+77cd,U+77d6-77d7,U+77d9-77da,U+77dd-77de,U+77e7,U+77ea,U+77ec,U+77ef,U+77f8,U+77fb,U+77fd-77fe,U+7800,U+7803,U+7806,U+7809,U+780f-7812,U+7815,U+7817-7818,U+781a-781f,U+7821-7823,U+7825-7827,U+7829,U+782b-7830,U+7832-7833,U+7835,U+7837,U+7839-783c,U+783e,U+7841-7844,U+7847-7849,U+784b</t>
-  </si>
-  <si>
-    <t>U+7613-7619,U+761b-761d,U+761f-7622,U+7625,U+7627-762a,U+762e-7630,U+7632-7635,U+7638-763a,U+763c-763d,U+763f-7640,U+7642-7643,U+7647-7648,U+764d-764e,U+7652,U+7654,U+7658,U+765a,U+765c,U+765e-765f,U+7661-7663,U+7665,U+7669,U+766c,U+766e-766f,U+7671-7673,U+7675-7676,U+7678-767a,U+767f,U+7681,U+7683,U+7688,U+768a-768c,U+768e,U+7690-7692,U+7695,U+7698,U+769a-769b,U+769d-76a0,U+76a2,U+76a4-76a7,U+76ab-76ac,U+76af-76b0,U+76b2,U+76b4-76b5,U+76ba-76bb,U+76bf,U+76c2-76c3,U+76c5,U+76c9,U+76cc-76ce,U+76dc-76de,U+76e1-76ea,U+76f1,U+76f9-76fb,U+76fd,U+76ff-7700,U+7703-7704,U+7707-7708,U+770c-770f,U+7712,U+7714,U+7716,U+7719-771b,U+771e,U+7721</t>
-  </si>
-  <si>
-    <t>U+750d,U+750f,U+7511,U+7513,U+7515,U+7517,U+7519,U+7521-7527,U+752a,U+752c-752d,U+752f,U+7534,U+7536,U+753a,U+753e,U+7540,U+7544,U+7547-754b,U+754d-754e,U+7550-7553,U+7556-7557,U+755a-755b,U+755d-755e,U+7560,U+7562,U+7564,U+7566-7568,U+756b-756c,U+756f-7573,U+7575,U+7579-757c,U+757e-757f,U+7581-7584,U+7587,U+7589-758e,U+7590,U+7592,U+7594,U+7596,U+7599-759a,U+759d,U+759f-75a0,U+75a3,U+75a5,U+75a8,U+75ac-75ad,U+75b0-75b1,U+75b3-75b5,U+75b8,U+75bd,U+75c1-75c4,U+75c8-75ca,U+75cc-75cd,U+75d4,U+75d6,U+75d9,U+75de,U+75e0,U+75e2-75e4,U+75e6-75ea,U+75f1-75f3,U+75f7,U+75f9-75fa,U+75fc,U+75fe-7601,U+7603,U+7605-7606,U+7608-760e,U+7610-7612</t>
-  </si>
-  <si>
-    <t>U+73f0,U+73f2,U+73f4-73f5,U+73f7,U+73f9-73fa,U+73fc-73fd,U+73ff-7402,U+7404,U+7407-7408,U+740a-740f,U+7418,U+741a-741c,U+741e,U+7424-7425,U+7428-7429,U+742c-7430,U+7432,U+7435-7436,U+7438-743b,U+743e-7441,U+7443-7446,U+7448,U+744a-744b,U+7452,U+7457,U+745b,U+745d,U+7460,U+7462-7465,U+7467-746a,U+746d,U+746f,U+7471,U+7473-7474,U+7477,U+747a,U+747e,U+7481-7482,U+7484,U+7486,U+7488-748b,U+748e-748f,U+7493,U+7498,U+749a,U+749c-74a0,U+74a3,U+74a6,U+74a9-74aa,U+74ae,U+74b0-74b2,U+74b6,U+74b8-74ba,U+74bd,U+74bf,U+74c1,U+74c3,U+74c5,U+74c8,U+74ca,U+74cc,U+74cf,U+74d1-74d2,U+74d4-74d5,U+74d8-74db,U+74de-74e0,U+74e2,U+74e4-74e5,U+74e7-74e9,U+74ee-74ef,U+74f4,U+74ff,U+7501,U+7503,U+7505,U+7508</t>
-  </si>
-  <si>
-    <t>U+72e6,U+72e8,U+72ef-72f0,U+72f2-72f4,U+72f6-72f7,U+72f9-72fb,U+72fd,U+7300-7304,U+7307,U+730a-730c,U+7313-7317,U+731d-7322,U+7327,U+7329,U+732c-732d,U+7330-7331,U+7333,U+7335-7337,U+7339,U+733d-733e,U+7340,U+7342,U+7344-7345,U+734a,U+734d-7350,U+7352,U+7355,U+7357,U+7359,U+735f-7360,U+7362-7363,U+7365,U+7368,U+736c-736d,U+736f-7370,U+7372,U+7374-7376,U+7378,U+737a-737b,U+737d-737e,U+7382-7383,U+7386,U+7388,U+738a,U+738c-7393,U+7395,U+7397-739a,U+739c,U+739e,U+73a0-73a3,U+73a5-73a8,U+73aa,U+73ad,U+73b1,U+73b3,U+73b6-73b7,U+73b9,U+73c2,U+73c5-73c9,U+73cc,U+73ce-73d0,U+73d2,U+73d6,U+73d9,U+73db-73de,U+73e3,U+73e5-73ea,U+73ee-73ef</t>
-  </si>
-  <si>
-    <t>U+71a8,U+71af,U+71b1-71bc,U+71be,U+71c1-71c2,U+71c4,U+71c8-71cb,U+71ce-71d0,U+71d2,U+71d4,U+71d9-71da,U+71dc,U+71df-71e0,U+71e6-71e8,U+71ea,U+71ed-71ee,U+71f4,U+71f6,U+71f9,U+71fb-71fc,U+71ff-7200,U+7207,U+720c-720d,U+7210,U+7216,U+721a-721e,U+7223,U+7228,U+722b,U+722d-722e,U+7230,U+7232,U+723a-723c,U+723e-7242,U+7246,U+724b,U+724d-724e,U+7252,U+7256,U+7258,U+725a,U+725c-725d,U+7260,U+7264-7266,U+726a,U+726c,U+726e-726f,U+7271,U+7273-7274,U+7278,U+727b,U+727d-727e,U+7281-7282,U+7284,U+7287,U+728a,U+728d,U+728f,U+7292,U+729b,U+729f-72a0,U+72a7,U+72ad-72ae,U+72b0-72b5,U+72b7-72b8,U+72ba-72be,U+72c0-72c1,U+72c3,U+72c5-72c6,U+72c8,U+72cc-72ce,U+72d2,U+72d6,U+72db,U+72dd-72df,U+72e1,U+72e5</t>
-  </si>
-  <si>
-    <t>U+700b,U+700d,U+7015,U+7018,U+701b,U+701d-701f,U+7023,U+7026-7028,U+702c,U+702e-7030,U+7035,U+7037,U+7039-703a,U+703c-703e,U+7044,U+7049-704b,U+704f,U+7051,U+7058,U+705a,U+705c-705e,U+7061,U+7064,U+7066,U+706c,U+707d,U+7080-7081,U+7085-7086,U+708a,U+708f,U+7091,U+7094-7095,U+7098-7099,U+709c-709d,U+709f,U+70a4,U+70a9-70aa,U+70af-70b2,U+70b4-70b7,U+70bb,U+70c0,U+70c3,U+70c7,U+70cb,U+70ce-70cf,U+70d4,U+70d9-70da,U+70dc-70dd,U+70e0,U+70e9,U+70ec,U+70f7,U+70fa,U+70fd,U+70ff,U+7104,U+7108-7109,U+710c,U+7110,U+7113-7114,U+7116-7118,U+711c,U+711e,U+7120,U+712e-712f,U+7131,U+713c,U+7142,U+7144-7147,U+7149-714b,U+7150,U+7152,U+7155-7156,U+7159-715a,U+715c,U+7161,U+7165-7166,U+7168-7169,U+716d,U+7173-7174,U+7176,U+7178,U+717a,U+717d,U+717f-7180,U+7184,U+7186-7188,U+7192,U+7198,U+719c,U+71a0,U+71a4-71a5</t>
-  </si>
-  <si>
-    <t>U+6ed9,U+6edb,U+6edd,U+6edf-6ee0,U+6ee2,U+6ee6,U+6eea,U+6eec,U+6eee-6eef,U+6ef2-6ef3,U+6ef7-6efa,U+6efe,U+6f01,U+6f03,U+6f08-6f09,U+6f15-6f16,U+6f19,U+6f22-6f25,U+6f28-6f2a,U+6f2c-6f2d,U+6f2f,U+6f32,U+6f36-6f38,U+6f3f,U+6f43-6f46,U+6f48,U+6f4b,U+6f4e-6f4f,U+6f51,U+6f54-6f57,U+6f59-6f5b,U+6f5e-6f5f,U+6f61,U+6f64-6f67,U+6f69-6f6c,U+6f6f-6f72,U+6f74-6f76,U+6f78-6f7e,U+6f80-6f83,U+6f86,U+6f89,U+6f8b-6f8d,U+6f90,U+6f92,U+6f94,U+6f97-6f98,U+6f9b,U+6fa3-6fa5,U+6fa7,U+6faa,U+6faf,U+6fb1,U+6fb4,U+6fb6,U+6fb9,U+6fc1-6fcb,U+6fd1-6fd3,U+6fd5,U+6fdb,U+6fde-6fe1,U+6fe4,U+6fe9,U+6feb-6fec,U+6fee-6ff1,U+6ffa,U+6ffe,U+7005-7006,U+7009</t>
-  </si>
-  <si>
-    <t>U+6dc3,U+6dc5-6dc6,U+6dc9,U+6dcc,U+6dcf,U+6dd2-6dd3,U+6dd6,U+6dd9-6dde,U+6de0,U+6de4,U+6de6,U+6de8-6dea,U+6dec,U+6def-6df0,U+6df5-6df6,U+6df8,U+6dfa,U+6dfc,U+6e03-6e04,U+6e07-6e09,U+6e0b-6e0c,U+6e0e,U+6e11,U+6e13,U+6e15-6e16,U+6e19-6e1b,U+6e1e-6e1f,U+6e22,U+6e25-6e27,U+6e2b-6e2c,U+6e36-6e37,U+6e39-6e3a,U+6e3c-6e41,U+6e44-6e45,U+6e47,U+6e49-6e4b,U+6e4d-6e4e,U+6e51,U+6e53-6e55,U+6e5c-6e5f,U+6e61-6e63,U+6e65-6e67,U+6e6a-6e6b,U+6e6d-6e70,U+6e72-6e74,U+6e76-6e78,U+6e7c,U+6e80-6e82,U+6e86-6e87,U+6e89,U+6e8d,U+6e8f,U+6e96,U+6e98,U+6e9d-6e9f,U+6ea1,U+6ea5-6ea7,U+6eab,U+6eb1-6eb2,U+6eb4,U+6eb7,U+6ebb-6ebd,U+6ebf-6ec6,U+6ec8-6ec9,U+6ecc,U+6ecf-6ed0,U+6ed3-6ed4,U+6ed7-6ed8</t>
-  </si>
-  <si>
-    <t>U+6cb1-6cb2,U+6cb4-6cb5,U+6cb7,U+6cba,U+6cbc-6cbd,U+6cc1-6cc3,U+6cc5-6cc7,U+6cd0-6cd4,U+6cd6-6cd7,U+6cd9-6cda,U+6cde-6ce0,U+6ce4,U+6ce6,U+6ce9,U+6ceb-6cef,U+6cf1-6cf2,U+6cf6-6cf7,U+6cfa,U+6cfe,U+6d03-6d05,U+6d07-6d08,U+6d0a,U+6d0c,U+6d0e-6d11,U+6d13-6d14,U+6d16,U+6d18-6d1a,U+6d1c,U+6d1f,U+6d22-6d23,U+6d26-6d29,U+6d2b,U+6d2e-6d30,U+6d33,U+6d35-6d36,U+6d38-6d3a,U+6d3c,U+6d3f,U+6d42-6d44,U+6d48-6d49,U+6d4d,U+6d50,U+6d52,U+6d54,U+6d56-6d58,U+6d5a-6d5c,U+6d5e,U+6d60-6d61,U+6d63-6d65,U+6d67,U+6d6c-6d6d,U+6d6f,U+6d75,U+6d7b-6d7d,U+6d87,U+6d8a,U+6d8e,U+6d90-6d9a,U+6d9c-6da0,U+6da2-6da3,U+6da7,U+6daa-6dac,U+6dae,U+6db3-6db4,U+6db6,U+6db8,U+6dbc,U+6dbf,U+6dc2</t>
-  </si>
-  <si>
-    <t>U+6b83-6b86,U+6b89,U+6b8d,U+6b91-6b93,U+6b95,U+6b97-6b98,U+6b9a-6b9b,U+6b9e,U+6ba1-6ba4,U+6ba9-6baa,U+6bad,U+6baf-6bb0,U+6bb2-6bb3,U+6bba-6bbd,U+6bc0,U+6bc2,U+6bc6,U+6bca-6bcc,U+6bce,U+6bd0-6bd1,U+6bd3,U+6bd6-6bd8,U+6bda,U+6be1,U+6be6,U+6bec,U+6bf1,U+6bf3-6bf5,U+6bf9,U+6bfd,U+6c05-6c08,U+6c0d,U+6c10,U+6c15-6c1a,U+6c21,U+6c23-6c26,U+6c29-6c2d,U+6c30-6c33,U+6c35-6c37,U+6c39-6c3a,U+6c3c-6c3f,U+6c46,U+6c4a-6c4c,U+6c4e-6c50,U+6c54,U+6c56,U+6c59-6c5c,U+6c5e,U+6c63,U+6c67-6c69,U+6c6b,U+6c6d,U+6c6f,U+6c72-6c74,U+6c78-6c7a,U+6c7c,U+6c84-6c87,U+6c8b-6c8c,U+6c8f,U+6c91,U+6c93-6c96,U+6c98,U+6c9a,U+6c9d,U+6ca2-6ca4,U+6ca8-6ca9,U+6cac-6cae</t>
-  </si>
-  <si>
-    <t>U+69fe-6a01,U+6a06,U+6a09,U+6a0b,U+6a11,U+6a13,U+6a17-6a19,U+6a1b,U+6a1e,U+6a23,U+6a28-6a29,U+6a2b,U+6a2f-6a30,U+6a35,U+6a38-6a40,U+6a46-6a48,U+6a4a-6a4b,U+6a4e,U+6a50,U+6a52,U+6a5b,U+6a5e,U+6a62,U+6a65-6a67,U+6a6b,U+6a79,U+6a7c,U+6a7e-6a7f,U+6a84,U+6a86,U+6a8e,U+6a90-6a91,U+6a94,U+6a97,U+6a9c,U+6a9e,U+6aa0,U+6aa2,U+6aa4,U+6aa9,U+6aab,U+6aae-6ab0,U+6ab2-6ab3,U+6ab5,U+6ab7-6ab8,U+6aba-6abb,U+6abd,U+6abf,U+6ac2-6ac4,U+6ac6,U+6ac8,U+6acc,U+6ace,U+6ad2-6ad3,U+6ad8-6adc,U+6adf-6ae0,U+6ae4-6ae5,U+6ae7-6ae8,U+6afb,U+6b04-6b05,U+6b0d-6b13,U+6b16-6b17,U+6b19,U+6b24-6b25,U+6b2c,U+6b37-6b39,U+6b3b,U+6b3d,U+6b43,U+6b46,U+6b4e,U+6b50,U+6b53-6b54,U+6b58-6b59,U+6b5b,U+6b60,U+6b69,U+6b6d,U+6b6f-6b70,U+6b73-6b74,U+6b77-6b7a,U+6b80-6b82</t>
-  </si>
-  <si>
-    <t>U+68d3,U+68d7,U+68dd,U+68df,U+68e1,U+68e3-68e4,U+68e6-68ed,U+68ef-68f0,U+68f2,U+68f4,U+68f6-68f7,U+68f9,U+68fb-68fd,U+68ff-6902,U+6906-6908,U+690b,U+6910,U+691a-691c,U+691f-6920,U+6924-6925,U+692a,U+692d,U+6934,U+6939,U+693c-6945,U+694a-694b,U+6952-6954,U+6957,U+6959,U+695b,U+695d,U+695f,U+6962-6964,U+6966,U+6968-696c,U+696e-696f,U+6971,U+6973-6974,U+6978-6979,U+697d,U+697f-6980,U+6985,U+6987-698a,U+698d-698e,U+6994-6999,U+699b,U+69a3-69a4,U+69a6-69a7,U+69ab,U+69ad-69ae,U+69b1,U+69b7,U+69bb-69bc,U+69c1,U+69c3-69c5,U+69c7,U+69ca-69ce,U+69d0-69d1,U+69d3-69d4,U+69d7-69da,U+69e0,U+69e4,U+69e6,U+69ec-69ed,U+69f1-69f3,U+69f8,U+69fa-69fc</t>
-  </si>
-  <si>
-    <t>U+678b-678d,U+678f,U+6792-6793,U+6796,U+6798,U+679e-67a1,U+67a5,U+67a7-67a9,U+67ac-67ad,U+67b0-67b1,U+67b3,U+67b5,U+67b7,U+67b9,U+67bb-67bc,U+67c0-67c1,U+67c3,U+67c5-67ca,U+67d1-67d2,U+67d7-67d9,U+67dd-67df,U+67e2-67e4,U+67e6-67e9,U+67f0,U+67f5,U+67f7-67f8,U+67fa-67fb,U+67fd-67fe,U+6800-6801,U+6803-6804,U+6806,U+6809-680a,U+680c,U+680e,U+6812,U+681d-681f,U+6822,U+6824-6829,U+682b-682d,U+6831-6835,U+683b,U+683e,U+6840-6841,U+6844-6845,U+6849,U+684e,U+6853,U+6855-6856,U+685c-685d,U+685f-6862,U+6864,U+6866-6868,U+686b,U+686f,U+6872,U+6874,U+6877,U+687f,U+6883,U+6886,U+688f,U+689b,U+689f-68a0,U+68a2-68a3,U+68b1,U+68b6,U+68b9-68ba,U+68bc-68bf,U+68c1-68c4,U+68c6,U+68c8,U+68ca,U+68cc,U+68d0-68d1</t>
-  </si>
-  <si>
-    <t>U+6631,U+6633-6634,U+6636,U+663a-663b,U+663d,U+6641,U+6644-6645,U+6649,U+664c,U+664f,U+6654,U+6659,U+665b,U+665d-665e,U+6660-6667,U+6669,U+666b-666c,U+6671,U+6673,U+6677-6679,U+667c,U+6680-6681,U+6684-6685,U+6688-6689,U+668b-668e,U+6690,U+6692,U+6695,U+6698,U+669a,U+669d,U+669f-66a0,U+66a2-66a3,U+66a6,U+66aa-66ab,U+66b1-66b2,U+66b5,U+66b8-66b9,U+66bb,U+66be,U+66c1,U+66c6-66c9,U+66cc,U+66d5-66d8,U+66da-66dc,U+66de-66e2,U+66e8-66ea,U+66ec,U+66f1,U+66f3,U+66f7,U+66fa,U+66fd,U+6702,U+6705,U+670a,U+670f-6710,U+6713,U+6715,U+6719,U+6722-6723,U+6725-6727,U+6729,U+672d-672e,U+6732-6733,U+6736,U+6739,U+673b,U+673f,U+6744,U+6748,U+674c-674d,U+6753,U+6755,U+6762,U+6767,U+6769-676c,U+676e,U+6772-6773,U+6775,U+6777,U+677a-677d,U+6782-6783,U+6787,U+678a</t>
-  </si>
-  <si>
-    <t>U+64f1-64f2,U+64f4,U+64f7-64f8,U+64fa,U+64fc,U+64fe-64ff,U+6503,U+6509,U+650f,U+6514,U+6518,U+651c-651e,U+6522-6525,U+652a-652c,U+652e,U+6530-6532,U+6534-6535,U+6537-6538,U+653a,U+653c-653d,U+6542,U+6549-654b,U+654d-654e,U+6553-6555,U+6557-6558,U+655d,U+6564,U+6569,U+656b,U+656d-656f,U+6571,U+6573,U+6575-6576,U+6578-657e,U+6581-6583,U+6585-6586,U+6589,U+658e-658f,U+6592-6593,U+6595-6596,U+659b,U+659d,U+659f-65a1,U+65a3,U+65ab-65ac,U+65b2,U+65b6-65b7,U+65ba-65bb,U+65be-65c0,U+65c2-65c4,U+65c6-65c8,U+65cc,U+65ce,U+65d0,U+65d2-65d3,U+65d6,U+65db,U+65dd,U+65e1,U+65e3,U+65ee-65f0,U+65f3-65f5,U+65f8,U+65fb-65fc,U+65fe-6600,U+6603,U+6607,U+6609,U+660b,U+6610-6611,U+6619-661a,U+661c-661e,U+6621,U+6624,U+6626,U+662a-662c,U+662e,U+6630</t>
-  </si>
-  <si>
-    <t>U+63b8-63bc,U+63be,U+63c0,U+63c3-63c4,U+63c6,U+63c8,U+63cd-63ce,U+63d1,U+63d6,U+63da-63db,U+63de,U+63e0,U+63e3,U+63e9-63ea,U+63ee,U+63f2,U+63f5-63fa,U+63fc,U+63fe-6400,U+6406,U+640b-640d,U+6410,U+6414,U+6416-6417,U+641b,U+6420-6423,U+6425-6428,U+642a,U+6431-6432,U+6434-6437,U+643d-6442,U+6445,U+6448,U+6450-6452,U+645b-645f,U+6462,U+6465,U+6468,U+646d,U+646f-6471,U+6473,U+6477,U+6479-647d,U+6482-6485,U+6487-6488,U+648c,U+6490,U+6493,U+6496-649a,U+649d,U+64a0,U+64a5,U+64ab-64ac,U+64b1-64b7,U+64b9-64bb,U+64be-64c1,U+64c4,U+64c7,U+64c9-64cb,U+64d0,U+64d4,U+64d7-64d8,U+64da,U+64de,U+64e0-64e2,U+64e4,U+64e9,U+64ec,U+64f0</t>
-  </si>
-  <si>
-    <t>U+622c,U+622e-6230,U+6232,U+6238,U+623b,U+623d-623e,U+6243,U+6246,U+6248-6249,U+624c,U+6255,U+6259,U+625e,U+6260-6261,U+6265-6266,U+626a,U+6271,U+627a,U+627c-627d,U+6283,U+6286,U+6289,U+628e,U+6294,U+629c,U+629e-629f,U+62a1,U+62a8,U+62ba-62bb,U+62bf,U+62c2,U+62c4,U+62c8,U+62ca-62cb,U+62cf,U+62d1,U+62d7,U+62d9-62da,U+62dd,U+62e0-62e1,U+62e3-62e4,U+62e7,U+62eb,U+62ee,U+62f0,U+62f4-62f6,U+6308,U+630a-630e,U+6310,U+6312-6313,U+6317,U+6319,U+631b,U+631d-631f,U+6322,U+6326,U+6329,U+6331-6332,U+6334-6337,U+6339,U+633b-633c,U+633e-6340,U+6343,U+6347,U+634b-634e,U+6354,U+635c-635d,U+6368-6369,U+636d,U+636f-6372,U+6376,U+637a-637b,U+637d,U+6382-6383,U+6387,U+638a-638b,U+638d-638e,U+6391,U+6393-6397,U+6399,U+639b,U+639e-639f,U+63a1,U+63a3-63a4,U+63ac-63ae,U+63b1-63b5</t>
-  </si>
-  <si>
-    <t>U+60ed-60ee,U+60f0-60f1,U+60f4,U+60f6,U+60fa,U+6100,U+6106,U+610d-610e,U+6112,U+6114-6115,U+6119,U+611c,U+6120,U+6122-6123,U+6126,U+6128-6130,U+6136-6137,U+613a,U+613d-613e,U+6144,U+6146-6147,U+614a-614b,U+6151,U+6153,U+6158,U+615a,U+615c-615d,U+615f,U+6161,U+6163-6165,U+616b-616c,U+616e,U+6171,U+6173-6177,U+617e,U+6182,U+6187,U+618a,U+618d-618e,U+6190-6191,U+6194,U+6199-619a,U+619c,U+619f,U+61a1,U+61a3-61a4,U+61a7-61a9,U+61ab-61ad,U+61b2-61b3,U+61b5-61b7,U+61ba-61bb,U+61bf,U+61c3-61c4,U+61c6-61c7,U+61c9-61cb,U+61d0-61d1,U+61d3-61d4,U+61d7,U+61da,U+61df-61e1,U+61e6,U+61ee,U+61f0,U+61f2,U+61f6-61f8,U+61fa,U+61fc-61fe,U+6200,U+6206-6207,U+6209,U+620b,U+620d-620e,U+6213-6215,U+6217,U+6219,U+621b-6223,U+6225-6226</t>
-  </si>
-  <si>
-    <t>U+5fc4,U+5fc9,U+5fcb,U+5fce-5fd6,U+5fda-5fde,U+5fe1-5fe2,U+5fe4-5fe5,U+5fea,U+5fed-5fee,U+5ff1-5ff3,U+5ff6,U+5ff8,U+5ffb,U+5ffe-5fff,U+6002-6006,U+600a,U+600d,U+600f,U+6014,U+6019,U+601b,U+6020,U+6023,U+6026,U+6029,U+602b,U+602e-602f,U+6031,U+6033,U+6035,U+6039,U+603f,U+6041-6043,U+6046,U+604f,U+6053-6054,U+6058-605b,U+605d-605e,U+6060,U+6063,U+6065,U+6067,U+606a-606c,U+6075,U+6078-6079,U+607b,U+607d,U+607f,U+6083,U+6085-6087,U+608a,U+608c,U+608e-608f,U+6092-6093,U+6095-6097,U+609b-609d,U+60a2,U+60a7,U+60a9-60ab,U+60ad,U+60af-60b1,U+60b3-60b6,U+60b8,U+60bb,U+60bd-60be,U+60c0-60c3,U+60c6-60c9,U+60cb,U+60ce,U+60d3-60d4,U+60d7-60db,U+60dd,U+60e1-60e4,U+60e6,U+60ea,U+60ec</t>
-  </si>
-  <si>
-    <t>U+5e98,U+5e9b,U+5e9d,U+5ea0-5ea5,U+5ea8,U+5eab,U+5eaf,U+5eb3,U+5eb5-5eb6,U+5eb9,U+5ebe,U+5ec1-5ec3,U+5ec6,U+5ec8,U+5ecb-5ecc,U+5ed1-5ed2,U+5ed4,U+5ed9-5edb,U+5edd,U+5edf-5ee0,U+5ee2-5ee3,U+5ee8,U+5eea,U+5eec,U+5eef-5ef0,U+5ef3-5ef4,U+5ef8,U+5efb-5efc,U+5efe-5eff,U+5f01,U+5f07,U+5f0b-5f0e,U+5f10-5f12,U+5f14,U+5f1a,U+5f22,U+5f28-5f29,U+5f2c-5f2d,U+5f35-5f36,U+5f38,U+5f3b-5f43,U+5f45-5f4a,U+5f4c-5f4e,U+5f50,U+5f54,U+5f56-5f59,U+5f5b-5f5f,U+5f61,U+5f63,U+5f65,U+5f67-5f68,U+5f6b,U+5f6e-5f6f,U+5f72-5f78,U+5f7a,U+5f7e-5f7f,U+5f82-5f83,U+5f87,U+5f89-5f8a,U+5f8d,U+5f91,U+5f93,U+5f95,U+5f98-5f99,U+5f9c,U+5f9e,U+5fa0,U+5fa6-5fa9,U+5fac-5fad,U+5faf,U+5fb3-5fb5,U+5fb9,U+5fbc</t>
-  </si>
-  <si>
-    <t>U+5d26-5d27,U+5d2e-5d34,U+5d3c-5d3e,U+5d41-5d44,U+5d46-5d48,U+5d4a-5d4b,U+5d4e,U+5d50,U+5d52,U+5d55-5d58,U+5d5a-5d5d,U+5d68-5d69,U+5d6b-5d6c,U+5d6f,U+5d74,U+5d7f,U+5d82-5d89,U+5d8b-5d8c,U+5d8f,U+5d92-5d93,U+5d99,U+5d9d,U+5db2,U+5db6-5db7,U+5dba,U+5dbc-5dbd,U+5dc2-5dc3,U+5dc6-5dc7,U+5dc9,U+5dcc,U+5dd2,U+5dd4,U+5dd6-5dd8,U+5ddb-5ddc,U+5de3,U+5ded,U+5def,U+5df3,U+5df6,U+5dfa-5dfd,U+5dff-5e00,U+5e07,U+5e0f,U+5e11,U+5e13-5e14,U+5e19-5e1b,U+5e22,U+5e25,U+5e28,U+5e2a,U+5e2f-5e31,U+5e33-5e34,U+5e36,U+5e39-5e3c,U+5e3e,U+5e40,U+5e44,U+5e46-5e48,U+5e4c,U+5e4f,U+5e53-5e54,U+5e57,U+5e59,U+5e5b,U+5e5e-5e5f,U+5e61,U+5e63,U+5e6a-5e6b,U+5e75,U+5e77,U+5e79-5e7a,U+5e7e,U+5e80-5e81,U+5e83,U+5e85,U+5e87,U+5e8b,U+5e91-5e92,U+5e96</t>
-  </si>
-  <si>
-    <t>U+5bec,U+5bee-5bf0,U+5bf2-5bf3,U+5bf5-5bf6,U+5bfe,U+5c02-5c03,U+5c05,U+5c07-5c09,U+5c0b-5c0c,U+5c0e,U+5c10,U+5c12-5c13,U+5c15,U+5c17,U+5c19,U+5c1b-5c1c,U+5c1e-5c1f,U+5c22,U+5c25,U+5c28,U+5c2a-5c2b,U+5c2f-5c30,U+5c37,U+5c3b,U+5c43-5c44,U+5c46-5c47,U+5c4d,U+5c50,U+5c59,U+5c5b-5c5c,U+5c62-5c64,U+5c66,U+5c6c,U+5c6e,U+5c74,U+5c78-5c7e,U+5c80,U+5c83-5c84,U+5c88,U+5c8b-5c8d,U+5c91,U+5c94-5c96,U+5c98-5c99,U+5c9c,U+5c9e,U+5ca1-5ca3,U+5cab-5cac,U+5cb1,U+5cb5,U+5cb7,U+5cba,U+5cbd-5cbf,U+5cc1,U+5cc3-5cc4,U+5cc7,U+5ccb,U+5cd2,U+5cd8-5cd9,U+5cdf-5ce0,U+5ce3-5ce6,U+5ce8-5cea,U+5ced,U+5cef,U+5cf3-5cf4,U+5cf6,U+5cf8,U+5cfd,U+5d00-5d04,U+5d06,U+5d08,U+5d0b-5d0d,U+5d0f-5d13,U+5d15,U+5d17-5d1a,U+5d1d-5d22,U+5d24-5d25</t>
-  </si>
-  <si>
-    <t>U+5aa0,U+5aa3-5aa4,U+5aaa,U+5aae-5aaf,U+5ab1-5ab2,U+5ab4-5ab5,U+5ab7-5aba,U+5abd-5abf,U+5ac3-5ac4,U+5ac6-5ac8,U+5aca-5acb,U+5acd,U+5acf-5ad2,U+5ad4,U+5ad8-5ada,U+5adc,U+5adf-5ae2,U+5ae4,U+5ae6,U+5ae8,U+5aea-5aed,U+5af0-5af3,U+5af5,U+5af9-5afb,U+5afd,U+5b01,U+5b05,U+5b08,U+5b0b-5b0c,U+5b11,U+5b16-5b17,U+5b1b,U+5b21-5b22,U+5b24,U+5b27-5b2e,U+5b30,U+5b32,U+5b34,U+5b36-5b38,U+5b3e-5b40,U+5b43,U+5b45,U+5b4a-5b4b,U+5b51-5b53,U+5b56,U+5b5a-5b5b,U+5b62,U+5b65,U+5b67,U+5b6a-5b6e,U+5b70-5b71,U+5b73,U+5b7a-5b7b,U+5b7f-5b80,U+5b84,U+5b8d,U+5b91,U+5b93-5b95,U+5b9f,U+5ba5-5ba6,U+5bac,U+5bae,U+5bb8,U+5bc0,U+5bc3,U+5bcb,U+5bd0-5bd1,U+5bd4-5bd8,U+5bda-5bdc,U+5be2,U+5be4-5be5,U+5be7,U+5be9,U+5beb</t>
-  </si>
-  <si>
-    <t>U+596a,U+596c-596e,U+5977,U+597b-597c,U+5981,U+598f,U+5997-5998,U+599a,U+599c-599d,U+59a0-59a1,U+59a3-59a4,U+59a7,U+59aa-59ad,U+59af,U+59b2-59b3,U+59b5-59b6,U+59b8,U+59ba,U+59bd-59be,U+59c0-59c1,U+59c3-59c4,U+59c7-59ca,U+59cc-59cd,U+59cf,U+59d2,U+59d5-59d6,U+59d8-59d9,U+59db,U+59dd-59e0,U+59e2-59e7,U+59e9-59eb,U+59ee,U+59f1,U+59f3,U+59f5,U+59f7-59f9,U+59fd,U+5a06,U+5a08-5a0a,U+5a0c-5a0d,U+5a11-5a13,U+5a15-5a16,U+5a1a-5a1b,U+5a21-5a23,U+5a2d-5a2f,U+5a32,U+5a38,U+5a3c,U+5a3e-5a45,U+5a47,U+5a4a,U+5a4c-5a4d,U+5a4f-5a51,U+5a53,U+5a55-5a57,U+5a5e,U+5a60,U+5a62,U+5a65-5a67,U+5a6a,U+5a6c-5a6d,U+5a72-5a73,U+5a75-5a76,U+5a79-5a7c,U+5a81-5a84,U+5a8c,U+5a8e,U+5a93,U+5a96-5a97,U+5a9c,U+5a9e</t>
-  </si>
-  <si>
-    <t>U+5820,U+5822-5823,U+5825-5826,U+582c,U+582f,U+5831,U+583a,U+583d,U+583f-5842,U+5844-5846,U+5848,U+584a,U+584d,U+5852,U+5857,U+5859-585a,U+585c-585d,U+5862,U+5868-5869,U+586c-586d,U+586f-5873,U+5875,U+5879,U+587d-587e,U+5880-5881,U+5888-588a,U+588d,U+5892,U+5896-5898,U+589a,U+589c-589d,U+58a0-58a1,U+58a3,U+58a6,U+58a9,U+58ab-58ae,U+58b0,U+58b3,U+58bb-58bf,U+58c2-58c3,U+58c5-58c8,U+58ca,U+58cc,U+58ce,U+58d1-58d3,U+58d5,U+58d8-58d9,U+58de-58df,U+58e2,U+58e9,U+58ec,U+58ef,U+58f1-58f2,U+58f5,U+58f7-58f8,U+58fa,U+58fd,U+5900,U+5902,U+5906,U+5908-590c,U+590e,U+5910,U+5914,U+5919,U+591b,U+591d-591e,U+5920,U+5922-5925,U+5928,U+592c-592d,U+592f,U+5932,U+5936,U+593c,U+593e,U+5940-5942,U+5944,U+594c-594d,U+5950,U+5953,U+5958,U+595a,U+5961,U+5966-5968</t>
-  </si>
-  <si>
-    <t>U+56f9,U+56fc,U+56ff-5700,U+5703-5704,U+5709-570a,U+570c-570d,U+570f,U+5712-5713,U+5718-5719,U+571c,U+571e,U+5725,U+5727,U+5729-572a,U+572c,U+572e-572f,U+5734-5735,U+5739,U+573b,U+5741,U+5743,U+5745,U+5749,U+574c-574d,U+575c,U+5763,U+5768-5769,U+576b,U+576d-576e,U+5770,U+5773,U+5775,U+5777,U+577b-577c,U+5785-5786,U+5788,U+578c,U+578e-578f,U+5793-5795,U+5799-57a1,U+57a3-57a4,U+57a6-57aa,U+57ac-57ad,U+57af-57b2,U+57b4-57b6,U+57b8-57b9,U+57bd-57bf,U+57c2,U+57c4-57c8,U+57cc-57cd,U+57cf,U+57d2,U+57d5-57de,U+57e1-57e2,U+57e4-57e5,U+57e7,U+57eb,U+57ed,U+57ef,U+57f4-57f8,U+57fc-57fd,U+5800-5801,U+5803,U+5805,U+5807,U+5809,U+580b-580e,U+5811,U+5814,U+5819,U+581b-581f</t>
-  </si>
-  <si>
-    <t>U+55f5-55f7,U+55fb,U+55fe,U+5600-5601,U+5605-5606,U+5608,U+560c-560d,U+560f,U+5614,U+5616-5617,U+561a,U+561c,U+561e,U+5621-5625,U+5627,U+5629,U+562b-5630,U+5636,U+5638-563a,U+563c,U+5640-5642,U+5649,U+564c-5650,U+5653-5655,U+5657-565b,U+5660,U+5663-5664,U+5666,U+566b,U+566f-5671,U+5673-567c,U+567e,U+5684-5687,U+568c,U+568e-5693,U+5695,U+5697,U+569b-569c,U+569e-569f,U+56a1-56a2,U+56a4-56a9,U+56ac-56af,U+56b1,U+56b4,U+56b6-56b8,U+56bf,U+56c1-56c3,U+56c9,U+56cd,U+56d1,U+56d4,U+56d6-56d9,U+56dd,U+56df,U+56e1,U+56e3-56e6,U+56e8-56ec,U+56ee-56ef,U+56f1-56f3,U+56f5,U+56f7-56f8</t>
-  </si>
-  <si>
-    <t>U+550f,U+5511-5514,U+5516-5517,U+5519,U+551b,U+551d-551e,U+5520,U+5522-5523,U+5526-5527,U+552a-552c,U+5530,U+5532-5535,U+5537-5538,U+553b-5541,U+5543-5544,U+5547-5549,U+554b,U+554d,U+5550,U+5553,U+5555-5558,U+555b-555f,U+5567-5569,U+556b-5572,U+5574-5577,U+557b-557c,U+557e-557f,U+5581,U+5583,U+5585-5586,U+5588,U+558b-558c,U+558e-5591,U+5593,U+5599-559a,U+559f,U+55a5-55a6,U+55a8-55ac,U+55ae,U+55b0-55b3,U+55b6,U+55b9-55ba,U+55bc-55be,U+55c4,U+55c6-55c7,U+55c9,U+55cc-55d2,U+55d4-55db,U+55dd-55df,U+55e1,U+55e3-55e6,U+55ea-55ee,U+55f0-55f3</t>
   </si>
   <si>
     <t>U+53e7-53e9,U+53f1,U+53f4-53f5,U+53fa-5400,U+5402,U+5405-5407,U+540b,U+540f,U+5412,U+5414,U+5416,U+5418-541a,U+541d,U+5420-5423,U+5425,U+5429-542a,U+542d-542e,U+5431-5433,U+5436,U+543d,U+543f,U+5442-5443,U+5449,U+544b-544c,U+544e,U+5451-5454,U+5456,U+5459,U+545b-545c,U+5461,U+5463-5464,U+546a-5472,U+5474,U+5476-5478,U+547a,U+547e-5484,U+5486,U+548a,U+548d-548e,U+5490-5491,U+5494,U+5497-5499,U+549b,U+549d,U+54a1-54a7,U+54a9,U+54ab,U+54ad,U+54b4-54b5,U+54b9,U+54bb,U+54be-54bf,U+54c2-54c3,U+54c9-54cc,U+54cf-54d0,U+54d3,U+54d5-54d6,U+54d9-54da,U+54dc-54de,U+54e2,U+54e7,U+54f3-54f4,U+54f8-54f9,U+54fd-54ff,U+5501,U+5504-5506,U+550c-550e</t>
@@ -2715,23 +2390,870 @@
     <t xml:space="preserve">  src: url(https://madmaxchow.github.io/openfonts/s/notosans/v39/o-0bIpQlx3QUlC5A4PNB6Ryti20_6n1iPHjc5a7du3mhPy0.woff2) format('woff2');</t>
   </si>
   <si>
-    <t>U+0460-052F,U+1C80-1C8A,U+20B4,U+2DE0-2DFF,U+A640-A69F,U+FE2E-FE2F</t>
-  </si>
-  <si>
-    <t>U+0900-097F,U+1CD0-1CF9,U+200C-200D,U+20A8,U+20B9,U+20F0,U+25CC,U+A830-A839,U+A8E0-A8FF,U+11B00-11B09</t>
-  </si>
-  <si>
-    <t>U+1F00-1FFF</t>
-  </si>
-  <si>
-    <t>U+0370-0377,U+037A-037F,U+0384-038A,U+038C,U+038E-03A1,U+03A3-03FF</t>
+    <t>subset,unicode_range</t>
+  </si>
+  <si>
+    <t>gb2312_00,U+4E00–U+4E7F</t>
+  </si>
+  <si>
+    <t>gb2312_01,U+4E80–U+4EFF</t>
+  </si>
+  <si>
+    <t>gb2312_02,U+4F00–U+4F7F</t>
+  </si>
+  <si>
+    <t>gb2312_03,U+4F80–U+4FFF</t>
+  </si>
+  <si>
+    <t>gb2312_04,U+5000–U+507F</t>
+  </si>
+  <si>
+    <t>gb2312_05,U+5080–U+50FF</t>
+  </si>
+  <si>
+    <t>gb2312_06,U+5100–U+517F</t>
+  </si>
+  <si>
+    <t>gb2312_07,U+5180–U+51FF</t>
+  </si>
+  <si>
+    <t>gb2312_08,U+5200–U+527F</t>
+  </si>
+  <si>
+    <t>gb2312_09,U+5280–U+52FF</t>
+  </si>
+  <si>
+    <t>gb2312_10,U+5300–U+537F</t>
+  </si>
+  <si>
+    <t>gb2312_11,U+5380–U+53FF</t>
+  </si>
+  <si>
+    <t>gb2312_12,U+5400–U+547F</t>
+  </si>
+  <si>
+    <t>gb2312_13,U+5480–U+54FF</t>
+  </si>
+  <si>
+    <t>gb2312_14,U+5500–U+557F</t>
+  </si>
+  <si>
+    <t>gb2312_15,U+5580–U+55FF</t>
+  </si>
+  <si>
+    <t>gb2312_16,U+5600–U+567F</t>
+  </si>
+  <si>
+    <t>gb2312_17,U+5680–U+56FF</t>
+  </si>
+  <si>
+    <t>gb2312_18,U+5700–U+577F</t>
+  </si>
+  <si>
+    <t>gb2312_19,U+5780–U+57FF</t>
+  </si>
+  <si>
+    <t>gb2312_20,U+5800–U+587F</t>
+  </si>
+  <si>
+    <t>gb2312_21,U+5880–U+58FF</t>
+  </si>
+  <si>
+    <t>gb2312_22,U+5900–U+597F</t>
+  </si>
+  <si>
+    <t>gb2312_23,U+5980–U+59FF</t>
+  </si>
+  <si>
+    <t>gb2312_24,U+5A00–U+5A7F</t>
+  </si>
+  <si>
+    <t>gb2312_25,U+5A80–U+5AFF</t>
+  </si>
+  <si>
+    <t>gb2312_26,U+5B00–U+5B7F</t>
+  </si>
+  <si>
+    <t>gb2312_27,U+5B80–U+5BFF</t>
+  </si>
+  <si>
+    <t>gb2312_28,U+5C00–U+5C7F</t>
+  </si>
+  <si>
+    <t>gb2312_29,U+5C80–U+5CFF</t>
+  </si>
+  <si>
+    <t>gb2312_30,U+5D00–U+5D7F</t>
+  </si>
+  <si>
+    <t>gb2312_31,U+5D80–U+5DFF</t>
+  </si>
+  <si>
+    <t>gb2312_32,U+5E00–U+5E7F</t>
+  </si>
+  <si>
+    <t>gb2312_33,U+5E80–U+5EFF</t>
+  </si>
+  <si>
+    <t>gb2312_34,U+5F00–U+5F7F</t>
+  </si>
+  <si>
+    <t>gb2312_35,U+5F80–U+5FFF</t>
+  </si>
+  <si>
+    <t>gb2312_36,U+6000–U+607F</t>
+  </si>
+  <si>
+    <t>gb2312_37,U+6080–U+60FF</t>
+  </si>
+  <si>
+    <t>gb2312_38,U+6100–U+617F</t>
+  </si>
+  <si>
+    <t>gb2312_39,U+6180–U+61FF</t>
+  </si>
+  <si>
+    <t>gb2312_40,U+6200–U+627F</t>
+  </si>
+  <si>
+    <t>gb2312_41,U+6280–U+62FF</t>
+  </si>
+  <si>
+    <t>gb2312_42,U+6300–U+637F</t>
+  </si>
+  <si>
+    <t>gb2312_43,U+6380–U+63FF</t>
+  </si>
+  <si>
+    <t>gb2312_44,U+6400–U+647F</t>
+  </si>
+  <si>
+    <t>gb2312_45,U+6480–U+64FF</t>
+  </si>
+  <si>
+    <t>gb2312_46,U+6500–U+657F</t>
+  </si>
+  <si>
+    <t>gb2312_47,U+6580–U+65FF</t>
+  </si>
+  <si>
+    <t>gb2312_48,U+6600–U+667F</t>
+  </si>
+  <si>
+    <t>gb2312_49,U+6680–U+66FF</t>
+  </si>
+  <si>
+    <t>gb2312_50,U+6700–U+677F</t>
+  </si>
+  <si>
+    <t>gb2312_51,U+6780–U+67FF</t>
+  </si>
+  <si>
+    <t>gb2312_52,U+6800–U+687F</t>
+  </si>
+  <si>
+    <t>gb2312_53,U+6880–U+68FF</t>
+  </si>
+  <si>
+    <t>gb2312_54,U+6900–U+697F</t>
+  </si>
+  <si>
+    <t>gb2312_55,U+6980–U+69FF</t>
+  </si>
+  <si>
+    <t>gb2312_56,U+6A00–U+6A7F</t>
+  </si>
+  <si>
+    <t>gb2312_57,U+6A80–U+6AFF</t>
+  </si>
+  <si>
+    <t>gb2312_58,U+6B00–U+6B7F</t>
+  </si>
+  <si>
+    <t>gb2312_59,U+6B80–U+6BFF</t>
+  </si>
+  <si>
+    <t>gb2312_60,U+6C00–U+6C7F</t>
+  </si>
+  <si>
+    <t>gb2312_61,U+6C80–U+6CFF</t>
+  </si>
+  <si>
+    <t>gb2312_62,U+6D00–U+6D7F</t>
+  </si>
+  <si>
+    <t>gb2312_63,U+6D80–U+6DFF</t>
+  </si>
+  <si>
+    <t>gb2312_64,U+6E00–U+6E7F</t>
+  </si>
+  <si>
+    <t>gb2312_65,U+6E80–U+6EFF</t>
+  </si>
+  <si>
+    <t>gb2312_66,U+6F00–U+6F7F</t>
+  </si>
+  <si>
+    <t>gb2312_67,U+6F80–U+6FFF</t>
+  </si>
+  <si>
+    <t>gb2312_68,U+7000–U+707F</t>
+  </si>
+  <si>
+    <t>gb2312_69,U+7080–U+70FF</t>
+  </si>
+  <si>
+    <t>gb2312_70,U+7100–U+717F</t>
+  </si>
+  <si>
+    <t>gb2312_71,U+7180–U+71FF</t>
+  </si>
+  <si>
+    <t>gb2312_72,U+7200–U+727F</t>
+  </si>
+  <si>
+    <t>gb2312_73,U+7280–U+72FF</t>
+  </si>
+  <si>
+    <t>gb2312_74,U+7300–U+737F</t>
+  </si>
+  <si>
+    <t>gb2312_75,U+7380–U+73FF</t>
+  </si>
+  <si>
+    <t>gb2312_76,U+7400–U+747F</t>
+  </si>
+  <si>
+    <t>gb2312_77,U+7480–U+74FF</t>
+  </si>
+  <si>
+    <t>gb2312_78,U+7500–U+757F</t>
+  </si>
+  <si>
+    <t>gb2312_79,U+7580–U+75FF</t>
+  </si>
+  <si>
+    <t>gb2312_80,U+7600–U+767F</t>
+  </si>
+  <si>
+    <t>gb2312_81,U+7680–U+76FF</t>
+  </si>
+  <si>
+    <t>gb2312_82,U+7700–U+777F</t>
+  </si>
+  <si>
+    <t>gb2312_83,U+7780–U+77FF</t>
+  </si>
+  <si>
+    <t>gb2312_84,U+7800–U+787F</t>
+  </si>
+  <si>
+    <t>gb2312_85,U+7880–U+78FF</t>
+  </si>
+  <si>
+    <t>gb2312_86,U+7900–U+797F</t>
+  </si>
+  <si>
+    <t>gb2312_87,U+7980–U+79FF</t>
+  </si>
+  <si>
+    <t>gb2312_88,U+7A00–U+7A7F</t>
+  </si>
+  <si>
+    <t>gb2312_89,U+7A80–U+7AFF</t>
+  </si>
+  <si>
+    <t>gb2312_90,U+7B00–U+7B7F</t>
+  </si>
+  <si>
+    <t>gb2312_91,U+7B80–U+7BFF</t>
+  </si>
+  <si>
+    <t>gb2312_92,U+7C00–U+7C7F</t>
+  </si>
+  <si>
+    <t>gb2312_93,U+7C80–U+7CFF</t>
+  </si>
+  <si>
+    <t>gb2312_94,U+7D00–U+7D7F</t>
+  </si>
+  <si>
+    <t>gb2312_95,U+7D80–U+7DFF</t>
+  </si>
+  <si>
+    <t>gb2312_96,U+7E00–U+7E7F</t>
+  </si>
+  <si>
+    <t>gb2312_97,U+7E80–U+7EFF</t>
+  </si>
+  <si>
+    <t>gb2312_98,U+7F00–U+7F7F</t>
+  </si>
+  <si>
+    <t>gb2312_99,U+7F80–U+7FFF</t>
+  </si>
+  <si>
+    <t>gb2312_100,U+8000–U+807F</t>
+  </si>
+  <si>
+    <t>gb2312_101,U+8080–U+80FF</t>
+  </si>
+  <si>
+    <t>gb2312_102,U+8100–U+817F</t>
+  </si>
+  <si>
+    <t>gb2312_103,U+8180–U+81FF</t>
+  </si>
+  <si>
+    <t>gb2312_104,U+8200–U+827F</t>
+  </si>
+  <si>
+    <t>gb2312_105,U+8280–U+82FF</t>
+  </si>
+  <si>
+    <t>gb2312_106,U+8300–U+837F</t>
+  </si>
+  <si>
+    <t>gb2312_107,U+8380–U+83FF</t>
+  </si>
+  <si>
+    <t>gb2312_108,U+8400–U+847F</t>
+  </si>
+  <si>
+    <t>gb2312_109,U+8480–U+84FF</t>
+  </si>
+  <si>
+    <t>gb2312_110,U+8500–U+857F</t>
+  </si>
+  <si>
+    <t>gb2312_111,U+8580–U+85FF</t>
+  </si>
+  <si>
+    <t>gb2312_112,U+8600–U+867F</t>
+  </si>
+  <si>
+    <t>gb2312_113,U+8680–U+86FF</t>
+  </si>
+  <si>
+    <t>gb2312_114,U+8700–U+877F</t>
+  </si>
+  <si>
+    <t>gb2312_115,U+8780–U+87FF</t>
+  </si>
+  <si>
+    <t>gb2312_116,U+8800–U+887F</t>
+  </si>
+  <si>
+    <t>gb2312_117,U+8880–U+88FF</t>
+  </si>
+  <si>
+    <t>gb2312_118,U+8900–U+897F</t>
+  </si>
+  <si>
+    <t>gb2312_119,U+8980–U+89FF</t>
+  </si>
+  <si>
+    <t>gb2312_120,U+8A00–U+8A7F</t>
+  </si>
+  <si>
+    <t>gb2312_121,U+8A80–U+8AFF</t>
+  </si>
+  <si>
+    <t>gb2312_122,U+8B00–U+8B7F</t>
+  </si>
+  <si>
+    <t>gb2312_123,U+8B80–U+8BFF</t>
+  </si>
+  <si>
+    <t>gb2312_124,U+8C00–U+8C7F</t>
+  </si>
+  <si>
+    <t>gb2312_125,U+8C80–U+8CFF</t>
+  </si>
+  <si>
+    <t>gb2312_126,U+8D00–U+8D7F</t>
+  </si>
+  <si>
+    <t>gb2312_127,U+8D80–U+8DFF</t>
+  </si>
+  <si>
+    <t>gb2312_128,U+8E00–U+8E7F</t>
+  </si>
+  <si>
+    <t>gb2312_129,U+8E80–U+8EFF</t>
+  </si>
+  <si>
+    <t>gb2312_130,U+8F00–U+8F7F</t>
+  </si>
+  <si>
+    <t>gb2312_131,U+8F80–U+8FFF</t>
+  </si>
+  <si>
+    <t>gb2312_132,U+9000–U+907F</t>
+  </si>
+  <si>
+    <t>gb2312_133,U+9080–U+90FF</t>
+  </si>
+  <si>
+    <t>gb2312_134,U+9100–U+917F</t>
+  </si>
+  <si>
+    <t>gb2312_135,U+9180–U+91FF</t>
+  </si>
+  <si>
+    <t>gb2312_136,U+9200–U+927F</t>
+  </si>
+  <si>
+    <t>gb2312_137,U+9280–U+92FF</t>
+  </si>
+  <si>
+    <t>gb2312_138,U+9300–U+937F</t>
+  </si>
+  <si>
+    <t>gb2312_139,U+9380–U+93FF</t>
+  </si>
+  <si>
+    <t>gb2312_140,U+9400–U+947F</t>
+  </si>
+  <si>
+    <t>gb2312_141,U+9480–U+94FF</t>
+  </si>
+  <si>
+    <t>gb2312_142,U+9500–U+957F</t>
+  </si>
+  <si>
+    <t>gb2312_143,U+9580–U+95FF</t>
+  </si>
+  <si>
+    <t>gb2312_144,U+9600–U+967F</t>
+  </si>
+  <si>
+    <t>gb2312_145,U+9680–U+96FF</t>
+  </si>
+  <si>
+    <t>gb2312_146,U+9700–U+977F</t>
+  </si>
+  <si>
+    <t>gb2312_147,U+9780–U+97FF</t>
+  </si>
+  <si>
+    <t>gb2312_148,U+9800–U+987F</t>
+  </si>
+  <si>
+    <t>gb2312_149,U+9880–U+98FF</t>
+  </si>
+  <si>
+    <t>gb2312_150,U+9900–U+997F</t>
+  </si>
+  <si>
+    <t>gb2312_151,U+9980–U+99FF</t>
+  </si>
+  <si>
+    <t>gb2312_152,U+9A00–U+9A7F</t>
+  </si>
+  <si>
+    <t>gb2312_153,U+9A80–U+9AFF</t>
+  </si>
+  <si>
+    <t>gb2312_154,U+9B00–U+9B7F</t>
+  </si>
+  <si>
+    <t>gb2312_155,U+9B80–U+9BFF</t>
+  </si>
+  <si>
+    <t>gb2312_156,U+9C00–U+9C7F</t>
+  </si>
+  <si>
+    <t>gb2312_157,U+9C80–U+9CFF</t>
+  </si>
+  <si>
+    <t>gb2312_158,U+9D00–U+9D7F</t>
+  </si>
+  <si>
+    <t>gb2312_159,U+9D80–U+9DFF</t>
+  </si>
+  <si>
+    <t>gb2312_160,U+9E00–U+9E7F</t>
+  </si>
+  <si>
+    <t>gb2312_161,U+9E80–U+9EFF</t>
+  </si>
+  <si>
+    <t>gb2312_162,U+9F00–U+9FA5</t>
+  </si>
+  <si>
+    <t>gb_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gb_02</t>
+  </si>
+  <si>
+    <t>gb_03</t>
+  </si>
+  <si>
+    <t>gb_04</t>
+  </si>
+  <si>
+    <t>gb_05</t>
+  </si>
+  <si>
+    <t>gb_06</t>
+  </si>
+  <si>
+    <t>gb_07</t>
+  </si>
+  <si>
+    <t>gb_08</t>
+  </si>
+  <si>
+    <t>gb_09</t>
+  </si>
+  <si>
+    <t>gb_10</t>
+  </si>
+  <si>
+    <t>gb_11</t>
+  </si>
+  <si>
+    <t>gb_12</t>
+  </si>
+  <si>
+    <t>gb_13</t>
+  </si>
+  <si>
+    <t>gb_14</t>
+  </si>
+  <si>
+    <t>gb_15</t>
+  </si>
+  <si>
+    <t>gb_16</t>
+  </si>
+  <si>
+    <t>gb_17</t>
+  </si>
+  <si>
+    <t>gb_18</t>
+  </si>
+  <si>
+    <t>gb_19</t>
+  </si>
+  <si>
+    <t>gb_20</t>
+  </si>
+  <si>
+    <t>gb_21</t>
+  </si>
+  <si>
+    <t>gb_22</t>
+  </si>
+  <si>
+    <t>gb_23</t>
+  </si>
+  <si>
+    <t>gb_24</t>
+  </si>
+  <si>
+    <t>gb_25</t>
+  </si>
+  <si>
+    <t>gb_26</t>
+  </si>
+  <si>
+    <t>gb_27</t>
+  </si>
+  <si>
+    <t>gb_28</t>
+  </si>
+  <si>
+    <t>gb_29</t>
+  </si>
+  <si>
+    <t>gb_30</t>
+  </si>
+  <si>
+    <t>gb_31</t>
+  </si>
+  <si>
+    <t>gb_32</t>
+  </si>
+  <si>
+    <t>gb_33</t>
+  </si>
+  <si>
+    <t>gb_34</t>
+  </si>
+  <si>
+    <t>gb_35</t>
+  </si>
+  <si>
+    <t>gb_36</t>
+  </si>
+  <si>
+    <t>gb_37</t>
+  </si>
+  <si>
+    <t>gb_38</t>
+  </si>
+  <si>
+    <t>gb_39</t>
+  </si>
+  <si>
+    <t>gb_40</t>
+  </si>
+  <si>
+    <t>gb_41</t>
+  </si>
+  <si>
+    <t>gb_42</t>
+  </si>
+  <si>
+    <t>gb_43</t>
+  </si>
+  <si>
+    <t>gb_44</t>
+  </si>
+  <si>
+    <t>gb_45</t>
+  </si>
+  <si>
+    <t>gb_46</t>
+  </si>
+  <si>
+    <t>gb_47</t>
+  </si>
+  <si>
+    <t>gb_48</t>
+  </si>
+  <si>
+    <t>gb_49</t>
+  </si>
+  <si>
+    <t>gb_50</t>
+  </si>
+  <si>
+    <t>gb_51</t>
+  </si>
+  <si>
+    <t>gb_52</t>
+  </si>
+  <si>
+    <t>gb_53</t>
+  </si>
+  <si>
+    <t>gb_54</t>
+  </si>
+  <si>
+    <t>gb_55</t>
+  </si>
+  <si>
+    <t>gb_56</t>
+  </si>
+  <si>
+    <t>gb_57</t>
+  </si>
+  <si>
+    <t>gb_58</t>
+  </si>
+  <si>
+    <t>gb_59</t>
+  </si>
+  <si>
+    <t>gb_60</t>
+  </si>
+  <si>
+    <t>gb_61</t>
+  </si>
+  <si>
+    <t>U+0020-007E</t>
+  </si>
+  <si>
+    <t>U+00A0-0101,U+0112-0113,U+011A-011B,U+012A-012B,U+0131,U+014C-014D,U+0152-0153,U+0160-0161,U+016A-016B,U+0178,U+017D-017E,U+0192</t>
+  </si>
+  <si>
+    <t>U+01CD-01DC,U+02C6-02C7,U+02C9-02CB,U+02DA,U+02DC,U+03BC,U+2013-2014,U+2018-201A,U+201C-201E,U+2020-2022,U+2025-2026,U+2030,U+2039-203B,U+2044,U+2074,U+20AC,U+2103,U+2109,U+2116,U+2121-2122,U+2160-216B,U+2170-2179,U+2190-2199,U+2212,U+221A,U+221E,U+2248,U+2260,U+2460-2469</t>
+  </si>
+  <si>
+    <t>U+2474-249B,U+2500-254B</t>
+  </si>
+  <si>
+    <t>U+2550-2573,U+2581-258F,U+2593-2595,U+25A0-25A1,U+25B2-25B3,U+25BC-25BD,U+25C6-25C7,U+25CB,U+25CE-25CF,U+25E2-25E5,U+2605-2606,U+2609,U+2640,U+2642,U+2FF0-2FFB,U+3000-3002,U+3008-3017,U+303E,U+3220-3229,U+3231,U+32A3,U+338E-338F,U+339C-339E,U+33A1,U+33C4,U+33CE,U+33D1-33D2</t>
+  </si>
+  <si>
+    <t>U+33D5,U+4E00-4E01,U+4E03,U+4E07-4E0E,U+4E10-4E11,U+4E13-4E16,U+4E18-4E1E,U+4E22,U+4E24-4E25,U+4E27-4E28,U+4E2A-4E2D,U+4E30,U+4E32,U+4E34,U+4E36,U+4E38-4E3B,U+4E3D-4E3F,U+4E43,U+4E45,U+4E47-4E49,U+4E4B-4E50,U+4E52-4E54,U+4E56,U+4E58-4E59,U+4E5C-4E61,U+4E66,U+4E69,U+4E70-4E71,U+4E73,U+4E7E,U+4E86,U+4E88-4E89,U+4E8B-4E8F,U+4E91-4E95,U+4E98,U+4E9A-4E9B,U+4E9F-4EA2,U+4EA4-4EA9,U+4EAB-4EAE,U+4EB2-4EB3,U+4EB5,U+4EBA-4EBB,U+4EBF-4EC7,U+4EC9-4ECB,U+4ECD-4ECE,U+4ED1</t>
+  </si>
+  <si>
+    <t>U+4ED3-4ED9,U+4EDD-4EDF,U+4EE1,U+4EE3-4EE5,U+4EE8,U+4EEA-4EEC,U+4EF0,U+4EF2-4EF3,U+4EF5-4EF7,U+4EFB,U+4EFD,U+4EFF,U+4F01,U+4F09-4F0A,U+4F0D-4F11,U+4F17-4F1B,U+4F1E-4F20,U+4F22,U+4F24-4F27,U+4F2A-4F2B,U+4F2F-4F30,U+4F32,U+4F34,U+4F36,U+4F38,U+4F3A,U+4F3C-4F3D,U+4F43,U+4F46,U+4F4D-4F51,U+4F53,U+4F55,U+4F57-4F60,U+4F63-4F65,U+4F67,U+4F69,U+4F6C,U+4F6F-4F70,U+4F73-4F74,U+4F76,U+4F7B-4F7C,U+4F7E-4F7F,U+4F83-4F84,U+4F88-4F89,U+4F8B,U+4F8D,U+4F8F,U+4F91,U+4F94,U+4F97,U+4F9B,U+4F9D,U+4FA0,U+4FA3,U+4FA5-4FAA,U+4FAC,U+4FAE-4FAF,U+4FB5,U+4FBF,U+4FC3-4FC5,U+4FCA,U+4FCE-4FD1,U+4FD7-4FD8</t>
+  </si>
+  <si>
+    <t>U+4FDA,U+4FDC-4FDF,U+4FE1,U+4FE3,U+4FE6,U+4FE8-4FEA,U+4FED-4FEF,U+4FF1,U+4FF3,U+4FF8,U+4FFA,U+4FFE,U+500C-500D,U+500F,U+5012,U+5014,U+5018-501A,U+501C,U+501F,U+5021,U+5025-5026,U+5028-502A,U+502C-502E,U+503A,U+503C,U+503E,U+5043,U+5047-5048,U+504C,U+504E-504F,U+5055,U+505A,U+505C,U+5065,U+506C,U+5076-5077,U+507B,U+507E-5080,U+5085,U+5088,U+508D,U+50A3,U+50A5,U+50A7-50A9,U+50AC,U+50B2,U+50BA-50BB,U+50CF,U+50D6,U+50DA,U+50E6-50E7,U+50EC-50EE,U+50F3,U+50F5,U+50FB,U+5106-5107,U+510B,U+5112,U+5121,U+513F-5141,U+5143-5146,U+5148-5149,U+514B,U+514D,U+5151,U+5154-5156,U+515A,U+515C,U+5162,U+5165,U+5168,U+516B-516E,U+5170-5171,U+5173-5179,U+517B-517D,U+5180-5182,U+5185,U+5188-5189</t>
+  </si>
+  <si>
+    <t>U+518C-518D,U+5192,U+5195-5197,U+5199,U+519B-519C,U+51A0,U+51A2,U+51A4-51A5,U+51AB-51AC,U+51AF-51B3,U+51B5-51B7,U+51BB-51BD,U+51C0,U+51C4,U+51C6-51C7,U+51C9,U+51CB-51CC,U+51CF,U+51D1,U+51DB,U+51DD,U+51E0-51E1,U+51E4,U+51EB,U+51ED,U+51EF-51F0,U+51F3,U+51F5-51F6,U+51F8-51FD,U+51FF-5203,U+5206-5208,U+520A,U+520D-520E,U+5211-5212,U+5216-521B,U+521D,U+5220,U+5224,U+5228-5229,U+522B,U+522D-522E,U+5230,U+5233,U+5236-523B,U+523D,U+523F-5243,U+524A,U+524C-524D,U+5250-5251,U+5254,U+5256,U+525C,U+525E,U+5261,U+5265,U+5267,U+5269-526A,U+526F,U+5272,U+527D,U+527F,U+5281-5282,U+5288,U+5290,U+5293,U+529B,U+529D-52A3</t>
+  </si>
+  <si>
+    <t>U+52A8-52AD,U+52B1-52B3,U+52BE-52BF,U+52C3,U+52C7,U+52C9,U+52CB,U+52D0,U+52D2,U+52D6,U+52D8,U+52DF,U+52E4,U+52F0,U+52F9-52FA,U+52FE-5300,U+5305-5306,U+5308,U+530D,U+530F-5310,U+5315-5317,U+5319-531A,U+531D,U+5320-5321,U+5323,U+5326,U+532A,U+532E,U+5339-533B,U+533E-533F,U+5341,U+5343,U+5345,U+5347-534A,U+534E-534F,U+5351-5353,U+5355-5357,U+535A,U+535C,U+535E-5364,U+5366-5367,U+5369,U+536B,U+536E-5371,U+5373-5375,U+5377-5378,U+537A,U+537F,U+5382,U+5384-5386,U+5389,U+538B-538D,U+5395,U+5398,U+539A,U+539D,U+539F,U+53A2-53A3,U+53A5-53A6,U+53A8-53A9,U+53AE,U+53B6,U+53BB,U+53BF,U+53C1-53C2,U+53C8-53CD,U+53D1,U+53D4,U+53D6-53D9,U+53DB</t>
+  </si>
+  <si>
+    <t>U+53DF-53E0,U+53E3-53E6,U+53E8-53F3,U+53F5-53F9,U+53FB-53FD,U+5401,U+5403-5404,U+5406,U+5408-540A,U+540C-5413,U+5415-5417,U+541B,U+541D-5421,U+5423,U+5426-5429,U+542B-542F,U+5431-5432,U+5434-5435,U+5438-5439,U+543B-543C,U+543E,U+5440,U+5443,U+5446,U+5448,U+544A-544B,U+5450,U+5452-5459,U+545B-545C,U+5462,U+5464,U+5466,U+5468,U+5471-5473,U+5475-5478,U+547B-547D,U+5480,U+5482,U+5484,U+5486,U+548B-548C,U+548E-5490,U+5492,U+5494-5496,U+5499-549B,U+549D,U+54A3-54A4,U+54A6-54AD,U+54AF</t>
+  </si>
+  <si>
+    <t>U+54B1,U+54B3-54B4,U+54B8,U+54BB,U+54BD,U+54BF-54C2,U+54C4,U+54C6-54C9,U+54CC-54D5,U+54D7,U+54D9-54DA,U+54DC-54DF,U+54E5-54EA,U+54ED-54EE,U+54F2-54F3,U+54FA,U+54FC-54FD,U+54FF,U+5501,U+5506-5507,U+5509,U+550F-5511,U+5514,U+551B,U+5520,U+5522-5524,U+5527,U+552A,U+552C,U+552E-5531,U+5533,U+5537,U+553C,U+553E-553F,U+5541,U+5543-5544,U+5546,U+5549-554A,U+5550,U+5555-5556,U+555C,U+5561,U+5564-5567,U+556A,U+556C-556E,U+5575-5578,U+557B-557C,U+557E,U+5580-5584,U+5587-558B,U+558F,U+5591,U+5594,U+5598-5599,U+559C-559D,U+559F,U+55A7,U+55B1,U+55B3,U+55B5,U+55B7,U+55B9,U+55BB,U+55BD-55BE,U+55C4-55C5,U+55C9</t>
+  </si>
+  <si>
+    <t>U+55CC-55CD,U+55D1-55D4,U+55D6,U+55DC-55DD,U+55DF,U+55E1,U+55E3-55E6,U+55E8,U+55EA-55EC,U+55EF,U+55F2-55F3,U+55F5,U+55F7,U+55FD-55FE,U+5600-5601,U+5608-5609,U+560C,U+560E-560F,U+5618,U+561B,U+561E-561F,U+5623-5624,U+5627,U+562C-562D,U+5631-5632,U+5634,U+5636,U+5639,U+563B,U+563F,U+564C-564E,U+5654,U+5657-5659,U+565C,U+5662,U+5664,U+5668-566C,U+5671,U+5676,U+567B-567C,U+5685-5686,U+568E-568F,U+5693,U+56A3,U+56AF,U+56B7,U+56BC,U+56CA,U+56D4,U+56D7,U+56DA-56DB,U+56DD-56E2,U+56E4,U+56EB,U+56ED,U+56F0-56F1,U+56F4-56F5,U+56F9-56FA,U+56FD-56FF,U+5703-5704,U+5706,U+5708-570A,U+571C,U+571F,U+5723,U+5728-572A,U+572C-5730,U+5733,U+5739-573B,U+573E,U+5740,U+5742,U+5747,U+574A</t>
+  </si>
+  <si>
+    <t>U+574C-5751,U+5757,U+575A-5761,U+5764,U+5766,U+5768-576B,U+576D,U+576F,U+5773,U+5776-5777,U+577B-577C,U+5782-5786,U+578B-578C,U+5792-5793,U+579B,U+57A0-57A4,U+57A6-57A7,U+57A9,U+57AB,U+57AD-57AE,U+57B2,U+57B4,U+57B8,U+57C2-57C3,U+57CB,U+57CE-57CF,U+57D2,U+57D4-57D5,U+57D8-57DA,U+57DD,U+57DF-57E0,U+57E4,U+57ED,U+57EF,U+57F4,U+57F8-57FA,U+57FD,U+5800,U+5802,U+5806-5807,U+580B,U+580D,U+5811,U+5815,U+5819,U+581E,U+5820-5821,U+5824,U+582A,U+5830,U+5835,U+5844,U+584C-584D,U+5851,U+5854,U+5858,U+585E,U+5865,U+586B-586C,U+587E,U+5880-5881,U+5883,U+5885,U+5889,U+5892-5893,U+5899-589A,U+589E-589F,U+58A8-58A9,U+58BC,U+58C1,U+58C5,U+58D1,U+58D5,U+58E4,U+58EB-58EC,U+58EE,U+58F0,U+58F3,U+58F6,U+58F9,U+5902</t>
+  </si>
+  <si>
+    <t>U+5904,U+5907,U+590D,U+590F,U+5914-5916,U+5919-591A,U+591C,U+591F,U+5924-5925,U+5927,U+5929-592B,U+592D-592F,U+5931,U+5934,U+5937-593A,U+593C,U+5941-5942,U+5944,U+5947-5949,U+594B,U+594E-594F,U+5951,U+5954-5958,U+595A,U+5960,U+5962,U+5965,U+5973-5974,U+5976,U+5978-5979,U+597D,U+5981-5984,U+5986-5988,U+598A,U+598D,U+5992-5993,U+5996-5997,U+5999,U+599E,U+59A3-59A5,U+59A8-59AB,U+59AE-59AF,U+59B2,U+59B9,U+59BB,U+59BE,U+59C6,U+59CA-59CB,U+59D0-59D4,U+59D7-59D8,U+59DA,U+59DC-59DD,U+59E3,U+59E5,U+59E8,U+59EC,U+59F9,U+59FB,U+59FF,U+5A01,U+5A03-5A09,U+5A0C,U+5A11,U+5A13,U+5A18,U+5A1C,U+5A1F-5A20,U+5A23,U+5A25,U+5A29,U+5A31-5A32,U+5A34,U+5A36,U+5A3C,U+5A40,U+5A46,U+5A49-5A4A,U+5A55</t>
+  </si>
+  <si>
+    <t>U+5A5A,U+5A62,U+5A67,U+5A6A,U+5A74-5A77,U+5A7A,U+5A7F,U+5A92,U+5A9A-5A9B,U+5AAA,U+5AB2-5AB3,U+5AB5,U+5AB8,U+5ABE,U+5AC1-5AC2,U+5AC9,U+5ACC,U+5AD2,U+5AD4,U+5AD6,U+5AD8,U+5ADC,U+5AE0-5AE1,U+5AE3,U+5AE6,U+5AE9,U+5AEB,U+5AF1,U+5B09,U+5B16-5B17,U+5B32,U+5B34,U+5B37,U+5B40,U+5B50-5B51,U+5B53-5B55,U+5B57-5B5D,U+5B5F,U+5B62-5B66,U+5B69-5B6A,U+5B6C,U+5B70-5B71,U+5B73,U+5B75,U+5B7A,U+5B7D,U+5B80-5B81,U+5B83-5B85,U+5B87-5B89,U+5B8B-5B8C,U+5B8F,U+5B93,U+5B95,U+5B97-5B9E,U+5BA0-5BA6,U+5BAA-5BAB,U+5BB0,U+5BB3-5BB6,U+5BB8-5BB9,U+5BBD-5BBF,U+5BC2,U+5BC4-5BC7,U+5BCC,U+5BD0,U+5BD2-5BD3,U+5BDD-5BDF,U+5BE1,U+5BE4-5BE5,U+5BE8,U+5BEE,U+5BF0</t>
+  </si>
+  <si>
+    <t>U+5BF8-5BFC,U+5BFF,U+5C01,U+5C04,U+5C06,U+5C09-5C0A,U+5C0F,U+5C11,U+5C14-5C16,U+5C18,U+5C1A,U+5C1C-5C1D,U+5C22,U+5C24-5C25,U+5C27,U+5C2C,U+5C31,U+5C34,U+5C38-5C42,U+5C45,U+5C48-5C4B,U+5C4E-5C51,U+5C55,U+5C59,U+5C5E,U+5C60-5C61,U+5C63,U+5C65-5C66,U+5C6E-5C6F,U+5C71,U+5C79-5C7A,U+5C7F,U+5C81-5C82,U+5C88,U+5C8C-5C8D,U+5C90-5C91,U+5C94,U+5C96-5C9C,U+5CA2-5CA3,U+5CA9,U+5CAB-5CAD,U+5CB1,U+5CB3,U+5CB5,U+5CB7-5CB8,U+5CBD,U+5CBF,U+5CC1,U+5CC4,U+5CCB,U+5CD2,U+5CD9,U+5CE1,U+5CE4-5CE6,U+5CE8,U+5CEA,U+5CED,U+5CF0,U+5CFB,U+5D02-5D03,U+5D06-5D07,U+5D0E,U+5D14,U+5D16,U+5D1B,U+5D1E,U+5D24,U+5D26-5D27,U+5D29,U+5D2D-5D2E,U+5D34,U+5D3D-5D3E,U+5D47,U+5D4A-5D4C,U+5D58,U+5D5B,U+5D5D</t>
+  </si>
+  <si>
+    <t>U+5D69,U+5D6B-5D6C,U+5D6F,U+5D74,U+5D82,U+5D99,U+5D9D,U+5DB7,U+5DC5,U+5DCD,U+5DDB,U+5DDD-5DDE,U+5DE1-5DE2,U+5DE5-5DE9,U+5DEB,U+5DEE-5DEF,U+5DF1-5DF4,U+5DF7,U+5DFD-5DFE,U+5E01-5E03,U+5E05-5E06,U+5E08,U+5E0C,U+5E0F-5E11,U+5E14-5E16,U+5E18-5E1D,U+5E26-5E27,U+5E2D-5E2E,U+5E31,U+5E37-5E38,U+5E3B-5E3D,U+5E42,U+5E44-5E45,U+5E4C,U+5E54-5E55,U+5E5B,U+5E5E,U+5E61-5E62,U+5E72-5E74,U+5E76,U+5E78,U+5E7A-5E7D,U+5E7F-5E80,U+5E84,U+5E86-5E87,U+5E8A-5E8B,U+5E8F-5E91,U+5E93-5E97,U+5E99-5E9A,U+5E9C,U+5E9E-5EA0,U+5EA5-5EA7,U+5EAD,U+5EB3,U+5EB5-5EB9,U+5EBE,U+5EC9-5ECA,U+5ED1-5ED3,U+5ED6,U+5EDB,U+5EE8,U+5EEA,U+5EF4,U+5EF6-5EF7,U+5EFA</t>
+  </si>
+  <si>
+    <t>U+5EFE-5F04,U+5F08,U+5F0A-5F0B,U+5F0F,U+5F11,U+5F13,U+5F15,U+5F17-5F18,U+5F1B,U+5F1F-5F20,U+5F25-5F27,U+5F29-5F2A,U+5F2D,U+5F2F,U+5F31,U+5F39-5F3A,U+5F3C,U+5F40,U+5F50,U+5F52-5F53,U+5F55-5F58,U+5F5D,U+5F61-5F62,U+5F64,U+5F66,U+5F69-5F6A,U+5F6C-5F6D,U+5F70-5F71,U+5F73,U+5F77,U+5F79,U+5F7B-5F7C,U+5F80-5F82,U+5F84-5F85,U+5F87-5F8C,U+5F90,U+5F92,U+5F95,U+5F97-5F99,U+5F9C,U+5FA1,U+5FA8,U+5FAA,U+5FAD-5FAE,U+5FB5,U+5FB7,U+5FBC-5FBD,U+5FC3-5FC6,U+5FC9,U+5FCC-5FCD,U+5FCF-5FD2,U+5FD6-5FD9,U+5FDD,U+5FE0-5FE1,U+5FE4,U+5FE7,U+5FEA-5FEB,U+5FED-5FEE,U+5FF1,U+5FF5,U+5FF8,U+5FFB,U+5FFD-6006,U+600A,U+600D-600F,U+6012,U+6014-6016,U+6019</t>
+  </si>
+  <si>
+    <t>U+601B-601D,U+6020-6021,U+6025-602B,U+602F,U+6035,U+603B-603C,U+603F,U+6041-6043,U+604B,U+604D,U+6050,U+6052,U+6055,U+6059-605A,U+605D,U+6062-6064,U+6067-606D,U+606F-6070,U+6073,U+6076,U+6078-607D,U+607F,U+6083-6084,U+6089,U+608C-608D,U+6092,U+6094,U+6096,U+609A-609B,U+609D,U+609F-60A0,U+60A3,U+60A6,U+60A8,U+60AB-60AD,U+60AF,U+60B1-60B2,U+60B4,U+60B8,U+60BB-60BC,U+60C5-60C6,U+60CA-60CB,U+60D1,U+60D5,U+60D8,U+60DA,U+60DC-60DD,U+60DF-60E0,U+60E6-60E9,U+60EB-60F0,U+60F3-60F4,U+60F6,U+60F9-60FA,U+6100-6101,U+6106,U+6108-6109,U+610D-610F,U+6115,U+611A,U+611F-6120,U+6123-6124,U+6126-6127,U+612B,U+613F,U+6148,U+614A,U+614C,U+614E,U+6151,U+6155,U+615D,U+6162</t>
+  </si>
+  <si>
+    <t>U+6167-6168,U+6170,U+6175,U+6177,U+618B,U+618E,U+6194,U+619D,U+61A7-61A9,U+61AC,U+61B7,U+61BE,U+61C2,U+61C8,U+61CA-61CB,U+61D1-61D2,U+61D4,U+61E6,U+61F5,U+61FF,U+6206,U+6208,U+620A-6212,U+6215-6218,U+621A-621B,U+621F,U+6221-6222,U+6224-6225,U+622A,U+622C,U+622E,U+6233-6234,U+6237,U+623D-6241,U+6243,U+6247-6249,U+624B-624E,U+6251-6254,U+6258,U+625B,U+6263,U+6266-6267,U+6269-6270,U+6273,U+6276,U+6279,U+627C,U+627E-6280,U+6284,U+6289-628A,U+6291-6293,U+6295-6298,U+629A-629B,U+629F-62A2,U+62A4-62A5,U+62A8,U+62AB-62AC,U+62B1,U+62B5,U+62B9,U+62BB-62BD,U+62BF,U+62C2,U+62C4-62CA</t>
+  </si>
+  <si>
+    <t>U+62CC-62CE,U+62D0,U+62D2-62D4,U+62D6-62DC,U+62DF,U+62E2-62E3,U+62E5-62E9,U+62EC-62EF,U+62F1,U+62F3-62F4,U+62F6-62F7,U+62FC-62FF,U+6301-6302,U+6307-6309,U+630E,U+6311,U+6316,U+631A-631B,U+631D-6325,U+6328,U+632A-632B,U+632F,U+6332,U+6339-633A,U+633D,U+6342-6343,U+6345-6346,U+6349,U+634B-6350,U+6355,U+635E-635F,U+6361-6363,U+6367,U+6369,U+636D-636E,U+6371,U+6376-6377,U+637A-637B,U+6380,U+6382,U+6387-638A,U+638C,U+638E-6390,U+6392,U+6396,U+6398,U+63A0,U+63A2-63A3,U+63A5,U+63A7-63AA,U+63AC-63AE,U+63B0,U+63B3-63B4,U+63B7-63B8,U+63BA,U+63BC,U+63BE,U+63C4,U+63C6,U+63C9,U+63CD-63D0,U+63D2</t>
+  </si>
+  <si>
+    <t>U+63D6,U+63DE,U+63E0-63E1,U+63E3,U+63E9-63EA,U+63ED,U+63F2,U+63F4,U+63F6,U+63F8,U+63FD,U+63FF-6402,U+6405,U+640B-640C,U+640F-6410,U+6413-6414,U+641B-641C,U+641E,U+6420-6421,U+6426,U+642A,U+642C-642D,U+6434,U+643A,U+643D,U+643F,U+6441,U+6444-6448,U+644A,U+6452,U+6454,U+6458,U+645E,U+6467,U+6469,U+646D,U+6478-647A,U+6482,U+6484-6485,U+6487,U+6491-6492,U+6495-6496,U+6499,U+649E,U+64A4,U+64A9,U+64AC-64AE,U+64B0,U+64B5,U+64B7-64B8,U+64BA,U+64BC,U+64C0,U+64C2,U+64C5,U+64CD-64CE,U+64D0,U+64D2,U+64D7-64D8,U+64DE,U+64E2,U+64E4,U+64E6,U+6500,U+6509,U+6512,U+6518,U+6525,U+652B,U+652E-652F,U+6534-6536,U+6538-6539,U+653B,U+653E-653F,U+6545,U+6548-6549,U+654C,U+654F,U+6551,U+6555-6556,U+6559,U+655B,U+655D-655E,U+6562-6563,U+6566,U+656B-656C,U+6570,U+6572,U+6574,U+6577,U+6587,U+658B-658C</t>
+  </si>
+  <si>
+    <t>U+6590-6591,U+6593,U+6597,U+6599,U+659B-659C,U+659F,U+65A1,U+65A4-65A5,U+65A7,U+65A9,U+65AB,U+65AD,U+65AF-65B0,U+65B9,U+65BC-65BD,U+65C1,U+65C3-65C6,U+65CB-65CC,U+65CE-65CF,U+65D2,U+65D6-65D7,U+65E0,U+65E2,U+65E5-65E9,U+65EC-65F1,U+65F6-65F7,U+65FA,U+6600,U+6602-6603,U+6606,U+660A,U+660C,U+660E-660F,U+6613-6615,U+6619,U+661D,U+661F-6620,U+6625,U+6627-6628,U+662D,U+662F,U+6631,U+6634-6636,U+663C,U+663E,U+6641,U+6643,U+664B-664C,U+664F,U+6652-6657,U+665A,U+665F,U+6661,U+6664,U+6666,U+6668,U+666E-6670,U+6674,U+6676-6677,U+667A,U+667E,U+6682,U+6684,U+6687,U+668C,U+6691,U+6696-6697,U+669D,U+66A7-66A8,U+66AE,U+66B4,U+66B9,U+66BE,U+66D9,U+66DB-66DD,U+66E6,U+66E9,U+66F0,U+66F2-66F4,U+66F7,U+66F9,U+66FC</t>
+  </si>
+  <si>
+    <t>U+66FE-6700,U+6708-670B,U+670D,U+6710,U+6714-6715,U+6717,U+671B,U+671D,U+671F,U+6726,U+6728,U+672A-672D,U+672F,U+6731,U+6734-6735,U+673A,U+673D,U+6740,U+6742-6743,U+6746,U+6748-6749,U+674C,U+674E-6751,U+6753,U+6756,U+675C,U+675E-6761,U+6765,U+6768-676A,U+676D,U+676F-6770,U+6772-6773,U+6775,U+6777,U+677C,U+677E-677F,U+6781,U+6784,U+6787,U+6789,U+678B,U+6790,U+6795,U+6797-6798,U+679A,U+679C-679E,U+67A2-67A3,U+67A5,U+67A7-67A8,U+67AA-67AB,U+67AD,U+67AF-67B0,U+67B3,U+67B5-67B8,U+67C1,U+67C3-67C4,U+67CF-67D4,U+67D8-67DA,U+67DC-67DE,U+67E0,U+67E2,U+67E5,U+67E9,U+67EC,U+67EF-67F1,U+67F3-67F4,U+67FD,U+67FF-6800,U+6805,U+6807-680C,U+680E-680F,U+6811,U+6813,U+6816-6817</t>
+  </si>
+  <si>
+    <t>U+681D,U+6821,U+6829-682A,U+6832-6833,U+6837-6839,U+683C-683E,U+6840-6846,U+6848-684A,U+684C,U+684E,U+6850-6851,U+6853-6855,U+6860-6869,U+686B,U+6874,U+6876-6877,U+6881,U+6883,U+6885-6886,U+688F,U+6893,U+6897,U+68A2,U+68A6-68A8,U+68AD,U+68AF-68B0,U+68B3,U+68B5,U+68C0,U+68C2,U+68C9,U+68CB,U+68CD,U+68D2,U+68D5,U+68D8,U+68DA,U+68E0,U+68E3,U+68EE,U+68F0-68F1,U+68F5,U+68F9-68FA,U+68FC,U+6901,U+6905,U+690B,U+690D-690E,U+6910,U+6912,U+691F-6920,U+6924,U+692D,U+6930,U+6934,U+6939,U+693D,U+693F,U+6942,U+6954,U+6957,U+695A,U+695D-695E,U+6960,U+6963,U+6966,U+696B,U+696E,U+6971,U+6977-6979,U+697C,U+6980,U+6982,U+6984,U+6986-6989,U+698D,U+6994-6995,U+6998,U+699B-699C,U+69A7-69A8,U+69AB,U+69AD,U+69B1,U+69B4</t>
+  </si>
+  <si>
+    <t>U+69B7,U+69BB,U+69C1,U+69CA,U+69CC,U+69CE,U+69D0,U+69D4,U+69DB,U+69DF-69E0,U+69ED,U+69F2,U+69FD,U+69FF,U+6A0A,U+6A17-6A18,U+6A1F,U+6A21,U+6A28,U+6A2A,U+6A2F,U+6A31,U+6A35,U+6A3D-6A3E,U+6A44,U+6A47,U+6A50,U+6A58-6A59,U+6A5B,U+6A61,U+6A65,U+6A71,U+6A79,U+6A7C,U+6A80,U+6A84,U+6A8E,U+6A90-6A91,U+6A97,U+6AA0,U+6AA9,U+6AAB-6AAC,U+6B20-6B24,U+6B27,U+6B32,U+6B37,U+6B39-6B3A,U+6B3E,U+6B43,U+6B46-6B47,U+6B49,U+6B4C,U+6B59,U+6B62-6B67,U+6B6A,U+6B79,U+6B7B-6B7C,U+6B81-6B84,U+6B86-6B87,U+6B89-6B8B,U+6B8D,U+6B92-6B93,U+6B96,U+6B9A-6B9B,U+6BA1,U+6BAA,U+6BB3-6BB5,U+6BB7,U+6BBF,U+6BC1-6BC2,U+6BC5,U+6BCB,U+6BCD,U+6BCF,U+6BD2-6BD7,U+6BD9,U+6BDB,U+6BE1,U+6BEA-6BEB,U+6BEF,U+6BF3,U+6BF5,U+6BF9,U+6BFD,U+6C05-6C07,U+6C0D,U+6C0F-6C11</t>
+  </si>
+  <si>
+    <t>U+6C13-6C16,U+6C18-6C1B,U+6C1F,U+6C21-6C22,U+6C24,U+6C26-6C2A,U+6C2E-6C30,U+6C32,U+6C34-6C35,U+6C38,U+6C3D,U+6C40-6C42,U+6C46-6C47,U+6C49-6C4A,U+6C50,U+6C54-6C55,U+6C57,U+6C5B-6C61,U+6C64,U+6C68-6C6A,U+6C70,U+6C72,U+6C74,U+6C76,U+6C79,U+6C7D-6C7E,U+6C81-6C83,U+6C85-6C86,U+6C88-6C89,U+6C8C,U+6C8F-6C90,U+6C93-6C94,U+6C99,U+6C9B,U+6C9F,U+6CA1,U+6CA3-6CA7,U+6CA9-6CAB,U+6CAD-6CAE,U+6CB1-6CB3,U+6CB8-6CB9,U+6CBB-6CBF,U+6CC4-6CC5,U+6CC9-6CCA,U+6CCC,U+6CD0,U+6CD3-6CD7,U+6CDB,U+6CDE,U+6CE0-6CE3,U+6CE5,U+6CE8,U+6CEA-6CEB,U+6CEE-6CF1,U+6CF3,U+6CF5-6CF8,U+6CFA-6CFE,U+6D01,U+6D04,U+6D07</t>
+  </si>
+  <si>
+    <t>U+6D0B-6D0C,U+6D0E,U+6D12,U+6D17,U+6D19-6D1B,U+6D1E,U+6D25,U+6D27,U+6D2A-6D2B,U+6D2E,U+6D31-6D33,U+6D35,U+6D39,U+6D3B-6D3E,U+6D41,U+6D43,U+6D45-6D48,U+6D4A-6D4B,U+6D4D-6D4F,U+6D51-6D54,U+6D59-6D5A,U+6D5C,U+6D5E,U+6D60,U+6D63,U+6D66,U+6D69-6D6A,U+6D6E-6D6F,U+6D74,U+6D77-6D78,U+6D7C,U+6D82,U+6D85,U+6D88-6D89,U+6D8C,U+6D8E,U+6D91,U+6D93-6D95,U+6D9B,U+6D9D-6DA1,U+6DA3-6DA4,U+6DA6-6DAB,U+6DAE-6DAF,U+6DB2,U+6DB5,U+6DB8,U+6DBF-6DC0,U+6DC4-6DC7,U+6DCB-6DCC,U+6DD1,U+6DD6,U+6DD8-6DD9,U+6DDD-6DDE,U+6DE0-6DE1,U+6DE4,U+6DE6,U+6DEB-6DEC,U+6DEE,U+6DF1,U+6DF3,U+6DF7,U+6DF9,U+6DFB-6DFC,U+6E05,U+6E0A,U+6E0C-6E0E,U+6E10-6E11,U+6E14,U+6E16-6E17,U+6E1A,U+6E1D,U+6E20-6E21,U+6E23-6E25,U+6E29,U+6E2B</t>
+  </si>
+  <si>
+    <t>U+6E2D,U+6E2F,U+6E32,U+6E34,U+6E38,U+6E3A,U+6E43-6E44,U+6E4D-6E4E,U+6E53-6E54,U+6E56,U+6E58,U+6E5B,U+6E5F,U+6E6B,U+6E6E,U+6E7E-6E7F,U+6E83,U+6E85-6E86,U+6E89,U+6E8F-6E90,U+6E98,U+6E9C,U+6E9F,U+6EA2,U+6EA5,U+6EA7,U+6EAA,U+6EAF,U+6EB1-6EB2,U+6EB4,U+6EB6-6EB7,U+6EBA-6EBB,U+6EBD,U+6EC1-6EC2,U+6EC7,U+6ECB,U+6ECF,U+6ED1,U+6ED3-6ED5,U+6ED7,U+6EDA,U+6EDE-6EE2,U+6EE4-6EE6,U+6EE8-6EE9,U+6EF4,U+6EF9,U+6F02,U+6F06,U+6F09,U+6F0F,U+6F13-6F15,U+6F20,U+6F24,U+6F29-6F2B,U+6F2D,U+6F2F,U+6F31,U+6F33,U+6F36,U+6F3E,U+6F46-6F47,U+6F4B,U+6F4D,U+6F58,U+6F5C,U+6F5E,U+6F62,U+6F66,U+6F6D-6F6E,U+6F72,U+6F74,U+6F78,U+6F7A,U+6F7C,U+6F84,U+6F88-6F89,U+6F8C-6F8E,U+6F9C,U+6FA1,U+6FA7,U+6FB3,U+6FB6,U+6FB9,U+6FC0,U+6FC2,U+6FC9,U+6FD1-6FD2,U+6FDE,U+6FE0-6FE1,U+6FEE-6FEF,U+7011,U+701A-701B,U+7023,U+7035,U+7039,U+704C</t>
+  </si>
+  <si>
+    <t>U+704F,U+705E,U+706B-706D,U+706F-7070,U+7075-7076,U+7078,U+707C,U+707E-7080,U+7085,U+7089-708A,U+708E,U+7092,U+7094-7096,U+7099,U+709C-709D,U+70AB-70AF,U+70B1,U+70B3,U+70B7-70B9,U+70BB-70BD,U+70C0-70C3,U+70C8,U+70CA,U+70D8-70D9,U+70DB,U+70DF,U+70E4,U+70E6-70E9,U+70EB-70ED,U+70EF,U+70F7,U+70F9,U+70FD,U+7109-710A,U+7110,U+7113,U+7115-7116,U+7118-711A,U+7126,U+712F-7131,U+7136,U+7145,U+714A,U+714C,U+714E,U+715C,U+715E,U+7164,U+7166-7168,U+716E,U+7172-7173,U+7178,U+717A,U+717D,U+7184,U+718A,U+718F,U+7194,U+7198-7199,U+719F-71A0,U+71A8,U+71AC,U+71B3,U+71B5,U+71B9,U+71C3,U+71CE,U+71D4-71D5,U+71E0,U+71E5,U+71E7,U+71EE,U+71F9,U+7206,U+721D,U+7228,U+722A,U+722C,U+7230-7231,U+7235-7239,U+723B,U+723D,U+723F</t>
+  </si>
+  <si>
+    <t>U+7247-7248,U+724C-724D,U+7252,U+7256,U+7259,U+725B,U+725D,U+725F,U+7261-7262,U+7266-7267,U+7269,U+726E-726F,U+7272,U+7275,U+7279-727A,U+727E-7281,U+7284,U+728A-728B,U+728D,U+728F,U+7292,U+729F,U+72AC-72AD,U+72AF-72B0,U+72B4,U+72B6-72B9,U+72C1-72C4,U+72C8,U+72CD-72CE,U+72D0,U+72D2,U+72D7,U+72D9,U+72DE,U+72E0-72E1,U+72E8-72E9,U+72EC-72F4,U+72F7-72F8,U+72FA-72FC,U+7301,U+7303,U+730A,U+730E,U+7313,U+7315-7317,U+731B-731E,U+7321-7322,U+7325,U+7329-732C,U+732E,U+7331,U+7334,U+7337-7339,U+733E-733F,U+734D,U+7350,U+7352,U+7357,U+7360,U+736C-736D,U+736F,U+737E,U+7384,U+7387,U+7389,U+738B,U+738E,U+7391,U+7396,U+739B,U+739F,U+73A2,U+73A9,U+73AB,U+73AE-73B0,U+73B2-73B3,U+73B7,U+73BA-73BB,U+73C0</t>
+  </si>
+  <si>
+    <t>U+73C2,U+73C8-73CA,U+73CD,U+73CF-73D1,U+73D9,U+73DE,U+73E0,U+73E5,U+73E7,U+73E9,U+73ED,U+73F2,U+7403,U+7405-7406,U+7409-740A,U+740F-7410,U+741A-741B,U+7422,U+7425-7426,U+7428,U+742A,U+742C,U+742E,U+7430,U+7433-7436,U+743C,U+7441,U+7455,U+7457,U+7459-745C,U+745E-745F,U+746D,U+7470,U+7476-7477,U+747E,U+7480-7481,U+7483,U+7487,U+748B,U+748E,U+7490,U+749C,U+749E,U+74A7-74A9,U+74BA,U+74D2,U+74DC,U+74DE,U+74E0,U+74E2-74E4,U+74E6,U+74EE-74EF,U+74F4,U+74F6-74F7,U+74FF,U+7504,U+750D,U+750F,U+7511,U+7513,U+7518-751A,U+751C,U+751F,U+7525,U+7528-7529,U+752B-752D,U+752F-7533,U+7535,U+7537-7538,U+753A-753B,U+753E,U+7540,U+7545,U+7548,U+754B-754C,U+754E-754F,U+7554,U+7559-755C,U+7565-7566,U+756A,U+7572,U+7574,U+7578-7579,U+757F,U+7583,U+7586</t>
+  </si>
+  <si>
+    <t>U+758B,U+758F,U+7591-7592,U+7594,U+7596-7597,U+7599-759A,U+759D,U+759F-75A1,U+75A3-75A5,U+75AB-75AC,U+75AE-75B5,U+75B8-75B9,U+75BC-75BE,U+75C2-75C5,U+75C7-75CA,U+75CD,U+75D2,U+75D4-75D6,U+75D8,U+75DB,U+75DE,U+75E2-75E4,U+75E6-75E8,U+75EA-75EB,U+75F0-75F1,U+75F4,U+75F9,U+75FC,U+75FF-7601,U+7603,U+7605,U+760A,U+760C,U+7610,U+7615,U+7617-7619,U+761B,U+761F-7620,U+7622,U+7624-7626,U+7629-762B,U+762D,U+7630,U+7633-7635,U+7638,U+763C,U+763E-7640,U+7643,U+764C-764D,U+7654,U+7656,U+765C,U+765E,U+7663,U+766B,U+766F,U+7678,U+767B,U+767D-767E,U+7682,U+7684,U+7686-7688,U+768B,U+768E,U+7691,U+7693,U+7696,U+7699,U+76A4,U+76AE,U+76B1-76B2,U+76B4,U+76BF,U+76C2,U+76C5-76C6,U+76C8,U+76CA</t>
+  </si>
+  <si>
+    <t>U+76CD-76D2,U+76D4,U+76D6-76D8,U+76DB,U+76DF,U+76E5,U+76EE-76EF,U+76F1-76F2,U+76F4,U+76F8-76F9,U+76FC,U+76FE,U+7701,U+7704,U+7707-7709,U+770B,U+770D,U+7719-771A,U+771F-7720,U+7722,U+7726,U+7728-7729,U+772D,U+772F,U+7735-7738,U+773A,U+773C,U+7740-7741,U+7743,U+7747,U+7750-7751,U+775A-775B,U+7761-7763,U+7765-7766,U+7768,U+776B-776C,U+7779,U+777D-7780,U+7784-7785,U+778C-778E,U+7791-7792,U+779F-77A0,U+77A2,U+77A5,U+77A7,U+77A9-77AA,U+77AC,U+77B0,U+77B3,U+77B5,U+77BB,U+77BD,U+77BF,U+77CD,U+77D7,U+77DB-77DC,U+77E2-77E3,U+77E5,U+77E7,U+77E9,U+77EB-77EE,U+77F3,U+77F6,U+77F8,U+77FD-7802,U+7809,U+780C-780D,U+7811-7812,U+7814,U+7816-7818,U+781A,U+781C-781D,U+781F,U+7823,U+7825-7827,U+7829</t>
+  </si>
+  <si>
+    <t>U+782C-782D,U+7830,U+7834,U+7837-783C,U+783E,U+7840,U+7845,U+7847,U+784C,U+784E,U+7850,U+7852,U+7855-7857,U+785D,U+786A-786E,U+7877,U+787C,U+7887,U+7889,U+788C-788E,U+7891,U+7893,U+7897-7898,U+789A-789C,U+789F,U+78A1,U+78A3,U+78A5,U+78A7,U+78B0-78B4,U+78B9,U+78BE,U+78C1,U+78C5,U+78C9-78CB,U+78D0,U+78D4-78D5,U+78D9,U+78E8,U+78EC,U+78F2,U+78F4,U+78F7,U+78FA,U+7901,U+7905,U+7913,U+791E,U+7924,U+7934,U+793A-793C,U+793E,U+7940-7941,U+7946,U+7948-7949,U+7953,U+7956-7957,U+795A-7960,U+7962,U+7965,U+7967-7968,U+796D,U+796F,U+7977-7978,U+797A,U+7980-7981,U+7984-7985,U+798A,U+798F,U+799A,U+79A7,U+79B3,U+79B9-79BB,U+79BD-79BE,U+79C0-79C1,U+79C3,U+79C6,U+79C9,U+79CB,U+79CD,U+79D1-79D2,U+79D5,U+79D8,U+79DF</t>
+  </si>
+  <si>
+    <t>U+79E3-79E4,U+79E6-79E7,U+79E9,U+79EB,U+79ED,U+79EF-79F0,U+79F8,U+79FB,U+79FD,U+7A00,U+7A02-7A03,U+7A06,U+7A0B,U+7A0D-7A0E,U+7A14,U+7A17,U+7A1A,U+7A1E,U+7A20,U+7A23,U+7A33,U+7A37,U+7A39,U+7A3B-7A3D,U+7A3F,U+7A46,U+7A51,U+7A57,U+7A70,U+7A74,U+7A76-7A7A,U+7A7F-7A81,U+7A83-7A84,U+7A86,U+7A88,U+7A8D,U+7A91-7A92,U+7A95-7A98,U+7A9C-7A9D,U+7A9F-7AA0,U+7AA5-7AA6,U+7AA8,U+7AAC-7AAD,U+7AB3,U+7ABF,U+7ACB,U+7AD6,U+7AD9,U+7ADE-7AE0,U+7AE3,U+7AE5-7AE6,U+7AED,U+7AEF,U+7AF9-7AFA,U+7AFD,U+7AFF,U+7B03-7B04,U+7B06,U+7B08,U+7B0A-7B0B,U+7B0F,U+7B11,U+7B14-7B15,U+7B19,U+7B1B,U+7B1E,U+7B20,U+7B24-7B26,U+7B28,U+7B2A-7B2C,U+7B2E,U+7B31,U+7B33,U+7B38,U+7B3A,U+7B3C,U+7B3E,U+7B45,U+7B47,U+7B49,U+7B4B-7B4C,U+7B4F-7B52,U+7B54,U+7B56,U+7B58,U+7B5A-7B5B,U+7B5D,U+7B60,U+7B62,U+7B6E</t>
+  </si>
+  <si>
+    <t>U+7B71-7B72,U+7B75,U+7B77,U+7B79,U+7B7B,U+7B7E,U+7B80,U+7B85,U+7B8D,U+7B90,U+7B94-7B95,U+7B97,U+7B9C-7B9D,U+7BA1-7BA2,U+7BA6-7BAD,U+7BB1,U+7BB4,U+7BB8,U+7BC1,U+7BC6-7BC7,U+7BCC,U+7BD1,U+7BD3,U+7BD9-7BDA,U+7BDD,U+7BE1,U+7BE5-7BE6,U+7BEA,U+7BEE,U+7BF1,U+7BF7,U+7BFC,U+7BFE,U+7C07,U+7C0B-7C0C,U+7C0F,U+7C16,U+7C1F,U+7C26-7C27,U+7C2A,U+7C38,U+7C3F-7C41,U+7C4D,U+7C73-7C74,U+7C7B-7C7D,U+7C89,U+7C91-7C92,U+7C95,U+7C97-7C98,U+7C9C-7C9F,U+7CA2,U+7CA4-7CA5,U+7CAA,U+7CAE,U+7CB1-7CB3,U+7CB9,U+7CBC-7CBE,U+7CC1,U+7CC5,U+7CC7-7CC8,U+7CCA,U+7CCC-7CCD,U+7CD5-7CD7,U+7CD9,U+7CDC,U+7CDF-7CE0,U+7CE8,U+7CEF,U+7CF8,U+7CFB,U+7D0A,U+7D20,U+7D22,U+7D27,U+7D2B,U+7D2F,U+7D6E,U+7D77,U+7DA6,U+7DAE,U+7E3B,U+7E41,U+7E47,U+7E82,U+7E9B</t>
+  </si>
+  <si>
+    <t>U+7E9F-7EAD,U+7EAF-7EB3,U+7EB5-7EBA,U+7EBD-7ED5,U+7ED7-7EE3,U+7EE5-7EEB,U+7EED-7EF8,U+7EFA-7F09,U+7F0B-7F0F,U+7F11-7F1D</t>
+  </si>
+  <si>
+    <t>U+7F1F-7F36,U+7F38,U+7F3A,U+7F42,U+7F44-7F45,U+7F50-7F51,U+7F54-7F55,U+7F57-7F58,U+7F5A,U+7F5F,U+7F61-7F62,U+7F68-7F6A,U+7F6E,U+7F71-7F72,U+7F74,U+7F79,U+7F7E,U+7F81,U+7F8A,U+7F8C,U+7F8E,U+7F94,U+7F9A,U+7F9D-7F9F,U+7FA1,U+7FA4,U+7FA7,U+7FAF-7FB0,U+7FB2,U+7FB8-7FB9,U+7FBC-7FBD,U+7FBF,U+7FC1,U+7FC5,U+7FCA,U+7FCC,U+7FCE,U+7FD4-7FD5,U+7FD8,U+7FDF-7FE1,U+7FE5-7FE6,U+7FE9,U+7FEE,U+7FF0-7FF1,U+7FF3,U+7FFB-7FFC,U+8000-8001,U+8003-8006,U+800B-800D,U+8010,U+8012,U+8014-8019,U+801C,U+8020,U+8022,U+8025-802A,U+8031,U+8033,U+8035-8038,U+803B,U+803D,U+803F,U+8042-8043,U+8046</t>
+  </si>
+  <si>
+    <t>U+804A-804D,U+8052,U+8054,U+8058,U+805A,U+8069-806A,U+8071,U+807F-8080,U+8083-8084,U+8086-8087,U+8089,U+808B-808C,U+8093,U+8096,U+8098,U+809A-809D,U+809F-80A2,U+80A4-80A5,U+80A9-80AB,U+80AD-80AF,U+80B1-80B2,U+80B4,U+80B7,U+80BA,U+80BC-80C4,U+80C6,U+80CC-80CE,U+80D6-80D7,U+80D9-80DE,U+80E1,U+80E4-80E5,U+80E7-80ED,U+80EF-80F4,U+80F6,U+80F8,U+80FA,U+80FC-80FD,U+8102,U+8106,U+8109-810A,U+810D-8114,U+8116,U+8118,U+811A,U+811E,U+812C,U+812F,U+8131-8132,U+8136,U+8138,U+813E,U+8146,U+8148,U+814A-814C,U+8150-8151,U+8153-8155,U+8159-815A,U+8160,U+8165,U+8167,U+8169,U+816D-816E</t>
+  </si>
+  <si>
+    <t>U+8170-8171,U+8174,U+8179-8180,U+8182,U+8188,U+818A,U+818F,U+8191,U+8198,U+819B-819D,U+81A3,U+81A6,U+81A8,U+81AA,U+81B3,U+81BA-81BB,U+81C0-81C3,U+81C6,U+81CA,U+81CC,U+81E3,U+81E7,U+81EA,U+81EC-81ED,U+81F3-81F4,U+81FB-81FC,U+81FE,U+8200-8202,U+8204-8206,U+820C-820D,U+8210,U+8212,U+8214,U+821B-821C,U+821E-821F,U+8221-8223,U+8228,U+822A-822D,U+822F-8231,U+8233-8239,U+823B,U+823E,U+8244,U+8247,U+8249,U+824B,U+824F,U+8258,U+825A,U+825F,U+8268,U+826E-8270,U+8272-8274,U+8279-827A,U+827D-827F,U+8282,U+8284,U+8288,U+828A-828B,U+828D-828F,U+8291-8292,U+8297-8299,U+829C-829D,U+829F,U+82A1,U+82A4-82A6</t>
+  </si>
+  <si>
+    <t>U+82A8-82B1,U+82B3-82B4,U+82B7-82B9,U+82BD-82BE,U+82C1,U+82C4,U+82C7-82C8,U+82CA-82CF,U+82D1-82D5,U+82D7-82D8,U+82DB-82DC,U+82DE-82E1,U+82E3-82E6,U+82EB,U+82EF,U+82F1,U+82F4,U+82F7,U+82F9,U+82FB,U+8301-8309,U+830C,U+830E-830F,U+8311,U+8314-8315,U+8317,U+831A-831C,U+8327-8328,U+832B-832D,U+832F,U+8331,U+8333-8336,U+8338-833A,U+833C,U+8340,U+8343,U+8346-8347,U+8349,U+834F-8352,U+8354,U+835A-835C,U+835E-8361,U+8363-836F,U+8377-8378,U+837B-837D,U+8385-8386,U+8389,U+838E,U+8392-8393,U+8398</t>
+  </si>
+  <si>
+    <t>U+839B-839C,U+839E,U+83A0,U+83A8-83AB,U+83B0-83B4,U+83B6-83BA,U+83BC-83BD,U+83C0-83C1,U+83C5,U+83C7,U+83CA,U+83CC,U+83CF,U+83D4,U+83D6,U+83D8,U+83DC-83DD,U+83DF-83E1,U+83E5,U+83E9-83EA,U+83F0-83F2,U+83F8-83F9,U+83FD,U+8401,U+8403-8404,U+8406,U+840B-840F,U+8411,U+8418,U+841C-841D,U+8424-8428,U+8431,U+8438,U+843C-843D,U+8446,U+8451,U+8457,U+8459-845C,U+8461,U+8463,U+8469,U+846B-846D,U+8471,U+8473,U+8475-8476,U+8478,U+847A,U+8482,U+8487-8489,U+848B-848C,U+848E,U+8497,U+8499,U+849C,U+84A1,U+84AF,U+84B2,U+84B4,U+84B8-84BA,U+84BD,U+84BF,U+84C1,U+84C4,U+84C9-84CA,U+84CD,U+84D0-84D1,U+84D3,U+84D6,U+84DD,U+84DF-84E0,U+84E3,U+84E5-84E6,U+84EC,U+84F0,U+84FC,U+84FF,U+850C,U+8511,U+8513,U+8517,U+851A</t>
+  </si>
+  <si>
+    <t>U+851F,U+8521,U+852B-852C,U+8537-853D,U+8543,U+8548-854A,U+8556,U+8559,U+855E,U+8564,U+8568,U+8572,U+8574,U+8579-857B,U+857E,U+8584-8585,U+8587,U+858F,U+859B-859C,U+85A4,U+85A8,U+85AA,U+85AE-85B0,U+85B7,U+85B9,U+85C1,U+85C9,U+85CF-85D0,U+85D3,U+85D5,U+85DC,U+85E4,U+85E9,U+85FB,U+85FF,U+8605,U+8611,U+8616,U+8627,U+8629,U+8638,U+863C,U+864D-8651,U+8654,U+865A,U+865E,U+8662,U+866B-866C,U+866E,U+8671,U+8679-8682,U+868A-868D,U+8693,U+8695,U+869C-869D,U+86A3-86A4,U+86A7-86AA,U+86AC,U+86AF-86B1,U+86B4-86B6,U+86BA,U+86C0,U+86C4,U+86C6-86C7,U+86C9-86CB,U+86CE-86D1,U+86D4,U+86D8-86D9,U+86DB,U+86DE-86DF,U+86E4,U+86E9,U+86ED-86EE</t>
+  </si>
+  <si>
+    <t>U+86F0-86F4,U+86F8-86F9,U+86FE,U+8700,U+8702-8703,U+8707-870A,U+870D,U+8712-8713,U+8715,U+8717-8718,U+871A,U+871C,U+871E,U+8721-8723,U+8725,U+8729,U+872E,U+8731,U+8734,U+8737,U+873B,U+873E-873F,U+8747-8749,U+874C,U+874E,U+8753,U+8757,U+8759,U+8760,U+8763-8765,U+876E,U+8770,U+8774,U+8776,U+877B-877E,U+8782-8783,U+8785,U+8788,U+878B,U+878D,U+8793,U+8797,U+879F,U+87A8,U+87AB-87AD,U+87AF,U+87B3,U+87B5,U+87BA,U+87BD,U+87C0,U+87C6,U+87CA-87CB,U+87D1-87D3,U+87DB,U+87E0,U+87E5,U+87EA,U+87EE,U+87F9,U+87FE,U+8803,U+880A,U+8813,U+8815-8816,U+881B,U+8821-8822,U+8832,U+8839,U+883C,U+8840,U+8844-8845,U+884C-884D,U+8854,U+8857,U+8859,U+8861-8865,U+8868-8869,U+886B-886C,U+886E,U+8870,U+8872,U+8877,U+887D-887F,U+8881-8882,U+8884-8885,U+8888</t>
+  </si>
+  <si>
+    <t>U+888B,U+888D,U+8892,U+8896,U+889C,U+88A2,U+88A4,U+88AB,U+88AD,U+88B1,U+88B7,U+88BC,U+88C1-88C2,U+88C5-88C6,U+88C9,U+88CE,U+88D2,U+88D4-88D5,U+88D8-88D9,U+88DF,U+88E2-88E5,U+88E8,U+88F0-88F1,U+88F3-88F4,U+88F8-88F9,U+88FC,U+88FE,U+8902,U+890A,U+8910,U+8912-8913,U+8919-891B,U+8921,U+8925,U+892A-892B,U+8930,U+8934,U+8936,U+8941,U+8944,U+895E-895F,U+8966,U+897B,U+897F,U+8981,U+8983,U+8986,U+89C1-89C2,U+89C4-89CC,U+89CE-89D2,U+89D6,U+89DA,U+89DC,U+89DE,U+89E3,U+89E5-89E6,U+89EB,U+89EF,U+89F3,U+8A00,U+8A07,U+8A3E,U+8A48,U+8A79,U+8A89-8A8A,U+8A93,U+8B07,U+8B26,U+8B66,U+8B6C,U+8BA0-8BAB,U+8BAD-8BB0,U+8BB2-8BBA</t>
+  </si>
+  <si>
+    <t>U+8BBC-8BC6,U+8BC8-8BCF,U+8BD1-8BE9,U+8BEB-8C08,U+8C0A-8C1D,U+8C1F-8C37,U+8C41,U+8C46-8C47,U+8C49,U+8C4C,U+8C55,U+8C5A,U+8C61-8C62</t>
+  </si>
+  <si>
+    <t>U+8C6A-8C6B,U+8C73,U+8C78-8C7A,U+8C82,U+8C85,U+8C89-8C8A,U+8C8C,U+8C94,U+8C98,U+8D1D-8D1F,U+8D21-8D50,U+8D53-8D56,U+8D58-8D5E,U+8D60-8D64,U+8D66-8D67,U+8D6B,U+8D6D,U+8D70,U+8D73-8D77,U+8D81,U+8D84-8D85,U+8D8A-8D8B,U+8D91,U+8D94,U+8D9F,U+8DA3,U+8DB1,U+8DB3-8DB5,U+8DB8,U+8DBA,U+8DBC,U+8DBE-8DBF,U+8DC3-8DC4,U+8DC6,U+8DCB-8DCC,U+8DCE-8DCF,U+8DD1,U+8DD6-8DD7,U+8DDA-8DDB,U+8DDD-8DDF,U+8DE3-8DE4,U+8DE8</t>
+  </si>
+  <si>
+    <t>U+8DEA-8DEC,U+8DEF,U+8DF3,U+8DF5,U+8DF7-8DFB,U+8DFD,U+8E05,U+8E09-8E0A,U+8E0C,U+8E0F,U+8E14,U+8E1D-8E1F,U+8E22-8E23,U+8E29-8E2A,U+8E2C,U+8E2E-8E2F,U+8E31,U+8E35,U+8E39-8E3A,U+8E3D,U+8E40-8E42,U+8E44,U+8E47-8E4B,U+8E51-8E52,U+8E59,U+8E66,U+8E69,U+8E6C-8E6D,U+8E6F-8E70,U+8E72,U+8E74,U+8E76,U+8E7C,U+8E7F,U+8E81,U+8E85,U+8E87,U+8E8F-8E90,U+8E94,U+8E9C,U+8E9E,U+8EAB-8EAC,U+8EAF,U+8EB2,U+8EBA,U+8ECE,U+8F66-8F69,U+8F6B-8F7F,U+8F81-8F8B,U+8F8D-8F91,U+8F93-8F9C,U+8F9E-8F9F,U+8FA3,U+8FA8-8FA9,U+8FAB</t>
+  </si>
+  <si>
+    <t>U+8FB0-8FB1,U+8FB6,U+8FB9,U+8FBD-8FBE,U+8FC1-8FC2,U+8FC4-8FC5,U+8FC7-8FC8,U+8FCE,U+8FD0-8FD1,U+8FD3-8FD5,U+8FD8-8FD9,U+8FDB-8FDF,U+8FE2,U+8FE4-8FE6,U+8FE8-8FEB,U+8FED-8FEE,U+8FF0,U+8FF3,U+8FF7-8FF9,U+8FFD,U+9000-9006,U+9009-900B,U+900D,U+900F-9012,U+9014,U+9016-9017,U+901A-901B,U+901D-9022,U+9026,U+902D-902F,U+9035-9036,U+9038,U+903B-903C,U+903E,U+9041-9042,U+9044,U+9047,U+904D,U+904F-9053,U+9057-9058,U+905B,U+9062-9063,U+9065,U+9068,U+906D-906E,U+9074-9075,U+907D,U+907F-9080,U+9082-9083,U+9088,U+908B,U+9091,U+9093,U+9095,U+9097,U+9099,U+909B,U+909D,U+90A1-90A3,U+90A6,U+90AA,U+90AC,U+90AE-90B1,U+90B3-90B6</t>
+  </si>
+  <si>
+    <t>U+90B8-90BB,U+90BE,U+90C1,U+90C4-90C5,U+90C7,U+90CA,U+90CE-90D1,U+90D3,U+90D7,U+90DB-90DD,U+90E1-90E2,U+90E6-90E8,U+90EB,U+90ED,U+90EF,U+90F4,U+90F8,U+90FD-90FE,U+9102,U+9104,U+9119,U+911E,U+9122-9123,U+912F,U+9131,U+9139,U+9143,U+9146,U+9149-9150,U+9152,U+9157,U+915A,U+915D-915E,U+9161-9165,U+9169-916A,U+916C,U+916E-9172,U+9174-9179,U+917D-917F,U+9185,U+9187,U+9189,U+918B-918D,U+9190-9192,U+919A-919B,U+91A2-91A3,U+91AA,U+91AD-91AF,U+91B4-91B5,U+91BA,U+91C7,U+91C9-91CA,U+91CC-91CF,U+91D1,U+91DC,U+9274,U+928E,U+92AE,U+92C8,U+933E,U+936A,U+938F,U+93CA,U+93D6,U+943E,U+946B</t>
+  </si>
+  <si>
+    <t>U+9485-9490,U+9492-9495,U+9497,U+9499-94C6,U+94C8-94CE,U+94D0-94D2,U+94D5-94D9,U+94DB-94E5,U+94E7-94FA</t>
+  </si>
+  <si>
+    <t>U+94FC-951B,U+951D-951F,U+9521-9526,U+9528-9532,U+9534-953C,U+953E-9542,U+9544-9547,U+9549-954A,U+954C-9554,U+9556-9559,U+955B-955F,U+9561-956D,U+956F-9573,U+9576,U+957F,U+95E8-95EB</t>
+  </si>
+  <si>
+    <t>U+95ED-95FE,U+9600-9606,U+9608-9612,U+9614-9617,U+9619-961A,U+961C-961D,U+961F,U+9621-9622,U+962A,U+962E,U+9631-9636,U+963B-963D,U+963F-9640,U+9642,U+9644-9649,U+964B-964D,U+9650,U+9654-9655,U+965B,U+965F,U+9661-9662,U+9664,U+9667-966A,U+966C,U+9672,U+9674-9677,U+9685-9686,U+9688,U+968B,U+968D,U+968F-9690,U+9694,U+9697-9699,U+969C,U+96A7,U+96B0,U+96B3,U+96B6,U+96B9,U+96BC-96BE,U+96C0-96C1,U+96C4-96C7,U+96C9,U+96CC-96CF,U+96D2,U+96D5,U+96E0,U+96E8-96EA,U+96EF,U+96F3</t>
+  </si>
+  <si>
+    <t>U+96F6-96F7,U+96F9,U+96FE,U+9700-9701,U+9704,U+9706-9709,U+970D-970F,U+9713,U+9716,U+971C,U+971E,U+972A,U+972D,U+9730,U+9732,U+9738-9739,U+973E,U+9752-9753,U+9756,U+9759,U+975B,U+975E,U+9760-9762,U+9765,U+9769,U+9773-9774,U+9776,U+977C,U+9785,U+978B,U+978D,U+9791-9792,U+9794,U+9798,U+97A0,U+97A3,U+97AB,U+97AD,U+97AF,U+97B2,U+97B4,U+97E6-97E7,U+97E9-97ED,U+97F3,U+97F5-97F6,U+9875-988A,U+988C-988D,U+988F-9891,U+9893-9894,U+9896-9898,U+989A-98A2,U+98A4-98A7,U+98CE,U+98D1-98D3,U+98D5,U+98D8-98DA,U+98DE-98DF,U+98E7-98E8,U+990D,U+9910,U+992E,U+9954-9955,U+9963,U+9965</t>
+  </si>
+  <si>
+    <t>U+9967-9972,U+9974-9977,U+997A,U+997C-997D,U+997F-9981,U+9984-9988,U+998A-998B,U+998D,U+998F-9999,U+99A5,U+99A8,U+9A6C-9A71,U+9A73-9A82,U+9A84-9A88,U+9A8A-9A8C,U+9A8F-9A93,U+9A96-9A98,U+9A9A-9AA5,U+9AA7-9AA8,U+9AB0-9AB1,U+9AB6-9AB8,U+9ABA,U+9ABC,U+9AC0-9AC2,U+9AC5,U+9ACB-9ACC,U+9AD1,U+9AD3,U+9AD8,U+9ADF,U+9AE1,U+9AE6,U+9AEB,U+9AED,U+9AEF,U+9AF9,U+9AFB,U+9B03,U+9B08,U+9B0F,U+9B13,U+9B1F,U+9B23,U+9B2F,U+9B32</t>
+  </si>
+  <si>
+    <t>U+9B3B-9B3C,U+9B41-9B45,U+9B47-9B49,U+9B4D,U+9B4F,U+9B51,U+9B54,U+9C7C,U+9C7F,U+9C81-9C82,U+9C85-9C88,U+9C8B,U+9C8D-9C8E,U+9C90-9C92,U+9C94-9C95,U+9C9A-9C9C,U+9C9E-9CA9,U+9CAB,U+9CAD-9CAE,U+9CB0-9CB8,U+9CBA-9CBD,U+9CC3-9CC7,U+9CCA-9CD0,U+9CD3-9CD9,U+9CDC-9CDF,U+9CE2,U+9E1F-9E23,U+9E25-9E26,U+9E28-9E2D,U+9E2F,U+9E31-9E33,U+9E35-9E3A,U+9E3D-9E3F,U+9E41-9E4C,U+9E4E-9E4F,U+9E51,U+9E55</t>
+  </si>
+  <si>
+    <t>U+9E57-9E58,U+9E5A-9E5C,U+9E5E,U+9E63-9E64,U+9E66-9E6D,U+9E70-9E71,U+9E73,U+9E7E-9E7F,U+9E82,U+9E87-9E88,U+9E8B,U+9E92-9E93,U+9E9D,U+9E9F,U+9EA6,U+9EB4,U+9EB8,U+9EBB,U+9EBD-9EBE,U+9EC4,U+9EC9,U+9ECD-9ECF,U+9ED1,U+9ED4,U+9ED8,U+9EDB-9EDD,U+9EDF-9EE0,U+9EE2,U+9EE5,U+9EE7,U+9EE9-9EEA,U+9EEF,U+9EF9,U+9EFB-9EFC,U+9EFE,U+9F0B,U+9F0D-9F0E,U+9F10,U+9F13,U+9F17,U+9F19,U+9F20,U+9F22,U+9F2C,U+9F2F,U+9F37,U+9F39,U+9F3B,U+9F3D-9F3E,U+9F44,U+9F50-9F51,U+9F7F-9F80,U+9F83-9F8C,U+9F99-9F9B,U+9F9F-9FA0,U+E000-E009,U+E78D-E796,U+FE10-FE19,U+FE30-FE31</t>
+  </si>
+  <si>
+    <t>U+FE33-FE44,U+FE49-FE52,U+FE54-FE57,U+FE59-FE66,U+FE68-FE6B</t>
+  </si>
+  <si>
+    <t>U+FF01-FF5E,U+FFE0-FFE5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2773,21 +3295,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2815,7 +3322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2829,12 +3336,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7901,7 +8402,7 @@
     </row>
     <row r="2" spans="1:1" hidden="1">
       <c r="A2" t="s">
-        <v>871</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:1" hidden="1">
@@ -7911,7 +8412,7 @@
     </row>
     <row r="4" spans="1:1" hidden="1">
       <c r="A4" t="s">
-        <v>872</v>
+        <v>764</v>
       </c>
     </row>
     <row r="5" spans="1:1" hidden="1">
@@ -7926,7 +8427,7 @@
     </row>
     <row r="7" spans="1:1" hidden="1">
       <c r="A7" t="s">
-        <v>873</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:1" hidden="1">
@@ -7936,12 +8437,12 @@
     </row>
     <row r="9" spans="1:1" hidden="1">
       <c r="A9" t="s">
-        <v>874</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>875</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:1" hidden="1">
@@ -7961,7 +8462,7 @@
     </row>
     <row r="14" spans="1:1" hidden="1">
       <c r="A14" t="s">
-        <v>872</v>
+        <v>764</v>
       </c>
     </row>
     <row r="15" spans="1:1" hidden="1">
@@ -7976,7 +8477,7 @@
     </row>
     <row r="17" spans="1:1" hidden="1">
       <c r="A17" t="s">
-        <v>873</v>
+        <v>765</v>
       </c>
     </row>
     <row r="18" spans="1:1" hidden="1">
@@ -7986,7 +8487,7 @@
     </row>
     <row r="19" spans="1:1" hidden="1">
       <c r="A19" t="s">
-        <v>876</v>
+        <v>768</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -8001,7 +8502,7 @@
     </row>
     <row r="22" spans="1:1" hidden="1">
       <c r="A22" t="s">
-        <v>877</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:1" hidden="1">
@@ -8011,7 +8512,7 @@
     </row>
     <row r="24" spans="1:1" hidden="1">
       <c r="A24" t="s">
-        <v>872</v>
+        <v>764</v>
       </c>
     </row>
     <row r="25" spans="1:1" hidden="1">
@@ -8026,7 +8527,7 @@
     </row>
     <row r="27" spans="1:1" hidden="1">
       <c r="A27" t="s">
-        <v>873</v>
+        <v>765</v>
       </c>
     </row>
     <row r="28" spans="1:1" hidden="1">
@@ -8036,12 +8537,12 @@
     </row>
     <row r="29" spans="1:1" hidden="1">
       <c r="A29" t="s">
-        <v>878</v>
+        <v>770</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>879</v>
+        <v>771</v>
       </c>
     </row>
     <row r="31" spans="1:1" hidden="1">
@@ -8051,7 +8552,7 @@
     </row>
     <row r="32" spans="1:1" hidden="1">
       <c r="A32" t="s">
-        <v>880</v>
+        <v>772</v>
       </c>
     </row>
     <row r="33" spans="1:1" hidden="1">
@@ -8061,7 +8562,7 @@
     </row>
     <row r="34" spans="1:1" hidden="1">
       <c r="A34" t="s">
-        <v>872</v>
+        <v>764</v>
       </c>
     </row>
     <row r="35" spans="1:1" hidden="1">
@@ -8076,7 +8577,7 @@
     </row>
     <row r="37" spans="1:1" hidden="1">
       <c r="A37" t="s">
-        <v>873</v>
+        <v>765</v>
       </c>
     </row>
     <row r="38" spans="1:1" hidden="1">
@@ -8086,12 +8587,12 @@
     </row>
     <row r="39" spans="1:1" hidden="1">
       <c r="A39" t="s">
-        <v>881</v>
+        <v>773</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>882</v>
+        <v>774</v>
       </c>
     </row>
     <row r="41" spans="1:1" hidden="1">
@@ -8101,7 +8602,7 @@
     </row>
     <row r="42" spans="1:1" hidden="1">
       <c r="A42" t="s">
-        <v>883</v>
+        <v>775</v>
       </c>
     </row>
     <row r="43" spans="1:1" hidden="1">
@@ -8111,7 +8612,7 @@
     </row>
     <row r="44" spans="1:1" hidden="1">
       <c r="A44" t="s">
-        <v>872</v>
+        <v>764</v>
       </c>
     </row>
     <row r="45" spans="1:1" hidden="1">
@@ -8126,7 +8627,7 @@
     </row>
     <row r="47" spans="1:1" hidden="1">
       <c r="A47" t="s">
-        <v>873</v>
+        <v>765</v>
       </c>
     </row>
     <row r="48" spans="1:1" hidden="1">
@@ -8136,12 +8637,12 @@
     </row>
     <row r="49" spans="1:1" hidden="1">
       <c r="A49" t="s">
-        <v>884</v>
+        <v>776</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>885</v>
+        <v>777</v>
       </c>
     </row>
     <row r="51" spans="1:1" hidden="1">
@@ -8161,7 +8662,7 @@
     </row>
     <row r="54" spans="1:1" hidden="1">
       <c r="A54" t="s">
-        <v>872</v>
+        <v>764</v>
       </c>
     </row>
     <row r="55" spans="1:1" hidden="1">
@@ -8176,7 +8677,7 @@
     </row>
     <row r="57" spans="1:1" hidden="1">
       <c r="A57" t="s">
-        <v>873</v>
+        <v>765</v>
       </c>
     </row>
     <row r="58" spans="1:1" hidden="1">
@@ -8186,7 +8687,7 @@
     </row>
     <row r="59" spans="1:1" hidden="1">
       <c r="A59" t="s">
-        <v>886</v>
+        <v>778</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -8211,7 +8712,7 @@
     </row>
     <row r="64" spans="1:1" hidden="1">
       <c r="A64" t="s">
-        <v>872</v>
+        <v>764</v>
       </c>
     </row>
     <row r="65" spans="1:1" hidden="1">
@@ -8226,7 +8727,7 @@
     </row>
     <row r="67" spans="1:1" hidden="1">
       <c r="A67" t="s">
-        <v>873</v>
+        <v>765</v>
       </c>
     </row>
     <row r="68" spans="1:1" hidden="1">
@@ -8236,7 +8737,7 @@
     </row>
     <row r="69" spans="1:1" hidden="1">
       <c r="A69" t="s">
-        <v>887</v>
+        <v>779</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -8261,7 +8762,7 @@
     </row>
     <row r="74" spans="1:1" hidden="1">
       <c r="A74" t="s">
-        <v>872</v>
+        <v>764</v>
       </c>
     </row>
     <row r="75" spans="1:1" hidden="1">
@@ -8276,7 +8777,7 @@
     </row>
     <row r="77" spans="1:1" hidden="1">
       <c r="A77" t="s">
-        <v>873</v>
+        <v>765</v>
       </c>
     </row>
     <row r="78" spans="1:1" hidden="1">
@@ -8286,7 +8787,7 @@
     </row>
     <row r="79" spans="1:1" hidden="1">
       <c r="A79" t="s">
-        <v>888</v>
+        <v>780</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -9066,7 +9567,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>870</v>
+        <v>762</v>
       </c>
     </row>
     <row r="2" spans="1:1" hidden="1">
@@ -13261,52 +13762,832 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9CBAAF-9392-984D-B8D6-1B5D6EB34197}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>889</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>866</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>890</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>891</v>
+        <v>784</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>892</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>867</v>
+        <v>786</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>868</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
         <v>869</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -13321,7 +14602,7 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13343,1252 +14624,1248 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="16">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="16">
       <c r="A2" s="3" t="s">
-        <v>684</v>
+        <v>945</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="C2" s="6" t="str">
+        <v>1006</v>
+      </c>
+      <c r="C2" s="4" t="str">
         <f t="shared" ref="C2:C33" si="0">"'"&amp;A2&amp;"'"</f>
-        <v>'subset_01'</v>
-      </c>
-      <c r="D2" s="6" t="str">
+        <v>'gb_01'</v>
+      </c>
+      <c r="D2" s="4" t="str">
         <f t="shared" ref="D2:D33" si="1">"'"&amp;B2&amp;"'"</f>
-        <v>'U+0460-052F,U+1C80-1C8A,U+20B4,U+2DE0-2DFF,U+A640-A69F,U+FE2E-FE2F'</v>
-      </c>
-      <c r="F2" s="6" t="str">
+        <v>'U+0020-007E'</v>
+      </c>
+      <c r="F2" s="4" t="str">
         <f>"~"&amp;C2&amp;", ~"&amp;D2&amp;","</f>
-        <v>~'subset_01', ~'U+0460-052F,U+1C80-1C8A,U+20B4,U+2DE0-2DFF,U+A640-A69F,U+FE2E-FE2F',</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="16">
-      <c r="A3" s="4" t="s">
-        <v>685</v>
+        <v>~'gb_01', ~'U+0020-007E',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A3" s="3" t="s">
+        <v>946</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="C3" s="6" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_02'</v>
-      </c>
-      <c r="D3" s="6" t="str">
+        <v>'gb_02'</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>'U+0301,U+0400-045F,U+0490-0491,U+04B0-04B1,U+2116'</v>
-      </c>
-      <c r="F3" s="6" t="str">
+        <v>'U+00A0-0101,U+0112-0113,U+011A-011B,U+012A-012B,U+0131,U+014C-014D,U+0152-0153,U+0160-0161,U+016A-016B,U+0178,U+017D-017E,U+0192'</v>
+      </c>
+      <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F66" si="2">"~"&amp;C3&amp;", ~"&amp;D3&amp;","</f>
-        <v>~'subset_02', ~'U+0301,U+0400-045F,U+0490-0491,U+04B0-04B1,U+2116',</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="16">
-      <c r="A4" s="4" t="s">
-        <v>686</v>
+        <v>~'gb_02', ~'U+00A0-0101,U+0112-0113,U+011A-011B,U+012A-012B,U+0131,U+014C-014D,U+0152-0153,U+0160-0161,U+016A-016B,U+0178,U+017D-017E,U+0192',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A4" s="3" t="s">
+        <v>947</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="C4" s="6" t="str">
+        <v>1008</v>
+      </c>
+      <c r="C4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_03'</v>
-      </c>
-      <c r="D4" s="6" t="str">
+        <v>'gb_03'</v>
+      </c>
+      <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>'U+0900-097F,U+1CD0-1CF9,U+200C-200D,U+20A8,U+20B9,U+20F0,U+25CC,U+A830-A839,U+A8E0-A8FF,U+11B00-11B09'</v>
-      </c>
-      <c r="F4" s="6" t="str">
+        <v>'U+01CD-01DC,U+02C6-02C7,U+02C9-02CB,U+02DA,U+02DC,U+03BC,U+2013-2014,U+2018-201A,U+201C-201E,U+2020-2022,U+2025-2026,U+2030,U+2039-203B,U+2044,U+2074,U+20AC,U+2103,U+2109,U+2116,U+2121-2122,U+2160-216B,U+2170-2179,U+2190-2199,U+2212,U+221A,U+221E,U+2248,U+2260,U+2460-2469'</v>
+      </c>
+      <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_03', ~'U+0900-097F,U+1CD0-1CF9,U+200C-200D,U+20A8,U+20B9,U+20F0,U+25CC,U+A830-A839,U+A8E0-A8FF,U+11B00-11B09',</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="16">
-      <c r="A5" s="4" t="s">
-        <v>687</v>
+        <v>~'gb_03', ~'U+01CD-01DC,U+02C6-02C7,U+02C9-02CB,U+02DA,U+02DC,U+03BC,U+2013-2014,U+2018-201A,U+201C-201E,U+2020-2022,U+2025-2026,U+2030,U+2039-203B,U+2044,U+2074,U+20AC,U+2103,U+2109,U+2116,U+2121-2122,U+2160-216B,U+2170-2179,U+2190-2199,U+2212,U+221A,U+221E,U+2248,U+2260,U+2460-2469',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A5" s="3" t="s">
+        <v>948</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="C5" s="6" t="str">
+        <v>1009</v>
+      </c>
+      <c r="C5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_04'</v>
-      </c>
-      <c r="D5" s="6" t="str">
+        <v>'gb_04'</v>
+      </c>
+      <c r="D5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>'U+1F00-1FFF'</v>
-      </c>
-      <c r="F5" s="6" t="str">
+        <v>'U+2474-249B,U+2500-254B'</v>
+      </c>
+      <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_04', ~'U+1F00-1FFF',</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" ht="16">
-      <c r="A6" s="4" t="s">
-        <v>688</v>
+        <v>~'gb_04', ~'U+2474-249B,U+2500-254B',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A6" s="3" t="s">
+        <v>949</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="C6" s="6" t="str">
+        <v>1010</v>
+      </c>
+      <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_05'</v>
-      </c>
-      <c r="D6" s="6" t="str">
+        <v>'gb_05'</v>
+      </c>
+      <c r="D6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>'U+0370-0377,U+037A-037F,U+0384-038A,U+038C,U+038E-03A1,U+03A3-03FF'</v>
-      </c>
-      <c r="F6" s="6" t="str">
+        <v>'U+2550-2573,U+2581-258F,U+2593-2595,U+25A0-25A1,U+25B2-25B3,U+25BC-25BD,U+25C6-25C7,U+25CB,U+25CE-25CF,U+25E2-25E5,U+2605-2606,U+2609,U+2640,U+2642,U+2FF0-2FFB,U+3000-3002,U+3008-3017,U+303E,U+3220-3229,U+3231,U+32A3,U+338E-338F,U+339C-339E,U+33A1,U+33C4,U+33CE,U+33D1-33D2'</v>
+      </c>
+      <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_05', ~'U+0370-0377,U+037A-037F,U+0384-038A,U+038C,U+038E-03A1,U+03A3-03FF',</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="16">
-      <c r="A7" s="4" t="s">
-        <v>689</v>
+        <v>~'gb_05', ~'U+2550-2573,U+2581-258F,U+2593-2595,U+25A0-25A1,U+25B2-25B3,U+25BC-25BD,U+25C6-25C7,U+25CB,U+25CE-25CF,U+25E2-25E5,U+2605-2606,U+2609,U+2640,U+2642,U+2FF0-2FFB,U+3000-3002,U+3008-3017,U+303E,U+3220-3229,U+3231,U+32A3,U+338E-338F,U+339C-339E,U+33A1,U+33C4,U+33CE,U+33D1-33D2',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A7" s="3" t="s">
+        <v>950</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="C7" s="6" t="str">
+        <v>1011</v>
+      </c>
+      <c r="C7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_06'</v>
-      </c>
-      <c r="D7" s="6" t="str">
+        <v>'gb_06'</v>
+      </c>
+      <c r="D7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>'U+0102-0103,U+0110-0111,U+0128-0129,U+0168-0169,U+01A0-01A1,U+01AF-01B0,U+0300-0301,U+0303-0304,U+0308-0309,U+0323,U+0329,U+1EA0-1EF9,U+20AB'</v>
-      </c>
-      <c r="F7" s="6" t="str">
+        <v>'U+33D5,U+4E00-4E01,U+4E03,U+4E07-4E0E,U+4E10-4E11,U+4E13-4E16,U+4E18-4E1E,U+4E22,U+4E24-4E25,U+4E27-4E28,U+4E2A-4E2D,U+4E30,U+4E32,U+4E34,U+4E36,U+4E38-4E3B,U+4E3D-4E3F,U+4E43,U+4E45,U+4E47-4E49,U+4E4B-4E50,U+4E52-4E54,U+4E56,U+4E58-4E59,U+4E5C-4E61,U+4E66,U+4E69,U+4E70-4E71,U+4E73,U+4E7E,U+4E86,U+4E88-4E89,U+4E8B-4E8F,U+4E91-4E95,U+4E98,U+4E9A-4E9B,U+4E9F-4EA2,U+4EA4-4EA9,U+4EAB-4EAE,U+4EB2-4EB3,U+4EB5,U+4EBA-4EBB,U+4EBF-4EC7,U+4EC9-4ECB,U+4ECD-4ECE,U+4ED1'</v>
+      </c>
+      <c r="F7" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_06', ~'U+0102-0103,U+0110-0111,U+0128-0129,U+0168-0169,U+01A0-01A1,U+01AF-01B0,U+0300-0301,U+0303-0304,U+0308-0309,U+0323,U+0329,U+1EA0-1EF9,U+20AB',</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" ht="16">
-      <c r="A8" s="4" t="s">
-        <v>690</v>
+        <v>~'gb_06', ~'U+33D5,U+4E00-4E01,U+4E03,U+4E07-4E0E,U+4E10-4E11,U+4E13-4E16,U+4E18-4E1E,U+4E22,U+4E24-4E25,U+4E27-4E28,U+4E2A-4E2D,U+4E30,U+4E32,U+4E34,U+4E36,U+4E38-4E3B,U+4E3D-4E3F,U+4E43,U+4E45,U+4E47-4E49,U+4E4B-4E50,U+4E52-4E54,U+4E56,U+4E58-4E59,U+4E5C-4E61,U+4E66,U+4E69,U+4E70-4E71,U+4E73,U+4E7E,U+4E86,U+4E88-4E89,U+4E8B-4E8F,U+4E91-4E95,U+4E98,U+4E9A-4E9B,U+4E9F-4EA2,U+4EA4-4EA9,U+4EAB-4EAE,U+4EB2-4EB3,U+4EB5,U+4EBA-4EBB,U+4EBF-4EC7,U+4EC9-4ECB,U+4ECD-4ECE,U+4ED1',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A8" s="3" t="s">
+        <v>951</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="C8" s="6" t="str">
+        <v>1012</v>
+      </c>
+      <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_07'</v>
-      </c>
-      <c r="D8" s="6" t="str">
+        <v>'gb_07'</v>
+      </c>
+      <c r="D8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>'U+0100-02BA,U+02BD-02C5,U+02C7-02CC,U+02CE-02D7,U+02DD-02FF,U+0304,U+0308,U+0329,U+1D00-1DBF,U+1E00-1E9F,U+1EF2-1EFF,U+2020,U+20A0-20AB,U+20AD-20C0,U+2113,U+2C60-2C7F,U+A720-A7FF'</v>
-      </c>
-      <c r="F8" s="6" t="str">
+        <v>'U+4ED3-4ED9,U+4EDD-4EDF,U+4EE1,U+4EE3-4EE5,U+4EE8,U+4EEA-4EEC,U+4EF0,U+4EF2-4EF3,U+4EF5-4EF7,U+4EFB,U+4EFD,U+4EFF,U+4F01,U+4F09-4F0A,U+4F0D-4F11,U+4F17-4F1B,U+4F1E-4F20,U+4F22,U+4F24-4F27,U+4F2A-4F2B,U+4F2F-4F30,U+4F32,U+4F34,U+4F36,U+4F38,U+4F3A,U+4F3C-4F3D,U+4F43,U+4F46,U+4F4D-4F51,U+4F53,U+4F55,U+4F57-4F60,U+4F63-4F65,U+4F67,U+4F69,U+4F6C,U+4F6F-4F70,U+4F73-4F74,U+4F76,U+4F7B-4F7C,U+4F7E-4F7F,U+4F83-4F84,U+4F88-4F89,U+4F8B,U+4F8D,U+4F8F,U+4F91,U+4F94,U+4F97,U+4F9B,U+4F9D,U+4FA0,U+4FA3,U+4FA5-4FAA,U+4FAC,U+4FAE-4FAF,U+4FB5,U+4FBF,U+4FC3-4FC5,U+4FCA,U+4FCE-4FD1,U+4FD7-4FD8'</v>
+      </c>
+      <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_07', ~'U+0100-02BA,U+02BD-02C5,U+02C7-02CC,U+02CE-02D7,U+02DD-02FF,U+0304,U+0308,U+0329,U+1D00-1DBF,U+1E00-1E9F,U+1EF2-1EFF,U+2020,U+20A0-20AB,U+20AD-20C0,U+2113,U+2C60-2C7F,U+A720-A7FF',</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" ht="16">
-      <c r="A9" s="4" t="s">
-        <v>691</v>
+        <v>~'gb_07', ~'U+4ED3-4ED9,U+4EDD-4EDF,U+4EE1,U+4EE3-4EE5,U+4EE8,U+4EEA-4EEC,U+4EF0,U+4EF2-4EF3,U+4EF5-4EF7,U+4EFB,U+4EFD,U+4EFF,U+4F01,U+4F09-4F0A,U+4F0D-4F11,U+4F17-4F1B,U+4F1E-4F20,U+4F22,U+4F24-4F27,U+4F2A-4F2B,U+4F2F-4F30,U+4F32,U+4F34,U+4F36,U+4F38,U+4F3A,U+4F3C-4F3D,U+4F43,U+4F46,U+4F4D-4F51,U+4F53,U+4F55,U+4F57-4F60,U+4F63-4F65,U+4F67,U+4F69,U+4F6C,U+4F6F-4F70,U+4F73-4F74,U+4F76,U+4F7B-4F7C,U+4F7E-4F7F,U+4F83-4F84,U+4F88-4F89,U+4F8B,U+4F8D,U+4F8F,U+4F91,U+4F94,U+4F97,U+4F9B,U+4F9D,U+4FA0,U+4FA3,U+4FA5-4FAA,U+4FAC,U+4FAE-4FAF,U+4FB5,U+4FBF,U+4FC3-4FC5,U+4FCA,U+4FCE-4FD1,U+4FD7-4FD8',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A9" s="3" t="s">
+        <v>952</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="C9" s="6" t="str">
+        <v>1013</v>
+      </c>
+      <c r="C9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_08'</v>
-      </c>
-      <c r="D9" s="6" t="str">
+        <v>'gb_08'</v>
+      </c>
+      <c r="D9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>'U+0000-00FF,U+0131,U+0152-0153,U+02BB-02BC,U+02C6,U+02DA,U+02DC,U+0304,U+0308,U+0329,U+2000-206F,U+20AC,U+2122,U+2191,U+2193,U+2212,U+2215,U+FEFF,U+FFFD'</v>
-      </c>
-      <c r="F9" s="6" t="str">
+        <v>'U+4FDA,U+4FDC-4FDF,U+4FE1,U+4FE3,U+4FE6,U+4FE8-4FEA,U+4FED-4FEF,U+4FF1,U+4FF3,U+4FF8,U+4FFA,U+4FFE,U+500C-500D,U+500F,U+5012,U+5014,U+5018-501A,U+501C,U+501F,U+5021,U+5025-5026,U+5028-502A,U+502C-502E,U+503A,U+503C,U+503E,U+5043,U+5047-5048,U+504C,U+504E-504F,U+5055,U+505A,U+505C,U+5065,U+506C,U+5076-5077,U+507B,U+507E-5080,U+5085,U+5088,U+508D,U+50A3,U+50A5,U+50A7-50A9,U+50AC,U+50B2,U+50BA-50BB,U+50CF,U+50D6,U+50DA,U+50E6-50E7,U+50EC-50EE,U+50F3,U+50F5,U+50FB,U+5106-5107,U+510B,U+5112,U+5121,U+513F-5141,U+5143-5146,U+5148-5149,U+514B,U+514D,U+5151,U+5154-5156,U+515A,U+515C,U+5162,U+5165,U+5168,U+516B-516E,U+5170-5171,U+5173-5179,U+517B-517D,U+5180-5182,U+5185,U+5188-5189'</v>
+      </c>
+      <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_08', ~'U+0000-00FF,U+0131,U+0152-0153,U+02BB-02BC,U+02C6,U+02DA,U+02DC,U+0304,U+0308,U+0329,U+2000-206F,U+20AC,U+2122,U+2191,U+2193,U+2212,U+2215,U+FEFF,U+FFFD',</v>
+        <v>~'gb_08', ~'U+4FDA,U+4FDC-4FDF,U+4FE1,U+4FE3,U+4FE6,U+4FE8-4FEA,U+4FED-4FEF,U+4FF1,U+4FF3,U+4FF8,U+4FFA,U+4FFE,U+500C-500D,U+500F,U+5012,U+5014,U+5018-501A,U+501C,U+501F,U+5021,U+5025-5026,U+5028-502A,U+502C-502E,U+503A,U+503C,U+503E,U+5043,U+5047-5048,U+504C,U+504E-504F,U+5055,U+505A,U+505C,U+5065,U+506C,U+5076-5077,U+507B,U+507E-5080,U+5085,U+5088,U+508D,U+50A3,U+50A5,U+50A7-50A9,U+50AC,U+50B2,U+50BA-50BB,U+50CF,U+50D6,U+50DA,U+50E6-50E7,U+50EC-50EE,U+50F3,U+50F5,U+50FB,U+5106-5107,U+510B,U+5112,U+5121,U+513F-5141,U+5143-5146,U+5148-5149,U+514B,U+514D,U+5151,U+5154-5156,U+515A,U+515C,U+5162,U+5165,U+5168,U+516B-516E,U+5170-5171,U+5173-5179,U+517B-517D,U+5180-5182,U+5185,U+5188-5189',</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16">
-      <c r="A10" s="5" t="s">
-        <v>692</v>
+      <c r="A10" s="3" t="s">
+        <v>953</v>
       </c>
       <c r="B10" t="s">
-        <v>889</v>
+        <v>1014</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_09'</v>
+        <v>'gb_09'</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+0460-052F,U+1C80-1C8A,U+20B4,U+2DE0-2DFF,U+A640-A69F,U+FE2E-FE2F'</v>
+        <v>'U+518C-518D,U+5192,U+5195-5197,U+5199,U+519B-519C,U+51A0,U+51A2,U+51A4-51A5,U+51AB-51AC,U+51AF-51B3,U+51B5-51B7,U+51BB-51BD,U+51C0,U+51C4,U+51C6-51C7,U+51C9,U+51CB-51CC,U+51CF,U+51D1,U+51DB,U+51DD,U+51E0-51E1,U+51E4,U+51EB,U+51ED,U+51EF-51F0,U+51F3,U+51F5-51F6,U+51F8-51FD,U+51FF-5203,U+5206-5208,U+520A,U+520D-520E,U+5211-5212,U+5216-521B,U+521D,U+5220,U+5224,U+5228-5229,U+522B,U+522D-522E,U+5230,U+5233,U+5236-523B,U+523D,U+523F-5243,U+524A,U+524C-524D,U+5250-5251,U+5254,U+5256,U+525C,U+525E,U+5261,U+5265,U+5267,U+5269-526A,U+526F,U+5272,U+527D,U+527F,U+5281-5282,U+5288,U+5290,U+5293,U+529B,U+529D-52A3'</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_09', ~'U+0460-052F,U+1C80-1C8A,U+20B4,U+2DE0-2DFF,U+A640-A69F,U+FE2E-FE2F',</v>
+        <v>~'gb_09', ~'U+518C-518D,U+5192,U+5195-5197,U+5199,U+519B-519C,U+51A0,U+51A2,U+51A4-51A5,U+51AB-51AC,U+51AF-51B3,U+51B5-51B7,U+51BB-51BD,U+51C0,U+51C4,U+51C6-51C7,U+51C9,U+51CB-51CC,U+51CF,U+51D1,U+51DB,U+51DD,U+51E0-51E1,U+51E4,U+51EB,U+51ED,U+51EF-51F0,U+51F3,U+51F5-51F6,U+51F8-51FD,U+51FF-5203,U+5206-5208,U+520A,U+520D-520E,U+5211-5212,U+5216-521B,U+521D,U+5220,U+5224,U+5228-5229,U+522B,U+522D-522E,U+5230,U+5233,U+5236-523B,U+523D,U+523F-5243,U+524A,U+524C-524D,U+5250-5251,U+5254,U+5256,U+525C,U+525E,U+5261,U+5265,U+5267,U+5269-526A,U+526F,U+5272,U+527D,U+527F,U+5281-5282,U+5288,U+5290,U+5293,U+529B,U+529D-52A3',</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16">
-      <c r="A11" s="5" t="s">
-        <v>693</v>
+      <c r="A11" s="3" t="s">
+        <v>954</v>
       </c>
       <c r="B11" t="s">
-        <v>866</v>
+        <v>1015</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_10'</v>
+        <v>'gb_10'</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+0301,U+0400-045F,U+0490-0491,U+04B0-04B1,U+2116'</v>
+        <v>'U+52A8-52AD,U+52B1-52B3,U+52BE-52BF,U+52C3,U+52C7,U+52C9,U+52CB,U+52D0,U+52D2,U+52D6,U+52D8,U+52DF,U+52E4,U+52F0,U+52F9-52FA,U+52FE-5300,U+5305-5306,U+5308,U+530D,U+530F-5310,U+5315-5317,U+5319-531A,U+531D,U+5320-5321,U+5323,U+5326,U+532A,U+532E,U+5339-533B,U+533E-533F,U+5341,U+5343,U+5345,U+5347-534A,U+534E-534F,U+5351-5353,U+5355-5357,U+535A,U+535C,U+535E-5364,U+5366-5367,U+5369,U+536B,U+536E-5371,U+5373-5375,U+5377-5378,U+537A,U+537F,U+5382,U+5384-5386,U+5389,U+538B-538D,U+5395,U+5398,U+539A,U+539D,U+539F,U+53A2-53A3,U+53A5-53A6,U+53A8-53A9,U+53AE,U+53B6,U+53BB,U+53BF,U+53C1-53C2,U+53C8-53CD,U+53D1,U+53D4,U+53D6-53D9,U+53DB'</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_10', ~'U+0301,U+0400-045F,U+0490-0491,U+04B0-04B1,U+2116',</v>
+        <v>~'gb_10', ~'U+52A8-52AD,U+52B1-52B3,U+52BE-52BF,U+52C3,U+52C7,U+52C9,U+52CB,U+52D0,U+52D2,U+52D6,U+52D8,U+52DF,U+52E4,U+52F0,U+52F9-52FA,U+52FE-5300,U+5305-5306,U+5308,U+530D,U+530F-5310,U+5315-5317,U+5319-531A,U+531D,U+5320-5321,U+5323,U+5326,U+532A,U+532E,U+5339-533B,U+533E-533F,U+5341,U+5343,U+5345,U+5347-534A,U+534E-534F,U+5351-5353,U+5355-5357,U+535A,U+535C,U+535E-5364,U+5366-5367,U+5369,U+536B,U+536E-5371,U+5373-5375,U+5377-5378,U+537A,U+537F,U+5382,U+5384-5386,U+5389,U+538B-538D,U+5395,U+5398,U+539A,U+539D,U+539F,U+53A2-53A3,U+53A5-53A6,U+53A8-53A9,U+53AE,U+53B6,U+53BB,U+53BF,U+53C1-53C2,U+53C8-53CD,U+53D1,U+53D4,U+53D6-53D9,U+53DB',</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16">
-      <c r="A12" s="5" t="s">
-        <v>694</v>
+      <c r="A12" s="3" t="s">
+        <v>955</v>
       </c>
       <c r="B12" t="s">
-        <v>890</v>
+        <v>1016</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_11'</v>
+        <v>'gb_11'</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+0900-097F,U+1CD0-1CF9,U+200C-200D,U+20A8,U+20B9,U+20F0,U+25CC,U+A830-A839,U+A8E0-A8FF,U+11B00-11B09'</v>
+        <v>'U+53DF-53E0,U+53E3-53E6,U+53E8-53F3,U+53F5-53F9,U+53FB-53FD,U+5401,U+5403-5404,U+5406,U+5408-540A,U+540C-5413,U+5415-5417,U+541B,U+541D-5421,U+5423,U+5426-5429,U+542B-542F,U+5431-5432,U+5434-5435,U+5438-5439,U+543B-543C,U+543E,U+5440,U+5443,U+5446,U+5448,U+544A-544B,U+5450,U+5452-5459,U+545B-545C,U+5462,U+5464,U+5466,U+5468,U+5471-5473,U+5475-5478,U+547B-547D,U+5480,U+5482,U+5484,U+5486,U+548B-548C,U+548E-5490,U+5492,U+5494-5496,U+5499-549B,U+549D,U+54A3-54A4,U+54A6-54AD,U+54AF'</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_11', ~'U+0900-097F,U+1CD0-1CF9,U+200C-200D,U+20A8,U+20B9,U+20F0,U+25CC,U+A830-A839,U+A8E0-A8FF,U+11B00-11B09',</v>
+        <v>~'gb_11', ~'U+53DF-53E0,U+53E3-53E6,U+53E8-53F3,U+53F5-53F9,U+53FB-53FD,U+5401,U+5403-5404,U+5406,U+5408-540A,U+540C-5413,U+5415-5417,U+541B,U+541D-5421,U+5423,U+5426-5429,U+542B-542F,U+5431-5432,U+5434-5435,U+5438-5439,U+543B-543C,U+543E,U+5440,U+5443,U+5446,U+5448,U+544A-544B,U+5450,U+5452-5459,U+545B-545C,U+5462,U+5464,U+5466,U+5468,U+5471-5473,U+5475-5478,U+547B-547D,U+5480,U+5482,U+5484,U+5486,U+548B-548C,U+548E-5490,U+5492,U+5494-5496,U+5499-549B,U+549D,U+54A3-54A4,U+54A6-54AD,U+54AF',</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16">
-      <c r="A13" s="5" t="s">
-        <v>695</v>
+      <c r="A13" s="3" t="s">
+        <v>956</v>
       </c>
       <c r="B13" t="s">
-        <v>891</v>
+        <v>1017</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_12'</v>
+        <v>'gb_12'</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+1F00-1FFF'</v>
+        <v>'U+54B1,U+54B3-54B4,U+54B8,U+54BB,U+54BD,U+54BF-54C2,U+54C4,U+54C6-54C9,U+54CC-54D5,U+54D7,U+54D9-54DA,U+54DC-54DF,U+54E5-54EA,U+54ED-54EE,U+54F2-54F3,U+54FA,U+54FC-54FD,U+54FF,U+5501,U+5506-5507,U+5509,U+550F-5511,U+5514,U+551B,U+5520,U+5522-5524,U+5527,U+552A,U+552C,U+552E-5531,U+5533,U+5537,U+553C,U+553E-553F,U+5541,U+5543-5544,U+5546,U+5549-554A,U+5550,U+5555-5556,U+555C,U+5561,U+5564-5567,U+556A,U+556C-556E,U+5575-5578,U+557B-557C,U+557E,U+5580-5584,U+5587-558B,U+558F,U+5591,U+5594,U+5598-5599,U+559C-559D,U+559F,U+55A7,U+55B1,U+55B3,U+55B5,U+55B7,U+55B9,U+55BB,U+55BD-55BE,U+55C4-55C5,U+55C9'</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_12', ~'U+1F00-1FFF',</v>
+        <v>~'gb_12', ~'U+54B1,U+54B3-54B4,U+54B8,U+54BB,U+54BD,U+54BF-54C2,U+54C4,U+54C6-54C9,U+54CC-54D5,U+54D7,U+54D9-54DA,U+54DC-54DF,U+54E5-54EA,U+54ED-54EE,U+54F2-54F3,U+54FA,U+54FC-54FD,U+54FF,U+5501,U+5506-5507,U+5509,U+550F-5511,U+5514,U+551B,U+5520,U+5522-5524,U+5527,U+552A,U+552C,U+552E-5531,U+5533,U+5537,U+553C,U+553E-553F,U+5541,U+5543-5544,U+5546,U+5549-554A,U+5550,U+5555-5556,U+555C,U+5561,U+5564-5567,U+556A,U+556C-556E,U+5575-5578,U+557B-557C,U+557E,U+5580-5584,U+5587-558B,U+558F,U+5591,U+5594,U+5598-5599,U+559C-559D,U+559F,U+55A7,U+55B1,U+55B3,U+55B5,U+55B7,U+55B9,U+55BB,U+55BD-55BE,U+55C4-55C5,U+55C9',</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16">
-      <c r="A14" s="5" t="s">
-        <v>696</v>
+      <c r="A14" s="3" t="s">
+        <v>957</v>
       </c>
       <c r="B14" t="s">
-        <v>892</v>
+        <v>1018</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_13'</v>
+        <v>'gb_13'</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+0370-0377,U+037A-037F,U+0384-038A,U+038C,U+038E-03A1,U+03A3-03FF'</v>
+        <v>'U+55CC-55CD,U+55D1-55D4,U+55D6,U+55DC-55DD,U+55DF,U+55E1,U+55E3-55E6,U+55E8,U+55EA-55EC,U+55EF,U+55F2-55F3,U+55F5,U+55F7,U+55FD-55FE,U+5600-5601,U+5608-5609,U+560C,U+560E-560F,U+5618,U+561B,U+561E-561F,U+5623-5624,U+5627,U+562C-562D,U+5631-5632,U+5634,U+5636,U+5639,U+563B,U+563F,U+564C-564E,U+5654,U+5657-5659,U+565C,U+5662,U+5664,U+5668-566C,U+5671,U+5676,U+567B-567C,U+5685-5686,U+568E-568F,U+5693,U+56A3,U+56AF,U+56B7,U+56BC,U+56CA,U+56D4,U+56D7,U+56DA-56DB,U+56DD-56E2,U+56E4,U+56EB,U+56ED,U+56F0-56F1,U+56F4-56F5,U+56F9-56FA,U+56FD-56FF,U+5703-5704,U+5706,U+5708-570A,U+571C,U+571F,U+5723,U+5728-572A,U+572C-5730,U+5733,U+5739-573B,U+573E,U+5740,U+5742,U+5747,U+574A'</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_13', ~'U+0370-0377,U+037A-037F,U+0384-038A,U+038C,U+038E-03A1,U+03A3-03FF',</v>
+        <v>~'gb_13', ~'U+55CC-55CD,U+55D1-55D4,U+55D6,U+55DC-55DD,U+55DF,U+55E1,U+55E3-55E6,U+55E8,U+55EA-55EC,U+55EF,U+55F2-55F3,U+55F5,U+55F7,U+55FD-55FE,U+5600-5601,U+5608-5609,U+560C,U+560E-560F,U+5618,U+561B,U+561E-561F,U+5623-5624,U+5627,U+562C-562D,U+5631-5632,U+5634,U+5636,U+5639,U+563B,U+563F,U+564C-564E,U+5654,U+5657-5659,U+565C,U+5662,U+5664,U+5668-566C,U+5671,U+5676,U+567B-567C,U+5685-5686,U+568E-568F,U+5693,U+56A3,U+56AF,U+56B7,U+56BC,U+56CA,U+56D4,U+56D7,U+56DA-56DB,U+56DD-56E2,U+56E4,U+56EB,U+56ED,U+56F0-56F1,U+56F4-56F5,U+56F9-56FA,U+56FD-56FF,U+5703-5704,U+5706,U+5708-570A,U+571C,U+571F,U+5723,U+5728-572A,U+572C-5730,U+5733,U+5739-573B,U+573E,U+5740,U+5742,U+5747,U+574A',</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16">
-      <c r="A15" s="5" t="s">
-        <v>697</v>
+      <c r="A15" s="3" t="s">
+        <v>958</v>
       </c>
       <c r="B15" t="s">
-        <v>867</v>
+        <v>1019</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_14'</v>
+        <v>'gb_14'</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+0102-0103,U+0110-0111,U+0128-0129,U+0168-0169,U+01A0-01A1,U+01AF-01B0,U+0300-0301,U+0303-0304,U+0308-0309,U+0323,U+0329,U+1EA0-1EF9,U+20AB'</v>
+        <v>'U+574C-5751,U+5757,U+575A-5761,U+5764,U+5766,U+5768-576B,U+576D,U+576F,U+5773,U+5776-5777,U+577B-577C,U+5782-5786,U+578B-578C,U+5792-5793,U+579B,U+57A0-57A4,U+57A6-57A7,U+57A9,U+57AB,U+57AD-57AE,U+57B2,U+57B4,U+57B8,U+57C2-57C3,U+57CB,U+57CE-57CF,U+57D2,U+57D4-57D5,U+57D8-57DA,U+57DD,U+57DF-57E0,U+57E4,U+57ED,U+57EF,U+57F4,U+57F8-57FA,U+57FD,U+5800,U+5802,U+5806-5807,U+580B,U+580D,U+5811,U+5815,U+5819,U+581E,U+5820-5821,U+5824,U+582A,U+5830,U+5835,U+5844,U+584C-584D,U+5851,U+5854,U+5858,U+585E,U+5865,U+586B-586C,U+587E,U+5880-5881,U+5883,U+5885,U+5889,U+5892-5893,U+5899-589A,U+589E-589F,U+58A8-58A9,U+58BC,U+58C1,U+58C5,U+58D1,U+58D5,U+58E4,U+58EB-58EC,U+58EE,U+58F0,U+58F3,U+58F6,U+58F9,U+5902'</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_14', ~'U+0102-0103,U+0110-0111,U+0128-0129,U+0168-0169,U+01A0-01A1,U+01AF-01B0,U+0300-0301,U+0303-0304,U+0308-0309,U+0323,U+0329,U+1EA0-1EF9,U+20AB',</v>
+        <v>~'gb_14', ~'U+574C-5751,U+5757,U+575A-5761,U+5764,U+5766,U+5768-576B,U+576D,U+576F,U+5773,U+5776-5777,U+577B-577C,U+5782-5786,U+578B-578C,U+5792-5793,U+579B,U+57A0-57A4,U+57A6-57A7,U+57A9,U+57AB,U+57AD-57AE,U+57B2,U+57B4,U+57B8,U+57C2-57C3,U+57CB,U+57CE-57CF,U+57D2,U+57D4-57D5,U+57D8-57DA,U+57DD,U+57DF-57E0,U+57E4,U+57ED,U+57EF,U+57F4,U+57F8-57FA,U+57FD,U+5800,U+5802,U+5806-5807,U+580B,U+580D,U+5811,U+5815,U+5819,U+581E,U+5820-5821,U+5824,U+582A,U+5830,U+5835,U+5844,U+584C-584D,U+5851,U+5854,U+5858,U+585E,U+5865,U+586B-586C,U+587E,U+5880-5881,U+5883,U+5885,U+5889,U+5892-5893,U+5899-589A,U+589E-589F,U+58A8-58A9,U+58BC,U+58C1,U+58C5,U+58D1,U+58D5,U+58E4,U+58EB-58EC,U+58EE,U+58F0,U+58F3,U+58F6,U+58F9,U+5902',</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16">
-      <c r="A16" s="5" t="s">
-        <v>698</v>
+      <c r="A16" s="3" t="s">
+        <v>959</v>
       </c>
       <c r="B16" t="s">
-        <v>868</v>
+        <v>1020</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_15'</v>
+        <v>'gb_15'</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+0100-02BA,U+02BD-02C5,U+02C7-02CC,U+02CE-02D7,U+02DD-02FF,U+0304,U+0308,U+0329,U+1D00-1DBF,U+1E00-1E9F,U+1EF2-1EFF,U+2020,U+20A0-20AB,U+20AD-20C0,U+2113,U+2C60-2C7F,U+A720-A7FF'</v>
+        <v>'U+5904,U+5907,U+590D,U+590F,U+5914-5916,U+5919-591A,U+591C,U+591F,U+5924-5925,U+5927,U+5929-592B,U+592D-592F,U+5931,U+5934,U+5937-593A,U+593C,U+5941-5942,U+5944,U+5947-5949,U+594B,U+594E-594F,U+5951,U+5954-5958,U+595A,U+5960,U+5962,U+5965,U+5973-5974,U+5976,U+5978-5979,U+597D,U+5981-5984,U+5986-5988,U+598A,U+598D,U+5992-5993,U+5996-5997,U+5999,U+599E,U+59A3-59A5,U+59A8-59AB,U+59AE-59AF,U+59B2,U+59B9,U+59BB,U+59BE,U+59C6,U+59CA-59CB,U+59D0-59D4,U+59D7-59D8,U+59DA,U+59DC-59DD,U+59E3,U+59E5,U+59E8,U+59EC,U+59F9,U+59FB,U+59FF,U+5A01,U+5A03-5A09,U+5A0C,U+5A11,U+5A13,U+5A18,U+5A1C,U+5A1F-5A20,U+5A23,U+5A25,U+5A29,U+5A31-5A32,U+5A34,U+5A36,U+5A3C,U+5A40,U+5A46,U+5A49-5A4A,U+5A55'</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_15', ~'U+0100-02BA,U+02BD-02C5,U+02C7-02CC,U+02CE-02D7,U+02DD-02FF,U+0304,U+0308,U+0329,U+1D00-1DBF,U+1E00-1E9F,U+1EF2-1EFF,U+2020,U+20A0-20AB,U+20AD-20C0,U+2113,U+2C60-2C7F,U+A720-A7FF',</v>
+        <v>~'gb_15', ~'U+5904,U+5907,U+590D,U+590F,U+5914-5916,U+5919-591A,U+591C,U+591F,U+5924-5925,U+5927,U+5929-592B,U+592D-592F,U+5931,U+5934,U+5937-593A,U+593C,U+5941-5942,U+5944,U+5947-5949,U+594B,U+594E-594F,U+5951,U+5954-5958,U+595A,U+5960,U+5962,U+5965,U+5973-5974,U+5976,U+5978-5979,U+597D,U+5981-5984,U+5986-5988,U+598A,U+598D,U+5992-5993,U+5996-5997,U+5999,U+599E,U+59A3-59A5,U+59A8-59AB,U+59AE-59AF,U+59B2,U+59B9,U+59BB,U+59BE,U+59C6,U+59CA-59CB,U+59D0-59D4,U+59D7-59D8,U+59DA,U+59DC-59DD,U+59E3,U+59E5,U+59E8,U+59EC,U+59F9,U+59FB,U+59FF,U+5A01,U+5A03-5A09,U+5A0C,U+5A11,U+5A13,U+5A18,U+5A1C,U+5A1F-5A20,U+5A23,U+5A25,U+5A29,U+5A31-5A32,U+5A34,U+5A36,U+5A3C,U+5A40,U+5A46,U+5A49-5A4A,U+5A55',</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16">
-      <c r="A17" s="5" t="s">
-        <v>699</v>
+      <c r="A17" s="3" t="s">
+        <v>960</v>
       </c>
       <c r="B17" t="s">
-        <v>869</v>
+        <v>1021</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_16'</v>
+        <v>'gb_16'</v>
       </c>
       <c r="D17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+0000-00FF,U+0131,U+0152-0153,U+02BB-02BC,U+02C6,U+02DA,U+02DC,U+0304,U+0308,U+0329,U+2000-206F,U+20AC,U+2122,U+2191,U+2193,U+2212,U+2215,U+FEFF,U+FFFD'</v>
+        <v>'U+5A5A,U+5A62,U+5A67,U+5A6A,U+5A74-5A77,U+5A7A,U+5A7F,U+5A92,U+5A9A-5A9B,U+5AAA,U+5AB2-5AB3,U+5AB5,U+5AB8,U+5ABE,U+5AC1-5AC2,U+5AC9,U+5ACC,U+5AD2,U+5AD4,U+5AD6,U+5AD8,U+5ADC,U+5AE0-5AE1,U+5AE3,U+5AE6,U+5AE9,U+5AEB,U+5AF1,U+5B09,U+5B16-5B17,U+5B32,U+5B34,U+5B37,U+5B40,U+5B50-5B51,U+5B53-5B55,U+5B57-5B5D,U+5B5F,U+5B62-5B66,U+5B69-5B6A,U+5B6C,U+5B70-5B71,U+5B73,U+5B75,U+5B7A,U+5B7D,U+5B80-5B81,U+5B83-5B85,U+5B87-5B89,U+5B8B-5B8C,U+5B8F,U+5B93,U+5B95,U+5B97-5B9E,U+5BA0-5BA6,U+5BAA-5BAB,U+5BB0,U+5BB3-5BB6,U+5BB8-5BB9,U+5BBD-5BBF,U+5BC2,U+5BC4-5BC7,U+5BCC,U+5BD0,U+5BD2-5BD3,U+5BDD-5BDF,U+5BE1,U+5BE4-5BE5,U+5BE8,U+5BEE,U+5BF0'</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_16', ~'U+0000-00FF,U+0131,U+0152-0153,U+02BB-02BC,U+02C6,U+02DA,U+02DC,U+0304,U+0308,U+0329,U+2000-206F,U+20AC,U+2122,U+2191,U+2193,U+2212,U+2215,U+FEFF,U+FFFD',</v>
+        <v>~'gb_16', ~'U+5A5A,U+5A62,U+5A67,U+5A6A,U+5A74-5A77,U+5A7A,U+5A7F,U+5A92,U+5A9A-5A9B,U+5AAA,U+5AB2-5AB3,U+5AB5,U+5AB8,U+5ABE,U+5AC1-5AC2,U+5AC9,U+5ACC,U+5AD2,U+5AD4,U+5AD6,U+5AD8,U+5ADC,U+5AE0-5AE1,U+5AE3,U+5AE6,U+5AE9,U+5AEB,U+5AF1,U+5B09,U+5B16-5B17,U+5B32,U+5B34,U+5B37,U+5B40,U+5B50-5B51,U+5B53-5B55,U+5B57-5B5D,U+5B5F,U+5B62-5B66,U+5B69-5B6A,U+5B6C,U+5B70-5B71,U+5B73,U+5B75,U+5B7A,U+5B7D,U+5B80-5B81,U+5B83-5B85,U+5B87-5B89,U+5B8B-5B8C,U+5B8F,U+5B93,U+5B95,U+5B97-5B9E,U+5BA0-5BA6,U+5BAA-5BAB,U+5BB0,U+5BB3-5BB6,U+5BB8-5BB9,U+5BBD-5BBF,U+5BC2,U+5BC4-5BC7,U+5BCC,U+5BD0,U+5BD2-5BD3,U+5BDD-5BDF,U+5BE1,U+5BE4-5BE5,U+5BE8,U+5BEE,U+5BF0',</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16">
-      <c r="A18" s="5" t="s">
-        <v>700</v>
+      <c r="A18" s="3" t="s">
+        <v>961</v>
       </c>
       <c r="B18" t="s">
-        <v>785</v>
+        <v>1022</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_17'</v>
+        <v>'gb_17'</v>
       </c>
       <c r="D18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+8cbd,U+8cbf-8cc4,U+8cc7-8cc8,U+8cca,U+8ccd,U+8cd1,U+8cd3,U+8cdb-8cdc,U+8cde,U+8ce0,U+8ce2-8ce4,U+8ce6-8ce8,U+8cea,U+8ced,U+8cf4,U+8cf8,U+8cfa,U+8cfc-8cfd,U+8d04-8d05,U+8d07-8d08,U+8d0a,U+8d0d,U+8d0f,U+8d13-8d14,U+8d16,U+8d1b,U+8d20,U+8d30,U+8d32-8d33,U+8d36,U+8d3b,U+8d3d,U+8d40,U+8d42-8d43,U+8d45-8d46,U+8d48-8d4a,U+8d4d,U+8d51,U+8d53,U+8d55,U+8d59,U+8d5c-8d5d,U+8d5f,U+8d61,U+8d66-8d67,U+8d6a,U+8d6d,U+8d71,U+8d73,U+8d84,U+8d90-8d91,U+8d94-8d95,U+8d99,U+8da8,U+8daf,U+8db1,U+8db5,U+8db8,U+8dba,U+8dbc,U+8dbf,U+8dc2,U+8dc4,U+8dc6,U+8dcb,U+8dce-8dcf,U+8dd6-8dd7,U+8dda-8ddb,U+8dde,U+8de1,U+8de3-8de4,U+8de9,U+8deb-8dec,U+8df0-8df1,U+8df6-8dfd,U+8e05,U+8e07,U+8e09-8e0a,U+8e0c,U+8e0e,U+8e10,U+8e14,U+8e1d-8e1f,U+8e23,U+8e26,U+8e2b-8e31,U+8e34-8e35,U+8e39-8e3a,U+8e3d,U+8e40'</v>
+        <v>'U+5BF8-5BFC,U+5BFF,U+5C01,U+5C04,U+5C06,U+5C09-5C0A,U+5C0F,U+5C11,U+5C14-5C16,U+5C18,U+5C1A,U+5C1C-5C1D,U+5C22,U+5C24-5C25,U+5C27,U+5C2C,U+5C31,U+5C34,U+5C38-5C42,U+5C45,U+5C48-5C4B,U+5C4E-5C51,U+5C55,U+5C59,U+5C5E,U+5C60-5C61,U+5C63,U+5C65-5C66,U+5C6E-5C6F,U+5C71,U+5C79-5C7A,U+5C7F,U+5C81-5C82,U+5C88,U+5C8C-5C8D,U+5C90-5C91,U+5C94,U+5C96-5C9C,U+5CA2-5CA3,U+5CA9,U+5CAB-5CAD,U+5CB1,U+5CB3,U+5CB5,U+5CB7-5CB8,U+5CBD,U+5CBF,U+5CC1,U+5CC4,U+5CCB,U+5CD2,U+5CD9,U+5CE1,U+5CE4-5CE6,U+5CE8,U+5CEA,U+5CED,U+5CF0,U+5CFB,U+5D02-5D03,U+5D06-5D07,U+5D0E,U+5D14,U+5D16,U+5D1B,U+5D1E,U+5D24,U+5D26-5D27,U+5D29,U+5D2D-5D2E,U+5D34,U+5D3D-5D3E,U+5D47,U+5D4A-5D4C,U+5D58,U+5D5B,U+5D5D'</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_17', ~'U+8cbd,U+8cbf-8cc4,U+8cc7-8cc8,U+8cca,U+8ccd,U+8cd1,U+8cd3,U+8cdb-8cdc,U+8cde,U+8ce0,U+8ce2-8ce4,U+8ce6-8ce8,U+8cea,U+8ced,U+8cf4,U+8cf8,U+8cfa,U+8cfc-8cfd,U+8d04-8d05,U+8d07-8d08,U+8d0a,U+8d0d,U+8d0f,U+8d13-8d14,U+8d16,U+8d1b,U+8d20,U+8d30,U+8d32-8d33,U+8d36,U+8d3b,U+8d3d,U+8d40,U+8d42-8d43,U+8d45-8d46,U+8d48-8d4a,U+8d4d,U+8d51,U+8d53,U+8d55,U+8d59,U+8d5c-8d5d,U+8d5f,U+8d61,U+8d66-8d67,U+8d6a,U+8d6d,U+8d71,U+8d73,U+8d84,U+8d90-8d91,U+8d94-8d95,U+8d99,U+8da8,U+8daf,U+8db1,U+8db5,U+8db8,U+8dba,U+8dbc,U+8dbf,U+8dc2,U+8dc4,U+8dc6,U+8dcb,U+8dce-8dcf,U+8dd6-8dd7,U+8dda-8ddb,U+8dde,U+8de1,U+8de3-8de4,U+8de9,U+8deb-8dec,U+8df0-8df1,U+8df6-8dfd,U+8e05,U+8e07,U+8e09-8e0a,U+8e0c,U+8e0e,U+8e10,U+8e14,U+8e1d-8e1f,U+8e23,U+8e26,U+8e2b-8e31,U+8e34-8e35,U+8e39-8e3a,U+8e3d,U+8e40',</v>
+        <v>~'gb_17', ~'U+5BF8-5BFC,U+5BFF,U+5C01,U+5C04,U+5C06,U+5C09-5C0A,U+5C0F,U+5C11,U+5C14-5C16,U+5C18,U+5C1A,U+5C1C-5C1D,U+5C22,U+5C24-5C25,U+5C27,U+5C2C,U+5C31,U+5C34,U+5C38-5C42,U+5C45,U+5C48-5C4B,U+5C4E-5C51,U+5C55,U+5C59,U+5C5E,U+5C60-5C61,U+5C63,U+5C65-5C66,U+5C6E-5C6F,U+5C71,U+5C79-5C7A,U+5C7F,U+5C81-5C82,U+5C88,U+5C8C-5C8D,U+5C90-5C91,U+5C94,U+5C96-5C9C,U+5CA2-5CA3,U+5CA9,U+5CAB-5CAD,U+5CB1,U+5CB3,U+5CB5,U+5CB7-5CB8,U+5CBD,U+5CBF,U+5CC1,U+5CC4,U+5CCB,U+5CD2,U+5CD9,U+5CE1,U+5CE4-5CE6,U+5CE8,U+5CEA,U+5CED,U+5CF0,U+5CFB,U+5D02-5D03,U+5D06-5D07,U+5D0E,U+5D14,U+5D16,U+5D1B,U+5D1E,U+5D24,U+5D26-5D27,U+5D29,U+5D2D-5D2E,U+5D34,U+5D3D-5D3E,U+5D47,U+5D4A-5D4C,U+5D58,U+5D5B,U+5D5D',</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16">
-      <c r="A19" t="s">
-        <v>701</v>
+      <c r="A19" s="3" t="s">
+        <v>962</v>
       </c>
       <c r="B19" t="s">
-        <v>786</v>
+        <v>1023</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_18'</v>
+        <v>'gb_18'</v>
       </c>
       <c r="D19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+8b80,U+8b83,U+8b8a,U+8b8c,U+8b90,U+8b93,U+8b99-8b9a,U+8ba0,U+8ba3,U+8ba5-8ba7,U+8baa-8bac,U+8bb4-8bb5,U+8bb7,U+8bb9,U+8bc2-8bc3,U+8bc5,U+8bcb-8bcc,U+8bce-8bd0,U+8bd2-8bd4,U+8bd6,U+8bd8-8bd9,U+8bdc,U+8bdf,U+8be3-8be4,U+8be7-8be9,U+8beb-8bec,U+8bee,U+8bf0,U+8bf2-8bf3,U+8bf6,U+8bf9,U+8bfc-8bfd,U+8bff-8c00,U+8c02,U+8c04,U+8c06-8c07,U+8c0c,U+8c0f,U+8c11-8c12,U+8c14-8c1b,U+8c1d-8c21,U+8c24-8c25,U+8c27,U+8c2a-8c2c,U+8c2e-8c30,U+8c32-8c36,U+8c3f,U+8c47-8c4c,U+8c4e-8c50,U+8c54-8c56,U+8c62,U+8c68,U+8c6c,U+8c73,U+8c78,U+8c7a,U+8c82,U+8c85,U+8c89-8c8a,U+8c8d-8c8e,U+8c90,U+8c93-8c94,U+8c98,U+8c9d-8c9e,U+8ca0-8ca2,U+8ca7-8cac,U+8caf-8cb0,U+8cb3-8cb4,U+8cb6-8cb9,U+8cbb-8cbc'</v>
+        <v>'U+5D69,U+5D6B-5D6C,U+5D6F,U+5D74,U+5D82,U+5D99,U+5D9D,U+5DB7,U+5DC5,U+5DCD,U+5DDB,U+5DDD-5DDE,U+5DE1-5DE2,U+5DE5-5DE9,U+5DEB,U+5DEE-5DEF,U+5DF1-5DF4,U+5DF7,U+5DFD-5DFE,U+5E01-5E03,U+5E05-5E06,U+5E08,U+5E0C,U+5E0F-5E11,U+5E14-5E16,U+5E18-5E1D,U+5E26-5E27,U+5E2D-5E2E,U+5E31,U+5E37-5E38,U+5E3B-5E3D,U+5E42,U+5E44-5E45,U+5E4C,U+5E54-5E55,U+5E5B,U+5E5E,U+5E61-5E62,U+5E72-5E74,U+5E76,U+5E78,U+5E7A-5E7D,U+5E7F-5E80,U+5E84,U+5E86-5E87,U+5E8A-5E8B,U+5E8F-5E91,U+5E93-5E97,U+5E99-5E9A,U+5E9C,U+5E9E-5EA0,U+5EA5-5EA7,U+5EAD,U+5EB3,U+5EB5-5EB9,U+5EBE,U+5EC9-5ECA,U+5ED1-5ED3,U+5ED6,U+5EDB,U+5EE8,U+5EEA,U+5EF4,U+5EF6-5EF7,U+5EFA'</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_18', ~'U+8b80,U+8b83,U+8b8a,U+8b8c,U+8b90,U+8b93,U+8b99-8b9a,U+8ba0,U+8ba3,U+8ba5-8ba7,U+8baa-8bac,U+8bb4-8bb5,U+8bb7,U+8bb9,U+8bc2-8bc3,U+8bc5,U+8bcb-8bcc,U+8bce-8bd0,U+8bd2-8bd4,U+8bd6,U+8bd8-8bd9,U+8bdc,U+8bdf,U+8be3-8be4,U+8be7-8be9,U+8beb-8bec,U+8bee,U+8bf0,U+8bf2-8bf3,U+8bf6,U+8bf9,U+8bfc-8bfd,U+8bff-8c00,U+8c02,U+8c04,U+8c06-8c07,U+8c0c,U+8c0f,U+8c11-8c12,U+8c14-8c1b,U+8c1d-8c21,U+8c24-8c25,U+8c27,U+8c2a-8c2c,U+8c2e-8c30,U+8c32-8c36,U+8c3f,U+8c47-8c4c,U+8c4e-8c50,U+8c54-8c56,U+8c62,U+8c68,U+8c6c,U+8c73,U+8c78,U+8c7a,U+8c82,U+8c85,U+8c89-8c8a,U+8c8d-8c8e,U+8c90,U+8c93-8c94,U+8c98,U+8c9d-8c9e,U+8ca0-8ca2,U+8ca7-8cac,U+8caf-8cb0,U+8cb3-8cb4,U+8cb6-8cb9,U+8cbb-8cbc',</v>
+        <v>~'gb_18', ~'U+5D69,U+5D6B-5D6C,U+5D6F,U+5D74,U+5D82,U+5D99,U+5D9D,U+5DB7,U+5DC5,U+5DCD,U+5DDB,U+5DDD-5DDE,U+5DE1-5DE2,U+5DE5-5DE9,U+5DEB,U+5DEE-5DEF,U+5DF1-5DF4,U+5DF7,U+5DFD-5DFE,U+5E01-5E03,U+5E05-5E06,U+5E08,U+5E0C,U+5E0F-5E11,U+5E14-5E16,U+5E18-5E1D,U+5E26-5E27,U+5E2D-5E2E,U+5E31,U+5E37-5E38,U+5E3B-5E3D,U+5E42,U+5E44-5E45,U+5E4C,U+5E54-5E55,U+5E5B,U+5E5E,U+5E61-5E62,U+5E72-5E74,U+5E76,U+5E78,U+5E7A-5E7D,U+5E7F-5E80,U+5E84,U+5E86-5E87,U+5E8A-5E8B,U+5E8F-5E91,U+5E93-5E97,U+5E99-5E9A,U+5E9C,U+5E9E-5EA0,U+5EA5-5EA7,U+5EAD,U+5EB3,U+5EB5-5EB9,U+5EBE,U+5EC9-5ECA,U+5ED1-5ED3,U+5ED6,U+5EDB,U+5EE8,U+5EEA,U+5EF4,U+5EF6-5EF7,U+5EFA',</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16">
-      <c r="A20" t="s">
-        <v>702</v>
+      <c r="A20" s="3" t="s">
+        <v>963</v>
       </c>
       <c r="B20" t="s">
-        <v>787</v>
+        <v>1024</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_19'</v>
+        <v>'gb_19'</v>
       </c>
       <c r="D20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+8a15-8a18,U+8a1a-8a1b,U+8a1d,U+8a1f,U+8a22-8a23,U+8a25,U+8a2b,U+8a2d,U+8a31,U+8a33-8a34,U+8a36-8a38,U+8a3a,U+8a3c,U+8a3e,U+8a40-8a41,U+8a46,U+8a48,U+8a50,U+8a52,U+8a54-8a55,U+8a58,U+8a5b,U+8a5d-8a63,U+8a66,U+8a69-8a6b,U+8a6d-8a6e,U+8a70,U+8a72-8a73,U+8a7a,U+8a85,U+8a87,U+8a8a,U+8a8c-8a8d,U+8a90-8a92,U+8a95,U+8a98,U+8aa0-8aa1,U+8aa3-8aa6,U+8aa8-8aa9,U+8aac-8aae,U+8ab0,U+8ab2,U+8ab8-8ab9,U+8abc,U+8abe-8abf,U+8ac7,U+8acf,U+8ad2,U+8ad6-8ad7,U+8adb-8adc,U+8adf,U+8ae1,U+8ae6-8ae8,U+8aeb,U+8aed-8aee,U+8af1,U+8af3-8af4,U+8af7-8af8,U+8afa,U+8afe,U+8b00-8b02,U+8b07,U+8b0a,U+8b0c,U+8b0e,U+8b10,U+8b17,U+8b19,U+8b1b,U+8b1d,U+8b20-8b21,U+8b26,U+8b28,U+8b2c,U+8b33,U+8b39,U+8b3e-8b3f,U+8b41,U+8b45,U+8b49,U+8b4c,U+8b4f,U+8b57-8b58,U+8b5a,U+8b5c,U+8b5e,U+8b60,U+8b6c,U+8b6f-8b70,U+8b72,U+8b74,U+8b77,U+8b7d'</v>
+        <v>'U+5EFE-5F04,U+5F08,U+5F0A-5F0B,U+5F0F,U+5F11,U+5F13,U+5F15,U+5F17-5F18,U+5F1B,U+5F1F-5F20,U+5F25-5F27,U+5F29-5F2A,U+5F2D,U+5F2F,U+5F31,U+5F39-5F3A,U+5F3C,U+5F40,U+5F50,U+5F52-5F53,U+5F55-5F58,U+5F5D,U+5F61-5F62,U+5F64,U+5F66,U+5F69-5F6A,U+5F6C-5F6D,U+5F70-5F71,U+5F73,U+5F77,U+5F79,U+5F7B-5F7C,U+5F80-5F82,U+5F84-5F85,U+5F87-5F8C,U+5F90,U+5F92,U+5F95,U+5F97-5F99,U+5F9C,U+5FA1,U+5FA8,U+5FAA,U+5FAD-5FAE,U+5FB5,U+5FB7,U+5FBC-5FBD,U+5FC3-5FC6,U+5FC9,U+5FCC-5FCD,U+5FCF-5FD2,U+5FD6-5FD9,U+5FDD,U+5FE0-5FE1,U+5FE4,U+5FE7,U+5FEA-5FEB,U+5FED-5FEE,U+5FF1,U+5FF5,U+5FF8,U+5FFB,U+5FFD-6006,U+600A,U+600D-600F,U+6012,U+6014-6016,U+6019'</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_19', ~'U+8a15-8a18,U+8a1a-8a1b,U+8a1d,U+8a1f,U+8a22-8a23,U+8a25,U+8a2b,U+8a2d,U+8a31,U+8a33-8a34,U+8a36-8a38,U+8a3a,U+8a3c,U+8a3e,U+8a40-8a41,U+8a46,U+8a48,U+8a50,U+8a52,U+8a54-8a55,U+8a58,U+8a5b,U+8a5d-8a63,U+8a66,U+8a69-8a6b,U+8a6d-8a6e,U+8a70,U+8a72-8a73,U+8a7a,U+8a85,U+8a87,U+8a8a,U+8a8c-8a8d,U+8a90-8a92,U+8a95,U+8a98,U+8aa0-8aa1,U+8aa3-8aa6,U+8aa8-8aa9,U+8aac-8aae,U+8ab0,U+8ab2,U+8ab8-8ab9,U+8abc,U+8abe-8abf,U+8ac7,U+8acf,U+8ad2,U+8ad6-8ad7,U+8adb-8adc,U+8adf,U+8ae1,U+8ae6-8ae8,U+8aeb,U+8aed-8aee,U+8af1,U+8af3-8af4,U+8af7-8af8,U+8afa,U+8afe,U+8b00-8b02,U+8b07,U+8b0a,U+8b0c,U+8b0e,U+8b10,U+8b17,U+8b19,U+8b1b,U+8b1d,U+8b20-8b21,U+8b26,U+8b28,U+8b2c,U+8b33,U+8b39,U+8b3e-8b3f,U+8b41,U+8b45,U+8b49,U+8b4c,U+8b4f,U+8b57-8b58,U+8b5a,U+8b5c,U+8b5e,U+8b60,U+8b6c,U+8b6f-8b70,U+8b72,U+8b74,U+8b77,U+8b7d',</v>
+        <v>~'gb_19', ~'U+5EFE-5F04,U+5F08,U+5F0A-5F0B,U+5F0F,U+5F11,U+5F13,U+5F15,U+5F17-5F18,U+5F1B,U+5F1F-5F20,U+5F25-5F27,U+5F29-5F2A,U+5F2D,U+5F2F,U+5F31,U+5F39-5F3A,U+5F3C,U+5F40,U+5F50,U+5F52-5F53,U+5F55-5F58,U+5F5D,U+5F61-5F62,U+5F64,U+5F66,U+5F69-5F6A,U+5F6C-5F6D,U+5F70-5F71,U+5F73,U+5F77,U+5F79,U+5F7B-5F7C,U+5F80-5F82,U+5F84-5F85,U+5F87-5F8C,U+5F90,U+5F92,U+5F95,U+5F97-5F99,U+5F9C,U+5FA1,U+5FA8,U+5FAA,U+5FAD-5FAE,U+5FB5,U+5FB7,U+5FBC-5FBD,U+5FC3-5FC6,U+5FC9,U+5FCC-5FCD,U+5FCF-5FD2,U+5FD6-5FD9,U+5FDD,U+5FE0-5FE1,U+5FE4,U+5FE7,U+5FEA-5FEB,U+5FED-5FEE,U+5FF1,U+5FF5,U+5FF8,U+5FFB,U+5FFD-6006,U+600A,U+600D-600F,U+6012,U+6014-6016,U+6019',</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16">
-      <c r="A21" t="s">
-        <v>703</v>
+      <c r="A21" s="3" t="s">
+        <v>964</v>
       </c>
       <c r="B21" t="s">
-        <v>788</v>
+        <v>1025</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_20'</v>
+        <v>'gb_20'</v>
       </c>
       <c r="D21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+8882,U+8884-8886,U+8888,U+888f,U+8892-8893,U+889b,U+88a2,U+88a4,U+88a6,U+88a8,U+88aa,U+88ae,U+88b1,U+88b4,U+88b7,U+88bc,U+88c0,U+88c6-88c9,U+88ce-88cf,U+88d1-88d3,U+88d8,U+88db-88dd,U+88df,U+88e1-88e3,U+88e5,U+88e8,U+88ec,U+88f0-88f1,U+88f3-88f4,U+88fc-88fe,U+8900,U+8902,U+8906-8907,U+8909-890c,U+8912-8915,U+8918-891b,U+8921,U+8925,U+892b,U+8930,U+8932,U+8934,U+8936,U+893b,U+893d,U+8941,U+894c,U+8955-8956,U+8959,U+895c,U+895e-8960,U+8966,U+896a,U+896c,U+896f-8970,U+8972,U+897b,U+897e,U+8980,U+8983,U+8985,U+8987-8988,U+898c,U+898f,U+8993,U+8997,U+899a,U+89a1,U+89a7,U+89a9-89aa,U+89b2-89b3,U+89b7,U+89c0,U+89c7,U+89ca-89cc,U+89ce-89d1,U+89d6,U+89da,U+89dc,U+89de,U+89e5,U+89e7,U+89eb,U+89ef,U+89f1,U+89f3-89f4,U+89f8,U+89ff,U+8a01-8a03,U+8a07-8a0a,U+8a0e-8a0f,U+8a13'</v>
+        <v>'U+601B-601D,U+6020-6021,U+6025-602B,U+602F,U+6035,U+603B-603C,U+603F,U+6041-6043,U+604B,U+604D,U+6050,U+6052,U+6055,U+6059-605A,U+605D,U+6062-6064,U+6067-606D,U+606F-6070,U+6073,U+6076,U+6078-607D,U+607F,U+6083-6084,U+6089,U+608C-608D,U+6092,U+6094,U+6096,U+609A-609B,U+609D,U+609F-60A0,U+60A3,U+60A6,U+60A8,U+60AB-60AD,U+60AF,U+60B1-60B2,U+60B4,U+60B8,U+60BB-60BC,U+60C5-60C6,U+60CA-60CB,U+60D1,U+60D5,U+60D8,U+60DA,U+60DC-60DD,U+60DF-60E0,U+60E6-60E9,U+60EB-60F0,U+60F3-60F4,U+60F6,U+60F9-60FA,U+6100-6101,U+6106,U+6108-6109,U+610D-610F,U+6115,U+611A,U+611F-6120,U+6123-6124,U+6126-6127,U+612B,U+613F,U+6148,U+614A,U+614C,U+614E,U+6151,U+6155,U+615D,U+6162'</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_20', ~'U+8882,U+8884-8886,U+8888,U+888f,U+8892-8893,U+889b,U+88a2,U+88a4,U+88a6,U+88a8,U+88aa,U+88ae,U+88b1,U+88b4,U+88b7,U+88bc,U+88c0,U+88c6-88c9,U+88ce-88cf,U+88d1-88d3,U+88d8,U+88db-88dd,U+88df,U+88e1-88e3,U+88e5,U+88e8,U+88ec,U+88f0-88f1,U+88f3-88f4,U+88fc-88fe,U+8900,U+8902,U+8906-8907,U+8909-890c,U+8912-8915,U+8918-891b,U+8921,U+8925,U+892b,U+8930,U+8932,U+8934,U+8936,U+893b,U+893d,U+8941,U+894c,U+8955-8956,U+8959,U+895c,U+895e-8960,U+8966,U+896a,U+896c,U+896f-8970,U+8972,U+897b,U+897e,U+8980,U+8983,U+8985,U+8987-8988,U+898c,U+898f,U+8993,U+8997,U+899a,U+89a1,U+89a7,U+89a9-89aa,U+89b2-89b3,U+89b7,U+89c0,U+89c7,U+89ca-89cc,U+89ce-89d1,U+89d6,U+89da,U+89dc,U+89de,U+89e5,U+89e7,U+89eb,U+89ef,U+89f1,U+89f3-89f4,U+89f8,U+89ff,U+8a01-8a03,U+8a07-8a0a,U+8a0e-8a0f,U+8a13',</v>
+        <v>~'gb_20', ~'U+601B-601D,U+6020-6021,U+6025-602B,U+602F,U+6035,U+603B-603C,U+603F,U+6041-6043,U+604B,U+604D,U+6050,U+6052,U+6055,U+6059-605A,U+605D,U+6062-6064,U+6067-606D,U+606F-6070,U+6073,U+6076,U+6078-607D,U+607F,U+6083-6084,U+6089,U+608C-608D,U+6092,U+6094,U+6096,U+609A-609B,U+609D,U+609F-60A0,U+60A3,U+60A6,U+60A8,U+60AB-60AD,U+60AF,U+60B1-60B2,U+60B4,U+60B8,U+60BB-60BC,U+60C5-60C6,U+60CA-60CB,U+60D1,U+60D5,U+60D8,U+60DA,U+60DC-60DD,U+60DF-60E0,U+60E6-60E9,U+60EB-60F0,U+60F3-60F4,U+60F6,U+60F9-60FA,U+6100-6101,U+6106,U+6108-6109,U+610D-610F,U+6115,U+611A,U+611F-6120,U+6123-6124,U+6126-6127,U+612B,U+613F,U+6148,U+614A,U+614C,U+614E,U+6151,U+6155,U+615D,U+6162',</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16">
-      <c r="A22" t="s">
-        <v>704</v>
+      <c r="A22" s="3" t="s">
+        <v>965</v>
       </c>
       <c r="B22" t="s">
-        <v>789</v>
+        <v>1026</v>
       </c>
       <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_21'</v>
+        <v>'gb_21'</v>
       </c>
       <c r="D22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+86f4,U+86f8-86f9,U+86fb,U+86fe,U+8703,U+8706-870a,U+870d,U+8711-8713,U+871a,U+871e,U+8722-8723,U+8725,U+8729,U+872e,U+8731,U+8734,U+8737,U+873a-873b,U+873e-8740,U+8742,U+8747-8748,U+8753,U+8755,U+8757-8758,U+875d,U+875f,U+8762-8766,U+8768,U+876e,U+8770,U+8772,U+8775,U+8778,U+877b-877e,U+8782,U+8785,U+8788,U+878b,U+8793,U+8797,U+879a,U+879e-87a0,U+87a2-87a3,U+87a8,U+87ab-87ad,U+87af,U+87b3,U+87b5,U+87bd,U+87c0,U+87c4,U+87c6,U+87ca-87cb,U+87d1-87d2,U+87db-87dc,U+87de,U+87e0,U+87e5,U+87ea,U+87ec,U+87ee,U+87f2-87f3,U+87fb,U+87fd-87fe,U+8802-8803,U+8805,U+880a-880b,U+880d,U+8813-8816,U+8819,U+881b,U+881f,U+8821,U+8823,U+8831-8832,U+8835-8836,U+8839,U+883b-883c,U+8844,U+8846,U+884a,U+884e,U+8852-8853,U+8855,U+8859,U+885b,U+885d-885e,U+8862,U+8864,U+8869-886a,U+886e-886f,U+8872,U+8879,U+887d-887f'</v>
+        <v>'U+6167-6168,U+6170,U+6175,U+6177,U+618B,U+618E,U+6194,U+619D,U+61A7-61A9,U+61AC,U+61B7,U+61BE,U+61C2,U+61C8,U+61CA-61CB,U+61D1-61D2,U+61D4,U+61E6,U+61F5,U+61FF,U+6206,U+6208,U+620A-6212,U+6215-6218,U+621A-621B,U+621F,U+6221-6222,U+6224-6225,U+622A,U+622C,U+622E,U+6233-6234,U+6237,U+623D-6241,U+6243,U+6247-6249,U+624B-624E,U+6251-6254,U+6258,U+625B,U+6263,U+6266-6267,U+6269-6270,U+6273,U+6276,U+6279,U+627C,U+627E-6280,U+6284,U+6289-628A,U+6291-6293,U+6295-6298,U+629A-629B,U+629F-62A2,U+62A4-62A5,U+62A8,U+62AB-62AC,U+62B1,U+62B5,U+62B9,U+62BB-62BD,U+62BF,U+62C2,U+62C4-62CA'</v>
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_21', ~'U+86f4,U+86f8-86f9,U+86fb,U+86fe,U+8703,U+8706-870a,U+870d,U+8711-8713,U+871a,U+871e,U+8722-8723,U+8725,U+8729,U+872e,U+8731,U+8734,U+8737,U+873a-873b,U+873e-8740,U+8742,U+8747-8748,U+8753,U+8755,U+8757-8758,U+875d,U+875f,U+8762-8766,U+8768,U+876e,U+8770,U+8772,U+8775,U+8778,U+877b-877e,U+8782,U+8785,U+8788,U+878b,U+8793,U+8797,U+879a,U+879e-87a0,U+87a2-87a3,U+87a8,U+87ab-87ad,U+87af,U+87b3,U+87b5,U+87bd,U+87c0,U+87c4,U+87c6,U+87ca-87cb,U+87d1-87d2,U+87db-87dc,U+87de,U+87e0,U+87e5,U+87ea,U+87ec,U+87ee,U+87f2-87f3,U+87fb,U+87fd-87fe,U+8802-8803,U+8805,U+880a-880b,U+880d,U+8813-8816,U+8819,U+881b,U+881f,U+8821,U+8823,U+8831-8832,U+8835-8836,U+8839,U+883b-883c,U+8844,U+8846,U+884a,U+884e,U+8852-8853,U+8855,U+8859,U+885b,U+885d-885e,U+8862,U+8864,U+8869-886a,U+886e-886f,U+8872,U+8879,U+887d-887f',</v>
+        <v>~'gb_21', ~'U+6167-6168,U+6170,U+6175,U+6177,U+618B,U+618E,U+6194,U+619D,U+61A7-61A9,U+61AC,U+61B7,U+61BE,U+61C2,U+61C8,U+61CA-61CB,U+61D1-61D2,U+61D4,U+61E6,U+61F5,U+61FF,U+6206,U+6208,U+620A-6212,U+6215-6218,U+621A-621B,U+621F,U+6221-6222,U+6224-6225,U+622A,U+622C,U+622E,U+6233-6234,U+6237,U+623D-6241,U+6243,U+6247-6249,U+624B-624E,U+6251-6254,U+6258,U+625B,U+6263,U+6266-6267,U+6269-6270,U+6273,U+6276,U+6279,U+627C,U+627E-6280,U+6284,U+6289-628A,U+6291-6293,U+6295-6298,U+629A-629B,U+629F-62A2,U+62A4-62A5,U+62A8,U+62AB-62AC,U+62B1,U+62B5,U+62B9,U+62BB-62BD,U+62BF,U+62C2,U+62C4-62CA',</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16">
-      <c r="A23" t="s">
-        <v>705</v>
+      <c r="A23" s="3" t="s">
+        <v>966</v>
       </c>
       <c r="B23" t="s">
-        <v>790</v>
+        <v>1027</v>
       </c>
       <c r="C23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_22'</v>
+        <v>'gb_22'</v>
       </c>
       <c r="D23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+8548,U+854e,U+8553,U+8556-8557,U+8559,U+855e,U+8561,U+8564-8565,U+8568-856a,U+856d,U+856f-8570,U+8572,U+8576,U+8579-857b,U+8580,U+8585-8586,U+8588,U+858a,U+858f,U+8591,U+8594,U+8599,U+859c,U+85a2,U+85a4,U+85a6,U+85a8-85a9,U+85ab-85ac,U+85ae,U+85b7-85b9,U+85be,U+85c1,U+85c7,U+85cd,U+85d0,U+85d3,U+85d5,U+85dc-85dd,U+85df-85e0,U+85e5-85e6,U+85e8-85ea,U+85f4,U+85f9,U+85fe-85ff,U+8602,U+8605-8607,U+860a-860b,U+8616,U+8618,U+861a,U+8627,U+8629,U+862d,U+8638,U+863c,U+863f,U+864d,U+864f,U+8652-8655,U+865b-865c,U+865f,U+8662,U+8667,U+866c,U+866e,U+8671,U+8675,U+867a-867c,U+867f,U+868b,U+868d,U+8693,U+869c-869d,U+86a1,U+86a3-86a4,U+86a7-86a9,U+86ac,U+86af-86b1,U+86b4-86b6,U+86ba,U+86c0,U+86c4,U+86c6,U+86c9-86ca,U+86cd-86d1,U+86d4,U+86d8,U+86de-86df,U+86e4,U+86e6,U+86e9,U+86ed,U+86ef-86f3'</v>
+        <v>'U+62CC-62CE,U+62D0,U+62D2-62D4,U+62D6-62DC,U+62DF,U+62E2-62E3,U+62E5-62E9,U+62EC-62EF,U+62F1,U+62F3-62F4,U+62F6-62F7,U+62FC-62FF,U+6301-6302,U+6307-6309,U+630E,U+6311,U+6316,U+631A-631B,U+631D-6325,U+6328,U+632A-632B,U+632F,U+6332,U+6339-633A,U+633D,U+6342-6343,U+6345-6346,U+6349,U+634B-6350,U+6355,U+635E-635F,U+6361-6363,U+6367,U+6369,U+636D-636E,U+6371,U+6376-6377,U+637A-637B,U+6380,U+6382,U+6387-638A,U+638C,U+638E-6390,U+6392,U+6396,U+6398,U+63A0,U+63A2-63A3,U+63A5,U+63A7-63AA,U+63AC-63AE,U+63B0,U+63B3-63B4,U+63B7-63B8,U+63BA,U+63BC,U+63BE,U+63C4,U+63C6,U+63C9,U+63CD-63D0,U+63D2'</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_22', ~'U+8548,U+854e,U+8553,U+8556-8557,U+8559,U+855e,U+8561,U+8564-8565,U+8568-856a,U+856d,U+856f-8570,U+8572,U+8576,U+8579-857b,U+8580,U+8585-8586,U+8588,U+858a,U+858f,U+8591,U+8594,U+8599,U+859c,U+85a2,U+85a4,U+85a6,U+85a8-85a9,U+85ab-85ac,U+85ae,U+85b7-85b9,U+85be,U+85c1,U+85c7,U+85cd,U+85d0,U+85d3,U+85d5,U+85dc-85dd,U+85df-85e0,U+85e5-85e6,U+85e8-85ea,U+85f4,U+85f9,U+85fe-85ff,U+8602,U+8605-8607,U+860a-860b,U+8616,U+8618,U+861a,U+8627,U+8629,U+862d,U+8638,U+863c,U+863f,U+864d,U+864f,U+8652-8655,U+865b-865c,U+865f,U+8662,U+8667,U+866c,U+866e,U+8671,U+8675,U+867a-867c,U+867f,U+868b,U+868d,U+8693,U+869c-869d,U+86a1,U+86a3-86a4,U+86a7-86a9,U+86ac,U+86af-86b1,U+86b4-86b6,U+86ba,U+86c0,U+86c4,U+86c6,U+86c9-86ca,U+86cd-86d1,U+86d4,U+86d8,U+86de-86df,U+86e4,U+86e6,U+86e9,U+86ed,U+86ef-86f3',</v>
+        <v>~'gb_22', ~'U+62CC-62CE,U+62D0,U+62D2-62D4,U+62D6-62DC,U+62DF,U+62E2-62E3,U+62E5-62E9,U+62EC-62EF,U+62F1,U+62F3-62F4,U+62F6-62F7,U+62FC-62FF,U+6301-6302,U+6307-6309,U+630E,U+6311,U+6316,U+631A-631B,U+631D-6325,U+6328,U+632A-632B,U+632F,U+6332,U+6339-633A,U+633D,U+6342-6343,U+6345-6346,U+6349,U+634B-6350,U+6355,U+635E-635F,U+6361-6363,U+6367,U+6369,U+636D-636E,U+6371,U+6376-6377,U+637A-637B,U+6380,U+6382,U+6387-638A,U+638C,U+638E-6390,U+6392,U+6396,U+6398,U+63A0,U+63A2-63A3,U+63A5,U+63A7-63AA,U+63AC-63AE,U+63B0,U+63B3-63B4,U+63B7-63B8,U+63BA,U+63BC,U+63BE,U+63C4,U+63C6,U+63C9,U+63CD-63D0,U+63D2',</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16">
-      <c r="A24" t="s">
-        <v>706</v>
+      <c r="A24" s="3" t="s">
+        <v>967</v>
       </c>
       <c r="B24" t="s">
-        <v>791</v>
+        <v>1028</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_23'</v>
+        <v>'gb_23'</v>
       </c>
       <c r="D24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+83c5,U+83c8-83c9,U+83cb,U+83d1,U+83d3-83d6,U+83d8,U+83db,U+83dd,U+83df,U+83e1,U+83e5,U+83ea-83eb,U+83f0,U+83f4,U+83f8-83f9,U+83fb,U+83fd,U+83ff,U+8401,U+8406,U+840a-840b,U+840f,U+8411,U+8418,U+841c,U+8420,U+8422-8424,U+8426,U+8429,U+842c,U+8438-8439,U+843b-843c,U+843f,U+8446-8447,U+8449,U+844e,U+8451-8452,U+8456,U+8459-845a,U+845c,U+8462,U+8466,U+846d,U+846f-8470,U+8473,U+8476-8478,U+847a,U+847d,U+8484-8485,U+8487,U+8489,U+848c,U+848e,U+8490,U+8493-8494,U+8497,U+849b,U+849e-849f,U+84a1,U+84a5,U+84a8,U+84af,U+84b4,U+84b9-84bf,U+84c1-84c2,U+84c5-84c7,U+84ca-84cb,U+84cd,U+84d0-84d1,U+84d3,U+84d6,U+84df-84e0,U+84e2-84e3,U+84e5-84e7,U+84ee,U+84f3,U+84f6,U+84fa,U+84fc,U+84ff-8500,U+850c,U+8511,U+8514-8515,U+8517-8518,U+851f,U+8523,U+8525-8526,U+8529,U+852b,U+852d,U+8532,U+8534-8535,U+8538-853a,U+853c,U+8543,U+8545'</v>
+        <v>'U+63D6,U+63DE,U+63E0-63E1,U+63E3,U+63E9-63EA,U+63ED,U+63F2,U+63F4,U+63F6,U+63F8,U+63FD,U+63FF-6402,U+6405,U+640B-640C,U+640F-6410,U+6413-6414,U+641B-641C,U+641E,U+6420-6421,U+6426,U+642A,U+642C-642D,U+6434,U+643A,U+643D,U+643F,U+6441,U+6444-6448,U+644A,U+6452,U+6454,U+6458,U+645E,U+6467,U+6469,U+646D,U+6478-647A,U+6482,U+6484-6485,U+6487,U+6491-6492,U+6495-6496,U+6499,U+649E,U+64A4,U+64A9,U+64AC-64AE,U+64B0,U+64B5,U+64B7-64B8,U+64BA,U+64BC,U+64C0,U+64C2,U+64C5,U+64CD-64CE,U+64D0,U+64D2,U+64D7-64D8,U+64DE,U+64E2,U+64E4,U+64E6,U+6500,U+6509,U+6512,U+6518,U+6525,U+652B,U+652E-652F,U+6534-6536,U+6538-6539,U+653B,U+653E-653F,U+6545,U+6548-6549,U+654C,U+654F,U+6551,U+6555-6556,U+6559,U+655B,U+655D-655E,U+6562-6563,U+6566,U+656B-656C,U+6570,U+6572,U+6574,U+6577,U+6587,U+658B-658C'</v>
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_23', ~'U+83c5,U+83c8-83c9,U+83cb,U+83d1,U+83d3-83d6,U+83d8,U+83db,U+83dd,U+83df,U+83e1,U+83e5,U+83ea-83eb,U+83f0,U+83f4,U+83f8-83f9,U+83fb,U+83fd,U+83ff,U+8401,U+8406,U+840a-840b,U+840f,U+8411,U+8418,U+841c,U+8420,U+8422-8424,U+8426,U+8429,U+842c,U+8438-8439,U+843b-843c,U+843f,U+8446-8447,U+8449,U+844e,U+8451-8452,U+8456,U+8459-845a,U+845c,U+8462,U+8466,U+846d,U+846f-8470,U+8473,U+8476-8478,U+847a,U+847d,U+8484-8485,U+8487,U+8489,U+848c,U+848e,U+8490,U+8493-8494,U+8497,U+849b,U+849e-849f,U+84a1,U+84a5,U+84a8,U+84af,U+84b4,U+84b9-84bf,U+84c1-84c2,U+84c5-84c7,U+84ca-84cb,U+84cd,U+84d0-84d1,U+84d3,U+84d6,U+84df-84e0,U+84e2-84e3,U+84e5-84e7,U+84ee,U+84f3,U+84f6,U+84fa,U+84fc,U+84ff-8500,U+850c,U+8511,U+8514-8515,U+8517-8518,U+851f,U+8523,U+8525-8526,U+8529,U+852b,U+852d,U+8532,U+8534-8535,U+8538-853a,U+853c,U+8543,U+8545',</v>
+        <v>~'gb_23', ~'U+63D6,U+63DE,U+63E0-63E1,U+63E3,U+63E9-63EA,U+63ED,U+63F2,U+63F4,U+63F6,U+63F8,U+63FD,U+63FF-6402,U+6405,U+640B-640C,U+640F-6410,U+6413-6414,U+641B-641C,U+641E,U+6420-6421,U+6426,U+642A,U+642C-642D,U+6434,U+643A,U+643D,U+643F,U+6441,U+6444-6448,U+644A,U+6452,U+6454,U+6458,U+645E,U+6467,U+6469,U+646D,U+6478-647A,U+6482,U+6484-6485,U+6487,U+6491-6492,U+6495-6496,U+6499,U+649E,U+64A4,U+64A9,U+64AC-64AE,U+64B0,U+64B5,U+64B7-64B8,U+64BA,U+64BC,U+64C0,U+64C2,U+64C5,U+64CD-64CE,U+64D0,U+64D2,U+64D7-64D8,U+64DE,U+64E2,U+64E4,U+64E6,U+6500,U+6509,U+6512,U+6518,U+6525,U+652B,U+652E-652F,U+6534-6536,U+6538-6539,U+653B,U+653E-653F,U+6545,U+6548-6549,U+654C,U+654F,U+6551,U+6555-6556,U+6559,U+655B,U+655D-655E,U+6562-6563,U+6566,U+656B-656C,U+6570,U+6572,U+6574,U+6577,U+6587,U+658B-658C',</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16">
-      <c r="A25" t="s">
-        <v>707</v>
+      <c r="A25" s="3" t="s">
+        <v>968</v>
       </c>
       <c r="B25" t="s">
-        <v>792</v>
+        <v>1029</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_24'</v>
+        <v>'gb_24'</v>
       </c>
       <c r="D25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+82bc,U+82be,U+82c0-82c2,U+82c4-82c8,U+82ca-82cc,U+82ce,U+82d0,U+82d2-82d3,U+82d5-82d6,U+82d8-82d9,U+82dc-82de,U+82e0-82e4,U+82e7,U+82e9-82eb,U+82ed-82ee,U+82f3-82f4,U+82f7-82f8,U+82fa-8301,U+8306-8308,U+830c-830d,U+830f,U+8311,U+8313-8315,U+8318,U+831a-831b,U+831d,U+8324,U+8327,U+832a,U+832c-832d,U+832f,U+8331-8334,U+833a-833c,U+8340,U+8343-8345,U+8347-8348,U+834a,U+834c,U+834f,U+8351,U+8356,U+8358-835c,U+835e,U+8360,U+8364-8366,U+8368-836a,U+836c-836e,U+8373,U+8378,U+837b-837d,U+837f-8380,U+8382,U+8388,U+838a-838b,U+8392,U+8394,U+8396,U+8398-8399,U+839b-839c,U+83a0,U+83a2-83a3,U+83a8-83aa,U+83ae-83b0,U+83b3-83b4,U+83b6,U+83b8,U+83ba,U+83bc-83bd,U+83bf-83c0,U+83c2'</v>
+        <v>'U+6590-6591,U+6593,U+6597,U+6599,U+659B-659C,U+659F,U+65A1,U+65A4-65A5,U+65A7,U+65A9,U+65AB,U+65AD,U+65AF-65B0,U+65B9,U+65BC-65BD,U+65C1,U+65C3-65C6,U+65CB-65CC,U+65CE-65CF,U+65D2,U+65D6-65D7,U+65E0,U+65E2,U+65E5-65E9,U+65EC-65F1,U+65F6-65F7,U+65FA,U+6600,U+6602-6603,U+6606,U+660A,U+660C,U+660E-660F,U+6613-6615,U+6619,U+661D,U+661F-6620,U+6625,U+6627-6628,U+662D,U+662F,U+6631,U+6634-6636,U+663C,U+663E,U+6641,U+6643,U+664B-664C,U+664F,U+6652-6657,U+665A,U+665F,U+6661,U+6664,U+6666,U+6668,U+666E-6670,U+6674,U+6676-6677,U+667A,U+667E,U+6682,U+6684,U+6687,U+668C,U+6691,U+6696-6697,U+669D,U+66A7-66A8,U+66AE,U+66B4,U+66B9,U+66BE,U+66D9,U+66DB-66DD,U+66E6,U+66E9,U+66F0,U+66F2-66F4,U+66F7,U+66F9,U+66FC'</v>
       </c>
       <c r="F25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_24', ~'U+82bc,U+82be,U+82c0-82c2,U+82c4-82c8,U+82ca-82cc,U+82ce,U+82d0,U+82d2-82d3,U+82d5-82d6,U+82d8-82d9,U+82dc-82de,U+82e0-82e4,U+82e7,U+82e9-82eb,U+82ed-82ee,U+82f3-82f4,U+82f7-82f8,U+82fa-8301,U+8306-8308,U+830c-830d,U+830f,U+8311,U+8313-8315,U+8318,U+831a-831b,U+831d,U+8324,U+8327,U+832a,U+832c-832d,U+832f,U+8331-8334,U+833a-833c,U+8340,U+8343-8345,U+8347-8348,U+834a,U+834c,U+834f,U+8351,U+8356,U+8358-835c,U+835e,U+8360,U+8364-8366,U+8368-836a,U+836c-836e,U+8373,U+8378,U+837b-837d,U+837f-8380,U+8382,U+8388,U+838a-838b,U+8392,U+8394,U+8396,U+8398-8399,U+839b-839c,U+83a0,U+83a2-83a3,U+83a8-83aa,U+83ae-83b0,U+83b3-83b4,U+83b6,U+83b8,U+83ba,U+83bc-83bd,U+83bf-83c0,U+83c2',</v>
+        <v>~'gb_24', ~'U+6590-6591,U+6593,U+6597,U+6599,U+659B-659C,U+659F,U+65A1,U+65A4-65A5,U+65A7,U+65A9,U+65AB,U+65AD,U+65AF-65B0,U+65B9,U+65BC-65BD,U+65C1,U+65C3-65C6,U+65CB-65CC,U+65CE-65CF,U+65D2,U+65D6-65D7,U+65E0,U+65E2,U+65E5-65E9,U+65EC-65F1,U+65F6-65F7,U+65FA,U+6600,U+6602-6603,U+6606,U+660A,U+660C,U+660E-660F,U+6613-6615,U+6619,U+661D,U+661F-6620,U+6625,U+6627-6628,U+662D,U+662F,U+6631,U+6634-6636,U+663C,U+663E,U+6641,U+6643,U+664B-664C,U+664F,U+6652-6657,U+665A,U+665F,U+6661,U+6664,U+6666,U+6668,U+666E-6670,U+6674,U+6676-6677,U+667A,U+667E,U+6682,U+6684,U+6687,U+668C,U+6691,U+6696-6697,U+669D,U+66A7-66A8,U+66AE,U+66B4,U+66B9,U+66BE,U+66D9,U+66DB-66DD,U+66E6,U+66E9,U+66F0,U+66F2-66F4,U+66F7,U+66F9,U+66FC',</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16">
-      <c r="A26" t="s">
-        <v>708</v>
+      <c r="A26" s="3" t="s">
+        <v>969</v>
       </c>
       <c r="B26" t="s">
-        <v>793</v>
+        <v>1030</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_25'</v>
+        <v>'gb_25'</v>
       </c>
       <c r="D26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+8166-8169,U+816b,U+816d,U+8171,U+8173-8174,U+8178,U+817c-817d,U+8182,U+8188,U+8191,U+8198-819b,U+81a0,U+81a3,U+81a5-81a6,U+81a9,U+81b6,U+81ba-81bb,U+81bd,U+81bf,U+81c1,U+81c3,U+81c6,U+81c9-81ca,U+81cc-81cd,U+81d1,U+81d3-81d4,U+81d8,U+81db-81dc,U+81de-81df,U+81e5,U+81e7-81e9,U+81eb-81ec,U+81ee-81ef,U+81f5,U+81f8,U+81fa,U+81fc,U+81fe,U+8200-8202,U+8204,U+8208-820a,U+820e-8210,U+8216-8218,U+821b-821c,U+8221-8224,U+8226-8228,U+822b,U+822d,U+822f,U+8232-8234,U+8237-8238,U+823a-823b,U+823e,U+8244,U+8249,U+824b,U+824f,U+8259-825a,U+825f,U+8266,U+8268,U+826e,U+8271,U+8276-8279,U+827d,U+827f,U+8283-8284,U+8288-828a,U+828d-8291,U+8293-8294,U+8296-8298,U+829f-82a1,U+82a3-82a4,U+82a7-82ab,U+82ae,U+82b0,U+82b2,U+82b4-82b6'</v>
+        <v>'U+66FE-6700,U+6708-670B,U+670D,U+6710,U+6714-6715,U+6717,U+671B,U+671D,U+671F,U+6726,U+6728,U+672A-672D,U+672F,U+6731,U+6734-6735,U+673A,U+673D,U+6740,U+6742-6743,U+6746,U+6748-6749,U+674C,U+674E-6751,U+6753,U+6756,U+675C,U+675E-6761,U+6765,U+6768-676A,U+676D,U+676F-6770,U+6772-6773,U+6775,U+6777,U+677C,U+677E-677F,U+6781,U+6784,U+6787,U+6789,U+678B,U+6790,U+6795,U+6797-6798,U+679A,U+679C-679E,U+67A2-67A3,U+67A5,U+67A7-67A8,U+67AA-67AB,U+67AD,U+67AF-67B0,U+67B3,U+67B5-67B8,U+67C1,U+67C3-67C4,U+67CF-67D4,U+67D8-67DA,U+67DC-67DE,U+67E0,U+67E2,U+67E5,U+67E9,U+67EC,U+67EF-67F1,U+67F3-67F4,U+67FD,U+67FF-6800,U+6805,U+6807-680C,U+680E-680F,U+6811,U+6813,U+6816-6817'</v>
       </c>
       <c r="F26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_25', ~'U+8166-8169,U+816b,U+816d,U+8171,U+8173-8174,U+8178,U+817c-817d,U+8182,U+8188,U+8191,U+8198-819b,U+81a0,U+81a3,U+81a5-81a6,U+81a9,U+81b6,U+81ba-81bb,U+81bd,U+81bf,U+81c1,U+81c3,U+81c6,U+81c9-81ca,U+81cc-81cd,U+81d1,U+81d3-81d4,U+81d8,U+81db-81dc,U+81de-81df,U+81e5,U+81e7-81e9,U+81eb-81ec,U+81ee-81ef,U+81f5,U+81f8,U+81fa,U+81fc,U+81fe,U+8200-8202,U+8204,U+8208-820a,U+820e-8210,U+8216-8218,U+821b-821c,U+8221-8224,U+8226-8228,U+822b,U+822d,U+822f,U+8232-8234,U+8237-8238,U+823a-823b,U+823e,U+8244,U+8249,U+824b,U+824f,U+8259-825a,U+825f,U+8266,U+8268,U+826e,U+8271,U+8276-8279,U+827d,U+827f,U+8283-8284,U+8288-828a,U+828d-8291,U+8293-8294,U+8296-8298,U+829f-82a1,U+82a3-82a4,U+82a7-82ab,U+82ae,U+82b0,U+82b2,U+82b4-82b6',</v>
+        <v>~'gb_25', ~'U+66FE-6700,U+6708-670B,U+670D,U+6710,U+6714-6715,U+6717,U+671B,U+671D,U+671F,U+6726,U+6728,U+672A-672D,U+672F,U+6731,U+6734-6735,U+673A,U+673D,U+6740,U+6742-6743,U+6746,U+6748-6749,U+674C,U+674E-6751,U+6753,U+6756,U+675C,U+675E-6761,U+6765,U+6768-676A,U+676D,U+676F-6770,U+6772-6773,U+6775,U+6777,U+677C,U+677E-677F,U+6781,U+6784,U+6787,U+6789,U+678B,U+6790,U+6795,U+6797-6798,U+679A,U+679C-679E,U+67A2-67A3,U+67A5,U+67A7-67A8,U+67AA-67AB,U+67AD,U+67AF-67B0,U+67B3,U+67B5-67B8,U+67C1,U+67C3-67C4,U+67CF-67D4,U+67D8-67DA,U+67DC-67DE,U+67E0,U+67E2,U+67E5,U+67E9,U+67EC,U+67EF-67F1,U+67F3-67F4,U+67FD,U+67FF-6800,U+6805,U+6807-680C,U+680E-680F,U+6811,U+6813,U+6816-6817',</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16">
-      <c r="A27" t="s">
-        <v>709</v>
+      <c r="A27" s="3" t="s">
+        <v>970</v>
       </c>
       <c r="B27" t="s">
-        <v>794</v>
+        <v>1031</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_26'</v>
+        <v>'gb_26'</v>
       </c>
       <c r="D27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+8016,U+8018-8019,U+801c,U+801e,U+8026-802a,U+8031,U+8034-8035,U+8037,U+8043,U+804b,U+804d,U+8052,U+8056,U+8059,U+805e,U+8061,U+8068-8069,U+806e-8074,U+8076-8078,U+807c-8080,U+8082,U+8084-8085,U+8088,U+808f,U+8093,U+809c,U+809f,U+80ab,U+80ad-80ae,U+80b1,U+80b6-80b8,U+80bc-80bd,U+80c2,U+80c4,U+80ca,U+80cd,U+80d1,U+80d4,U+80d7,U+80d9-80db,U+80dd,U+80e0,U+80e4-80e5,U+80e7-80ed,U+80ef-80f1,U+80f3-80f4,U+80fc,U+8101,U+8104-8105,U+8107-8108,U+810c-810e,U+8112-8115,U+8117-8119,U+811b-811f,U+8121-8130,U+8132-8134,U+8137,U+8139,U+813f-8140,U+8142,U+8146,U+8148,U+814d-814e,U+8151,U+8153,U+8158-815a,U+815e,U+8160'</v>
+        <v>'U+681D,U+6821,U+6829-682A,U+6832-6833,U+6837-6839,U+683C-683E,U+6840-6846,U+6848-684A,U+684C,U+684E,U+6850-6851,U+6853-6855,U+6860-6869,U+686B,U+6874,U+6876-6877,U+6881,U+6883,U+6885-6886,U+688F,U+6893,U+6897,U+68A2,U+68A6-68A8,U+68AD,U+68AF-68B0,U+68B3,U+68B5,U+68C0,U+68C2,U+68C9,U+68CB,U+68CD,U+68D2,U+68D5,U+68D8,U+68DA,U+68E0,U+68E3,U+68EE,U+68F0-68F1,U+68F5,U+68F9-68FA,U+68FC,U+6901,U+6905,U+690B,U+690D-690E,U+6910,U+6912,U+691F-6920,U+6924,U+692D,U+6930,U+6934,U+6939,U+693D,U+693F,U+6942,U+6954,U+6957,U+695A,U+695D-695E,U+6960,U+6963,U+6966,U+696B,U+696E,U+6971,U+6977-6979,U+697C,U+6980,U+6982,U+6984,U+6986-6989,U+698D,U+6994-6995,U+6998,U+699B-699C,U+69A7-69A8,U+69AB,U+69AD,U+69B1,U+69B4'</v>
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_26', ~'U+8016,U+8018-8019,U+801c,U+801e,U+8026-802a,U+8031,U+8034-8035,U+8037,U+8043,U+804b,U+804d,U+8052,U+8056,U+8059,U+805e,U+8061,U+8068-8069,U+806e-8074,U+8076-8078,U+807c-8080,U+8082,U+8084-8085,U+8088,U+808f,U+8093,U+809c,U+809f,U+80ab,U+80ad-80ae,U+80b1,U+80b6-80b8,U+80bc-80bd,U+80c2,U+80c4,U+80ca,U+80cd,U+80d1,U+80d4,U+80d7,U+80d9-80db,U+80dd,U+80e0,U+80e4-80e5,U+80e7-80ed,U+80ef-80f1,U+80f3-80f4,U+80fc,U+8101,U+8104-8105,U+8107-8108,U+810c-810e,U+8112-8115,U+8117-8119,U+811b-811f,U+8121-8130,U+8132-8134,U+8137,U+8139,U+813f-8140,U+8142,U+8146,U+8148,U+814d-814e,U+8151,U+8153,U+8158-815a,U+815e,U+8160',</v>
+        <v>~'gb_26', ~'U+681D,U+6821,U+6829-682A,U+6832-6833,U+6837-6839,U+683C-683E,U+6840-6846,U+6848-684A,U+684C,U+684E,U+6850-6851,U+6853-6855,U+6860-6869,U+686B,U+6874,U+6876-6877,U+6881,U+6883,U+6885-6886,U+688F,U+6893,U+6897,U+68A2,U+68A6-68A8,U+68AD,U+68AF-68B0,U+68B3,U+68B5,U+68C0,U+68C2,U+68C9,U+68CB,U+68CD,U+68D2,U+68D5,U+68D8,U+68DA,U+68E0,U+68E3,U+68EE,U+68F0-68F1,U+68F5,U+68F9-68FA,U+68FC,U+6901,U+6905,U+690B,U+690D-690E,U+6910,U+6912,U+691F-6920,U+6924,U+692D,U+6930,U+6934,U+6939,U+693D,U+693F,U+6942,U+6954,U+6957,U+695A,U+695D-695E,U+6960,U+6963,U+6966,U+696B,U+696E,U+6971,U+6977-6979,U+697C,U+6980,U+6982,U+6984,U+6986-6989,U+698D,U+6994-6995,U+6998,U+699B-699C,U+69A7-69A8,U+69AB,U+69AD,U+69B1,U+69B4',</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16">
-      <c r="A28" t="s">
-        <v>710</v>
+      <c r="A28" s="3" t="s">
+        <v>971</v>
       </c>
       <c r="B28" t="s">
-        <v>795</v>
+        <v>1032</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_27'</v>
+        <v>'gb_27'</v>
       </c>
       <c r="D28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+7ef0-7ef2,U+7ef6,U+7efa-7efb,U+7efe,U+7f01-7f04,U+7f08,U+7f0a-7f12,U+7f17,U+7f19,U+7f1b-7f1c,U+7f1f,U+7f21-7f23,U+7f25-7f28,U+7f2a-7f33,U+7f35-7f37,U+7f3d,U+7f42,U+7f44-7f45,U+7f4c-7f4d,U+7f52,U+7f54,U+7f58-7f59,U+7f5d,U+7f5f-7f61,U+7f63,U+7f65,U+7f68,U+7f70-7f71,U+7f73-7f75,U+7f77,U+7f79,U+7f7d-7f7e,U+7f85-7f86,U+7f88-7f89,U+7f8b-7f8c,U+7f90-7f91,U+7f94-7f96,U+7f98-7f9b,U+7f9d,U+7f9f,U+7fa3,U+7fa7-7fa9,U+7fac-7fb2,U+7fb4,U+7fb6,U+7fb8,U+7fbc,U+7fbf-7fc0,U+7fc3,U+7fca,U+7fcc,U+7fce,U+7fd2,U+7fd5,U+7fd9-7fdb,U+7fdf,U+7fe3,U+7fe5-7fe7,U+7fe9,U+7feb-7fec,U+7fee-7fef,U+7ff1,U+7ff3-7ff4,U+7ff9-7ffa,U+7ffe,U+8004,U+8006,U+800b,U+800e,U+8011-8012,U+8014'</v>
+        <v>'U+69B7,U+69BB,U+69C1,U+69CA,U+69CC,U+69CE,U+69D0,U+69D4,U+69DB,U+69DF-69E0,U+69ED,U+69F2,U+69FD,U+69FF,U+6A0A,U+6A17-6A18,U+6A1F,U+6A21,U+6A28,U+6A2A,U+6A2F,U+6A31,U+6A35,U+6A3D-6A3E,U+6A44,U+6A47,U+6A50,U+6A58-6A59,U+6A5B,U+6A61,U+6A65,U+6A71,U+6A79,U+6A7C,U+6A80,U+6A84,U+6A8E,U+6A90-6A91,U+6A97,U+6AA0,U+6AA9,U+6AAB-6AAC,U+6B20-6B24,U+6B27,U+6B32,U+6B37,U+6B39-6B3A,U+6B3E,U+6B43,U+6B46-6B47,U+6B49,U+6B4C,U+6B59,U+6B62-6B67,U+6B6A,U+6B79,U+6B7B-6B7C,U+6B81-6B84,U+6B86-6B87,U+6B89-6B8B,U+6B8D,U+6B92-6B93,U+6B96,U+6B9A-6B9B,U+6BA1,U+6BAA,U+6BB3-6BB5,U+6BB7,U+6BBF,U+6BC1-6BC2,U+6BC5,U+6BCB,U+6BCD,U+6BCF,U+6BD2-6BD7,U+6BD9,U+6BDB,U+6BE1,U+6BEA-6BEB,U+6BEF,U+6BF3,U+6BF5,U+6BF9,U+6BFD,U+6C05-6C07,U+6C0D,U+6C0F-6C11'</v>
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_27', ~'U+7ef0-7ef2,U+7ef6,U+7efa-7efb,U+7efe,U+7f01-7f04,U+7f08,U+7f0a-7f12,U+7f17,U+7f19,U+7f1b-7f1c,U+7f1f,U+7f21-7f23,U+7f25-7f28,U+7f2a-7f33,U+7f35-7f37,U+7f3d,U+7f42,U+7f44-7f45,U+7f4c-7f4d,U+7f52,U+7f54,U+7f58-7f59,U+7f5d,U+7f5f-7f61,U+7f63,U+7f65,U+7f68,U+7f70-7f71,U+7f73-7f75,U+7f77,U+7f79,U+7f7d-7f7e,U+7f85-7f86,U+7f88-7f89,U+7f8b-7f8c,U+7f90-7f91,U+7f94-7f96,U+7f98-7f9b,U+7f9d,U+7f9f,U+7fa3,U+7fa7-7fa9,U+7fac-7fb2,U+7fb4,U+7fb6,U+7fb8,U+7fbc,U+7fbf-7fc0,U+7fc3,U+7fca,U+7fcc,U+7fce,U+7fd2,U+7fd5,U+7fd9-7fdb,U+7fdf,U+7fe3,U+7fe5-7fe7,U+7fe9,U+7feb-7fec,U+7fee-7fef,U+7ff1,U+7ff3-7ff4,U+7ff9-7ffa,U+7ffe,U+8004,U+8006,U+800b,U+800e,U+8011-8012,U+8014',</v>
+        <v>~'gb_27', ~'U+69B7,U+69BB,U+69C1,U+69CA,U+69CC,U+69CE,U+69D0,U+69D4,U+69DB,U+69DF-69E0,U+69ED,U+69F2,U+69FD,U+69FF,U+6A0A,U+6A17-6A18,U+6A1F,U+6A21,U+6A28,U+6A2A,U+6A2F,U+6A31,U+6A35,U+6A3D-6A3E,U+6A44,U+6A47,U+6A50,U+6A58-6A59,U+6A5B,U+6A61,U+6A65,U+6A71,U+6A79,U+6A7C,U+6A80,U+6A84,U+6A8E,U+6A90-6A91,U+6A97,U+6AA0,U+6AA9,U+6AAB-6AAC,U+6B20-6B24,U+6B27,U+6B32,U+6B37,U+6B39-6B3A,U+6B3E,U+6B43,U+6B46-6B47,U+6B49,U+6B4C,U+6B59,U+6B62-6B67,U+6B6A,U+6B79,U+6B7B-6B7C,U+6B81-6B84,U+6B86-6B87,U+6B89-6B8B,U+6B8D,U+6B92-6B93,U+6B96,U+6B9A-6B9B,U+6BA1,U+6BAA,U+6BB3-6BB5,U+6BB7,U+6BBF,U+6BC1-6BC2,U+6BC5,U+6BCB,U+6BCD,U+6BCF,U+6BD2-6BD7,U+6BD9,U+6BDB,U+6BE1,U+6BEA-6BEB,U+6BEF,U+6BF3,U+6BF5,U+6BF9,U+6BFD,U+6C05-6C07,U+6C0D,U+6C0F-6C11',</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16">
-      <c r="A29" t="s">
-        <v>711</v>
+      <c r="A29" s="3" t="s">
+        <v>972</v>
       </c>
       <c r="B29" t="s">
-        <v>796</v>
+        <v>1033</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_28'</v>
+        <v>'gb_28'</v>
       </c>
       <c r="D29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+7dd2,U+7dd4,U+7dd6-7dd8,U+7dda-7de0,U+7de2-7de6,U+7de8-7ded,U+7def,U+7df1-7df5,U+7df7,U+7df9,U+7dfb-7dfc,U+7dfe-7e02,U+7e04,U+7e08-7e0b,U+7e12,U+7e1b,U+7e1e,U+7e20,U+7e22-7e23,U+7e26,U+7e29,U+7e2b,U+7e2e-7e2f,U+7e31,U+7e37,U+7e39-7e3e,U+7e40,U+7e43-7e44,U+7e46-7e47,U+7e4a-7e4b,U+7e4d-7e4e,U+7e51,U+7e54-7e56,U+7e58-7e5b,U+7e5d-7e5e,U+7e61,U+7e66-7e67,U+7e69-7e6b,U+7e6d,U+7e70,U+7e73,U+7e77,U+7e79,U+7e7b-7e7d,U+7e81-7e82,U+7e8c-7e8d,U+7e8f,U+7e92-7e94,U+7e96,U+7e98,U+7e9a-7e9c,U+7e9e-7e9f,U+7ea1,U+7ea3,U+7ea5,U+7ea8-7ea9,U+7eab,U+7ead-7eae,U+7eb0,U+7ebb,U+7ebe,U+7ec0-7ec2,U+7ec9,U+7ecb-7ecc,U+7ed0,U+7ed4,U+7ed7,U+7edb,U+7ee0-7ee2,U+7ee5-7ee6,U+7ee8,U+7eeb'</v>
+        <v>'U+6C13-6C16,U+6C18-6C1B,U+6C1F,U+6C21-6C22,U+6C24,U+6C26-6C2A,U+6C2E-6C30,U+6C32,U+6C34-6C35,U+6C38,U+6C3D,U+6C40-6C42,U+6C46-6C47,U+6C49-6C4A,U+6C50,U+6C54-6C55,U+6C57,U+6C5B-6C61,U+6C64,U+6C68-6C6A,U+6C70,U+6C72,U+6C74,U+6C76,U+6C79,U+6C7D-6C7E,U+6C81-6C83,U+6C85-6C86,U+6C88-6C89,U+6C8C,U+6C8F-6C90,U+6C93-6C94,U+6C99,U+6C9B,U+6C9F,U+6CA1,U+6CA3-6CA7,U+6CA9-6CAB,U+6CAD-6CAE,U+6CB1-6CB3,U+6CB8-6CB9,U+6CBB-6CBF,U+6CC4-6CC5,U+6CC9-6CCA,U+6CCC,U+6CD0,U+6CD3-6CD7,U+6CDB,U+6CDE,U+6CE0-6CE3,U+6CE5,U+6CE8,U+6CEA-6CEB,U+6CEE-6CF1,U+6CF3,U+6CF5-6CF8,U+6CFA-6CFE,U+6D01,U+6D04,U+6D07'</v>
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_28', ~'U+7dd2,U+7dd4,U+7dd6-7dd8,U+7dda-7de0,U+7de2-7de6,U+7de8-7ded,U+7def,U+7df1-7df5,U+7df7,U+7df9,U+7dfb-7dfc,U+7dfe-7e02,U+7e04,U+7e08-7e0b,U+7e12,U+7e1b,U+7e1e,U+7e20,U+7e22-7e23,U+7e26,U+7e29,U+7e2b,U+7e2e-7e2f,U+7e31,U+7e37,U+7e39-7e3e,U+7e40,U+7e43-7e44,U+7e46-7e47,U+7e4a-7e4b,U+7e4d-7e4e,U+7e51,U+7e54-7e56,U+7e58-7e5b,U+7e5d-7e5e,U+7e61,U+7e66-7e67,U+7e69-7e6b,U+7e6d,U+7e70,U+7e73,U+7e77,U+7e79,U+7e7b-7e7d,U+7e81-7e82,U+7e8c-7e8d,U+7e8f,U+7e92-7e94,U+7e96,U+7e98,U+7e9a-7e9c,U+7e9e-7e9f,U+7ea1,U+7ea3,U+7ea5,U+7ea8-7ea9,U+7eab,U+7ead-7eae,U+7eb0,U+7ebb,U+7ebe,U+7ec0-7ec2,U+7ec9,U+7ecb-7ecc,U+7ed0,U+7ed4,U+7ed7,U+7edb,U+7ee0-7ee2,U+7ee5-7ee6,U+7ee8,U+7eeb',</v>
+        <v>~'gb_28', ~'U+6C13-6C16,U+6C18-6C1B,U+6C1F,U+6C21-6C22,U+6C24,U+6C26-6C2A,U+6C2E-6C30,U+6C32,U+6C34-6C35,U+6C38,U+6C3D,U+6C40-6C42,U+6C46-6C47,U+6C49-6C4A,U+6C50,U+6C54-6C55,U+6C57,U+6C5B-6C61,U+6C64,U+6C68-6C6A,U+6C70,U+6C72,U+6C74,U+6C76,U+6C79,U+6C7D-6C7E,U+6C81-6C83,U+6C85-6C86,U+6C88-6C89,U+6C8C,U+6C8F-6C90,U+6C93-6C94,U+6C99,U+6C9B,U+6C9F,U+6CA1,U+6CA3-6CA7,U+6CA9-6CAB,U+6CAD-6CAE,U+6CB1-6CB3,U+6CB8-6CB9,U+6CBB-6CBF,U+6CC4-6CC5,U+6CC9-6CCA,U+6CCC,U+6CD0,U+6CD3-6CD7,U+6CDB,U+6CDE,U+6CE0-6CE3,U+6CE5,U+6CE8,U+6CEA-6CEB,U+6CEE-6CF1,U+6CF3,U+6CF5-6CF8,U+6CFA-6CFE,U+6D01,U+6D04,U+6D07',</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16">
-      <c r="A30" t="s">
-        <v>712</v>
+      <c r="A30" s="3" t="s">
+        <v>973</v>
       </c>
       <c r="B30" t="s">
-        <v>797</v>
+        <v>1034</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_29'</v>
+        <v>'gb_29'</v>
       </c>
       <c r="D30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+7ce8,U+7cec,U+7cf0,U+7cf5-7cf9,U+7cfc,U+7cfe,U+7d00,U+7d04-7d0b,U+7d0d,U+7d10-7d14,U+7d17-7d19,U+7d1b-7d1f,U+7d21,U+7d24-7d26,U+7d28-7d2a,U+7d2c-7d2e,U+7d30-7d31,U+7d33,U+7d35-7d36,U+7d38-7d3a,U+7d40,U+7d42-7d44,U+7d46,U+7d4b-7d4c,U+7d4f,U+7d51,U+7d54-7d56,U+7d58,U+7d5b-7d5c,U+7d5e,U+7d61-7d63,U+7d66,U+7d68,U+7d6a-7d6c,U+7d6f,U+7d71-7d73,U+7d75-7d77,U+7d79-7d7a,U+7d7e,U+7d81,U+7d84-7d8b,U+7d8d,U+7d8f,U+7d91,U+7d94,U+7d96,U+7d98-7d9a,U+7d9c-7da0,U+7da2,U+7da6,U+7daa-7db1,U+7db4-7db8,U+7dba-7dbf,U+7dc1,U+7dc4,U+7dc7-7dc8,U+7dca-7dcd,U+7dcf,U+7dd1'</v>
+        <v>'U+6D0B-6D0C,U+6D0E,U+6D12,U+6D17,U+6D19-6D1B,U+6D1E,U+6D25,U+6D27,U+6D2A-6D2B,U+6D2E,U+6D31-6D33,U+6D35,U+6D39,U+6D3B-6D3E,U+6D41,U+6D43,U+6D45-6D48,U+6D4A-6D4B,U+6D4D-6D4F,U+6D51-6D54,U+6D59-6D5A,U+6D5C,U+6D5E,U+6D60,U+6D63,U+6D66,U+6D69-6D6A,U+6D6E-6D6F,U+6D74,U+6D77-6D78,U+6D7C,U+6D82,U+6D85,U+6D88-6D89,U+6D8C,U+6D8E,U+6D91,U+6D93-6D95,U+6D9B,U+6D9D-6DA1,U+6DA3-6DA4,U+6DA6-6DAB,U+6DAE-6DAF,U+6DB2,U+6DB5,U+6DB8,U+6DBF-6DC0,U+6DC4-6DC7,U+6DCB-6DCC,U+6DD1,U+6DD6,U+6DD8-6DD9,U+6DDD-6DDE,U+6DE0-6DE1,U+6DE4,U+6DE6,U+6DEB-6DEC,U+6DEE,U+6DF1,U+6DF3,U+6DF7,U+6DF9,U+6DFB-6DFC,U+6E05,U+6E0A,U+6E0C-6E0E,U+6E10-6E11,U+6E14,U+6E16-6E17,U+6E1A,U+6E1D,U+6E20-6E21,U+6E23-6E25,U+6E29,U+6E2B'</v>
       </c>
       <c r="F30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_29', ~'U+7ce8,U+7cec,U+7cf0,U+7cf5-7cf9,U+7cfc,U+7cfe,U+7d00,U+7d04-7d0b,U+7d0d,U+7d10-7d14,U+7d17-7d19,U+7d1b-7d1f,U+7d21,U+7d24-7d26,U+7d28-7d2a,U+7d2c-7d2e,U+7d30-7d31,U+7d33,U+7d35-7d36,U+7d38-7d3a,U+7d40,U+7d42-7d44,U+7d46,U+7d4b-7d4c,U+7d4f,U+7d51,U+7d54-7d56,U+7d58,U+7d5b-7d5c,U+7d5e,U+7d61-7d63,U+7d66,U+7d68,U+7d6a-7d6c,U+7d6f,U+7d71-7d73,U+7d75-7d77,U+7d79-7d7a,U+7d7e,U+7d81,U+7d84-7d8b,U+7d8d,U+7d8f,U+7d91,U+7d94,U+7d96,U+7d98-7d9a,U+7d9c-7da0,U+7da2,U+7da6,U+7daa-7db1,U+7db4-7db8,U+7dba-7dbf,U+7dc1,U+7dc4,U+7dc7-7dc8,U+7dca-7dcd,U+7dcf,U+7dd1',</v>
+        <v>~'gb_29', ~'U+6D0B-6D0C,U+6D0E,U+6D12,U+6D17,U+6D19-6D1B,U+6D1E,U+6D25,U+6D27,U+6D2A-6D2B,U+6D2E,U+6D31-6D33,U+6D35,U+6D39,U+6D3B-6D3E,U+6D41,U+6D43,U+6D45-6D48,U+6D4A-6D4B,U+6D4D-6D4F,U+6D51-6D54,U+6D59-6D5A,U+6D5C,U+6D5E,U+6D60,U+6D63,U+6D66,U+6D69-6D6A,U+6D6E-6D6F,U+6D74,U+6D77-6D78,U+6D7C,U+6D82,U+6D85,U+6D88-6D89,U+6D8C,U+6D8E,U+6D91,U+6D93-6D95,U+6D9B,U+6D9D-6DA1,U+6DA3-6DA4,U+6DA6-6DAB,U+6DAE-6DAF,U+6DB2,U+6DB5,U+6DB8,U+6DBF-6DC0,U+6DC4-6DC7,U+6DCB-6DCC,U+6DD1,U+6DD6,U+6DD8-6DD9,U+6DDD-6DDE,U+6DE0-6DE1,U+6DE4,U+6DE6,U+6DEB-6DEC,U+6DEE,U+6DF1,U+6DF3,U+6DF7,U+6DF9,U+6DFB-6DFC,U+6E05,U+6E0A,U+6E0C-6E0E,U+6E10-6E11,U+6E14,U+6E16-6E17,U+6E1A,U+6E1D,U+6E20-6E21,U+6E23-6E25,U+6E29,U+6E2B',</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16">
-      <c r="A31" t="s">
-        <v>713</v>
+      <c r="A31" s="3" t="s">
+        <v>974</v>
       </c>
       <c r="B31" t="s">
-        <v>798</v>
+        <v>1035</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_30'</v>
+        <v>'gb_30'</v>
       </c>
       <c r="D31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+7bd3-7bd4,U+7bd9-7bda,U+7bdd,U+7be0-7be1,U+7be4-7be6,U+7be9-7bea,U+7bef,U+7bf4,U+7bf6,U+7bfc,U+7bfe,U+7c01,U+7c03,U+7c07-7c08,U+7c0a-7c0d,U+7c0f,U+7c11,U+7c15-7c16,U+7c19,U+7c1e-7c21,U+7c23-7c24,U+7c26,U+7c28-7c33,U+7c35,U+7c37-7c3b,U+7c3d-7c3e,U+7c40-7c41,U+7c43,U+7c47-7c48,U+7c4c,U+7c50,U+7c53-7c54,U+7c59,U+7c5f-7c60,U+7c63-7c65,U+7c6c,U+7c6e,U+7c72,U+7c74,U+7c79-7c7a,U+7c7c,U+7c81-7c82,U+7c84-7c85,U+7c88,U+7c8a-7c91,U+7c93-7c96,U+7c99,U+7c9b-7c9e,U+7ca0-7ca2,U+7ca6-7ca9,U+7cac,U+7caf-7cb3,U+7cb5-7cb7,U+7cba-7cbd,U+7cbf-7cc2,U+7cc5,U+7cc7-7cc9,U+7ccc-7ccd,U+7cd7,U+7cdc,U+7cde,U+7ce0,U+7ce4-7ce5,U+7ce7'</v>
+        <v>'U+6E2D,U+6E2F,U+6E32,U+6E34,U+6E38,U+6E3A,U+6E43-6E44,U+6E4D-6E4E,U+6E53-6E54,U+6E56,U+6E58,U+6E5B,U+6E5F,U+6E6B,U+6E6E,U+6E7E-6E7F,U+6E83,U+6E85-6E86,U+6E89,U+6E8F-6E90,U+6E98,U+6E9C,U+6E9F,U+6EA2,U+6EA5,U+6EA7,U+6EAA,U+6EAF,U+6EB1-6EB2,U+6EB4,U+6EB6-6EB7,U+6EBA-6EBB,U+6EBD,U+6EC1-6EC2,U+6EC7,U+6ECB,U+6ECF,U+6ED1,U+6ED3-6ED5,U+6ED7,U+6EDA,U+6EDE-6EE2,U+6EE4-6EE6,U+6EE8-6EE9,U+6EF4,U+6EF9,U+6F02,U+6F06,U+6F09,U+6F0F,U+6F13-6F15,U+6F20,U+6F24,U+6F29-6F2B,U+6F2D,U+6F2F,U+6F31,U+6F33,U+6F36,U+6F3E,U+6F46-6F47,U+6F4B,U+6F4D,U+6F58,U+6F5C,U+6F5E,U+6F62,U+6F66,U+6F6D-6F6E,U+6F72,U+6F74,U+6F78,U+6F7A,U+6F7C,U+6F84,U+6F88-6F89,U+6F8C-6F8E,U+6F9C,U+6FA1,U+6FA7,U+6FB3,U+6FB6,U+6FB9,U+6FC0,U+6FC2,U+6FC9,U+6FD1-6FD2,U+6FDE,U+6FE0-6FE1,U+6FEE-6FEF,U+7011,U+701A-701B,U+7023,U+7035,U+7039,U+704C'</v>
       </c>
       <c r="F31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_30', ~'U+7bd3-7bd4,U+7bd9-7bda,U+7bdd,U+7be0-7be1,U+7be4-7be6,U+7be9-7bea,U+7bef,U+7bf4,U+7bf6,U+7bfc,U+7bfe,U+7c01,U+7c03,U+7c07-7c08,U+7c0a-7c0d,U+7c0f,U+7c11,U+7c15-7c16,U+7c19,U+7c1e-7c21,U+7c23-7c24,U+7c26,U+7c28-7c33,U+7c35,U+7c37-7c3b,U+7c3d-7c3e,U+7c40-7c41,U+7c43,U+7c47-7c48,U+7c4c,U+7c50,U+7c53-7c54,U+7c59,U+7c5f-7c60,U+7c63-7c65,U+7c6c,U+7c6e,U+7c72,U+7c74,U+7c79-7c7a,U+7c7c,U+7c81-7c82,U+7c84-7c85,U+7c88,U+7c8a-7c91,U+7c93-7c96,U+7c99,U+7c9b-7c9e,U+7ca0-7ca2,U+7ca6-7ca9,U+7cac,U+7caf-7cb3,U+7cb5-7cb7,U+7cba-7cbd,U+7cbf-7cc2,U+7cc5,U+7cc7-7cc9,U+7ccc-7ccd,U+7cd7,U+7cdc,U+7cde,U+7ce0,U+7ce4-7ce5,U+7ce7',</v>
+        <v>~'gb_30', ~'U+6E2D,U+6E2F,U+6E32,U+6E34,U+6E38,U+6E3A,U+6E43-6E44,U+6E4D-6E4E,U+6E53-6E54,U+6E56,U+6E58,U+6E5B,U+6E5F,U+6E6B,U+6E6E,U+6E7E-6E7F,U+6E83,U+6E85-6E86,U+6E89,U+6E8F-6E90,U+6E98,U+6E9C,U+6E9F,U+6EA2,U+6EA5,U+6EA7,U+6EAA,U+6EAF,U+6EB1-6EB2,U+6EB4,U+6EB6-6EB7,U+6EBA-6EBB,U+6EBD,U+6EC1-6EC2,U+6EC7,U+6ECB,U+6ECF,U+6ED1,U+6ED3-6ED5,U+6ED7,U+6EDA,U+6EDE-6EE2,U+6EE4-6EE6,U+6EE8-6EE9,U+6EF4,U+6EF9,U+6F02,U+6F06,U+6F09,U+6F0F,U+6F13-6F15,U+6F20,U+6F24,U+6F29-6F2B,U+6F2D,U+6F2F,U+6F31,U+6F33,U+6F36,U+6F3E,U+6F46-6F47,U+6F4B,U+6F4D,U+6F58,U+6F5C,U+6F5E,U+6F62,U+6F66,U+6F6D-6F6E,U+6F72,U+6F74,U+6F78,U+6F7A,U+6F7C,U+6F84,U+6F88-6F89,U+6F8C-6F8E,U+6F9C,U+6FA1,U+6FA7,U+6FB3,U+6FB6,U+6FB9,U+6FC0,U+6FC2,U+6FC9,U+6FD1-6FD2,U+6FDE,U+6FE0-6FE1,U+6FEE-6FEF,U+7011,U+701A-701B,U+7023,U+7035,U+7039,U+704C',</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16">
-      <c r="A32" t="s">
-        <v>714</v>
+      <c r="A32" s="3" t="s">
+        <v>975</v>
       </c>
       <c r="B32" t="s">
-        <v>799</v>
+        <v>1036</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_31'</v>
+        <v>'gb_31'</v>
       </c>
       <c r="D32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+7ae6,U+7af4-7af7,U+7afa-7afb,U+7afd-7b0a,U+7b0c,U+7b0e-7b0f,U+7b13,U+7b15-7b16,U+7b18-7b19,U+7b1e-7b20,U+7b22-7b25,U+7b29-7b2b,U+7b2d-7b2e,U+7b30-7b3b,U+7b3e-7b3f,U+7b41-7b42,U+7b44-7b47,U+7b4a,U+7b4c-7b50,U+7b58,U+7b5a,U+7b5c,U+7b60,U+7b66-7b67,U+7b69,U+7b6c-7b6f,U+7b72-7b76,U+7b7b-7b7d,U+7b7f,U+7b82,U+7b85,U+7b87,U+7b8b-7b96,U+7b98-7b99,U+7b9b-7b9f,U+7ba2-7ba4,U+7ba6-7bac,U+7bae-7bb0,U+7bb4,U+7bb7-7bb9,U+7bbb,U+7bc0-7bc1,U+7bc3-7bc4,U+7bc6,U+7bc8-7bcc,U+7bd1'</v>
+        <v>'U+704F,U+705E,U+706B-706D,U+706F-7070,U+7075-7076,U+7078,U+707C,U+707E-7080,U+7085,U+7089-708A,U+708E,U+7092,U+7094-7096,U+7099,U+709C-709D,U+70AB-70AF,U+70B1,U+70B3,U+70B7-70B9,U+70BB-70BD,U+70C0-70C3,U+70C8,U+70CA,U+70D8-70D9,U+70DB,U+70DF,U+70E4,U+70E6-70E9,U+70EB-70ED,U+70EF,U+70F7,U+70F9,U+70FD,U+7109-710A,U+7110,U+7113,U+7115-7116,U+7118-711A,U+7126,U+712F-7131,U+7136,U+7145,U+714A,U+714C,U+714E,U+715C,U+715E,U+7164,U+7166-7168,U+716E,U+7172-7173,U+7178,U+717A,U+717D,U+7184,U+718A,U+718F,U+7194,U+7198-7199,U+719F-71A0,U+71A8,U+71AC,U+71B3,U+71B5,U+71B9,U+71C3,U+71CE,U+71D4-71D5,U+71E0,U+71E5,U+71E7,U+71EE,U+71F9,U+7206,U+721D,U+7228,U+722A,U+722C,U+7230-7231,U+7235-7239,U+723B,U+723D,U+723F'</v>
       </c>
       <c r="F32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_31', ~'U+7ae6,U+7af4-7af7,U+7afa-7afb,U+7afd-7b0a,U+7b0c,U+7b0e-7b0f,U+7b13,U+7b15-7b16,U+7b18-7b19,U+7b1e-7b20,U+7b22-7b25,U+7b29-7b2b,U+7b2d-7b2e,U+7b30-7b3b,U+7b3e-7b3f,U+7b41-7b42,U+7b44-7b47,U+7b4a,U+7b4c-7b50,U+7b58,U+7b5a,U+7b5c,U+7b60,U+7b66-7b67,U+7b69,U+7b6c-7b6f,U+7b72-7b76,U+7b7b-7b7d,U+7b7f,U+7b82,U+7b85,U+7b87,U+7b8b-7b96,U+7b98-7b99,U+7b9b-7b9f,U+7ba2-7ba4,U+7ba6-7bac,U+7bae-7bb0,U+7bb4,U+7bb7-7bb9,U+7bbb,U+7bc0-7bc1,U+7bc3-7bc4,U+7bc6,U+7bc8-7bcc,U+7bd1',</v>
+        <v>~'gb_31', ~'U+704F,U+705E,U+706B-706D,U+706F-7070,U+7075-7076,U+7078,U+707C,U+707E-7080,U+7085,U+7089-708A,U+708E,U+7092,U+7094-7096,U+7099,U+709C-709D,U+70AB-70AF,U+70B1,U+70B3,U+70B7-70B9,U+70BB-70BD,U+70C0-70C3,U+70C8,U+70CA,U+70D8-70D9,U+70DB,U+70DF,U+70E4,U+70E6-70E9,U+70EB-70ED,U+70EF,U+70F7,U+70F9,U+70FD,U+7109-710A,U+7110,U+7113,U+7115-7116,U+7118-711A,U+7126,U+712F-7131,U+7136,U+7145,U+714A,U+714C,U+714E,U+715C,U+715E,U+7164,U+7166-7168,U+716E,U+7172-7173,U+7178,U+717A,U+717D,U+7184,U+718A,U+718F,U+7194,U+7198-7199,U+719F-71A0,U+71A8,U+71AC,U+71B3,U+71B5,U+71B9,U+71C3,U+71CE,U+71D4-71D5,U+71E0,U+71E5,U+71E7,U+71EE,U+71F9,U+7206,U+721D,U+7228,U+722A,U+722C,U+7230-7231,U+7235-7239,U+723B,U+723D,U+723F',</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16">
-      <c r="A33" t="s">
-        <v>715</v>
+      <c r="A33" s="3" t="s">
+        <v>976</v>
       </c>
       <c r="B33" t="s">
-        <v>800</v>
+        <v>1037</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>'subset_32'</v>
+        <v>'gb_32'</v>
       </c>
       <c r="D33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>'U+798b-798e,U+7992,U+7994-7995,U+7997-7998,U+799a-799c,U+799f,U+79a3-79a6,U+79a8-79ac,U+79ae-79b1,U+79b3-79b5,U+79b8,U+79ba,U+79bf,U+79c2,U+79c6,U+79c8,U+79cf,U+79d5-79d6,U+79dd-79de,U+79e3,U+79e7-79e8,U+79eb,U+79ed,U+79f4,U+79f7-79f8,U+79fa,U+79fe,U+7a02-7a03,U+7a05,U+7a0a,U+7a14,U+7a17,U+7a19,U+7a1c,U+7a1e-7a1f,U+7a23,U+7a25-7a26,U+7a2c,U+7a2e,U+7a30-7a32,U+7a36-7a37,U+7a39,U+7a3c,U+7a40,U+7a42,U+7a47,U+7a49,U+7a4c-7a4f,U+7a51,U+7a55,U+7a5b,U+7a5d-7a5e,U+7a62-7a63,U+7a66,U+7a68-7a69,U+7a6b,U+7a70,U+7a78,U+7a80,U+7a85-7a88,U+7a8a,U+7a90,U+7a93-7a96,U+7a98,U+7a9b-7a9c,U+7a9e,U+7aa0-7aa1,U+7aa3,U+7aa8-7aaa,U+7aac-7ab0,U+7ab3,U+7ab8,U+7aba,U+7abd-7abf,U+7ac4-7ac5,U+7ac7-7ac8,U+7aca,U+7ad1-7ad2,U+7ada-7add,U+7ae1,U+7ae4'</v>
+        <v>'U+7247-7248,U+724C-724D,U+7252,U+7256,U+7259,U+725B,U+725D,U+725F,U+7261-7262,U+7266-7267,U+7269,U+726E-726F,U+7272,U+7275,U+7279-727A,U+727E-7281,U+7284,U+728A-728B,U+728D,U+728F,U+7292,U+729F,U+72AC-72AD,U+72AF-72B0,U+72B4,U+72B6-72B9,U+72C1-72C4,U+72C8,U+72CD-72CE,U+72D0,U+72D2,U+72D7,U+72D9,U+72DE,U+72E0-72E1,U+72E8-72E9,U+72EC-72F4,U+72F7-72F8,U+72FA-72FC,U+7301,U+7303,U+730A,U+730E,U+7313,U+7315-7317,U+731B-731E,U+7321-7322,U+7325,U+7329-732C,U+732E,U+7331,U+7334,U+7337-7339,U+733E-733F,U+734D,U+7350,U+7352,U+7357,U+7360,U+736C-736D,U+736F,U+737E,U+7384,U+7387,U+7389,U+738B,U+738E,U+7391,U+7396,U+739B,U+739F,U+73A2,U+73A9,U+73AB,U+73AE-73B0,U+73B2-73B3,U+73B7,U+73BA-73BB,U+73C0'</v>
       </c>
       <c r="F33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_32', ~'U+798b-798e,U+7992,U+7994-7995,U+7997-7998,U+799a-799c,U+799f,U+79a3-79a6,U+79a8-79ac,U+79ae-79b1,U+79b3-79b5,U+79b8,U+79ba,U+79bf,U+79c2,U+79c6,U+79c8,U+79cf,U+79d5-79d6,U+79dd-79de,U+79e3,U+79e7-79e8,U+79eb,U+79ed,U+79f4,U+79f7-79f8,U+79fa,U+79fe,U+7a02-7a03,U+7a05,U+7a0a,U+7a14,U+7a17,U+7a19,U+7a1c,U+7a1e-7a1f,U+7a23,U+7a25-7a26,U+7a2c,U+7a2e,U+7a30-7a32,U+7a36-7a37,U+7a39,U+7a3c,U+7a40,U+7a42,U+7a47,U+7a49,U+7a4c-7a4f,U+7a51,U+7a55,U+7a5b,U+7a5d-7a5e,U+7a62-7a63,U+7a66,U+7a68-7a69,U+7a6b,U+7a70,U+7a78,U+7a80,U+7a85-7a88,U+7a8a,U+7a90,U+7a93-7a96,U+7a98,U+7a9b-7a9c,U+7a9e,U+7aa0-7aa1,U+7aa3,U+7aa8-7aaa,U+7aac-7ab0,U+7ab3,U+7ab8,U+7aba,U+7abd-7abf,U+7ac4-7ac5,U+7ac7-7ac8,U+7aca,U+7ad1-7ad2,U+7ada-7add,U+7ae1,U+7ae4',</v>
+        <v>~'gb_32', ~'U+7247-7248,U+724C-724D,U+7252,U+7256,U+7259,U+725B,U+725D,U+725F,U+7261-7262,U+7266-7267,U+7269,U+726E-726F,U+7272,U+7275,U+7279-727A,U+727E-7281,U+7284,U+728A-728B,U+728D,U+728F,U+7292,U+729F,U+72AC-72AD,U+72AF-72B0,U+72B4,U+72B6-72B9,U+72C1-72C4,U+72C8,U+72CD-72CE,U+72D0,U+72D2,U+72D7,U+72D9,U+72DE,U+72E0-72E1,U+72E8-72E9,U+72EC-72F4,U+72F7-72F8,U+72FA-72FC,U+7301,U+7303,U+730A,U+730E,U+7313,U+7315-7317,U+731B-731E,U+7321-7322,U+7325,U+7329-732C,U+732E,U+7331,U+7334,U+7337-7339,U+733E-733F,U+734D,U+7350,U+7352,U+7357,U+7360,U+736C-736D,U+736F,U+737E,U+7384,U+7387,U+7389,U+738B,U+738E,U+7391,U+7396,U+739B,U+739F,U+73A2,U+73A9,U+73AB,U+73AE-73B0,U+73B2-73B3,U+73B7,U+73BA-73BB,U+73C0',</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16">
-      <c r="A34" t="s">
-        <v>716</v>
+      <c r="A34" s="3" t="s">
+        <v>977</v>
       </c>
       <c r="B34" t="s">
-        <v>801</v>
+        <v>1038</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" ref="C34:C65" si="3">"'"&amp;A34&amp;"'"</f>
-        <v>'subset_33'</v>
+        <v>'gb_33'</v>
       </c>
       <c r="D34" s="2" t="str">
         <f t="shared" ref="D34:D65" si="4">"'"&amp;B34&amp;"'"</f>
-        <v>'U+784c,U+784e-7854,U+7856-7857,U+7859-785a,U+7865,U+7869-786a,U+786d,U+786f,U+7876-7877,U+787c,U+787e-787f,U+7881,U+7887-7889,U+7893-7894,U+7898-789e,U+78a1,U+78a3,U+78a5,U+78a9,U+78ad,U+78b2,U+78b4,U+78b6,U+78b9-78ba,U+78bc,U+78bf,U+78c3,U+78c9,U+78cb,U+78d0-78d2,U+78d4,U+78d9-78da,U+78dc,U+78de,U+78e1,U+78e5-78e6,U+78ea,U+78ec,U+78ef,U+78f1-78f2,U+78f4,U+78fa-78fb,U+78fe,U+7901-7902,U+7905,U+7907,U+7909,U+790b-790c,U+790e,U+7910,U+7913,U+7919-791b,U+791e-791f,U+7921,U+7924,U+7926,U+792a-792b,U+7934,U+7936,U+7939,U+793b,U+793d,U+7940,U+7942-7943,U+7945-7947,U+7949-794a,U+794c,U+794e-7951,U+7953-7955,U+7957-795a,U+795c,U+795f-7960,U+7962,U+7964,U+7966-7967,U+7969,U+796b,U+796f,U+7972,U+7974,U+7979,U+797b-797c,U+797e-7980,U+7982,U+7986-7987,U+7989-798a'</v>
+        <v>'U+73C2,U+73C8-73CA,U+73CD,U+73CF-73D1,U+73D9,U+73DE,U+73E0,U+73E5,U+73E7,U+73E9,U+73ED,U+73F2,U+7403,U+7405-7406,U+7409-740A,U+740F-7410,U+741A-741B,U+7422,U+7425-7426,U+7428,U+742A,U+742C,U+742E,U+7430,U+7433-7436,U+743C,U+7441,U+7455,U+7457,U+7459-745C,U+745E-745F,U+746D,U+7470,U+7476-7477,U+747E,U+7480-7481,U+7483,U+7487,U+748B,U+748E,U+7490,U+749C,U+749E,U+74A7-74A9,U+74BA,U+74D2,U+74DC,U+74DE,U+74E0,U+74E2-74E4,U+74E6,U+74EE-74EF,U+74F4,U+74F6-74F7,U+74FF,U+7504,U+750D,U+750F,U+7511,U+7513,U+7518-751A,U+751C,U+751F,U+7525,U+7528-7529,U+752B-752D,U+752F-7533,U+7535,U+7537-7538,U+753A-753B,U+753E,U+7540,U+7545,U+7548,U+754B-754C,U+754E-754F,U+7554,U+7559-755C,U+7565-7566,U+756A,U+7572,U+7574,U+7578-7579,U+757F,U+7583,U+7586'</v>
       </c>
       <c r="F34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_33', ~'U+784c,U+784e-7854,U+7856-7857,U+7859-785a,U+7865,U+7869-786a,U+786d,U+786f,U+7876-7877,U+787c,U+787e-787f,U+7881,U+7887-7889,U+7893-7894,U+7898-789e,U+78a1,U+78a3,U+78a5,U+78a9,U+78ad,U+78b2,U+78b4,U+78b6,U+78b9-78ba,U+78bc,U+78bf,U+78c3,U+78c9,U+78cb,U+78d0-78d2,U+78d4,U+78d9-78da,U+78dc,U+78de,U+78e1,U+78e5-78e6,U+78ea,U+78ec,U+78ef,U+78f1-78f2,U+78f4,U+78fa-78fb,U+78fe,U+7901-7902,U+7905,U+7907,U+7909,U+790b-790c,U+790e,U+7910,U+7913,U+7919-791b,U+791e-791f,U+7921,U+7924,U+7926,U+792a-792b,U+7934,U+7936,U+7939,U+793b,U+793d,U+7940,U+7942-7943,U+7945-7947,U+7949-794a,U+794c,U+794e-7951,U+7953-7955,U+7957-795a,U+795c,U+795f-7960,U+7962,U+7964,U+7966-7967,U+7969,U+796b,U+796f,U+7972,U+7974,U+7979,U+797b-797c,U+797e-7980,U+7982,U+7986-7987,U+7989-798a',</v>
+        <v>~'gb_33', ~'U+73C2,U+73C8-73CA,U+73CD,U+73CF-73D1,U+73D9,U+73DE,U+73E0,U+73E5,U+73E7,U+73E9,U+73ED,U+73F2,U+7403,U+7405-7406,U+7409-740A,U+740F-7410,U+741A-741B,U+7422,U+7425-7426,U+7428,U+742A,U+742C,U+742E,U+7430,U+7433-7436,U+743C,U+7441,U+7455,U+7457,U+7459-745C,U+745E-745F,U+746D,U+7470,U+7476-7477,U+747E,U+7480-7481,U+7483,U+7487,U+748B,U+748E,U+7490,U+749C,U+749E,U+74A7-74A9,U+74BA,U+74D2,U+74DC,U+74DE,U+74E0,U+74E2-74E4,U+74E6,U+74EE-74EF,U+74F4,U+74F6-74F7,U+74FF,U+7504,U+750D,U+750F,U+7511,U+7513,U+7518-751A,U+751C,U+751F,U+7525,U+7528-7529,U+752B-752D,U+752F-7533,U+7535,U+7537-7538,U+753A-753B,U+753E,U+7540,U+7545,U+7548,U+754B-754C,U+754E-754F,U+7554,U+7559-755C,U+7565-7566,U+756A,U+7572,U+7574,U+7578-7579,U+757F,U+7583,U+7586',</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16">
-      <c r="A35" t="s">
-        <v>717</v>
+      <c r="A35" s="3" t="s">
+        <v>978</v>
       </c>
       <c r="B35" t="s">
-        <v>802</v>
+        <v>1039</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_34'</v>
+        <v>'gb_34'</v>
       </c>
       <c r="D35" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+7722,U+7726,U+7728,U+772b-7730,U+7732-7736,U+7739-773a,U+773d-773f,U+7743,U+7746-7747,U+774c-774f,U+7751-7752,U+7758-775a,U+775c-775e,U+7762,U+7765-7766,U+7768-776a,U+776c-776d,U+7771-7772,U+777a,U+777c-777e,U+7780,U+7785,U+7787,U+778b-778d,U+778f-7791,U+7793,U+779e-77a0,U+77a2,U+77a5,U+77ad,U+77af,U+77b4-77b7,U+77bd-77c0,U+77c2,U+77c5,U+77c7,U+77cd,U+77d6-77d7,U+77d9-77da,U+77dd-77de,U+77e7,U+77ea,U+77ec,U+77ef,U+77f8,U+77fb,U+77fd-77fe,U+7800,U+7803,U+7806,U+7809,U+780f-7812,U+7815,U+7817-7818,U+781a-781f,U+7821-7823,U+7825-7827,U+7829,U+782b-7830,U+7832-7833,U+7835,U+7837,U+7839-783c,U+783e,U+7841-7844,U+7847-7849,U+784b'</v>
+        <v>'U+758B,U+758F,U+7591-7592,U+7594,U+7596-7597,U+7599-759A,U+759D,U+759F-75A1,U+75A3-75A5,U+75AB-75AC,U+75AE-75B5,U+75B8-75B9,U+75BC-75BE,U+75C2-75C5,U+75C7-75CA,U+75CD,U+75D2,U+75D4-75D6,U+75D8,U+75DB,U+75DE,U+75E2-75E4,U+75E6-75E8,U+75EA-75EB,U+75F0-75F1,U+75F4,U+75F9,U+75FC,U+75FF-7601,U+7603,U+7605,U+760A,U+760C,U+7610,U+7615,U+7617-7619,U+761B,U+761F-7620,U+7622,U+7624-7626,U+7629-762B,U+762D,U+7630,U+7633-7635,U+7638,U+763C,U+763E-7640,U+7643,U+764C-764D,U+7654,U+7656,U+765C,U+765E,U+7663,U+766B,U+766F,U+7678,U+767B,U+767D-767E,U+7682,U+7684,U+7686-7688,U+768B,U+768E,U+7691,U+7693,U+7696,U+7699,U+76A4,U+76AE,U+76B1-76B2,U+76B4,U+76BF,U+76C2,U+76C5-76C6,U+76C8,U+76CA'</v>
       </c>
       <c r="F35" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_34', ~'U+7722,U+7726,U+7728,U+772b-7730,U+7732-7736,U+7739-773a,U+773d-773f,U+7743,U+7746-7747,U+774c-774f,U+7751-7752,U+7758-775a,U+775c-775e,U+7762,U+7765-7766,U+7768-776a,U+776c-776d,U+7771-7772,U+777a,U+777c-777e,U+7780,U+7785,U+7787,U+778b-778d,U+778f-7791,U+7793,U+779e-77a0,U+77a2,U+77a5,U+77ad,U+77af,U+77b4-77b7,U+77bd-77c0,U+77c2,U+77c5,U+77c7,U+77cd,U+77d6-77d7,U+77d9-77da,U+77dd-77de,U+77e7,U+77ea,U+77ec,U+77ef,U+77f8,U+77fb,U+77fd-77fe,U+7800,U+7803,U+7806,U+7809,U+780f-7812,U+7815,U+7817-7818,U+781a-781f,U+7821-7823,U+7825-7827,U+7829,U+782b-7830,U+7832-7833,U+7835,U+7837,U+7839-783c,U+783e,U+7841-7844,U+7847-7849,U+784b',</v>
+        <v>~'gb_34', ~'U+758B,U+758F,U+7591-7592,U+7594,U+7596-7597,U+7599-759A,U+759D,U+759F-75A1,U+75A3-75A5,U+75AB-75AC,U+75AE-75B5,U+75B8-75B9,U+75BC-75BE,U+75C2-75C5,U+75C7-75CA,U+75CD,U+75D2,U+75D4-75D6,U+75D8,U+75DB,U+75DE,U+75E2-75E4,U+75E6-75E8,U+75EA-75EB,U+75F0-75F1,U+75F4,U+75F9,U+75FC,U+75FF-7601,U+7603,U+7605,U+760A,U+760C,U+7610,U+7615,U+7617-7619,U+761B,U+761F-7620,U+7622,U+7624-7626,U+7629-762B,U+762D,U+7630,U+7633-7635,U+7638,U+763C,U+763E-7640,U+7643,U+764C-764D,U+7654,U+7656,U+765C,U+765E,U+7663,U+766B,U+766F,U+7678,U+767B,U+767D-767E,U+7682,U+7684,U+7686-7688,U+768B,U+768E,U+7691,U+7693,U+7696,U+7699,U+76A4,U+76AE,U+76B1-76B2,U+76B4,U+76BF,U+76C2,U+76C5-76C6,U+76C8,U+76CA',</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16">
-      <c r="A36" t="s">
-        <v>718</v>
+      <c r="A36" s="3" t="s">
+        <v>979</v>
       </c>
       <c r="B36" t="s">
-        <v>803</v>
+        <v>1040</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_35'</v>
+        <v>'gb_35'</v>
       </c>
       <c r="D36" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+7613-7619,U+761b-761d,U+761f-7622,U+7625,U+7627-762a,U+762e-7630,U+7632-7635,U+7638-763a,U+763c-763d,U+763f-7640,U+7642-7643,U+7647-7648,U+764d-764e,U+7652,U+7654,U+7658,U+765a,U+765c,U+765e-765f,U+7661-7663,U+7665,U+7669,U+766c,U+766e-766f,U+7671-7673,U+7675-7676,U+7678-767a,U+767f,U+7681,U+7683,U+7688,U+768a-768c,U+768e,U+7690-7692,U+7695,U+7698,U+769a-769b,U+769d-76a0,U+76a2,U+76a4-76a7,U+76ab-76ac,U+76af-76b0,U+76b2,U+76b4-76b5,U+76ba-76bb,U+76bf,U+76c2-76c3,U+76c5,U+76c9,U+76cc-76ce,U+76dc-76de,U+76e1-76ea,U+76f1,U+76f9-76fb,U+76fd,U+76ff-7700,U+7703-7704,U+7707-7708,U+770c-770f,U+7712,U+7714,U+7716,U+7719-771b,U+771e,U+7721'</v>
+        <v>'U+76CD-76D2,U+76D4,U+76D6-76D8,U+76DB,U+76DF,U+76E5,U+76EE-76EF,U+76F1-76F2,U+76F4,U+76F8-76F9,U+76FC,U+76FE,U+7701,U+7704,U+7707-7709,U+770B,U+770D,U+7719-771A,U+771F-7720,U+7722,U+7726,U+7728-7729,U+772D,U+772F,U+7735-7738,U+773A,U+773C,U+7740-7741,U+7743,U+7747,U+7750-7751,U+775A-775B,U+7761-7763,U+7765-7766,U+7768,U+776B-776C,U+7779,U+777D-7780,U+7784-7785,U+778C-778E,U+7791-7792,U+779F-77A0,U+77A2,U+77A5,U+77A7,U+77A9-77AA,U+77AC,U+77B0,U+77B3,U+77B5,U+77BB,U+77BD,U+77BF,U+77CD,U+77D7,U+77DB-77DC,U+77E2-77E3,U+77E5,U+77E7,U+77E9,U+77EB-77EE,U+77F3,U+77F6,U+77F8,U+77FD-7802,U+7809,U+780C-780D,U+7811-7812,U+7814,U+7816-7818,U+781A,U+781C-781D,U+781F,U+7823,U+7825-7827,U+7829'</v>
       </c>
       <c r="F36" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_35', ~'U+7613-7619,U+761b-761d,U+761f-7622,U+7625,U+7627-762a,U+762e-7630,U+7632-7635,U+7638-763a,U+763c-763d,U+763f-7640,U+7642-7643,U+7647-7648,U+764d-764e,U+7652,U+7654,U+7658,U+765a,U+765c,U+765e-765f,U+7661-7663,U+7665,U+7669,U+766c,U+766e-766f,U+7671-7673,U+7675-7676,U+7678-767a,U+767f,U+7681,U+7683,U+7688,U+768a-768c,U+768e,U+7690-7692,U+7695,U+7698,U+769a-769b,U+769d-76a0,U+76a2,U+76a4-76a7,U+76ab-76ac,U+76af-76b0,U+76b2,U+76b4-76b5,U+76ba-76bb,U+76bf,U+76c2-76c3,U+76c5,U+76c9,U+76cc-76ce,U+76dc-76de,U+76e1-76ea,U+76f1,U+76f9-76fb,U+76fd,U+76ff-7700,U+7703-7704,U+7707-7708,U+770c-770f,U+7712,U+7714,U+7716,U+7719-771b,U+771e,U+7721',</v>
+        <v>~'gb_35', ~'U+76CD-76D2,U+76D4,U+76D6-76D8,U+76DB,U+76DF,U+76E5,U+76EE-76EF,U+76F1-76F2,U+76F4,U+76F8-76F9,U+76FC,U+76FE,U+7701,U+7704,U+7707-7709,U+770B,U+770D,U+7719-771A,U+771F-7720,U+7722,U+7726,U+7728-7729,U+772D,U+772F,U+7735-7738,U+773A,U+773C,U+7740-7741,U+7743,U+7747,U+7750-7751,U+775A-775B,U+7761-7763,U+7765-7766,U+7768,U+776B-776C,U+7779,U+777D-7780,U+7784-7785,U+778C-778E,U+7791-7792,U+779F-77A0,U+77A2,U+77A5,U+77A7,U+77A9-77AA,U+77AC,U+77B0,U+77B3,U+77B5,U+77BB,U+77BD,U+77BF,U+77CD,U+77D7,U+77DB-77DC,U+77E2-77E3,U+77E5,U+77E7,U+77E9,U+77EB-77EE,U+77F3,U+77F6,U+77F8,U+77FD-7802,U+7809,U+780C-780D,U+7811-7812,U+7814,U+7816-7818,U+781A,U+781C-781D,U+781F,U+7823,U+7825-7827,U+7829',</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16">
-      <c r="A37" t="s">
-        <v>719</v>
+      <c r="A37" s="3" t="s">
+        <v>980</v>
       </c>
       <c r="B37" t="s">
-        <v>804</v>
+        <v>1041</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_36'</v>
+        <v>'gb_36'</v>
       </c>
       <c r="D37" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+750d,U+750f,U+7511,U+7513,U+7515,U+7517,U+7519,U+7521-7527,U+752a,U+752c-752d,U+752f,U+7534,U+7536,U+753a,U+753e,U+7540,U+7544,U+7547-754b,U+754d-754e,U+7550-7553,U+7556-7557,U+755a-755b,U+755d-755e,U+7560,U+7562,U+7564,U+7566-7568,U+756b-756c,U+756f-7573,U+7575,U+7579-757c,U+757e-757f,U+7581-7584,U+7587,U+7589-758e,U+7590,U+7592,U+7594,U+7596,U+7599-759a,U+759d,U+759f-75a0,U+75a3,U+75a5,U+75a8,U+75ac-75ad,U+75b0-75b1,U+75b3-75b5,U+75b8,U+75bd,U+75c1-75c4,U+75c8-75ca,U+75cc-75cd,U+75d4,U+75d6,U+75d9,U+75de,U+75e0,U+75e2-75e4,U+75e6-75ea,U+75f1-75f3,U+75f7,U+75f9-75fa,U+75fc,U+75fe-7601,U+7603,U+7605-7606,U+7608-760e,U+7610-7612'</v>
+        <v>'U+782C-782D,U+7830,U+7834,U+7837-783C,U+783E,U+7840,U+7845,U+7847,U+784C,U+784E,U+7850,U+7852,U+7855-7857,U+785D,U+786A-786E,U+7877,U+787C,U+7887,U+7889,U+788C-788E,U+7891,U+7893,U+7897-7898,U+789A-789C,U+789F,U+78A1,U+78A3,U+78A5,U+78A7,U+78B0-78B4,U+78B9,U+78BE,U+78C1,U+78C5,U+78C9-78CB,U+78D0,U+78D4-78D5,U+78D9,U+78E8,U+78EC,U+78F2,U+78F4,U+78F7,U+78FA,U+7901,U+7905,U+7913,U+791E,U+7924,U+7934,U+793A-793C,U+793E,U+7940-7941,U+7946,U+7948-7949,U+7953,U+7956-7957,U+795A-7960,U+7962,U+7965,U+7967-7968,U+796D,U+796F,U+7977-7978,U+797A,U+7980-7981,U+7984-7985,U+798A,U+798F,U+799A,U+79A7,U+79B3,U+79B9-79BB,U+79BD-79BE,U+79C0-79C1,U+79C3,U+79C6,U+79C9,U+79CB,U+79CD,U+79D1-79D2,U+79D5,U+79D8,U+79DF'</v>
       </c>
       <c r="F37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_36', ~'U+750d,U+750f,U+7511,U+7513,U+7515,U+7517,U+7519,U+7521-7527,U+752a,U+752c-752d,U+752f,U+7534,U+7536,U+753a,U+753e,U+7540,U+7544,U+7547-754b,U+754d-754e,U+7550-7553,U+7556-7557,U+755a-755b,U+755d-755e,U+7560,U+7562,U+7564,U+7566-7568,U+756b-756c,U+756f-7573,U+7575,U+7579-757c,U+757e-757f,U+7581-7584,U+7587,U+7589-758e,U+7590,U+7592,U+7594,U+7596,U+7599-759a,U+759d,U+759f-75a0,U+75a3,U+75a5,U+75a8,U+75ac-75ad,U+75b0-75b1,U+75b3-75b5,U+75b8,U+75bd,U+75c1-75c4,U+75c8-75ca,U+75cc-75cd,U+75d4,U+75d6,U+75d9,U+75de,U+75e0,U+75e2-75e4,U+75e6-75ea,U+75f1-75f3,U+75f7,U+75f9-75fa,U+75fc,U+75fe-7601,U+7603,U+7605-7606,U+7608-760e,U+7610-7612',</v>
+        <v>~'gb_36', ~'U+782C-782D,U+7830,U+7834,U+7837-783C,U+783E,U+7840,U+7845,U+7847,U+784C,U+784E,U+7850,U+7852,U+7855-7857,U+785D,U+786A-786E,U+7877,U+787C,U+7887,U+7889,U+788C-788E,U+7891,U+7893,U+7897-7898,U+789A-789C,U+789F,U+78A1,U+78A3,U+78A5,U+78A7,U+78B0-78B4,U+78B9,U+78BE,U+78C1,U+78C5,U+78C9-78CB,U+78D0,U+78D4-78D5,U+78D9,U+78E8,U+78EC,U+78F2,U+78F4,U+78F7,U+78FA,U+7901,U+7905,U+7913,U+791E,U+7924,U+7934,U+793A-793C,U+793E,U+7940-7941,U+7946,U+7948-7949,U+7953,U+7956-7957,U+795A-7960,U+7962,U+7965,U+7967-7968,U+796D,U+796F,U+7977-7978,U+797A,U+7980-7981,U+7984-7985,U+798A,U+798F,U+799A,U+79A7,U+79B3,U+79B9-79BB,U+79BD-79BE,U+79C0-79C1,U+79C3,U+79C6,U+79C9,U+79CB,U+79CD,U+79D1-79D2,U+79D5,U+79D8,U+79DF',</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16">
-      <c r="A38" t="s">
-        <v>720</v>
+      <c r="A38" s="3" t="s">
+        <v>981</v>
       </c>
       <c r="B38" t="s">
-        <v>805</v>
+        <v>1042</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_37'</v>
+        <v>'gb_37'</v>
       </c>
       <c r="D38" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+73f0,U+73f2,U+73f4-73f5,U+73f7,U+73f9-73fa,U+73fc-73fd,U+73ff-7402,U+7404,U+7407-7408,U+740a-740f,U+7418,U+741a-741c,U+741e,U+7424-7425,U+7428-7429,U+742c-7430,U+7432,U+7435-7436,U+7438-743b,U+743e-7441,U+7443-7446,U+7448,U+744a-744b,U+7452,U+7457,U+745b,U+745d,U+7460,U+7462-7465,U+7467-746a,U+746d,U+746f,U+7471,U+7473-7474,U+7477,U+747a,U+747e,U+7481-7482,U+7484,U+7486,U+7488-748b,U+748e-748f,U+7493,U+7498,U+749a,U+749c-74a0,U+74a3,U+74a6,U+74a9-74aa,U+74ae,U+74b0-74b2,U+74b6,U+74b8-74ba,U+74bd,U+74bf,U+74c1,U+74c3,U+74c5,U+74c8,U+74ca,U+74cc,U+74cf,U+74d1-74d2,U+74d4-74d5,U+74d8-74db,U+74de-74e0,U+74e2,U+74e4-74e5,U+74e7-74e9,U+74ee-74ef,U+74f4,U+74ff,U+7501,U+7503,U+7505,U+7508'</v>
+        <v>'U+79E3-79E4,U+79E6-79E7,U+79E9,U+79EB,U+79ED,U+79EF-79F0,U+79F8,U+79FB,U+79FD,U+7A00,U+7A02-7A03,U+7A06,U+7A0B,U+7A0D-7A0E,U+7A14,U+7A17,U+7A1A,U+7A1E,U+7A20,U+7A23,U+7A33,U+7A37,U+7A39,U+7A3B-7A3D,U+7A3F,U+7A46,U+7A51,U+7A57,U+7A70,U+7A74,U+7A76-7A7A,U+7A7F-7A81,U+7A83-7A84,U+7A86,U+7A88,U+7A8D,U+7A91-7A92,U+7A95-7A98,U+7A9C-7A9D,U+7A9F-7AA0,U+7AA5-7AA6,U+7AA8,U+7AAC-7AAD,U+7AB3,U+7ABF,U+7ACB,U+7AD6,U+7AD9,U+7ADE-7AE0,U+7AE3,U+7AE5-7AE6,U+7AED,U+7AEF,U+7AF9-7AFA,U+7AFD,U+7AFF,U+7B03-7B04,U+7B06,U+7B08,U+7B0A-7B0B,U+7B0F,U+7B11,U+7B14-7B15,U+7B19,U+7B1B,U+7B1E,U+7B20,U+7B24-7B26,U+7B28,U+7B2A-7B2C,U+7B2E,U+7B31,U+7B33,U+7B38,U+7B3A,U+7B3C,U+7B3E,U+7B45,U+7B47,U+7B49,U+7B4B-7B4C,U+7B4F-7B52,U+7B54,U+7B56,U+7B58,U+7B5A-7B5B,U+7B5D,U+7B60,U+7B62,U+7B6E'</v>
       </c>
       <c r="F38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_37', ~'U+73f0,U+73f2,U+73f4-73f5,U+73f7,U+73f9-73fa,U+73fc-73fd,U+73ff-7402,U+7404,U+7407-7408,U+740a-740f,U+7418,U+741a-741c,U+741e,U+7424-7425,U+7428-7429,U+742c-7430,U+7432,U+7435-7436,U+7438-743b,U+743e-7441,U+7443-7446,U+7448,U+744a-744b,U+7452,U+7457,U+745b,U+745d,U+7460,U+7462-7465,U+7467-746a,U+746d,U+746f,U+7471,U+7473-7474,U+7477,U+747a,U+747e,U+7481-7482,U+7484,U+7486,U+7488-748b,U+748e-748f,U+7493,U+7498,U+749a,U+749c-74a0,U+74a3,U+74a6,U+74a9-74aa,U+74ae,U+74b0-74b2,U+74b6,U+74b8-74ba,U+74bd,U+74bf,U+74c1,U+74c3,U+74c5,U+74c8,U+74ca,U+74cc,U+74cf,U+74d1-74d2,U+74d4-74d5,U+74d8-74db,U+74de-74e0,U+74e2,U+74e4-74e5,U+74e7-74e9,U+74ee-74ef,U+74f4,U+74ff,U+7501,U+7503,U+7505,U+7508',</v>
+        <v>~'gb_37', ~'U+79E3-79E4,U+79E6-79E7,U+79E9,U+79EB,U+79ED,U+79EF-79F0,U+79F8,U+79FB,U+79FD,U+7A00,U+7A02-7A03,U+7A06,U+7A0B,U+7A0D-7A0E,U+7A14,U+7A17,U+7A1A,U+7A1E,U+7A20,U+7A23,U+7A33,U+7A37,U+7A39,U+7A3B-7A3D,U+7A3F,U+7A46,U+7A51,U+7A57,U+7A70,U+7A74,U+7A76-7A7A,U+7A7F-7A81,U+7A83-7A84,U+7A86,U+7A88,U+7A8D,U+7A91-7A92,U+7A95-7A98,U+7A9C-7A9D,U+7A9F-7AA0,U+7AA5-7AA6,U+7AA8,U+7AAC-7AAD,U+7AB3,U+7ABF,U+7ACB,U+7AD6,U+7AD9,U+7ADE-7AE0,U+7AE3,U+7AE5-7AE6,U+7AED,U+7AEF,U+7AF9-7AFA,U+7AFD,U+7AFF,U+7B03-7B04,U+7B06,U+7B08,U+7B0A-7B0B,U+7B0F,U+7B11,U+7B14-7B15,U+7B19,U+7B1B,U+7B1E,U+7B20,U+7B24-7B26,U+7B28,U+7B2A-7B2C,U+7B2E,U+7B31,U+7B33,U+7B38,U+7B3A,U+7B3C,U+7B3E,U+7B45,U+7B47,U+7B49,U+7B4B-7B4C,U+7B4F-7B52,U+7B54,U+7B56,U+7B58,U+7B5A-7B5B,U+7B5D,U+7B60,U+7B62,U+7B6E',</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16">
-      <c r="A39" t="s">
-        <v>721</v>
+      <c r="A39" s="3" t="s">
+        <v>982</v>
       </c>
       <c r="B39" t="s">
-        <v>806</v>
+        <v>1043</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_38'</v>
+        <v>'gb_38'</v>
       </c>
       <c r="D39" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+72e6,U+72e8,U+72ef-72f0,U+72f2-72f4,U+72f6-72f7,U+72f9-72fb,U+72fd,U+7300-7304,U+7307,U+730a-730c,U+7313-7317,U+731d-7322,U+7327,U+7329,U+732c-732d,U+7330-7331,U+7333,U+7335-7337,U+7339,U+733d-733e,U+7340,U+7342,U+7344-7345,U+734a,U+734d-7350,U+7352,U+7355,U+7357,U+7359,U+735f-7360,U+7362-7363,U+7365,U+7368,U+736c-736d,U+736f-7370,U+7372,U+7374-7376,U+7378,U+737a-737b,U+737d-737e,U+7382-7383,U+7386,U+7388,U+738a,U+738c-7393,U+7395,U+7397-739a,U+739c,U+739e,U+73a0-73a3,U+73a5-73a8,U+73aa,U+73ad,U+73b1,U+73b3,U+73b6-73b7,U+73b9,U+73c2,U+73c5-73c9,U+73cc,U+73ce-73d0,U+73d2,U+73d6,U+73d9,U+73db-73de,U+73e3,U+73e5-73ea,U+73ee-73ef'</v>
+        <v>'U+7B71-7B72,U+7B75,U+7B77,U+7B79,U+7B7B,U+7B7E,U+7B80,U+7B85,U+7B8D,U+7B90,U+7B94-7B95,U+7B97,U+7B9C-7B9D,U+7BA1-7BA2,U+7BA6-7BAD,U+7BB1,U+7BB4,U+7BB8,U+7BC1,U+7BC6-7BC7,U+7BCC,U+7BD1,U+7BD3,U+7BD9-7BDA,U+7BDD,U+7BE1,U+7BE5-7BE6,U+7BEA,U+7BEE,U+7BF1,U+7BF7,U+7BFC,U+7BFE,U+7C07,U+7C0B-7C0C,U+7C0F,U+7C16,U+7C1F,U+7C26-7C27,U+7C2A,U+7C38,U+7C3F-7C41,U+7C4D,U+7C73-7C74,U+7C7B-7C7D,U+7C89,U+7C91-7C92,U+7C95,U+7C97-7C98,U+7C9C-7C9F,U+7CA2,U+7CA4-7CA5,U+7CAA,U+7CAE,U+7CB1-7CB3,U+7CB9,U+7CBC-7CBE,U+7CC1,U+7CC5,U+7CC7-7CC8,U+7CCA,U+7CCC-7CCD,U+7CD5-7CD7,U+7CD9,U+7CDC,U+7CDF-7CE0,U+7CE8,U+7CEF,U+7CF8,U+7CFB,U+7D0A,U+7D20,U+7D22,U+7D27,U+7D2B,U+7D2F,U+7D6E,U+7D77,U+7DA6,U+7DAE,U+7E3B,U+7E41,U+7E47,U+7E82,U+7E9B'</v>
       </c>
       <c r="F39" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_38', ~'U+72e6,U+72e8,U+72ef-72f0,U+72f2-72f4,U+72f6-72f7,U+72f9-72fb,U+72fd,U+7300-7304,U+7307,U+730a-730c,U+7313-7317,U+731d-7322,U+7327,U+7329,U+732c-732d,U+7330-7331,U+7333,U+7335-7337,U+7339,U+733d-733e,U+7340,U+7342,U+7344-7345,U+734a,U+734d-7350,U+7352,U+7355,U+7357,U+7359,U+735f-7360,U+7362-7363,U+7365,U+7368,U+736c-736d,U+736f-7370,U+7372,U+7374-7376,U+7378,U+737a-737b,U+737d-737e,U+7382-7383,U+7386,U+7388,U+738a,U+738c-7393,U+7395,U+7397-739a,U+739c,U+739e,U+73a0-73a3,U+73a5-73a8,U+73aa,U+73ad,U+73b1,U+73b3,U+73b6-73b7,U+73b9,U+73c2,U+73c5-73c9,U+73cc,U+73ce-73d0,U+73d2,U+73d6,U+73d9,U+73db-73de,U+73e3,U+73e5-73ea,U+73ee-73ef',</v>
+        <v>~'gb_38', ~'U+7B71-7B72,U+7B75,U+7B77,U+7B79,U+7B7B,U+7B7E,U+7B80,U+7B85,U+7B8D,U+7B90,U+7B94-7B95,U+7B97,U+7B9C-7B9D,U+7BA1-7BA2,U+7BA6-7BAD,U+7BB1,U+7BB4,U+7BB8,U+7BC1,U+7BC6-7BC7,U+7BCC,U+7BD1,U+7BD3,U+7BD9-7BDA,U+7BDD,U+7BE1,U+7BE5-7BE6,U+7BEA,U+7BEE,U+7BF1,U+7BF7,U+7BFC,U+7BFE,U+7C07,U+7C0B-7C0C,U+7C0F,U+7C16,U+7C1F,U+7C26-7C27,U+7C2A,U+7C38,U+7C3F-7C41,U+7C4D,U+7C73-7C74,U+7C7B-7C7D,U+7C89,U+7C91-7C92,U+7C95,U+7C97-7C98,U+7C9C-7C9F,U+7CA2,U+7CA4-7CA5,U+7CAA,U+7CAE,U+7CB1-7CB3,U+7CB9,U+7CBC-7CBE,U+7CC1,U+7CC5,U+7CC7-7CC8,U+7CCA,U+7CCC-7CCD,U+7CD5-7CD7,U+7CD9,U+7CDC,U+7CDF-7CE0,U+7CE8,U+7CEF,U+7CF8,U+7CFB,U+7D0A,U+7D20,U+7D22,U+7D27,U+7D2B,U+7D2F,U+7D6E,U+7D77,U+7DA6,U+7DAE,U+7E3B,U+7E41,U+7E47,U+7E82,U+7E9B',</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16">
-      <c r="A40" t="s">
-        <v>722</v>
+      <c r="A40" s="3" t="s">
+        <v>983</v>
       </c>
       <c r="B40" t="s">
-        <v>807</v>
+        <v>1044</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_39'</v>
+        <v>'gb_39'</v>
       </c>
       <c r="D40" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+71a8,U+71af,U+71b1-71bc,U+71be,U+71c1-71c2,U+71c4,U+71c8-71cb,U+71ce-71d0,U+71d2,U+71d4,U+71d9-71da,U+71dc,U+71df-71e0,U+71e6-71e8,U+71ea,U+71ed-71ee,U+71f4,U+71f6,U+71f9,U+71fb-71fc,U+71ff-7200,U+7207,U+720c-720d,U+7210,U+7216,U+721a-721e,U+7223,U+7228,U+722b,U+722d-722e,U+7230,U+7232,U+723a-723c,U+723e-7242,U+7246,U+724b,U+724d-724e,U+7252,U+7256,U+7258,U+725a,U+725c-725d,U+7260,U+7264-7266,U+726a,U+726c,U+726e-726f,U+7271,U+7273-7274,U+7278,U+727b,U+727d-727e,U+7281-7282,U+7284,U+7287,U+728a,U+728d,U+728f,U+7292,U+729b,U+729f-72a0,U+72a7,U+72ad-72ae,U+72b0-72b5,U+72b7-72b8,U+72ba-72be,U+72c0-72c1,U+72c3,U+72c5-72c6,U+72c8,U+72cc-72ce,U+72d2,U+72d6,U+72db,U+72dd-72df,U+72e1,U+72e5'</v>
+        <v>'U+7E9F-7EAD,U+7EAF-7EB3,U+7EB5-7EBA,U+7EBD-7ED5,U+7ED7-7EE3,U+7EE5-7EEB,U+7EED-7EF8,U+7EFA-7F09,U+7F0B-7F0F,U+7F11-7F1D'</v>
       </c>
       <c r="F40" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_39', ~'U+71a8,U+71af,U+71b1-71bc,U+71be,U+71c1-71c2,U+71c4,U+71c8-71cb,U+71ce-71d0,U+71d2,U+71d4,U+71d9-71da,U+71dc,U+71df-71e0,U+71e6-71e8,U+71ea,U+71ed-71ee,U+71f4,U+71f6,U+71f9,U+71fb-71fc,U+71ff-7200,U+7207,U+720c-720d,U+7210,U+7216,U+721a-721e,U+7223,U+7228,U+722b,U+722d-722e,U+7230,U+7232,U+723a-723c,U+723e-7242,U+7246,U+724b,U+724d-724e,U+7252,U+7256,U+7258,U+725a,U+725c-725d,U+7260,U+7264-7266,U+726a,U+726c,U+726e-726f,U+7271,U+7273-7274,U+7278,U+727b,U+727d-727e,U+7281-7282,U+7284,U+7287,U+728a,U+728d,U+728f,U+7292,U+729b,U+729f-72a0,U+72a7,U+72ad-72ae,U+72b0-72b5,U+72b7-72b8,U+72ba-72be,U+72c0-72c1,U+72c3,U+72c5-72c6,U+72c8,U+72cc-72ce,U+72d2,U+72d6,U+72db,U+72dd-72df,U+72e1,U+72e5',</v>
+        <v>~'gb_39', ~'U+7E9F-7EAD,U+7EAF-7EB3,U+7EB5-7EBA,U+7EBD-7ED5,U+7ED7-7EE3,U+7EE5-7EEB,U+7EED-7EF8,U+7EFA-7F09,U+7F0B-7F0F,U+7F11-7F1D',</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16">
-      <c r="A41" t="s">
-        <v>723</v>
+      <c r="A41" s="3" t="s">
+        <v>984</v>
       </c>
       <c r="B41" t="s">
-        <v>808</v>
+        <v>1045</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_40'</v>
+        <v>'gb_40'</v>
       </c>
       <c r="D41" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+700b,U+700d,U+7015,U+7018,U+701b,U+701d-701f,U+7023,U+7026-7028,U+702c,U+702e-7030,U+7035,U+7037,U+7039-703a,U+703c-703e,U+7044,U+7049-704b,U+704f,U+7051,U+7058,U+705a,U+705c-705e,U+7061,U+7064,U+7066,U+706c,U+707d,U+7080-7081,U+7085-7086,U+708a,U+708f,U+7091,U+7094-7095,U+7098-7099,U+709c-709d,U+709f,U+70a4,U+70a9-70aa,U+70af-70b2,U+70b4-70b7,U+70bb,U+70c0,U+70c3,U+70c7,U+70cb,U+70ce-70cf,U+70d4,U+70d9-70da,U+70dc-70dd,U+70e0,U+70e9,U+70ec,U+70f7,U+70fa,U+70fd,U+70ff,U+7104,U+7108-7109,U+710c,U+7110,U+7113-7114,U+7116-7118,U+711c,U+711e,U+7120,U+712e-712f,U+7131,U+713c,U+7142,U+7144-7147,U+7149-714b,U+7150,U+7152,U+7155-7156,U+7159-715a,U+715c,U+7161,U+7165-7166,U+7168-7169,U+716d,U+7173-7174,U+7176,U+7178,U+717a,U+717d,U+717f-7180,U+7184,U+7186-7188,U+7192,U+7198,U+719c,U+71a0,U+71a4-71a5'</v>
+        <v>'U+7F1F-7F36,U+7F38,U+7F3A,U+7F42,U+7F44-7F45,U+7F50-7F51,U+7F54-7F55,U+7F57-7F58,U+7F5A,U+7F5F,U+7F61-7F62,U+7F68-7F6A,U+7F6E,U+7F71-7F72,U+7F74,U+7F79,U+7F7E,U+7F81,U+7F8A,U+7F8C,U+7F8E,U+7F94,U+7F9A,U+7F9D-7F9F,U+7FA1,U+7FA4,U+7FA7,U+7FAF-7FB0,U+7FB2,U+7FB8-7FB9,U+7FBC-7FBD,U+7FBF,U+7FC1,U+7FC5,U+7FCA,U+7FCC,U+7FCE,U+7FD4-7FD5,U+7FD8,U+7FDF-7FE1,U+7FE5-7FE6,U+7FE9,U+7FEE,U+7FF0-7FF1,U+7FF3,U+7FFB-7FFC,U+8000-8001,U+8003-8006,U+800B-800D,U+8010,U+8012,U+8014-8019,U+801C,U+8020,U+8022,U+8025-802A,U+8031,U+8033,U+8035-8038,U+803B,U+803D,U+803F,U+8042-8043,U+8046'</v>
       </c>
       <c r="F41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_40', ~'U+700b,U+700d,U+7015,U+7018,U+701b,U+701d-701f,U+7023,U+7026-7028,U+702c,U+702e-7030,U+7035,U+7037,U+7039-703a,U+703c-703e,U+7044,U+7049-704b,U+704f,U+7051,U+7058,U+705a,U+705c-705e,U+7061,U+7064,U+7066,U+706c,U+707d,U+7080-7081,U+7085-7086,U+708a,U+708f,U+7091,U+7094-7095,U+7098-7099,U+709c-709d,U+709f,U+70a4,U+70a9-70aa,U+70af-70b2,U+70b4-70b7,U+70bb,U+70c0,U+70c3,U+70c7,U+70cb,U+70ce-70cf,U+70d4,U+70d9-70da,U+70dc-70dd,U+70e0,U+70e9,U+70ec,U+70f7,U+70fa,U+70fd,U+70ff,U+7104,U+7108-7109,U+710c,U+7110,U+7113-7114,U+7116-7118,U+711c,U+711e,U+7120,U+712e-712f,U+7131,U+713c,U+7142,U+7144-7147,U+7149-714b,U+7150,U+7152,U+7155-7156,U+7159-715a,U+715c,U+7161,U+7165-7166,U+7168-7169,U+716d,U+7173-7174,U+7176,U+7178,U+717a,U+717d,U+717f-7180,U+7184,U+7186-7188,U+7192,U+7198,U+719c,U+71a0,U+71a4-71a5',</v>
+        <v>~'gb_40', ~'U+7F1F-7F36,U+7F38,U+7F3A,U+7F42,U+7F44-7F45,U+7F50-7F51,U+7F54-7F55,U+7F57-7F58,U+7F5A,U+7F5F,U+7F61-7F62,U+7F68-7F6A,U+7F6E,U+7F71-7F72,U+7F74,U+7F79,U+7F7E,U+7F81,U+7F8A,U+7F8C,U+7F8E,U+7F94,U+7F9A,U+7F9D-7F9F,U+7FA1,U+7FA4,U+7FA7,U+7FAF-7FB0,U+7FB2,U+7FB8-7FB9,U+7FBC-7FBD,U+7FBF,U+7FC1,U+7FC5,U+7FCA,U+7FCC,U+7FCE,U+7FD4-7FD5,U+7FD8,U+7FDF-7FE1,U+7FE5-7FE6,U+7FE9,U+7FEE,U+7FF0-7FF1,U+7FF3,U+7FFB-7FFC,U+8000-8001,U+8003-8006,U+800B-800D,U+8010,U+8012,U+8014-8019,U+801C,U+8020,U+8022,U+8025-802A,U+8031,U+8033,U+8035-8038,U+803B,U+803D,U+803F,U+8042-8043,U+8046',</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16">
-      <c r="A42" t="s">
-        <v>724</v>
+      <c r="A42" s="3" t="s">
+        <v>985</v>
       </c>
       <c r="B42" t="s">
-        <v>809</v>
+        <v>1046</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_41'</v>
+        <v>'gb_41'</v>
       </c>
       <c r="D42" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+6ed9,U+6edb,U+6edd,U+6edf-6ee0,U+6ee2,U+6ee6,U+6eea,U+6eec,U+6eee-6eef,U+6ef2-6ef3,U+6ef7-6efa,U+6efe,U+6f01,U+6f03,U+6f08-6f09,U+6f15-6f16,U+6f19,U+6f22-6f25,U+6f28-6f2a,U+6f2c-6f2d,U+6f2f,U+6f32,U+6f36-6f38,U+6f3f,U+6f43-6f46,U+6f48,U+6f4b,U+6f4e-6f4f,U+6f51,U+6f54-6f57,U+6f59-6f5b,U+6f5e-6f5f,U+6f61,U+6f64-6f67,U+6f69-6f6c,U+6f6f-6f72,U+6f74-6f76,U+6f78-6f7e,U+6f80-6f83,U+6f86,U+6f89,U+6f8b-6f8d,U+6f90,U+6f92,U+6f94,U+6f97-6f98,U+6f9b,U+6fa3-6fa5,U+6fa7,U+6faa,U+6faf,U+6fb1,U+6fb4,U+6fb6,U+6fb9,U+6fc1-6fcb,U+6fd1-6fd3,U+6fd5,U+6fdb,U+6fde-6fe1,U+6fe4,U+6fe9,U+6feb-6fec,U+6fee-6ff1,U+6ffa,U+6ffe,U+7005-7006,U+7009'</v>
+        <v>'U+804A-804D,U+8052,U+8054,U+8058,U+805A,U+8069-806A,U+8071,U+807F-8080,U+8083-8084,U+8086-8087,U+8089,U+808B-808C,U+8093,U+8096,U+8098,U+809A-809D,U+809F-80A2,U+80A4-80A5,U+80A9-80AB,U+80AD-80AF,U+80B1-80B2,U+80B4,U+80B7,U+80BA,U+80BC-80C4,U+80C6,U+80CC-80CE,U+80D6-80D7,U+80D9-80DE,U+80E1,U+80E4-80E5,U+80E7-80ED,U+80EF-80F4,U+80F6,U+80F8,U+80FA,U+80FC-80FD,U+8102,U+8106,U+8109-810A,U+810D-8114,U+8116,U+8118,U+811A,U+811E,U+812C,U+812F,U+8131-8132,U+8136,U+8138,U+813E,U+8146,U+8148,U+814A-814C,U+8150-8151,U+8153-8155,U+8159-815A,U+8160,U+8165,U+8167,U+8169,U+816D-816E'</v>
       </c>
       <c r="F42" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_41', ~'U+6ed9,U+6edb,U+6edd,U+6edf-6ee0,U+6ee2,U+6ee6,U+6eea,U+6eec,U+6eee-6eef,U+6ef2-6ef3,U+6ef7-6efa,U+6efe,U+6f01,U+6f03,U+6f08-6f09,U+6f15-6f16,U+6f19,U+6f22-6f25,U+6f28-6f2a,U+6f2c-6f2d,U+6f2f,U+6f32,U+6f36-6f38,U+6f3f,U+6f43-6f46,U+6f48,U+6f4b,U+6f4e-6f4f,U+6f51,U+6f54-6f57,U+6f59-6f5b,U+6f5e-6f5f,U+6f61,U+6f64-6f67,U+6f69-6f6c,U+6f6f-6f72,U+6f74-6f76,U+6f78-6f7e,U+6f80-6f83,U+6f86,U+6f89,U+6f8b-6f8d,U+6f90,U+6f92,U+6f94,U+6f97-6f98,U+6f9b,U+6fa3-6fa5,U+6fa7,U+6faa,U+6faf,U+6fb1,U+6fb4,U+6fb6,U+6fb9,U+6fc1-6fcb,U+6fd1-6fd3,U+6fd5,U+6fdb,U+6fde-6fe1,U+6fe4,U+6fe9,U+6feb-6fec,U+6fee-6ff1,U+6ffa,U+6ffe,U+7005-7006,U+7009',</v>
+        <v>~'gb_41', ~'U+804A-804D,U+8052,U+8054,U+8058,U+805A,U+8069-806A,U+8071,U+807F-8080,U+8083-8084,U+8086-8087,U+8089,U+808B-808C,U+8093,U+8096,U+8098,U+809A-809D,U+809F-80A2,U+80A4-80A5,U+80A9-80AB,U+80AD-80AF,U+80B1-80B2,U+80B4,U+80B7,U+80BA,U+80BC-80C4,U+80C6,U+80CC-80CE,U+80D6-80D7,U+80D9-80DE,U+80E1,U+80E4-80E5,U+80E7-80ED,U+80EF-80F4,U+80F6,U+80F8,U+80FA,U+80FC-80FD,U+8102,U+8106,U+8109-810A,U+810D-8114,U+8116,U+8118,U+811A,U+811E,U+812C,U+812F,U+8131-8132,U+8136,U+8138,U+813E,U+8146,U+8148,U+814A-814C,U+8150-8151,U+8153-8155,U+8159-815A,U+8160,U+8165,U+8167,U+8169,U+816D-816E',</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16">
-      <c r="A43" t="s">
-        <v>725</v>
+      <c r="A43" s="3" t="s">
+        <v>986</v>
       </c>
       <c r="B43" t="s">
-        <v>810</v>
+        <v>1047</v>
       </c>
       <c r="C43" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_42'</v>
+        <v>'gb_42'</v>
       </c>
       <c r="D43" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+6dc3,U+6dc5-6dc6,U+6dc9,U+6dcc,U+6dcf,U+6dd2-6dd3,U+6dd6,U+6dd9-6dde,U+6de0,U+6de4,U+6de6,U+6de8-6dea,U+6dec,U+6def-6df0,U+6df5-6df6,U+6df8,U+6dfa,U+6dfc,U+6e03-6e04,U+6e07-6e09,U+6e0b-6e0c,U+6e0e,U+6e11,U+6e13,U+6e15-6e16,U+6e19-6e1b,U+6e1e-6e1f,U+6e22,U+6e25-6e27,U+6e2b-6e2c,U+6e36-6e37,U+6e39-6e3a,U+6e3c-6e41,U+6e44-6e45,U+6e47,U+6e49-6e4b,U+6e4d-6e4e,U+6e51,U+6e53-6e55,U+6e5c-6e5f,U+6e61-6e63,U+6e65-6e67,U+6e6a-6e6b,U+6e6d-6e70,U+6e72-6e74,U+6e76-6e78,U+6e7c,U+6e80-6e82,U+6e86-6e87,U+6e89,U+6e8d,U+6e8f,U+6e96,U+6e98,U+6e9d-6e9f,U+6ea1,U+6ea5-6ea7,U+6eab,U+6eb1-6eb2,U+6eb4,U+6eb7,U+6ebb-6ebd,U+6ebf-6ec6,U+6ec8-6ec9,U+6ecc,U+6ecf-6ed0,U+6ed3-6ed4,U+6ed7-6ed8'</v>
+        <v>'U+8170-8171,U+8174,U+8179-8180,U+8182,U+8188,U+818A,U+818F,U+8191,U+8198,U+819B-819D,U+81A3,U+81A6,U+81A8,U+81AA,U+81B3,U+81BA-81BB,U+81C0-81C3,U+81C6,U+81CA,U+81CC,U+81E3,U+81E7,U+81EA,U+81EC-81ED,U+81F3-81F4,U+81FB-81FC,U+81FE,U+8200-8202,U+8204-8206,U+820C-820D,U+8210,U+8212,U+8214,U+821B-821C,U+821E-821F,U+8221-8223,U+8228,U+822A-822D,U+822F-8231,U+8233-8239,U+823B,U+823E,U+8244,U+8247,U+8249,U+824B,U+824F,U+8258,U+825A,U+825F,U+8268,U+826E-8270,U+8272-8274,U+8279-827A,U+827D-827F,U+8282,U+8284,U+8288,U+828A-828B,U+828D-828F,U+8291-8292,U+8297-8299,U+829C-829D,U+829F,U+82A1,U+82A4-82A6'</v>
       </c>
       <c r="F43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_42', ~'U+6dc3,U+6dc5-6dc6,U+6dc9,U+6dcc,U+6dcf,U+6dd2-6dd3,U+6dd6,U+6dd9-6dde,U+6de0,U+6de4,U+6de6,U+6de8-6dea,U+6dec,U+6def-6df0,U+6df5-6df6,U+6df8,U+6dfa,U+6dfc,U+6e03-6e04,U+6e07-6e09,U+6e0b-6e0c,U+6e0e,U+6e11,U+6e13,U+6e15-6e16,U+6e19-6e1b,U+6e1e-6e1f,U+6e22,U+6e25-6e27,U+6e2b-6e2c,U+6e36-6e37,U+6e39-6e3a,U+6e3c-6e41,U+6e44-6e45,U+6e47,U+6e49-6e4b,U+6e4d-6e4e,U+6e51,U+6e53-6e55,U+6e5c-6e5f,U+6e61-6e63,U+6e65-6e67,U+6e6a-6e6b,U+6e6d-6e70,U+6e72-6e74,U+6e76-6e78,U+6e7c,U+6e80-6e82,U+6e86-6e87,U+6e89,U+6e8d,U+6e8f,U+6e96,U+6e98,U+6e9d-6e9f,U+6ea1,U+6ea5-6ea7,U+6eab,U+6eb1-6eb2,U+6eb4,U+6eb7,U+6ebb-6ebd,U+6ebf-6ec6,U+6ec8-6ec9,U+6ecc,U+6ecf-6ed0,U+6ed3-6ed4,U+6ed7-6ed8',</v>
+        <v>~'gb_42', ~'U+8170-8171,U+8174,U+8179-8180,U+8182,U+8188,U+818A,U+818F,U+8191,U+8198,U+819B-819D,U+81A3,U+81A6,U+81A8,U+81AA,U+81B3,U+81BA-81BB,U+81C0-81C3,U+81C6,U+81CA,U+81CC,U+81E3,U+81E7,U+81EA,U+81EC-81ED,U+81F3-81F4,U+81FB-81FC,U+81FE,U+8200-8202,U+8204-8206,U+820C-820D,U+8210,U+8212,U+8214,U+821B-821C,U+821E-821F,U+8221-8223,U+8228,U+822A-822D,U+822F-8231,U+8233-8239,U+823B,U+823E,U+8244,U+8247,U+8249,U+824B,U+824F,U+8258,U+825A,U+825F,U+8268,U+826E-8270,U+8272-8274,U+8279-827A,U+827D-827F,U+8282,U+8284,U+8288,U+828A-828B,U+828D-828F,U+8291-8292,U+8297-8299,U+829C-829D,U+829F,U+82A1,U+82A4-82A6',</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16">
-      <c r="A44" t="s">
-        <v>726</v>
+      <c r="A44" s="3" t="s">
+        <v>987</v>
       </c>
       <c r="B44" t="s">
-        <v>811</v>
+        <v>1048</v>
       </c>
       <c r="C44" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_43'</v>
+        <v>'gb_43'</v>
       </c>
       <c r="D44" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+6cb1-6cb2,U+6cb4-6cb5,U+6cb7,U+6cba,U+6cbc-6cbd,U+6cc1-6cc3,U+6cc5-6cc7,U+6cd0-6cd4,U+6cd6-6cd7,U+6cd9-6cda,U+6cde-6ce0,U+6ce4,U+6ce6,U+6ce9,U+6ceb-6cef,U+6cf1-6cf2,U+6cf6-6cf7,U+6cfa,U+6cfe,U+6d03-6d05,U+6d07-6d08,U+6d0a,U+6d0c,U+6d0e-6d11,U+6d13-6d14,U+6d16,U+6d18-6d1a,U+6d1c,U+6d1f,U+6d22-6d23,U+6d26-6d29,U+6d2b,U+6d2e-6d30,U+6d33,U+6d35-6d36,U+6d38-6d3a,U+6d3c,U+6d3f,U+6d42-6d44,U+6d48-6d49,U+6d4d,U+6d50,U+6d52,U+6d54,U+6d56-6d58,U+6d5a-6d5c,U+6d5e,U+6d60-6d61,U+6d63-6d65,U+6d67,U+6d6c-6d6d,U+6d6f,U+6d75,U+6d7b-6d7d,U+6d87,U+6d8a,U+6d8e,U+6d90-6d9a,U+6d9c-6da0,U+6da2-6da3,U+6da7,U+6daa-6dac,U+6dae,U+6db3-6db4,U+6db6,U+6db8,U+6dbc,U+6dbf,U+6dc2'</v>
+        <v>'U+82A8-82B1,U+82B3-82B4,U+82B7-82B9,U+82BD-82BE,U+82C1,U+82C4,U+82C7-82C8,U+82CA-82CF,U+82D1-82D5,U+82D7-82D8,U+82DB-82DC,U+82DE-82E1,U+82E3-82E6,U+82EB,U+82EF,U+82F1,U+82F4,U+82F7,U+82F9,U+82FB,U+8301-8309,U+830C,U+830E-830F,U+8311,U+8314-8315,U+8317,U+831A-831C,U+8327-8328,U+832B-832D,U+832F,U+8331,U+8333-8336,U+8338-833A,U+833C,U+8340,U+8343,U+8346-8347,U+8349,U+834F-8352,U+8354,U+835A-835C,U+835E-8361,U+8363-836F,U+8377-8378,U+837B-837D,U+8385-8386,U+8389,U+838E,U+8392-8393,U+8398'</v>
       </c>
       <c r="F44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_43', ~'U+6cb1-6cb2,U+6cb4-6cb5,U+6cb7,U+6cba,U+6cbc-6cbd,U+6cc1-6cc3,U+6cc5-6cc7,U+6cd0-6cd4,U+6cd6-6cd7,U+6cd9-6cda,U+6cde-6ce0,U+6ce4,U+6ce6,U+6ce9,U+6ceb-6cef,U+6cf1-6cf2,U+6cf6-6cf7,U+6cfa,U+6cfe,U+6d03-6d05,U+6d07-6d08,U+6d0a,U+6d0c,U+6d0e-6d11,U+6d13-6d14,U+6d16,U+6d18-6d1a,U+6d1c,U+6d1f,U+6d22-6d23,U+6d26-6d29,U+6d2b,U+6d2e-6d30,U+6d33,U+6d35-6d36,U+6d38-6d3a,U+6d3c,U+6d3f,U+6d42-6d44,U+6d48-6d49,U+6d4d,U+6d50,U+6d52,U+6d54,U+6d56-6d58,U+6d5a-6d5c,U+6d5e,U+6d60-6d61,U+6d63-6d65,U+6d67,U+6d6c-6d6d,U+6d6f,U+6d75,U+6d7b-6d7d,U+6d87,U+6d8a,U+6d8e,U+6d90-6d9a,U+6d9c-6da0,U+6da2-6da3,U+6da7,U+6daa-6dac,U+6dae,U+6db3-6db4,U+6db6,U+6db8,U+6dbc,U+6dbf,U+6dc2',</v>
+        <v>~'gb_43', ~'U+82A8-82B1,U+82B3-82B4,U+82B7-82B9,U+82BD-82BE,U+82C1,U+82C4,U+82C7-82C8,U+82CA-82CF,U+82D1-82D5,U+82D7-82D8,U+82DB-82DC,U+82DE-82E1,U+82E3-82E6,U+82EB,U+82EF,U+82F1,U+82F4,U+82F7,U+82F9,U+82FB,U+8301-8309,U+830C,U+830E-830F,U+8311,U+8314-8315,U+8317,U+831A-831C,U+8327-8328,U+832B-832D,U+832F,U+8331,U+8333-8336,U+8338-833A,U+833C,U+8340,U+8343,U+8346-8347,U+8349,U+834F-8352,U+8354,U+835A-835C,U+835E-8361,U+8363-836F,U+8377-8378,U+837B-837D,U+8385-8386,U+8389,U+838E,U+8392-8393,U+8398',</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16">
-      <c r="A45" t="s">
-        <v>727</v>
+      <c r="A45" s="3" t="s">
+        <v>988</v>
       </c>
       <c r="B45" t="s">
-        <v>812</v>
+        <v>1049</v>
       </c>
       <c r="C45" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_44'</v>
+        <v>'gb_44'</v>
       </c>
       <c r="D45" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+6b83-6b86,U+6b89,U+6b8d,U+6b91-6b93,U+6b95,U+6b97-6b98,U+6b9a-6b9b,U+6b9e,U+6ba1-6ba4,U+6ba9-6baa,U+6bad,U+6baf-6bb0,U+6bb2-6bb3,U+6bba-6bbd,U+6bc0,U+6bc2,U+6bc6,U+6bca-6bcc,U+6bce,U+6bd0-6bd1,U+6bd3,U+6bd6-6bd8,U+6bda,U+6be1,U+6be6,U+6bec,U+6bf1,U+6bf3-6bf5,U+6bf9,U+6bfd,U+6c05-6c08,U+6c0d,U+6c10,U+6c15-6c1a,U+6c21,U+6c23-6c26,U+6c29-6c2d,U+6c30-6c33,U+6c35-6c37,U+6c39-6c3a,U+6c3c-6c3f,U+6c46,U+6c4a-6c4c,U+6c4e-6c50,U+6c54,U+6c56,U+6c59-6c5c,U+6c5e,U+6c63,U+6c67-6c69,U+6c6b,U+6c6d,U+6c6f,U+6c72-6c74,U+6c78-6c7a,U+6c7c,U+6c84-6c87,U+6c8b-6c8c,U+6c8f,U+6c91,U+6c93-6c96,U+6c98,U+6c9a,U+6c9d,U+6ca2-6ca4,U+6ca8-6ca9,U+6cac-6cae'</v>
+        <v>'U+839B-839C,U+839E,U+83A0,U+83A8-83AB,U+83B0-83B4,U+83B6-83BA,U+83BC-83BD,U+83C0-83C1,U+83C5,U+83C7,U+83CA,U+83CC,U+83CF,U+83D4,U+83D6,U+83D8,U+83DC-83DD,U+83DF-83E1,U+83E5,U+83E9-83EA,U+83F0-83F2,U+83F8-83F9,U+83FD,U+8401,U+8403-8404,U+8406,U+840B-840F,U+8411,U+8418,U+841C-841D,U+8424-8428,U+8431,U+8438,U+843C-843D,U+8446,U+8451,U+8457,U+8459-845C,U+8461,U+8463,U+8469,U+846B-846D,U+8471,U+8473,U+8475-8476,U+8478,U+847A,U+8482,U+8487-8489,U+848B-848C,U+848E,U+8497,U+8499,U+849C,U+84A1,U+84AF,U+84B2,U+84B4,U+84B8-84BA,U+84BD,U+84BF,U+84C1,U+84C4,U+84C9-84CA,U+84CD,U+84D0-84D1,U+84D3,U+84D6,U+84DD,U+84DF-84E0,U+84E3,U+84E5-84E6,U+84EC,U+84F0,U+84FC,U+84FF,U+850C,U+8511,U+8513,U+8517,U+851A'</v>
       </c>
       <c r="F45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_44', ~'U+6b83-6b86,U+6b89,U+6b8d,U+6b91-6b93,U+6b95,U+6b97-6b98,U+6b9a-6b9b,U+6b9e,U+6ba1-6ba4,U+6ba9-6baa,U+6bad,U+6baf-6bb0,U+6bb2-6bb3,U+6bba-6bbd,U+6bc0,U+6bc2,U+6bc6,U+6bca-6bcc,U+6bce,U+6bd0-6bd1,U+6bd3,U+6bd6-6bd8,U+6bda,U+6be1,U+6be6,U+6bec,U+6bf1,U+6bf3-6bf5,U+6bf9,U+6bfd,U+6c05-6c08,U+6c0d,U+6c10,U+6c15-6c1a,U+6c21,U+6c23-6c26,U+6c29-6c2d,U+6c30-6c33,U+6c35-6c37,U+6c39-6c3a,U+6c3c-6c3f,U+6c46,U+6c4a-6c4c,U+6c4e-6c50,U+6c54,U+6c56,U+6c59-6c5c,U+6c5e,U+6c63,U+6c67-6c69,U+6c6b,U+6c6d,U+6c6f,U+6c72-6c74,U+6c78-6c7a,U+6c7c,U+6c84-6c87,U+6c8b-6c8c,U+6c8f,U+6c91,U+6c93-6c96,U+6c98,U+6c9a,U+6c9d,U+6ca2-6ca4,U+6ca8-6ca9,U+6cac-6cae',</v>
+        <v>~'gb_44', ~'U+839B-839C,U+839E,U+83A0,U+83A8-83AB,U+83B0-83B4,U+83B6-83BA,U+83BC-83BD,U+83C0-83C1,U+83C5,U+83C7,U+83CA,U+83CC,U+83CF,U+83D4,U+83D6,U+83D8,U+83DC-83DD,U+83DF-83E1,U+83E5,U+83E9-83EA,U+83F0-83F2,U+83F8-83F9,U+83FD,U+8401,U+8403-8404,U+8406,U+840B-840F,U+8411,U+8418,U+841C-841D,U+8424-8428,U+8431,U+8438,U+843C-843D,U+8446,U+8451,U+8457,U+8459-845C,U+8461,U+8463,U+8469,U+846B-846D,U+8471,U+8473,U+8475-8476,U+8478,U+847A,U+8482,U+8487-8489,U+848B-848C,U+848E,U+8497,U+8499,U+849C,U+84A1,U+84AF,U+84B2,U+84B4,U+84B8-84BA,U+84BD,U+84BF,U+84C1,U+84C4,U+84C9-84CA,U+84CD,U+84D0-84D1,U+84D3,U+84D6,U+84DD,U+84DF-84E0,U+84E3,U+84E5-84E6,U+84EC,U+84F0,U+84FC,U+84FF,U+850C,U+8511,U+8513,U+8517,U+851A',</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16">
-      <c r="A46" t="s">
-        <v>728</v>
+      <c r="A46" s="3" t="s">
+        <v>989</v>
       </c>
       <c r="B46" t="s">
-        <v>813</v>
+        <v>1050</v>
       </c>
       <c r="C46" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_45'</v>
+        <v>'gb_45'</v>
       </c>
       <c r="D46" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+69fe-6a01,U+6a06,U+6a09,U+6a0b,U+6a11,U+6a13,U+6a17-6a19,U+6a1b,U+6a1e,U+6a23,U+6a28-6a29,U+6a2b,U+6a2f-6a30,U+6a35,U+6a38-6a40,U+6a46-6a48,U+6a4a-6a4b,U+6a4e,U+6a50,U+6a52,U+6a5b,U+6a5e,U+6a62,U+6a65-6a67,U+6a6b,U+6a79,U+6a7c,U+6a7e-6a7f,U+6a84,U+6a86,U+6a8e,U+6a90-6a91,U+6a94,U+6a97,U+6a9c,U+6a9e,U+6aa0,U+6aa2,U+6aa4,U+6aa9,U+6aab,U+6aae-6ab0,U+6ab2-6ab3,U+6ab5,U+6ab7-6ab8,U+6aba-6abb,U+6abd,U+6abf,U+6ac2-6ac4,U+6ac6,U+6ac8,U+6acc,U+6ace,U+6ad2-6ad3,U+6ad8-6adc,U+6adf-6ae0,U+6ae4-6ae5,U+6ae7-6ae8,U+6afb,U+6b04-6b05,U+6b0d-6b13,U+6b16-6b17,U+6b19,U+6b24-6b25,U+6b2c,U+6b37-6b39,U+6b3b,U+6b3d,U+6b43,U+6b46,U+6b4e,U+6b50,U+6b53-6b54,U+6b58-6b59,U+6b5b,U+6b60,U+6b69,U+6b6d,U+6b6f-6b70,U+6b73-6b74,U+6b77-6b7a,U+6b80-6b82'</v>
+        <v>'U+851F,U+8521,U+852B-852C,U+8537-853D,U+8543,U+8548-854A,U+8556,U+8559,U+855E,U+8564,U+8568,U+8572,U+8574,U+8579-857B,U+857E,U+8584-8585,U+8587,U+858F,U+859B-859C,U+85A4,U+85A8,U+85AA,U+85AE-85B0,U+85B7,U+85B9,U+85C1,U+85C9,U+85CF-85D0,U+85D3,U+85D5,U+85DC,U+85E4,U+85E9,U+85FB,U+85FF,U+8605,U+8611,U+8616,U+8627,U+8629,U+8638,U+863C,U+864D-8651,U+8654,U+865A,U+865E,U+8662,U+866B-866C,U+866E,U+8671,U+8679-8682,U+868A-868D,U+8693,U+8695,U+869C-869D,U+86A3-86A4,U+86A7-86AA,U+86AC,U+86AF-86B1,U+86B4-86B6,U+86BA,U+86C0,U+86C4,U+86C6-86C7,U+86C9-86CB,U+86CE-86D1,U+86D4,U+86D8-86D9,U+86DB,U+86DE-86DF,U+86E4,U+86E9,U+86ED-86EE'</v>
       </c>
       <c r="F46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_45', ~'U+69fe-6a01,U+6a06,U+6a09,U+6a0b,U+6a11,U+6a13,U+6a17-6a19,U+6a1b,U+6a1e,U+6a23,U+6a28-6a29,U+6a2b,U+6a2f-6a30,U+6a35,U+6a38-6a40,U+6a46-6a48,U+6a4a-6a4b,U+6a4e,U+6a50,U+6a52,U+6a5b,U+6a5e,U+6a62,U+6a65-6a67,U+6a6b,U+6a79,U+6a7c,U+6a7e-6a7f,U+6a84,U+6a86,U+6a8e,U+6a90-6a91,U+6a94,U+6a97,U+6a9c,U+6a9e,U+6aa0,U+6aa2,U+6aa4,U+6aa9,U+6aab,U+6aae-6ab0,U+6ab2-6ab3,U+6ab5,U+6ab7-6ab8,U+6aba-6abb,U+6abd,U+6abf,U+6ac2-6ac4,U+6ac6,U+6ac8,U+6acc,U+6ace,U+6ad2-6ad3,U+6ad8-6adc,U+6adf-6ae0,U+6ae4-6ae5,U+6ae7-6ae8,U+6afb,U+6b04-6b05,U+6b0d-6b13,U+6b16-6b17,U+6b19,U+6b24-6b25,U+6b2c,U+6b37-6b39,U+6b3b,U+6b3d,U+6b43,U+6b46,U+6b4e,U+6b50,U+6b53-6b54,U+6b58-6b59,U+6b5b,U+6b60,U+6b69,U+6b6d,U+6b6f-6b70,U+6b73-6b74,U+6b77-6b7a,U+6b80-6b82',</v>
+        <v>~'gb_45', ~'U+851F,U+8521,U+852B-852C,U+8537-853D,U+8543,U+8548-854A,U+8556,U+8559,U+855E,U+8564,U+8568,U+8572,U+8574,U+8579-857B,U+857E,U+8584-8585,U+8587,U+858F,U+859B-859C,U+85A4,U+85A8,U+85AA,U+85AE-85B0,U+85B7,U+85B9,U+85C1,U+85C9,U+85CF-85D0,U+85D3,U+85D5,U+85DC,U+85E4,U+85E9,U+85FB,U+85FF,U+8605,U+8611,U+8616,U+8627,U+8629,U+8638,U+863C,U+864D-8651,U+8654,U+865A,U+865E,U+8662,U+866B-866C,U+866E,U+8671,U+8679-8682,U+868A-868D,U+8693,U+8695,U+869C-869D,U+86A3-86A4,U+86A7-86AA,U+86AC,U+86AF-86B1,U+86B4-86B6,U+86BA,U+86C0,U+86C4,U+86C6-86C7,U+86C9-86CB,U+86CE-86D1,U+86D4,U+86D8-86D9,U+86DB,U+86DE-86DF,U+86E4,U+86E9,U+86ED-86EE',</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16">
-      <c r="A47" t="s">
-        <v>729</v>
+      <c r="A47" s="3" t="s">
+        <v>990</v>
       </c>
       <c r="B47" t="s">
-        <v>814</v>
+        <v>1051</v>
       </c>
       <c r="C47" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_46'</v>
+        <v>'gb_46'</v>
       </c>
       <c r="D47" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+68d3,U+68d7,U+68dd,U+68df,U+68e1,U+68e3-68e4,U+68e6-68ed,U+68ef-68f0,U+68f2,U+68f4,U+68f6-68f7,U+68f9,U+68fb-68fd,U+68ff-6902,U+6906-6908,U+690b,U+6910,U+691a-691c,U+691f-6920,U+6924-6925,U+692a,U+692d,U+6934,U+6939,U+693c-6945,U+694a-694b,U+6952-6954,U+6957,U+6959,U+695b,U+695d,U+695f,U+6962-6964,U+6966,U+6968-696c,U+696e-696f,U+6971,U+6973-6974,U+6978-6979,U+697d,U+697f-6980,U+6985,U+6987-698a,U+698d-698e,U+6994-6999,U+699b,U+69a3-69a4,U+69a6-69a7,U+69ab,U+69ad-69ae,U+69b1,U+69b7,U+69bb-69bc,U+69c1,U+69c3-69c5,U+69c7,U+69ca-69ce,U+69d0-69d1,U+69d3-69d4,U+69d7-69da,U+69e0,U+69e4,U+69e6,U+69ec-69ed,U+69f1-69f3,U+69f8,U+69fa-69fc'</v>
+        <v>'U+86F0-86F4,U+86F8-86F9,U+86FE,U+8700,U+8702-8703,U+8707-870A,U+870D,U+8712-8713,U+8715,U+8717-8718,U+871A,U+871C,U+871E,U+8721-8723,U+8725,U+8729,U+872E,U+8731,U+8734,U+8737,U+873B,U+873E-873F,U+8747-8749,U+874C,U+874E,U+8753,U+8757,U+8759,U+8760,U+8763-8765,U+876E,U+8770,U+8774,U+8776,U+877B-877E,U+8782-8783,U+8785,U+8788,U+878B,U+878D,U+8793,U+8797,U+879F,U+87A8,U+87AB-87AD,U+87AF,U+87B3,U+87B5,U+87BA,U+87BD,U+87C0,U+87C6,U+87CA-87CB,U+87D1-87D3,U+87DB,U+87E0,U+87E5,U+87EA,U+87EE,U+87F9,U+87FE,U+8803,U+880A,U+8813,U+8815-8816,U+881B,U+8821-8822,U+8832,U+8839,U+883C,U+8840,U+8844-8845,U+884C-884D,U+8854,U+8857,U+8859,U+8861-8865,U+8868-8869,U+886B-886C,U+886E,U+8870,U+8872,U+8877,U+887D-887F,U+8881-8882,U+8884-8885,U+8888'</v>
       </c>
       <c r="F47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_46', ~'U+68d3,U+68d7,U+68dd,U+68df,U+68e1,U+68e3-68e4,U+68e6-68ed,U+68ef-68f0,U+68f2,U+68f4,U+68f6-68f7,U+68f9,U+68fb-68fd,U+68ff-6902,U+6906-6908,U+690b,U+6910,U+691a-691c,U+691f-6920,U+6924-6925,U+692a,U+692d,U+6934,U+6939,U+693c-6945,U+694a-694b,U+6952-6954,U+6957,U+6959,U+695b,U+695d,U+695f,U+6962-6964,U+6966,U+6968-696c,U+696e-696f,U+6971,U+6973-6974,U+6978-6979,U+697d,U+697f-6980,U+6985,U+6987-698a,U+698d-698e,U+6994-6999,U+699b,U+69a3-69a4,U+69a6-69a7,U+69ab,U+69ad-69ae,U+69b1,U+69b7,U+69bb-69bc,U+69c1,U+69c3-69c5,U+69c7,U+69ca-69ce,U+69d0-69d1,U+69d3-69d4,U+69d7-69da,U+69e0,U+69e4,U+69e6,U+69ec-69ed,U+69f1-69f3,U+69f8,U+69fa-69fc',</v>
+        <v>~'gb_46', ~'U+86F0-86F4,U+86F8-86F9,U+86FE,U+8700,U+8702-8703,U+8707-870A,U+870D,U+8712-8713,U+8715,U+8717-8718,U+871A,U+871C,U+871E,U+8721-8723,U+8725,U+8729,U+872E,U+8731,U+8734,U+8737,U+873B,U+873E-873F,U+8747-8749,U+874C,U+874E,U+8753,U+8757,U+8759,U+8760,U+8763-8765,U+876E,U+8770,U+8774,U+8776,U+877B-877E,U+8782-8783,U+8785,U+8788,U+878B,U+878D,U+8793,U+8797,U+879F,U+87A8,U+87AB-87AD,U+87AF,U+87B3,U+87B5,U+87BA,U+87BD,U+87C0,U+87C6,U+87CA-87CB,U+87D1-87D3,U+87DB,U+87E0,U+87E5,U+87EA,U+87EE,U+87F9,U+87FE,U+8803,U+880A,U+8813,U+8815-8816,U+881B,U+8821-8822,U+8832,U+8839,U+883C,U+8840,U+8844-8845,U+884C-884D,U+8854,U+8857,U+8859,U+8861-8865,U+8868-8869,U+886B-886C,U+886E,U+8870,U+8872,U+8877,U+887D-887F,U+8881-8882,U+8884-8885,U+8888',</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16">
-      <c r="A48" t="s">
-        <v>730</v>
+      <c r="A48" s="3" t="s">
+        <v>991</v>
       </c>
       <c r="B48" t="s">
-        <v>815</v>
+        <v>1052</v>
       </c>
       <c r="C48" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_47'</v>
+        <v>'gb_47'</v>
       </c>
       <c r="D48" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+678b-678d,U+678f,U+6792-6793,U+6796,U+6798,U+679e-67a1,U+67a5,U+67a7-67a9,U+67ac-67ad,U+67b0-67b1,U+67b3,U+67b5,U+67b7,U+67b9,U+67bb-67bc,U+67c0-67c1,U+67c3,U+67c5-67ca,U+67d1-67d2,U+67d7-67d9,U+67dd-67df,U+67e2-67e4,U+67e6-67e9,U+67f0,U+67f5,U+67f7-67f8,U+67fa-67fb,U+67fd-67fe,U+6800-6801,U+6803-6804,U+6806,U+6809-680a,U+680c,U+680e,U+6812,U+681d-681f,U+6822,U+6824-6829,U+682b-682d,U+6831-6835,U+683b,U+683e,U+6840-6841,U+6844-6845,U+6849,U+684e,U+6853,U+6855-6856,U+685c-685d,U+685f-6862,U+6864,U+6866-6868,U+686b,U+686f,U+6872,U+6874,U+6877,U+687f,U+6883,U+6886,U+688f,U+689b,U+689f-68a0,U+68a2-68a3,U+68b1,U+68b6,U+68b9-68ba,U+68bc-68bf,U+68c1-68c4,U+68c6,U+68c8,U+68ca,U+68cc,U+68d0-68d1'</v>
+        <v>'U+888B,U+888D,U+8892,U+8896,U+889C,U+88A2,U+88A4,U+88AB,U+88AD,U+88B1,U+88B7,U+88BC,U+88C1-88C2,U+88C5-88C6,U+88C9,U+88CE,U+88D2,U+88D4-88D5,U+88D8-88D9,U+88DF,U+88E2-88E5,U+88E8,U+88F0-88F1,U+88F3-88F4,U+88F8-88F9,U+88FC,U+88FE,U+8902,U+890A,U+8910,U+8912-8913,U+8919-891B,U+8921,U+8925,U+892A-892B,U+8930,U+8934,U+8936,U+8941,U+8944,U+895E-895F,U+8966,U+897B,U+897F,U+8981,U+8983,U+8986,U+89C1-89C2,U+89C4-89CC,U+89CE-89D2,U+89D6,U+89DA,U+89DC,U+89DE,U+89E3,U+89E5-89E6,U+89EB,U+89EF,U+89F3,U+8A00,U+8A07,U+8A3E,U+8A48,U+8A79,U+8A89-8A8A,U+8A93,U+8B07,U+8B26,U+8B66,U+8B6C,U+8BA0-8BAB,U+8BAD-8BB0,U+8BB2-8BBA'</v>
       </c>
       <c r="F48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_47', ~'U+678b-678d,U+678f,U+6792-6793,U+6796,U+6798,U+679e-67a1,U+67a5,U+67a7-67a9,U+67ac-67ad,U+67b0-67b1,U+67b3,U+67b5,U+67b7,U+67b9,U+67bb-67bc,U+67c0-67c1,U+67c3,U+67c5-67ca,U+67d1-67d2,U+67d7-67d9,U+67dd-67df,U+67e2-67e4,U+67e6-67e9,U+67f0,U+67f5,U+67f7-67f8,U+67fa-67fb,U+67fd-67fe,U+6800-6801,U+6803-6804,U+6806,U+6809-680a,U+680c,U+680e,U+6812,U+681d-681f,U+6822,U+6824-6829,U+682b-682d,U+6831-6835,U+683b,U+683e,U+6840-6841,U+6844-6845,U+6849,U+684e,U+6853,U+6855-6856,U+685c-685d,U+685f-6862,U+6864,U+6866-6868,U+686b,U+686f,U+6872,U+6874,U+6877,U+687f,U+6883,U+6886,U+688f,U+689b,U+689f-68a0,U+68a2-68a3,U+68b1,U+68b6,U+68b9-68ba,U+68bc-68bf,U+68c1-68c4,U+68c6,U+68c8,U+68ca,U+68cc,U+68d0-68d1',</v>
+        <v>~'gb_47', ~'U+888B,U+888D,U+8892,U+8896,U+889C,U+88A2,U+88A4,U+88AB,U+88AD,U+88B1,U+88B7,U+88BC,U+88C1-88C2,U+88C5-88C6,U+88C9,U+88CE,U+88D2,U+88D4-88D5,U+88D8-88D9,U+88DF,U+88E2-88E5,U+88E8,U+88F0-88F1,U+88F3-88F4,U+88F8-88F9,U+88FC,U+88FE,U+8902,U+890A,U+8910,U+8912-8913,U+8919-891B,U+8921,U+8925,U+892A-892B,U+8930,U+8934,U+8936,U+8941,U+8944,U+895E-895F,U+8966,U+897B,U+897F,U+8981,U+8983,U+8986,U+89C1-89C2,U+89C4-89CC,U+89CE-89D2,U+89D6,U+89DA,U+89DC,U+89DE,U+89E3,U+89E5-89E6,U+89EB,U+89EF,U+89F3,U+8A00,U+8A07,U+8A3E,U+8A48,U+8A79,U+8A89-8A8A,U+8A93,U+8B07,U+8B26,U+8B66,U+8B6C,U+8BA0-8BAB,U+8BAD-8BB0,U+8BB2-8BBA',</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16">
-      <c r="A49" t="s">
-        <v>731</v>
+      <c r="A49" s="3" t="s">
+        <v>992</v>
       </c>
       <c r="B49" t="s">
-        <v>816</v>
+        <v>1053</v>
       </c>
       <c r="C49" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_48'</v>
+        <v>'gb_48'</v>
       </c>
       <c r="D49" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+6631,U+6633-6634,U+6636,U+663a-663b,U+663d,U+6641,U+6644-6645,U+6649,U+664c,U+664f,U+6654,U+6659,U+665b,U+665d-665e,U+6660-6667,U+6669,U+666b-666c,U+6671,U+6673,U+6677-6679,U+667c,U+6680-6681,U+6684-6685,U+6688-6689,U+668b-668e,U+6690,U+6692,U+6695,U+6698,U+669a,U+669d,U+669f-66a0,U+66a2-66a3,U+66a6,U+66aa-66ab,U+66b1-66b2,U+66b5,U+66b8-66b9,U+66bb,U+66be,U+66c1,U+66c6-66c9,U+66cc,U+66d5-66d8,U+66da-66dc,U+66de-66e2,U+66e8-66ea,U+66ec,U+66f1,U+66f3,U+66f7,U+66fa,U+66fd,U+6702,U+6705,U+670a,U+670f-6710,U+6713,U+6715,U+6719,U+6722-6723,U+6725-6727,U+6729,U+672d-672e,U+6732-6733,U+6736,U+6739,U+673b,U+673f,U+6744,U+6748,U+674c-674d,U+6753,U+6755,U+6762,U+6767,U+6769-676c,U+676e,U+6772-6773,U+6775,U+6777,U+677a-677d,U+6782-6783,U+6787,U+678a'</v>
+        <v>'U+8BBC-8BC6,U+8BC8-8BCF,U+8BD1-8BE9,U+8BEB-8C08,U+8C0A-8C1D,U+8C1F-8C37,U+8C41,U+8C46-8C47,U+8C49,U+8C4C,U+8C55,U+8C5A,U+8C61-8C62'</v>
       </c>
       <c r="F49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_48', ~'U+6631,U+6633-6634,U+6636,U+663a-663b,U+663d,U+6641,U+6644-6645,U+6649,U+664c,U+664f,U+6654,U+6659,U+665b,U+665d-665e,U+6660-6667,U+6669,U+666b-666c,U+6671,U+6673,U+6677-6679,U+667c,U+6680-6681,U+6684-6685,U+6688-6689,U+668b-668e,U+6690,U+6692,U+6695,U+6698,U+669a,U+669d,U+669f-66a0,U+66a2-66a3,U+66a6,U+66aa-66ab,U+66b1-66b2,U+66b5,U+66b8-66b9,U+66bb,U+66be,U+66c1,U+66c6-66c9,U+66cc,U+66d5-66d8,U+66da-66dc,U+66de-66e2,U+66e8-66ea,U+66ec,U+66f1,U+66f3,U+66f7,U+66fa,U+66fd,U+6702,U+6705,U+670a,U+670f-6710,U+6713,U+6715,U+6719,U+6722-6723,U+6725-6727,U+6729,U+672d-672e,U+6732-6733,U+6736,U+6739,U+673b,U+673f,U+6744,U+6748,U+674c-674d,U+6753,U+6755,U+6762,U+6767,U+6769-676c,U+676e,U+6772-6773,U+6775,U+6777,U+677a-677d,U+6782-6783,U+6787,U+678a',</v>
+        <v>~'gb_48', ~'U+8BBC-8BC6,U+8BC8-8BCF,U+8BD1-8BE9,U+8BEB-8C08,U+8C0A-8C1D,U+8C1F-8C37,U+8C41,U+8C46-8C47,U+8C49,U+8C4C,U+8C55,U+8C5A,U+8C61-8C62',</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16">
-      <c r="A50" t="s">
-        <v>732</v>
+      <c r="A50" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="B50" t="s">
-        <v>817</v>
+        <v>1054</v>
       </c>
       <c r="C50" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_49'</v>
+        <v>'gb_49'</v>
       </c>
       <c r="D50" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+64f1-64f2,U+64f4,U+64f7-64f8,U+64fa,U+64fc,U+64fe-64ff,U+6503,U+6509,U+650f,U+6514,U+6518,U+651c-651e,U+6522-6525,U+652a-652c,U+652e,U+6530-6532,U+6534-6535,U+6537-6538,U+653a,U+653c-653d,U+6542,U+6549-654b,U+654d-654e,U+6553-6555,U+6557-6558,U+655d,U+6564,U+6569,U+656b,U+656d-656f,U+6571,U+6573,U+6575-6576,U+6578-657e,U+6581-6583,U+6585-6586,U+6589,U+658e-658f,U+6592-6593,U+6595-6596,U+659b,U+659d,U+659f-65a1,U+65a3,U+65ab-65ac,U+65b2,U+65b6-65b7,U+65ba-65bb,U+65be-65c0,U+65c2-65c4,U+65c6-65c8,U+65cc,U+65ce,U+65d0,U+65d2-65d3,U+65d6,U+65db,U+65dd,U+65e1,U+65e3,U+65ee-65f0,U+65f3-65f5,U+65f8,U+65fb-65fc,U+65fe-6600,U+6603,U+6607,U+6609,U+660b,U+6610-6611,U+6619-661a,U+661c-661e,U+6621,U+6624,U+6626,U+662a-662c,U+662e,U+6630'</v>
+        <v>'U+8C6A-8C6B,U+8C73,U+8C78-8C7A,U+8C82,U+8C85,U+8C89-8C8A,U+8C8C,U+8C94,U+8C98,U+8D1D-8D1F,U+8D21-8D50,U+8D53-8D56,U+8D58-8D5E,U+8D60-8D64,U+8D66-8D67,U+8D6B,U+8D6D,U+8D70,U+8D73-8D77,U+8D81,U+8D84-8D85,U+8D8A-8D8B,U+8D91,U+8D94,U+8D9F,U+8DA3,U+8DB1,U+8DB3-8DB5,U+8DB8,U+8DBA,U+8DBC,U+8DBE-8DBF,U+8DC3-8DC4,U+8DC6,U+8DCB-8DCC,U+8DCE-8DCF,U+8DD1,U+8DD6-8DD7,U+8DDA-8DDB,U+8DDD-8DDF,U+8DE3-8DE4,U+8DE8'</v>
       </c>
       <c r="F50" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_49', ~'U+64f1-64f2,U+64f4,U+64f7-64f8,U+64fa,U+64fc,U+64fe-64ff,U+6503,U+6509,U+650f,U+6514,U+6518,U+651c-651e,U+6522-6525,U+652a-652c,U+652e,U+6530-6532,U+6534-6535,U+6537-6538,U+653a,U+653c-653d,U+6542,U+6549-654b,U+654d-654e,U+6553-6555,U+6557-6558,U+655d,U+6564,U+6569,U+656b,U+656d-656f,U+6571,U+6573,U+6575-6576,U+6578-657e,U+6581-6583,U+6585-6586,U+6589,U+658e-658f,U+6592-6593,U+6595-6596,U+659b,U+659d,U+659f-65a1,U+65a3,U+65ab-65ac,U+65b2,U+65b6-65b7,U+65ba-65bb,U+65be-65c0,U+65c2-65c4,U+65c6-65c8,U+65cc,U+65ce,U+65d0,U+65d2-65d3,U+65d6,U+65db,U+65dd,U+65e1,U+65e3,U+65ee-65f0,U+65f3-65f5,U+65f8,U+65fb-65fc,U+65fe-6600,U+6603,U+6607,U+6609,U+660b,U+6610-6611,U+6619-661a,U+661c-661e,U+6621,U+6624,U+6626,U+662a-662c,U+662e,U+6630',</v>
+        <v>~'gb_49', ~'U+8C6A-8C6B,U+8C73,U+8C78-8C7A,U+8C82,U+8C85,U+8C89-8C8A,U+8C8C,U+8C94,U+8C98,U+8D1D-8D1F,U+8D21-8D50,U+8D53-8D56,U+8D58-8D5E,U+8D60-8D64,U+8D66-8D67,U+8D6B,U+8D6D,U+8D70,U+8D73-8D77,U+8D81,U+8D84-8D85,U+8D8A-8D8B,U+8D91,U+8D94,U+8D9F,U+8DA3,U+8DB1,U+8DB3-8DB5,U+8DB8,U+8DBA,U+8DBC,U+8DBE-8DBF,U+8DC3-8DC4,U+8DC6,U+8DCB-8DCC,U+8DCE-8DCF,U+8DD1,U+8DD6-8DD7,U+8DDA-8DDB,U+8DDD-8DDF,U+8DE3-8DE4,U+8DE8',</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16">
-      <c r="A51" t="s">
-        <v>733</v>
+      <c r="A51" s="3" t="s">
+        <v>994</v>
       </c>
       <c r="B51" t="s">
-        <v>818</v>
+        <v>1055</v>
       </c>
       <c r="C51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_50'</v>
+        <v>'gb_50'</v>
       </c>
       <c r="D51" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+63b8-63bc,U+63be,U+63c0,U+63c3-63c4,U+63c6,U+63c8,U+63cd-63ce,U+63d1,U+63d6,U+63da-63db,U+63de,U+63e0,U+63e3,U+63e9-63ea,U+63ee,U+63f2,U+63f5-63fa,U+63fc,U+63fe-6400,U+6406,U+640b-640d,U+6410,U+6414,U+6416-6417,U+641b,U+6420-6423,U+6425-6428,U+642a,U+6431-6432,U+6434-6437,U+643d-6442,U+6445,U+6448,U+6450-6452,U+645b-645f,U+6462,U+6465,U+6468,U+646d,U+646f-6471,U+6473,U+6477,U+6479-647d,U+6482-6485,U+6487-6488,U+648c,U+6490,U+6493,U+6496-649a,U+649d,U+64a0,U+64a5,U+64ab-64ac,U+64b1-64b7,U+64b9-64bb,U+64be-64c1,U+64c4,U+64c7,U+64c9-64cb,U+64d0,U+64d4,U+64d7-64d8,U+64da,U+64de,U+64e0-64e2,U+64e4,U+64e9,U+64ec,U+64f0'</v>
+        <v>'U+8DEA-8DEC,U+8DEF,U+8DF3,U+8DF5,U+8DF7-8DFB,U+8DFD,U+8E05,U+8E09-8E0A,U+8E0C,U+8E0F,U+8E14,U+8E1D-8E1F,U+8E22-8E23,U+8E29-8E2A,U+8E2C,U+8E2E-8E2F,U+8E31,U+8E35,U+8E39-8E3A,U+8E3D,U+8E40-8E42,U+8E44,U+8E47-8E4B,U+8E51-8E52,U+8E59,U+8E66,U+8E69,U+8E6C-8E6D,U+8E6F-8E70,U+8E72,U+8E74,U+8E76,U+8E7C,U+8E7F,U+8E81,U+8E85,U+8E87,U+8E8F-8E90,U+8E94,U+8E9C,U+8E9E,U+8EAB-8EAC,U+8EAF,U+8EB2,U+8EBA,U+8ECE,U+8F66-8F69,U+8F6B-8F7F,U+8F81-8F8B,U+8F8D-8F91,U+8F93-8F9C,U+8F9E-8F9F,U+8FA3,U+8FA8-8FA9,U+8FAB'</v>
       </c>
       <c r="F51" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_50', ~'U+63b8-63bc,U+63be,U+63c0,U+63c3-63c4,U+63c6,U+63c8,U+63cd-63ce,U+63d1,U+63d6,U+63da-63db,U+63de,U+63e0,U+63e3,U+63e9-63ea,U+63ee,U+63f2,U+63f5-63fa,U+63fc,U+63fe-6400,U+6406,U+640b-640d,U+6410,U+6414,U+6416-6417,U+641b,U+6420-6423,U+6425-6428,U+642a,U+6431-6432,U+6434-6437,U+643d-6442,U+6445,U+6448,U+6450-6452,U+645b-645f,U+6462,U+6465,U+6468,U+646d,U+646f-6471,U+6473,U+6477,U+6479-647d,U+6482-6485,U+6487-6488,U+648c,U+6490,U+6493,U+6496-649a,U+649d,U+64a0,U+64a5,U+64ab-64ac,U+64b1-64b7,U+64b9-64bb,U+64be-64c1,U+64c4,U+64c7,U+64c9-64cb,U+64d0,U+64d4,U+64d7-64d8,U+64da,U+64de,U+64e0-64e2,U+64e4,U+64e9,U+64ec,U+64f0',</v>
+        <v>~'gb_50', ~'U+8DEA-8DEC,U+8DEF,U+8DF3,U+8DF5,U+8DF7-8DFB,U+8DFD,U+8E05,U+8E09-8E0A,U+8E0C,U+8E0F,U+8E14,U+8E1D-8E1F,U+8E22-8E23,U+8E29-8E2A,U+8E2C,U+8E2E-8E2F,U+8E31,U+8E35,U+8E39-8E3A,U+8E3D,U+8E40-8E42,U+8E44,U+8E47-8E4B,U+8E51-8E52,U+8E59,U+8E66,U+8E69,U+8E6C-8E6D,U+8E6F-8E70,U+8E72,U+8E74,U+8E76,U+8E7C,U+8E7F,U+8E81,U+8E85,U+8E87,U+8E8F-8E90,U+8E94,U+8E9C,U+8E9E,U+8EAB-8EAC,U+8EAF,U+8EB2,U+8EBA,U+8ECE,U+8F66-8F69,U+8F6B-8F7F,U+8F81-8F8B,U+8F8D-8F91,U+8F93-8F9C,U+8F9E-8F9F,U+8FA3,U+8FA8-8FA9,U+8FAB',</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16">
-      <c r="A52" t="s">
-        <v>734</v>
+      <c r="A52" s="3" t="s">
+        <v>995</v>
       </c>
       <c r="B52" t="s">
-        <v>819</v>
+        <v>1056</v>
       </c>
       <c r="C52" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_51'</v>
+        <v>'gb_51'</v>
       </c>
       <c r="D52" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+622c,U+622e-6230,U+6232,U+6238,U+623b,U+623d-623e,U+6243,U+6246,U+6248-6249,U+624c,U+6255,U+6259,U+625e,U+6260-6261,U+6265-6266,U+626a,U+6271,U+627a,U+627c-627d,U+6283,U+6286,U+6289,U+628e,U+6294,U+629c,U+629e-629f,U+62a1,U+62a8,U+62ba-62bb,U+62bf,U+62c2,U+62c4,U+62c8,U+62ca-62cb,U+62cf,U+62d1,U+62d7,U+62d9-62da,U+62dd,U+62e0-62e1,U+62e3-62e4,U+62e7,U+62eb,U+62ee,U+62f0,U+62f4-62f6,U+6308,U+630a-630e,U+6310,U+6312-6313,U+6317,U+6319,U+631b,U+631d-631f,U+6322,U+6326,U+6329,U+6331-6332,U+6334-6337,U+6339,U+633b-633c,U+633e-6340,U+6343,U+6347,U+634b-634e,U+6354,U+635c-635d,U+6368-6369,U+636d,U+636f-6372,U+6376,U+637a-637b,U+637d,U+6382-6383,U+6387,U+638a-638b,U+638d-638e,U+6391,U+6393-6397,U+6399,U+639b,U+639e-639f,U+63a1,U+63a3-63a4,U+63ac-63ae,U+63b1-63b5'</v>
+        <v>'U+8FB0-8FB1,U+8FB6,U+8FB9,U+8FBD-8FBE,U+8FC1-8FC2,U+8FC4-8FC5,U+8FC7-8FC8,U+8FCE,U+8FD0-8FD1,U+8FD3-8FD5,U+8FD8-8FD9,U+8FDB-8FDF,U+8FE2,U+8FE4-8FE6,U+8FE8-8FEB,U+8FED-8FEE,U+8FF0,U+8FF3,U+8FF7-8FF9,U+8FFD,U+9000-9006,U+9009-900B,U+900D,U+900F-9012,U+9014,U+9016-9017,U+901A-901B,U+901D-9022,U+9026,U+902D-902F,U+9035-9036,U+9038,U+903B-903C,U+903E,U+9041-9042,U+9044,U+9047,U+904D,U+904F-9053,U+9057-9058,U+905B,U+9062-9063,U+9065,U+9068,U+906D-906E,U+9074-9075,U+907D,U+907F-9080,U+9082-9083,U+9088,U+908B,U+9091,U+9093,U+9095,U+9097,U+9099,U+909B,U+909D,U+90A1-90A3,U+90A6,U+90AA,U+90AC,U+90AE-90B1,U+90B3-90B6'</v>
       </c>
       <c r="F52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_51', ~'U+622c,U+622e-6230,U+6232,U+6238,U+623b,U+623d-623e,U+6243,U+6246,U+6248-6249,U+624c,U+6255,U+6259,U+625e,U+6260-6261,U+6265-6266,U+626a,U+6271,U+627a,U+627c-627d,U+6283,U+6286,U+6289,U+628e,U+6294,U+629c,U+629e-629f,U+62a1,U+62a8,U+62ba-62bb,U+62bf,U+62c2,U+62c4,U+62c8,U+62ca-62cb,U+62cf,U+62d1,U+62d7,U+62d9-62da,U+62dd,U+62e0-62e1,U+62e3-62e4,U+62e7,U+62eb,U+62ee,U+62f0,U+62f4-62f6,U+6308,U+630a-630e,U+6310,U+6312-6313,U+6317,U+6319,U+631b,U+631d-631f,U+6322,U+6326,U+6329,U+6331-6332,U+6334-6337,U+6339,U+633b-633c,U+633e-6340,U+6343,U+6347,U+634b-634e,U+6354,U+635c-635d,U+6368-6369,U+636d,U+636f-6372,U+6376,U+637a-637b,U+637d,U+6382-6383,U+6387,U+638a-638b,U+638d-638e,U+6391,U+6393-6397,U+6399,U+639b,U+639e-639f,U+63a1,U+63a3-63a4,U+63ac-63ae,U+63b1-63b5',</v>
+        <v>~'gb_51', ~'U+8FB0-8FB1,U+8FB6,U+8FB9,U+8FBD-8FBE,U+8FC1-8FC2,U+8FC4-8FC5,U+8FC7-8FC8,U+8FCE,U+8FD0-8FD1,U+8FD3-8FD5,U+8FD8-8FD9,U+8FDB-8FDF,U+8FE2,U+8FE4-8FE6,U+8FE8-8FEB,U+8FED-8FEE,U+8FF0,U+8FF3,U+8FF7-8FF9,U+8FFD,U+9000-9006,U+9009-900B,U+900D,U+900F-9012,U+9014,U+9016-9017,U+901A-901B,U+901D-9022,U+9026,U+902D-902F,U+9035-9036,U+9038,U+903B-903C,U+903E,U+9041-9042,U+9044,U+9047,U+904D,U+904F-9053,U+9057-9058,U+905B,U+9062-9063,U+9065,U+9068,U+906D-906E,U+9074-9075,U+907D,U+907F-9080,U+9082-9083,U+9088,U+908B,U+9091,U+9093,U+9095,U+9097,U+9099,U+909B,U+909D,U+90A1-90A3,U+90A6,U+90AA,U+90AC,U+90AE-90B1,U+90B3-90B6',</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16">
-      <c r="A53" t="s">
-        <v>735</v>
+      <c r="A53" s="3" t="s">
+        <v>996</v>
       </c>
       <c r="B53" t="s">
-        <v>820</v>
+        <v>1057</v>
       </c>
       <c r="C53" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_52'</v>
+        <v>'gb_52'</v>
       </c>
       <c r="D53" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+60ed-60ee,U+60f0-60f1,U+60f4,U+60f6,U+60fa,U+6100,U+6106,U+610d-610e,U+6112,U+6114-6115,U+6119,U+611c,U+6120,U+6122-6123,U+6126,U+6128-6130,U+6136-6137,U+613a,U+613d-613e,U+6144,U+6146-6147,U+614a-614b,U+6151,U+6153,U+6158,U+615a,U+615c-615d,U+615f,U+6161,U+6163-6165,U+616b-616c,U+616e,U+6171,U+6173-6177,U+617e,U+6182,U+6187,U+618a,U+618d-618e,U+6190-6191,U+6194,U+6199-619a,U+619c,U+619f,U+61a1,U+61a3-61a4,U+61a7-61a9,U+61ab-61ad,U+61b2-61b3,U+61b5-61b7,U+61ba-61bb,U+61bf,U+61c3-61c4,U+61c6-61c7,U+61c9-61cb,U+61d0-61d1,U+61d3-61d4,U+61d7,U+61da,U+61df-61e1,U+61e6,U+61ee,U+61f0,U+61f2,U+61f6-61f8,U+61fa,U+61fc-61fe,U+6200,U+6206-6207,U+6209,U+620b,U+620d-620e,U+6213-6215,U+6217,U+6219,U+621b-6223,U+6225-6226'</v>
+        <v>'U+90B8-90BB,U+90BE,U+90C1,U+90C4-90C5,U+90C7,U+90CA,U+90CE-90D1,U+90D3,U+90D7,U+90DB-90DD,U+90E1-90E2,U+90E6-90E8,U+90EB,U+90ED,U+90EF,U+90F4,U+90F8,U+90FD-90FE,U+9102,U+9104,U+9119,U+911E,U+9122-9123,U+912F,U+9131,U+9139,U+9143,U+9146,U+9149-9150,U+9152,U+9157,U+915A,U+915D-915E,U+9161-9165,U+9169-916A,U+916C,U+916E-9172,U+9174-9179,U+917D-917F,U+9185,U+9187,U+9189,U+918B-918D,U+9190-9192,U+919A-919B,U+91A2-91A3,U+91AA,U+91AD-91AF,U+91B4-91B5,U+91BA,U+91C7,U+91C9-91CA,U+91CC-91CF,U+91D1,U+91DC,U+9274,U+928E,U+92AE,U+92C8,U+933E,U+936A,U+938F,U+93CA,U+93D6,U+943E,U+946B'</v>
       </c>
       <c r="F53" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_52', ~'U+60ed-60ee,U+60f0-60f1,U+60f4,U+60f6,U+60fa,U+6100,U+6106,U+610d-610e,U+6112,U+6114-6115,U+6119,U+611c,U+6120,U+6122-6123,U+6126,U+6128-6130,U+6136-6137,U+613a,U+613d-613e,U+6144,U+6146-6147,U+614a-614b,U+6151,U+6153,U+6158,U+615a,U+615c-615d,U+615f,U+6161,U+6163-6165,U+616b-616c,U+616e,U+6171,U+6173-6177,U+617e,U+6182,U+6187,U+618a,U+618d-618e,U+6190-6191,U+6194,U+6199-619a,U+619c,U+619f,U+61a1,U+61a3-61a4,U+61a7-61a9,U+61ab-61ad,U+61b2-61b3,U+61b5-61b7,U+61ba-61bb,U+61bf,U+61c3-61c4,U+61c6-61c7,U+61c9-61cb,U+61d0-61d1,U+61d3-61d4,U+61d7,U+61da,U+61df-61e1,U+61e6,U+61ee,U+61f0,U+61f2,U+61f6-61f8,U+61fa,U+61fc-61fe,U+6200,U+6206-6207,U+6209,U+620b,U+620d-620e,U+6213-6215,U+6217,U+6219,U+621b-6223,U+6225-6226',</v>
+        <v>~'gb_52', ~'U+90B8-90BB,U+90BE,U+90C1,U+90C4-90C5,U+90C7,U+90CA,U+90CE-90D1,U+90D3,U+90D7,U+90DB-90DD,U+90E1-90E2,U+90E6-90E8,U+90EB,U+90ED,U+90EF,U+90F4,U+90F8,U+90FD-90FE,U+9102,U+9104,U+9119,U+911E,U+9122-9123,U+912F,U+9131,U+9139,U+9143,U+9146,U+9149-9150,U+9152,U+9157,U+915A,U+915D-915E,U+9161-9165,U+9169-916A,U+916C,U+916E-9172,U+9174-9179,U+917D-917F,U+9185,U+9187,U+9189,U+918B-918D,U+9190-9192,U+919A-919B,U+91A2-91A3,U+91AA,U+91AD-91AF,U+91B4-91B5,U+91BA,U+91C7,U+91C9-91CA,U+91CC-91CF,U+91D1,U+91DC,U+9274,U+928E,U+92AE,U+92C8,U+933E,U+936A,U+938F,U+93CA,U+93D6,U+943E,U+946B',</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16">
-      <c r="A54" t="s">
-        <v>736</v>
+      <c r="A54" s="3" t="s">
+        <v>997</v>
       </c>
       <c r="B54" t="s">
-        <v>821</v>
+        <v>1058</v>
       </c>
       <c r="C54" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_53'</v>
+        <v>'gb_53'</v>
       </c>
       <c r="D54" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+5fc4,U+5fc9,U+5fcb,U+5fce-5fd6,U+5fda-5fde,U+5fe1-5fe2,U+5fe4-5fe5,U+5fea,U+5fed-5fee,U+5ff1-5ff3,U+5ff6,U+5ff8,U+5ffb,U+5ffe-5fff,U+6002-6006,U+600a,U+600d,U+600f,U+6014,U+6019,U+601b,U+6020,U+6023,U+6026,U+6029,U+602b,U+602e-602f,U+6031,U+6033,U+6035,U+6039,U+603f,U+6041-6043,U+6046,U+604f,U+6053-6054,U+6058-605b,U+605d-605e,U+6060,U+6063,U+6065,U+6067,U+606a-606c,U+6075,U+6078-6079,U+607b,U+607d,U+607f,U+6083,U+6085-6087,U+608a,U+608c,U+608e-608f,U+6092-6093,U+6095-6097,U+609b-609d,U+60a2,U+60a7,U+60a9-60ab,U+60ad,U+60af-60b1,U+60b3-60b6,U+60b8,U+60bb,U+60bd-60be,U+60c0-60c3,U+60c6-60c9,U+60cb,U+60ce,U+60d3-60d4,U+60d7-60db,U+60dd,U+60e1-60e4,U+60e6,U+60ea,U+60ec'</v>
+        <v>'U+9485-9490,U+9492-9495,U+9497,U+9499-94C6,U+94C8-94CE,U+94D0-94D2,U+94D5-94D9,U+94DB-94E5,U+94E7-94FA'</v>
       </c>
       <c r="F54" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_53', ~'U+5fc4,U+5fc9,U+5fcb,U+5fce-5fd6,U+5fda-5fde,U+5fe1-5fe2,U+5fe4-5fe5,U+5fea,U+5fed-5fee,U+5ff1-5ff3,U+5ff6,U+5ff8,U+5ffb,U+5ffe-5fff,U+6002-6006,U+600a,U+600d,U+600f,U+6014,U+6019,U+601b,U+6020,U+6023,U+6026,U+6029,U+602b,U+602e-602f,U+6031,U+6033,U+6035,U+6039,U+603f,U+6041-6043,U+6046,U+604f,U+6053-6054,U+6058-605b,U+605d-605e,U+6060,U+6063,U+6065,U+6067,U+606a-606c,U+6075,U+6078-6079,U+607b,U+607d,U+607f,U+6083,U+6085-6087,U+608a,U+608c,U+608e-608f,U+6092-6093,U+6095-6097,U+609b-609d,U+60a2,U+60a7,U+60a9-60ab,U+60ad,U+60af-60b1,U+60b3-60b6,U+60b8,U+60bb,U+60bd-60be,U+60c0-60c3,U+60c6-60c9,U+60cb,U+60ce,U+60d3-60d4,U+60d7-60db,U+60dd,U+60e1-60e4,U+60e6,U+60ea,U+60ec',</v>
+        <v>~'gb_53', ~'U+9485-9490,U+9492-9495,U+9497,U+9499-94C6,U+94C8-94CE,U+94D0-94D2,U+94D5-94D9,U+94DB-94E5,U+94E7-94FA',</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16">
-      <c r="A55" t="s">
-        <v>737</v>
+      <c r="A55" s="3" t="s">
+        <v>998</v>
       </c>
       <c r="B55" t="s">
-        <v>822</v>
+        <v>1059</v>
       </c>
       <c r="C55" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_54'</v>
+        <v>'gb_54'</v>
       </c>
       <c r="D55" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+5e98,U+5e9b,U+5e9d,U+5ea0-5ea5,U+5ea8,U+5eab,U+5eaf,U+5eb3,U+5eb5-5eb6,U+5eb9,U+5ebe,U+5ec1-5ec3,U+5ec6,U+5ec8,U+5ecb-5ecc,U+5ed1-5ed2,U+5ed4,U+5ed9-5edb,U+5edd,U+5edf-5ee0,U+5ee2-5ee3,U+5ee8,U+5eea,U+5eec,U+5eef-5ef0,U+5ef3-5ef4,U+5ef8,U+5efb-5efc,U+5efe-5eff,U+5f01,U+5f07,U+5f0b-5f0e,U+5f10-5f12,U+5f14,U+5f1a,U+5f22,U+5f28-5f29,U+5f2c-5f2d,U+5f35-5f36,U+5f38,U+5f3b-5f43,U+5f45-5f4a,U+5f4c-5f4e,U+5f50,U+5f54,U+5f56-5f59,U+5f5b-5f5f,U+5f61,U+5f63,U+5f65,U+5f67-5f68,U+5f6b,U+5f6e-5f6f,U+5f72-5f78,U+5f7a,U+5f7e-5f7f,U+5f82-5f83,U+5f87,U+5f89-5f8a,U+5f8d,U+5f91,U+5f93,U+5f95,U+5f98-5f99,U+5f9c,U+5f9e,U+5fa0,U+5fa6-5fa9,U+5fac-5fad,U+5faf,U+5fb3-5fb5,U+5fb9,U+5fbc'</v>
+        <v>'U+94FC-951B,U+951D-951F,U+9521-9526,U+9528-9532,U+9534-953C,U+953E-9542,U+9544-9547,U+9549-954A,U+954C-9554,U+9556-9559,U+955B-955F,U+9561-956D,U+956F-9573,U+9576,U+957F,U+95E8-95EB'</v>
       </c>
       <c r="F55" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_54', ~'U+5e98,U+5e9b,U+5e9d,U+5ea0-5ea5,U+5ea8,U+5eab,U+5eaf,U+5eb3,U+5eb5-5eb6,U+5eb9,U+5ebe,U+5ec1-5ec3,U+5ec6,U+5ec8,U+5ecb-5ecc,U+5ed1-5ed2,U+5ed4,U+5ed9-5edb,U+5edd,U+5edf-5ee0,U+5ee2-5ee3,U+5ee8,U+5eea,U+5eec,U+5eef-5ef0,U+5ef3-5ef4,U+5ef8,U+5efb-5efc,U+5efe-5eff,U+5f01,U+5f07,U+5f0b-5f0e,U+5f10-5f12,U+5f14,U+5f1a,U+5f22,U+5f28-5f29,U+5f2c-5f2d,U+5f35-5f36,U+5f38,U+5f3b-5f43,U+5f45-5f4a,U+5f4c-5f4e,U+5f50,U+5f54,U+5f56-5f59,U+5f5b-5f5f,U+5f61,U+5f63,U+5f65,U+5f67-5f68,U+5f6b,U+5f6e-5f6f,U+5f72-5f78,U+5f7a,U+5f7e-5f7f,U+5f82-5f83,U+5f87,U+5f89-5f8a,U+5f8d,U+5f91,U+5f93,U+5f95,U+5f98-5f99,U+5f9c,U+5f9e,U+5fa0,U+5fa6-5fa9,U+5fac-5fad,U+5faf,U+5fb3-5fb5,U+5fb9,U+5fbc',</v>
+        <v>~'gb_54', ~'U+94FC-951B,U+951D-951F,U+9521-9526,U+9528-9532,U+9534-953C,U+953E-9542,U+9544-9547,U+9549-954A,U+954C-9554,U+9556-9559,U+955B-955F,U+9561-956D,U+956F-9573,U+9576,U+957F,U+95E8-95EB',</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16">
-      <c r="A56" t="s">
-        <v>738</v>
+      <c r="A56" s="3" t="s">
+        <v>999</v>
       </c>
       <c r="B56" t="s">
-        <v>823</v>
+        <v>1060</v>
       </c>
       <c r="C56" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_55'</v>
+        <v>'gb_55'</v>
       </c>
       <c r="D56" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+5d26-5d27,U+5d2e-5d34,U+5d3c-5d3e,U+5d41-5d44,U+5d46-5d48,U+5d4a-5d4b,U+5d4e,U+5d50,U+5d52,U+5d55-5d58,U+5d5a-5d5d,U+5d68-5d69,U+5d6b-5d6c,U+5d6f,U+5d74,U+5d7f,U+5d82-5d89,U+5d8b-5d8c,U+5d8f,U+5d92-5d93,U+5d99,U+5d9d,U+5db2,U+5db6-5db7,U+5dba,U+5dbc-5dbd,U+5dc2-5dc3,U+5dc6-5dc7,U+5dc9,U+5dcc,U+5dd2,U+5dd4,U+5dd6-5dd8,U+5ddb-5ddc,U+5de3,U+5ded,U+5def,U+5df3,U+5df6,U+5dfa-5dfd,U+5dff-5e00,U+5e07,U+5e0f,U+5e11,U+5e13-5e14,U+5e19-5e1b,U+5e22,U+5e25,U+5e28,U+5e2a,U+5e2f-5e31,U+5e33-5e34,U+5e36,U+5e39-5e3c,U+5e3e,U+5e40,U+5e44,U+5e46-5e48,U+5e4c,U+5e4f,U+5e53-5e54,U+5e57,U+5e59,U+5e5b,U+5e5e-5e5f,U+5e61,U+5e63,U+5e6a-5e6b,U+5e75,U+5e77,U+5e79-5e7a,U+5e7e,U+5e80-5e81,U+5e83,U+5e85,U+5e87,U+5e8b,U+5e91-5e92,U+5e96'</v>
+        <v>'U+95ED-95FE,U+9600-9606,U+9608-9612,U+9614-9617,U+9619-961A,U+961C-961D,U+961F,U+9621-9622,U+962A,U+962E,U+9631-9636,U+963B-963D,U+963F-9640,U+9642,U+9644-9649,U+964B-964D,U+9650,U+9654-9655,U+965B,U+965F,U+9661-9662,U+9664,U+9667-966A,U+966C,U+9672,U+9674-9677,U+9685-9686,U+9688,U+968B,U+968D,U+968F-9690,U+9694,U+9697-9699,U+969C,U+96A7,U+96B0,U+96B3,U+96B6,U+96B9,U+96BC-96BE,U+96C0-96C1,U+96C4-96C7,U+96C9,U+96CC-96CF,U+96D2,U+96D5,U+96E0,U+96E8-96EA,U+96EF,U+96F3'</v>
       </c>
       <c r="F56" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_55', ~'U+5d26-5d27,U+5d2e-5d34,U+5d3c-5d3e,U+5d41-5d44,U+5d46-5d48,U+5d4a-5d4b,U+5d4e,U+5d50,U+5d52,U+5d55-5d58,U+5d5a-5d5d,U+5d68-5d69,U+5d6b-5d6c,U+5d6f,U+5d74,U+5d7f,U+5d82-5d89,U+5d8b-5d8c,U+5d8f,U+5d92-5d93,U+5d99,U+5d9d,U+5db2,U+5db6-5db7,U+5dba,U+5dbc-5dbd,U+5dc2-5dc3,U+5dc6-5dc7,U+5dc9,U+5dcc,U+5dd2,U+5dd4,U+5dd6-5dd8,U+5ddb-5ddc,U+5de3,U+5ded,U+5def,U+5df3,U+5df6,U+5dfa-5dfd,U+5dff-5e00,U+5e07,U+5e0f,U+5e11,U+5e13-5e14,U+5e19-5e1b,U+5e22,U+5e25,U+5e28,U+5e2a,U+5e2f-5e31,U+5e33-5e34,U+5e36,U+5e39-5e3c,U+5e3e,U+5e40,U+5e44,U+5e46-5e48,U+5e4c,U+5e4f,U+5e53-5e54,U+5e57,U+5e59,U+5e5b,U+5e5e-5e5f,U+5e61,U+5e63,U+5e6a-5e6b,U+5e75,U+5e77,U+5e79-5e7a,U+5e7e,U+5e80-5e81,U+5e83,U+5e85,U+5e87,U+5e8b,U+5e91-5e92,U+5e96',</v>
+        <v>~'gb_55', ~'U+95ED-95FE,U+9600-9606,U+9608-9612,U+9614-9617,U+9619-961A,U+961C-961D,U+961F,U+9621-9622,U+962A,U+962E,U+9631-9636,U+963B-963D,U+963F-9640,U+9642,U+9644-9649,U+964B-964D,U+9650,U+9654-9655,U+965B,U+965F,U+9661-9662,U+9664,U+9667-966A,U+966C,U+9672,U+9674-9677,U+9685-9686,U+9688,U+968B,U+968D,U+968F-9690,U+9694,U+9697-9699,U+969C,U+96A7,U+96B0,U+96B3,U+96B6,U+96B9,U+96BC-96BE,U+96C0-96C1,U+96C4-96C7,U+96C9,U+96CC-96CF,U+96D2,U+96D5,U+96E0,U+96E8-96EA,U+96EF,U+96F3',</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16">
-      <c r="A57" t="s">
-        <v>739</v>
+      <c r="A57" s="3" t="s">
+        <v>1000</v>
       </c>
       <c r="B57" t="s">
-        <v>824</v>
+        <v>1061</v>
       </c>
       <c r="C57" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_56'</v>
+        <v>'gb_56'</v>
       </c>
       <c r="D57" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+5bec,U+5bee-5bf0,U+5bf2-5bf3,U+5bf5-5bf6,U+5bfe,U+5c02-5c03,U+5c05,U+5c07-5c09,U+5c0b-5c0c,U+5c0e,U+5c10,U+5c12-5c13,U+5c15,U+5c17,U+5c19,U+5c1b-5c1c,U+5c1e-5c1f,U+5c22,U+5c25,U+5c28,U+5c2a-5c2b,U+5c2f-5c30,U+5c37,U+5c3b,U+5c43-5c44,U+5c46-5c47,U+5c4d,U+5c50,U+5c59,U+5c5b-5c5c,U+5c62-5c64,U+5c66,U+5c6c,U+5c6e,U+5c74,U+5c78-5c7e,U+5c80,U+5c83-5c84,U+5c88,U+5c8b-5c8d,U+5c91,U+5c94-5c96,U+5c98-5c99,U+5c9c,U+5c9e,U+5ca1-5ca3,U+5cab-5cac,U+5cb1,U+5cb5,U+5cb7,U+5cba,U+5cbd-5cbf,U+5cc1,U+5cc3-5cc4,U+5cc7,U+5ccb,U+5cd2,U+5cd8-5cd9,U+5cdf-5ce0,U+5ce3-5ce6,U+5ce8-5cea,U+5ced,U+5cef,U+5cf3-5cf4,U+5cf6,U+5cf8,U+5cfd,U+5d00-5d04,U+5d06,U+5d08,U+5d0b-5d0d,U+5d0f-5d13,U+5d15,U+5d17-5d1a,U+5d1d-5d22,U+5d24-5d25'</v>
+        <v>'U+96F6-96F7,U+96F9,U+96FE,U+9700-9701,U+9704,U+9706-9709,U+970D-970F,U+9713,U+9716,U+971C,U+971E,U+972A,U+972D,U+9730,U+9732,U+9738-9739,U+973E,U+9752-9753,U+9756,U+9759,U+975B,U+975E,U+9760-9762,U+9765,U+9769,U+9773-9774,U+9776,U+977C,U+9785,U+978B,U+978D,U+9791-9792,U+9794,U+9798,U+97A0,U+97A3,U+97AB,U+97AD,U+97AF,U+97B2,U+97B4,U+97E6-97E7,U+97E9-97ED,U+97F3,U+97F5-97F6,U+9875-988A,U+988C-988D,U+988F-9891,U+9893-9894,U+9896-9898,U+989A-98A2,U+98A4-98A7,U+98CE,U+98D1-98D3,U+98D5,U+98D8-98DA,U+98DE-98DF,U+98E7-98E8,U+990D,U+9910,U+992E,U+9954-9955,U+9963,U+9965'</v>
       </c>
       <c r="F57" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_56', ~'U+5bec,U+5bee-5bf0,U+5bf2-5bf3,U+5bf5-5bf6,U+5bfe,U+5c02-5c03,U+5c05,U+5c07-5c09,U+5c0b-5c0c,U+5c0e,U+5c10,U+5c12-5c13,U+5c15,U+5c17,U+5c19,U+5c1b-5c1c,U+5c1e-5c1f,U+5c22,U+5c25,U+5c28,U+5c2a-5c2b,U+5c2f-5c30,U+5c37,U+5c3b,U+5c43-5c44,U+5c46-5c47,U+5c4d,U+5c50,U+5c59,U+5c5b-5c5c,U+5c62-5c64,U+5c66,U+5c6c,U+5c6e,U+5c74,U+5c78-5c7e,U+5c80,U+5c83-5c84,U+5c88,U+5c8b-5c8d,U+5c91,U+5c94-5c96,U+5c98-5c99,U+5c9c,U+5c9e,U+5ca1-5ca3,U+5cab-5cac,U+5cb1,U+5cb5,U+5cb7,U+5cba,U+5cbd-5cbf,U+5cc1,U+5cc3-5cc4,U+5cc7,U+5ccb,U+5cd2,U+5cd8-5cd9,U+5cdf-5ce0,U+5ce3-5ce6,U+5ce8-5cea,U+5ced,U+5cef,U+5cf3-5cf4,U+5cf6,U+5cf8,U+5cfd,U+5d00-5d04,U+5d06,U+5d08,U+5d0b-5d0d,U+5d0f-5d13,U+5d15,U+5d17-5d1a,U+5d1d-5d22,U+5d24-5d25',</v>
+        <v>~'gb_56', ~'U+96F6-96F7,U+96F9,U+96FE,U+9700-9701,U+9704,U+9706-9709,U+970D-970F,U+9713,U+9716,U+971C,U+971E,U+972A,U+972D,U+9730,U+9732,U+9738-9739,U+973E,U+9752-9753,U+9756,U+9759,U+975B,U+975E,U+9760-9762,U+9765,U+9769,U+9773-9774,U+9776,U+977C,U+9785,U+978B,U+978D,U+9791-9792,U+9794,U+9798,U+97A0,U+97A3,U+97AB,U+97AD,U+97AF,U+97B2,U+97B4,U+97E6-97E7,U+97E9-97ED,U+97F3,U+97F5-97F6,U+9875-988A,U+988C-988D,U+988F-9891,U+9893-9894,U+9896-9898,U+989A-98A2,U+98A4-98A7,U+98CE,U+98D1-98D3,U+98D5,U+98D8-98DA,U+98DE-98DF,U+98E7-98E8,U+990D,U+9910,U+992E,U+9954-9955,U+9963,U+9965',</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16">
-      <c r="A58" t="s">
-        <v>740</v>
+      <c r="A58" s="3" t="s">
+        <v>1001</v>
       </c>
       <c r="B58" t="s">
-        <v>825</v>
+        <v>1062</v>
       </c>
       <c r="C58" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_57'</v>
+        <v>'gb_57'</v>
       </c>
       <c r="D58" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+5aa0,U+5aa3-5aa4,U+5aaa,U+5aae-5aaf,U+5ab1-5ab2,U+5ab4-5ab5,U+5ab7-5aba,U+5abd-5abf,U+5ac3-5ac4,U+5ac6-5ac8,U+5aca-5acb,U+5acd,U+5acf-5ad2,U+5ad4,U+5ad8-5ada,U+5adc,U+5adf-5ae2,U+5ae4,U+5ae6,U+5ae8,U+5aea-5aed,U+5af0-5af3,U+5af5,U+5af9-5afb,U+5afd,U+5b01,U+5b05,U+5b08,U+5b0b-5b0c,U+5b11,U+5b16-5b17,U+5b1b,U+5b21-5b22,U+5b24,U+5b27-5b2e,U+5b30,U+5b32,U+5b34,U+5b36-5b38,U+5b3e-5b40,U+5b43,U+5b45,U+5b4a-5b4b,U+5b51-5b53,U+5b56,U+5b5a-5b5b,U+5b62,U+5b65,U+5b67,U+5b6a-5b6e,U+5b70-5b71,U+5b73,U+5b7a-5b7b,U+5b7f-5b80,U+5b84,U+5b8d,U+5b91,U+5b93-5b95,U+5b9f,U+5ba5-5ba6,U+5bac,U+5bae,U+5bb8,U+5bc0,U+5bc3,U+5bcb,U+5bd0-5bd1,U+5bd4-5bd8,U+5bda-5bdc,U+5be2,U+5be4-5be5,U+5be7,U+5be9,U+5beb'</v>
+        <v>'U+9967-9972,U+9974-9977,U+997A,U+997C-997D,U+997F-9981,U+9984-9988,U+998A-998B,U+998D,U+998F-9999,U+99A5,U+99A8,U+9A6C-9A71,U+9A73-9A82,U+9A84-9A88,U+9A8A-9A8C,U+9A8F-9A93,U+9A96-9A98,U+9A9A-9AA5,U+9AA7-9AA8,U+9AB0-9AB1,U+9AB6-9AB8,U+9ABA,U+9ABC,U+9AC0-9AC2,U+9AC5,U+9ACB-9ACC,U+9AD1,U+9AD3,U+9AD8,U+9ADF,U+9AE1,U+9AE6,U+9AEB,U+9AED,U+9AEF,U+9AF9,U+9AFB,U+9B03,U+9B08,U+9B0F,U+9B13,U+9B1F,U+9B23,U+9B2F,U+9B32'</v>
       </c>
       <c r="F58" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_57', ~'U+5aa0,U+5aa3-5aa4,U+5aaa,U+5aae-5aaf,U+5ab1-5ab2,U+5ab4-5ab5,U+5ab7-5aba,U+5abd-5abf,U+5ac3-5ac4,U+5ac6-5ac8,U+5aca-5acb,U+5acd,U+5acf-5ad2,U+5ad4,U+5ad8-5ada,U+5adc,U+5adf-5ae2,U+5ae4,U+5ae6,U+5ae8,U+5aea-5aed,U+5af0-5af3,U+5af5,U+5af9-5afb,U+5afd,U+5b01,U+5b05,U+5b08,U+5b0b-5b0c,U+5b11,U+5b16-5b17,U+5b1b,U+5b21-5b22,U+5b24,U+5b27-5b2e,U+5b30,U+5b32,U+5b34,U+5b36-5b38,U+5b3e-5b40,U+5b43,U+5b45,U+5b4a-5b4b,U+5b51-5b53,U+5b56,U+5b5a-5b5b,U+5b62,U+5b65,U+5b67,U+5b6a-5b6e,U+5b70-5b71,U+5b73,U+5b7a-5b7b,U+5b7f-5b80,U+5b84,U+5b8d,U+5b91,U+5b93-5b95,U+5b9f,U+5ba5-5ba6,U+5bac,U+5bae,U+5bb8,U+5bc0,U+5bc3,U+5bcb,U+5bd0-5bd1,U+5bd4-5bd8,U+5bda-5bdc,U+5be2,U+5be4-5be5,U+5be7,U+5be9,U+5beb',</v>
+        <v>~'gb_57', ~'U+9967-9972,U+9974-9977,U+997A,U+997C-997D,U+997F-9981,U+9984-9988,U+998A-998B,U+998D,U+998F-9999,U+99A5,U+99A8,U+9A6C-9A71,U+9A73-9A82,U+9A84-9A88,U+9A8A-9A8C,U+9A8F-9A93,U+9A96-9A98,U+9A9A-9AA5,U+9AA7-9AA8,U+9AB0-9AB1,U+9AB6-9AB8,U+9ABA,U+9ABC,U+9AC0-9AC2,U+9AC5,U+9ACB-9ACC,U+9AD1,U+9AD3,U+9AD8,U+9ADF,U+9AE1,U+9AE6,U+9AEB,U+9AED,U+9AEF,U+9AF9,U+9AFB,U+9B03,U+9B08,U+9B0F,U+9B13,U+9B1F,U+9B23,U+9B2F,U+9B32',</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16">
-      <c r="A59" t="s">
-        <v>741</v>
+      <c r="A59" s="3" t="s">
+        <v>1002</v>
       </c>
       <c r="B59" t="s">
-        <v>826</v>
+        <v>1063</v>
       </c>
       <c r="C59" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_58'</v>
+        <v>'gb_58'</v>
       </c>
       <c r="D59" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+596a,U+596c-596e,U+5977,U+597b-597c,U+5981,U+598f,U+5997-5998,U+599a,U+599c-599d,U+59a0-59a1,U+59a3-59a4,U+59a7,U+59aa-59ad,U+59af,U+59b2-59b3,U+59b5-59b6,U+59b8,U+59ba,U+59bd-59be,U+59c0-59c1,U+59c3-59c4,U+59c7-59ca,U+59cc-59cd,U+59cf,U+59d2,U+59d5-59d6,U+59d8-59d9,U+59db,U+59dd-59e0,U+59e2-59e7,U+59e9-59eb,U+59ee,U+59f1,U+59f3,U+59f5,U+59f7-59f9,U+59fd,U+5a06,U+5a08-5a0a,U+5a0c-5a0d,U+5a11-5a13,U+5a15-5a16,U+5a1a-5a1b,U+5a21-5a23,U+5a2d-5a2f,U+5a32,U+5a38,U+5a3c,U+5a3e-5a45,U+5a47,U+5a4a,U+5a4c-5a4d,U+5a4f-5a51,U+5a53,U+5a55-5a57,U+5a5e,U+5a60,U+5a62,U+5a65-5a67,U+5a6a,U+5a6c-5a6d,U+5a72-5a73,U+5a75-5a76,U+5a79-5a7c,U+5a81-5a84,U+5a8c,U+5a8e,U+5a93,U+5a96-5a97,U+5a9c,U+5a9e'</v>
+        <v>'U+9B3B-9B3C,U+9B41-9B45,U+9B47-9B49,U+9B4D,U+9B4F,U+9B51,U+9B54,U+9C7C,U+9C7F,U+9C81-9C82,U+9C85-9C88,U+9C8B,U+9C8D-9C8E,U+9C90-9C92,U+9C94-9C95,U+9C9A-9C9C,U+9C9E-9CA9,U+9CAB,U+9CAD-9CAE,U+9CB0-9CB8,U+9CBA-9CBD,U+9CC3-9CC7,U+9CCA-9CD0,U+9CD3-9CD9,U+9CDC-9CDF,U+9CE2,U+9E1F-9E23,U+9E25-9E26,U+9E28-9E2D,U+9E2F,U+9E31-9E33,U+9E35-9E3A,U+9E3D-9E3F,U+9E41-9E4C,U+9E4E-9E4F,U+9E51,U+9E55'</v>
       </c>
       <c r="F59" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_58', ~'U+596a,U+596c-596e,U+5977,U+597b-597c,U+5981,U+598f,U+5997-5998,U+599a,U+599c-599d,U+59a0-59a1,U+59a3-59a4,U+59a7,U+59aa-59ad,U+59af,U+59b2-59b3,U+59b5-59b6,U+59b8,U+59ba,U+59bd-59be,U+59c0-59c1,U+59c3-59c4,U+59c7-59ca,U+59cc-59cd,U+59cf,U+59d2,U+59d5-59d6,U+59d8-59d9,U+59db,U+59dd-59e0,U+59e2-59e7,U+59e9-59eb,U+59ee,U+59f1,U+59f3,U+59f5,U+59f7-59f9,U+59fd,U+5a06,U+5a08-5a0a,U+5a0c-5a0d,U+5a11-5a13,U+5a15-5a16,U+5a1a-5a1b,U+5a21-5a23,U+5a2d-5a2f,U+5a32,U+5a38,U+5a3c,U+5a3e-5a45,U+5a47,U+5a4a,U+5a4c-5a4d,U+5a4f-5a51,U+5a53,U+5a55-5a57,U+5a5e,U+5a60,U+5a62,U+5a65-5a67,U+5a6a,U+5a6c-5a6d,U+5a72-5a73,U+5a75-5a76,U+5a79-5a7c,U+5a81-5a84,U+5a8c,U+5a8e,U+5a93,U+5a96-5a97,U+5a9c,U+5a9e',</v>
+        <v>~'gb_58', ~'U+9B3B-9B3C,U+9B41-9B45,U+9B47-9B49,U+9B4D,U+9B4F,U+9B51,U+9B54,U+9C7C,U+9C7F,U+9C81-9C82,U+9C85-9C88,U+9C8B,U+9C8D-9C8E,U+9C90-9C92,U+9C94-9C95,U+9C9A-9C9C,U+9C9E-9CA9,U+9CAB,U+9CAD-9CAE,U+9CB0-9CB8,U+9CBA-9CBD,U+9CC3-9CC7,U+9CCA-9CD0,U+9CD3-9CD9,U+9CDC-9CDF,U+9CE2,U+9E1F-9E23,U+9E25-9E26,U+9E28-9E2D,U+9E2F,U+9E31-9E33,U+9E35-9E3A,U+9E3D-9E3F,U+9E41-9E4C,U+9E4E-9E4F,U+9E51,U+9E55',</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16">
-      <c r="A60" t="s">
-        <v>742</v>
+      <c r="A60" s="3" t="s">
+        <v>1003</v>
       </c>
       <c r="B60" t="s">
-        <v>827</v>
+        <v>1064</v>
       </c>
       <c r="C60" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_59'</v>
+        <v>'gb_59'</v>
       </c>
       <c r="D60" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+5820,U+5822-5823,U+5825-5826,U+582c,U+582f,U+5831,U+583a,U+583d,U+583f-5842,U+5844-5846,U+5848,U+584a,U+584d,U+5852,U+5857,U+5859-585a,U+585c-585d,U+5862,U+5868-5869,U+586c-586d,U+586f-5873,U+5875,U+5879,U+587d-587e,U+5880-5881,U+5888-588a,U+588d,U+5892,U+5896-5898,U+589a,U+589c-589d,U+58a0-58a1,U+58a3,U+58a6,U+58a9,U+58ab-58ae,U+58b0,U+58b3,U+58bb-58bf,U+58c2-58c3,U+58c5-58c8,U+58ca,U+58cc,U+58ce,U+58d1-58d3,U+58d5,U+58d8-58d9,U+58de-58df,U+58e2,U+58e9,U+58ec,U+58ef,U+58f1-58f2,U+58f5,U+58f7-58f8,U+58fa,U+58fd,U+5900,U+5902,U+5906,U+5908-590c,U+590e,U+5910,U+5914,U+5919,U+591b,U+591d-591e,U+5920,U+5922-5925,U+5928,U+592c-592d,U+592f,U+5932,U+5936,U+593c,U+593e,U+5940-5942,U+5944,U+594c-594d,U+5950,U+5953,U+5958,U+595a,U+5961,U+5966-5968'</v>
+        <v>'U+9E57-9E58,U+9E5A-9E5C,U+9E5E,U+9E63-9E64,U+9E66-9E6D,U+9E70-9E71,U+9E73,U+9E7E-9E7F,U+9E82,U+9E87-9E88,U+9E8B,U+9E92-9E93,U+9E9D,U+9E9F,U+9EA6,U+9EB4,U+9EB8,U+9EBB,U+9EBD-9EBE,U+9EC4,U+9EC9,U+9ECD-9ECF,U+9ED1,U+9ED4,U+9ED8,U+9EDB-9EDD,U+9EDF-9EE0,U+9EE2,U+9EE5,U+9EE7,U+9EE9-9EEA,U+9EEF,U+9EF9,U+9EFB-9EFC,U+9EFE,U+9F0B,U+9F0D-9F0E,U+9F10,U+9F13,U+9F17,U+9F19,U+9F20,U+9F22,U+9F2C,U+9F2F,U+9F37,U+9F39,U+9F3B,U+9F3D-9F3E,U+9F44,U+9F50-9F51,U+9F7F-9F80,U+9F83-9F8C,U+9F99-9F9B,U+9F9F-9FA0,U+E000-E009,U+E78D-E796,U+FE10-FE19,U+FE30-FE31'</v>
       </c>
       <c r="F60" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_59', ~'U+5820,U+5822-5823,U+5825-5826,U+582c,U+582f,U+5831,U+583a,U+583d,U+583f-5842,U+5844-5846,U+5848,U+584a,U+584d,U+5852,U+5857,U+5859-585a,U+585c-585d,U+5862,U+5868-5869,U+586c-586d,U+586f-5873,U+5875,U+5879,U+587d-587e,U+5880-5881,U+5888-588a,U+588d,U+5892,U+5896-5898,U+589a,U+589c-589d,U+58a0-58a1,U+58a3,U+58a6,U+58a9,U+58ab-58ae,U+58b0,U+58b3,U+58bb-58bf,U+58c2-58c3,U+58c5-58c8,U+58ca,U+58cc,U+58ce,U+58d1-58d3,U+58d5,U+58d8-58d9,U+58de-58df,U+58e2,U+58e9,U+58ec,U+58ef,U+58f1-58f2,U+58f5,U+58f7-58f8,U+58fa,U+58fd,U+5900,U+5902,U+5906,U+5908-590c,U+590e,U+5910,U+5914,U+5919,U+591b,U+591d-591e,U+5920,U+5922-5925,U+5928,U+592c-592d,U+592f,U+5932,U+5936,U+593c,U+593e,U+5940-5942,U+5944,U+594c-594d,U+5950,U+5953,U+5958,U+595a,U+5961,U+5966-5968',</v>
+        <v>~'gb_59', ~'U+9E57-9E58,U+9E5A-9E5C,U+9E5E,U+9E63-9E64,U+9E66-9E6D,U+9E70-9E71,U+9E73,U+9E7E-9E7F,U+9E82,U+9E87-9E88,U+9E8B,U+9E92-9E93,U+9E9D,U+9E9F,U+9EA6,U+9EB4,U+9EB8,U+9EBB,U+9EBD-9EBE,U+9EC4,U+9EC9,U+9ECD-9ECF,U+9ED1,U+9ED4,U+9ED8,U+9EDB-9EDD,U+9EDF-9EE0,U+9EE2,U+9EE5,U+9EE7,U+9EE9-9EEA,U+9EEF,U+9EF9,U+9EFB-9EFC,U+9EFE,U+9F0B,U+9F0D-9F0E,U+9F10,U+9F13,U+9F17,U+9F19,U+9F20,U+9F22,U+9F2C,U+9F2F,U+9F37,U+9F39,U+9F3B,U+9F3D-9F3E,U+9F44,U+9F50-9F51,U+9F7F-9F80,U+9F83-9F8C,U+9F99-9F9B,U+9F9F-9FA0,U+E000-E009,U+E78D-E796,U+FE10-FE19,U+FE30-FE31',</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16">
-      <c r="A61" t="s">
-        <v>743</v>
+      <c r="A61" s="3" t="s">
+        <v>1004</v>
       </c>
       <c r="B61" t="s">
-        <v>828</v>
+        <v>1065</v>
       </c>
       <c r="C61" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_60'</v>
+        <v>'gb_60'</v>
       </c>
       <c r="D61" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+56f9,U+56fc,U+56ff-5700,U+5703-5704,U+5709-570a,U+570c-570d,U+570f,U+5712-5713,U+5718-5719,U+571c,U+571e,U+5725,U+5727,U+5729-572a,U+572c,U+572e-572f,U+5734-5735,U+5739,U+573b,U+5741,U+5743,U+5745,U+5749,U+574c-574d,U+575c,U+5763,U+5768-5769,U+576b,U+576d-576e,U+5770,U+5773,U+5775,U+5777,U+577b-577c,U+5785-5786,U+5788,U+578c,U+578e-578f,U+5793-5795,U+5799-57a1,U+57a3-57a4,U+57a6-57aa,U+57ac-57ad,U+57af-57b2,U+57b4-57b6,U+57b8-57b9,U+57bd-57bf,U+57c2,U+57c4-57c8,U+57cc-57cd,U+57cf,U+57d2,U+57d5-57de,U+57e1-57e2,U+57e4-57e5,U+57e7,U+57eb,U+57ed,U+57ef,U+57f4-57f8,U+57fc-57fd,U+5800-5801,U+5803,U+5805,U+5807,U+5809,U+580b-580e,U+5811,U+5814,U+5819,U+581b-581f'</v>
+        <v>'U+FE33-FE44,U+FE49-FE52,U+FE54-FE57,U+FE59-FE66,U+FE68-FE6B'</v>
       </c>
       <c r="F61" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_60', ~'U+56f9,U+56fc,U+56ff-5700,U+5703-5704,U+5709-570a,U+570c-570d,U+570f,U+5712-5713,U+5718-5719,U+571c,U+571e,U+5725,U+5727,U+5729-572a,U+572c,U+572e-572f,U+5734-5735,U+5739,U+573b,U+5741,U+5743,U+5745,U+5749,U+574c-574d,U+575c,U+5763,U+5768-5769,U+576b,U+576d-576e,U+5770,U+5773,U+5775,U+5777,U+577b-577c,U+5785-5786,U+5788,U+578c,U+578e-578f,U+5793-5795,U+5799-57a1,U+57a3-57a4,U+57a6-57aa,U+57ac-57ad,U+57af-57b2,U+57b4-57b6,U+57b8-57b9,U+57bd-57bf,U+57c2,U+57c4-57c8,U+57cc-57cd,U+57cf,U+57d2,U+57d5-57de,U+57e1-57e2,U+57e4-57e5,U+57e7,U+57eb,U+57ed,U+57ef,U+57f4-57f8,U+57fc-57fd,U+5800-5801,U+5803,U+5805,U+5807,U+5809,U+580b-580e,U+5811,U+5814,U+5819,U+581b-581f',</v>
+        <v>~'gb_60', ~'U+FE33-FE44,U+FE49-FE52,U+FE54-FE57,U+FE59-FE66,U+FE68-FE6B',</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16">
-      <c r="A62" t="s">
-        <v>744</v>
+      <c r="A62" s="3" t="s">
+        <v>1005</v>
       </c>
       <c r="B62" t="s">
-        <v>829</v>
+        <v>1066</v>
       </c>
       <c r="C62" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_61'</v>
+        <v>'gb_61'</v>
       </c>
       <c r="D62" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+55f5-55f7,U+55fb,U+55fe,U+5600-5601,U+5605-5606,U+5608,U+560c-560d,U+560f,U+5614,U+5616-5617,U+561a,U+561c,U+561e,U+5621-5625,U+5627,U+5629,U+562b-5630,U+5636,U+5638-563a,U+563c,U+5640-5642,U+5649,U+564c-5650,U+5653-5655,U+5657-565b,U+5660,U+5663-5664,U+5666,U+566b,U+566f-5671,U+5673-567c,U+567e,U+5684-5687,U+568c,U+568e-5693,U+5695,U+5697,U+569b-569c,U+569e-569f,U+56a1-56a2,U+56a4-56a9,U+56ac-56af,U+56b1,U+56b4,U+56b6-56b8,U+56bf,U+56c1-56c3,U+56c9,U+56cd,U+56d1,U+56d4,U+56d6-56d9,U+56dd,U+56df,U+56e1,U+56e3-56e6,U+56e8-56ec,U+56ee-56ef,U+56f1-56f3,U+56f5,U+56f7-56f8'</v>
+        <v>'U+FF01-FF5E,U+FFE0-FFE5'</v>
       </c>
       <c r="F62" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_61', ~'U+55f5-55f7,U+55fb,U+55fe,U+5600-5601,U+5605-5606,U+5608,U+560c-560d,U+560f,U+5614,U+5616-5617,U+561a,U+561c,U+561e,U+5621-5625,U+5627,U+5629,U+562b-5630,U+5636,U+5638-563a,U+563c,U+5640-5642,U+5649,U+564c-5650,U+5653-5655,U+5657-565b,U+5660,U+5663-5664,U+5666,U+566b,U+566f-5671,U+5673-567c,U+567e,U+5684-5687,U+568c,U+568e-5693,U+5695,U+5697,U+569b-569c,U+569e-569f,U+56a1-56a2,U+56a4-56a9,U+56ac-56af,U+56b1,U+56b4,U+56b6-56b8,U+56bf,U+56c1-56c3,U+56c9,U+56cd,U+56d1,U+56d4,U+56d6-56d9,U+56dd,U+56df,U+56e1,U+56e3-56e6,U+56e8-56ec,U+56ee-56ef,U+56f1-56f3,U+56f5,U+56f7-56f8',</v>
+        <v>~'gb_61', ~'U+FF01-FF5E,U+FFE0-FFE5',</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16">
-      <c r="A63" t="s">
-        <v>745</v>
-      </c>
-      <c r="B63" t="s">
-        <v>830</v>
-      </c>
+      <c r="A63"/>
+      <c r="B63"/>
       <c r="C63" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>'subset_62'</v>
+        <v>''</v>
       </c>
       <c r="D63" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>'U+550f,U+5511-5514,U+5516-5517,U+5519,U+551b,U+551d-551e,U+5520,U+5522-5523,U+5526-5527,U+552a-552c,U+5530,U+5532-5535,U+5537-5538,U+553b-5541,U+5543-5544,U+5547-5549,U+554b,U+554d,U+5550,U+5553,U+5555-5558,U+555b-555f,U+5567-5569,U+556b-5572,U+5574-5577,U+557b-557c,U+557e-557f,U+5581,U+5583,U+5585-5586,U+5588,U+558b-558c,U+558e-5591,U+5593,U+5599-559a,U+559f,U+55a5-55a6,U+55a8-55ac,U+55ae,U+55b0-55b3,U+55b6,U+55b9-55ba,U+55bc-55be,U+55c4,U+55c6-55c7,U+55c9,U+55cc-55d2,U+55d4-55db,U+55dd-55df,U+55e1,U+55e3-55e6,U+55ea-55ee,U+55f0-55f3'</v>
+        <v>''</v>
       </c>
       <c r="F63" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>~'subset_62', ~'U+550f,U+5511-5514,U+5516-5517,U+5519,U+551b,U+551d-551e,U+5520,U+5522-5523,U+5526-5527,U+552a-552c,U+5530,U+5532-5535,U+5537-5538,U+553b-5541,U+5543-5544,U+5547-5549,U+554b,U+554d,U+5550,U+5553,U+5555-5558,U+555b-555f,U+5567-5569,U+556b-5572,U+5574-5577,U+557b-557c,U+557e-557f,U+5581,U+5583,U+5585-5586,U+5588,U+558b-558c,U+558e-5591,U+5593,U+5599-559a,U+559f,U+55a5-55a6,U+55a8-55ac,U+55ae,U+55b0-55b3,U+55b6,U+55b9-55ba,U+55bc-55be,U+55c4,U+55c6-55c7,U+55c9,U+55cc-55d2,U+55d4-55db,U+55dd-55df,U+55e1,U+55e3-55e6,U+55ea-55ee,U+55f0-55f3',</v>
+        <v>~'', ~'',</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16">
       <c r="A64" t="s">
-        <v>746</v>
+        <v>684</v>
       </c>
       <c r="B64" t="s">
-        <v>831</v>
+        <v>723</v>
       </c>
       <c r="C64" s="2" t="str">
         <f t="shared" si="3"/>
@@ -14605,10 +15882,10 @@
     </row>
     <row r="65" spans="1:6" ht="16">
       <c r="A65" t="s">
-        <v>747</v>
+        <v>685</v>
       </c>
       <c r="B65" t="s">
-        <v>832</v>
+        <v>724</v>
       </c>
       <c r="C65" s="2" t="str">
         <f t="shared" si="3"/>
@@ -14625,10 +15902,10 @@
     </row>
     <row r="66" spans="1:6" ht="16">
       <c r="A66" t="s">
-        <v>748</v>
+        <v>686</v>
       </c>
       <c r="B66" t="s">
-        <v>833</v>
+        <v>725</v>
       </c>
       <c r="C66" s="2" t="str">
         <f t="shared" ref="C66:C102" si="5">"'"&amp;A66&amp;"'"</f>
@@ -14645,10 +15922,10 @@
     </row>
     <row r="67" spans="1:6" ht="16">
       <c r="A67" t="s">
-        <v>749</v>
+        <v>687</v>
       </c>
       <c r="B67" t="s">
-        <v>834</v>
+        <v>726</v>
       </c>
       <c r="C67" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14665,10 +15942,10 @@
     </row>
     <row r="68" spans="1:6" ht="16">
       <c r="A68" t="s">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="B68" t="s">
-        <v>835</v>
+        <v>727</v>
       </c>
       <c r="C68" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14685,10 +15962,10 @@
     </row>
     <row r="69" spans="1:6" ht="16">
       <c r="A69" t="s">
-        <v>751</v>
+        <v>689</v>
       </c>
       <c r="B69" t="s">
-        <v>836</v>
+        <v>728</v>
       </c>
       <c r="C69" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14705,10 +15982,10 @@
     </row>
     <row r="70" spans="1:6" ht="16">
       <c r="A70" t="s">
-        <v>752</v>
+        <v>690</v>
       </c>
       <c r="B70" t="s">
-        <v>837</v>
+        <v>729</v>
       </c>
       <c r="C70" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14725,10 +16002,10 @@
     </row>
     <row r="71" spans="1:6" ht="16">
       <c r="A71" t="s">
-        <v>753</v>
+        <v>691</v>
       </c>
       <c r="B71" t="s">
-        <v>838</v>
+        <v>730</v>
       </c>
       <c r="C71" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14745,10 +16022,10 @@
     </row>
     <row r="72" spans="1:6" ht="16">
       <c r="A72" t="s">
-        <v>754</v>
+        <v>692</v>
       </c>
       <c r="B72" t="s">
-        <v>839</v>
+        <v>731</v>
       </c>
       <c r="C72" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14765,10 +16042,10 @@
     </row>
     <row r="73" spans="1:6" ht="16">
       <c r="A73" t="s">
-        <v>755</v>
+        <v>693</v>
       </c>
       <c r="B73" t="s">
-        <v>840</v>
+        <v>732</v>
       </c>
       <c r="C73" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14785,10 +16062,10 @@
     </row>
     <row r="74" spans="1:6" ht="16">
       <c r="A74" t="s">
-        <v>756</v>
+        <v>694</v>
       </c>
       <c r="B74" t="s">
-        <v>841</v>
+        <v>733</v>
       </c>
       <c r="C74" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14805,10 +16082,10 @@
     </row>
     <row r="75" spans="1:6" ht="16">
       <c r="A75" t="s">
-        <v>757</v>
+        <v>695</v>
       </c>
       <c r="B75" t="s">
-        <v>842</v>
+        <v>734</v>
       </c>
       <c r="C75" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14825,10 +16102,10 @@
     </row>
     <row r="76" spans="1:6" ht="16">
       <c r="A76" t="s">
-        <v>758</v>
+        <v>696</v>
       </c>
       <c r="B76" t="s">
-        <v>843</v>
+        <v>735</v>
       </c>
       <c r="C76" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14845,10 +16122,10 @@
     </row>
     <row r="77" spans="1:6" ht="16">
       <c r="A77" t="s">
-        <v>759</v>
+        <v>697</v>
       </c>
       <c r="B77" t="s">
-        <v>844</v>
+        <v>736</v>
       </c>
       <c r="C77" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14865,10 +16142,10 @@
     </row>
     <row r="78" spans="1:6" ht="16">
       <c r="A78" t="s">
-        <v>760</v>
+        <v>698</v>
       </c>
       <c r="B78" t="s">
-        <v>845</v>
+        <v>737</v>
       </c>
       <c r="C78" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14885,10 +16162,10 @@
     </row>
     <row r="79" spans="1:6" ht="16">
       <c r="A79" t="s">
-        <v>761</v>
+        <v>699</v>
       </c>
       <c r="B79" t="s">
-        <v>846</v>
+        <v>738</v>
       </c>
       <c r="C79" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14905,10 +16182,10 @@
     </row>
     <row r="80" spans="1:6" ht="16">
       <c r="A80" t="s">
-        <v>762</v>
+        <v>700</v>
       </c>
       <c r="B80" t="s">
-        <v>847</v>
+        <v>739</v>
       </c>
       <c r="C80" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14925,10 +16202,10 @@
     </row>
     <row r="81" spans="1:6" ht="16">
       <c r="A81" t="s">
-        <v>763</v>
+        <v>701</v>
       </c>
       <c r="B81" t="s">
-        <v>848</v>
+        <v>740</v>
       </c>
       <c r="C81" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14945,10 +16222,10 @@
     </row>
     <row r="82" spans="1:6" ht="16">
       <c r="A82" t="s">
-        <v>764</v>
+        <v>702</v>
       </c>
       <c r="B82" t="s">
-        <v>849</v>
+        <v>741</v>
       </c>
       <c r="C82" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14965,10 +16242,10 @@
     </row>
     <row r="83" spans="1:6" ht="16">
       <c r="A83" t="s">
-        <v>765</v>
+        <v>703</v>
       </c>
       <c r="B83" t="s">
-        <v>850</v>
+        <v>742</v>
       </c>
       <c r="C83" s="2" t="str">
         <f t="shared" si="5"/>
@@ -14985,10 +16262,10 @@
     </row>
     <row r="84" spans="1:6" ht="16">
       <c r="A84" t="s">
-        <v>766</v>
+        <v>704</v>
       </c>
       <c r="B84" t="s">
-        <v>851</v>
+        <v>743</v>
       </c>
       <c r="C84" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15005,10 +16282,10 @@
     </row>
     <row r="85" spans="1:6" ht="16">
       <c r="A85" t="s">
-        <v>767</v>
+        <v>705</v>
       </c>
       <c r="B85" t="s">
-        <v>852</v>
+        <v>744</v>
       </c>
       <c r="C85" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15025,10 +16302,10 @@
     </row>
     <row r="86" spans="1:6" ht="16">
       <c r="A86" t="s">
-        <v>768</v>
+        <v>706</v>
       </c>
       <c r="B86" t="s">
-        <v>853</v>
+        <v>745</v>
       </c>
       <c r="C86" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15045,10 +16322,10 @@
     </row>
     <row r="87" spans="1:6" ht="16">
       <c r="A87" t="s">
-        <v>769</v>
+        <v>707</v>
       </c>
       <c r="B87" t="s">
-        <v>854</v>
+        <v>746</v>
       </c>
       <c r="C87" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15065,10 +16342,10 @@
     </row>
     <row r="88" spans="1:6" ht="16">
       <c r="A88" t="s">
-        <v>770</v>
+        <v>708</v>
       </c>
       <c r="B88" t="s">
-        <v>855</v>
+        <v>747</v>
       </c>
       <c r="C88" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15085,10 +16362,10 @@
     </row>
     <row r="89" spans="1:6" ht="16">
       <c r="A89" t="s">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B89" t="s">
-        <v>856</v>
+        <v>748</v>
       </c>
       <c r="C89" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15105,10 +16382,10 @@
     </row>
     <row r="90" spans="1:6" ht="16">
       <c r="A90" t="s">
-        <v>772</v>
+        <v>710</v>
       </c>
       <c r="B90" t="s">
-        <v>857</v>
+        <v>749</v>
       </c>
       <c r="C90" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15125,10 +16402,10 @@
     </row>
     <row r="91" spans="1:6" ht="16">
       <c r="A91" t="s">
-        <v>773</v>
+        <v>711</v>
       </c>
       <c r="B91" t="s">
-        <v>858</v>
+        <v>750</v>
       </c>
       <c r="C91" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15145,10 +16422,10 @@
     </row>
     <row r="92" spans="1:6" ht="16">
       <c r="A92" t="s">
-        <v>774</v>
+        <v>712</v>
       </c>
       <c r="B92" t="s">
-        <v>859</v>
+        <v>751</v>
       </c>
       <c r="C92" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15165,10 +16442,10 @@
     </row>
     <row r="93" spans="1:6" ht="16">
       <c r="A93" t="s">
-        <v>775</v>
+        <v>713</v>
       </c>
       <c r="B93" t="s">
-        <v>860</v>
+        <v>752</v>
       </c>
       <c r="C93" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15185,10 +16462,10 @@
     </row>
     <row r="94" spans="1:6" ht="16">
       <c r="A94" t="s">
-        <v>776</v>
+        <v>714</v>
       </c>
       <c r="B94" t="s">
-        <v>861</v>
+        <v>753</v>
       </c>
       <c r="C94" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15205,10 +16482,10 @@
     </row>
     <row r="95" spans="1:6" ht="16">
       <c r="A95" t="s">
-        <v>777</v>
+        <v>715</v>
       </c>
       <c r="B95" t="s">
-        <v>862</v>
+        <v>754</v>
       </c>
       <c r="C95" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15225,10 +16502,10 @@
     </row>
     <row r="96" spans="1:6" ht="16">
       <c r="A96" t="s">
-        <v>778</v>
+        <v>716</v>
       </c>
       <c r="B96" t="s">
-        <v>863</v>
+        <v>755</v>
       </c>
       <c r="C96" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15245,10 +16522,10 @@
     </row>
     <row r="97" spans="1:6" ht="16">
       <c r="A97" t="s">
-        <v>779</v>
+        <v>717</v>
       </c>
       <c r="B97" t="s">
-        <v>864</v>
+        <v>756</v>
       </c>
       <c r="C97" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15265,10 +16542,10 @@
     </row>
     <row r="98" spans="1:6" ht="16">
       <c r="A98" t="s">
-        <v>780</v>
+        <v>718</v>
       </c>
       <c r="B98" t="s">
-        <v>865</v>
+        <v>757</v>
       </c>
       <c r="C98" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15285,10 +16562,10 @@
     </row>
     <row r="99" spans="1:6" ht="16">
       <c r="A99" t="s">
-        <v>781</v>
+        <v>719</v>
       </c>
       <c r="B99" t="s">
-        <v>866</v>
+        <v>758</v>
       </c>
       <c r="C99" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15305,10 +16582,10 @@
     </row>
     <row r="100" spans="1:6" ht="16">
       <c r="A100" t="s">
-        <v>782</v>
+        <v>720</v>
       </c>
       <c r="B100" t="s">
-        <v>867</v>
+        <v>759</v>
       </c>
       <c r="C100" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15325,10 +16602,10 @@
     </row>
     <row r="101" spans="1:6" ht="16">
       <c r="A101" t="s">
-        <v>783</v>
+        <v>721</v>
       </c>
       <c r="B101" t="s">
-        <v>868</v>
+        <v>760</v>
       </c>
       <c r="C101" s="2" t="str">
         <f t="shared" si="5"/>
@@ -15345,10 +16622,10 @@
     </row>
     <row r="102" spans="1:6" ht="16">
       <c r="A102" t="s">
-        <v>784</v>
+        <v>722</v>
       </c>
       <c r="B102" t="s">
-        <v>869</v>
+        <v>761</v>
       </c>
       <c r="C102" s="2" t="str">
         <f t="shared" si="5"/>

--- a/conver2woff/子集拆分范围.xlsx
+++ b/conver2woff/子集拆分范围.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Documents/GitHub/openfonts/conver2woff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCB9A57-43B6-2A46-943B-7106E017032A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B7228C-8F19-8549-9CB2-4205C0BE46C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14480" activeTab="4" xr2:uid="{20B84CF7-0800-ED44-83F1-35851521E027}"/>
   </bookViews>
